--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE551B7F-49E0-44A3-B0A6-9F05ED6DFCB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E21E1C-8D5E-4E37-9186-7B78ECF644A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -5120,6 +5120,51 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5129,6 +5174,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5138,98 +5231,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5315,9 +5321,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5359,15 +5362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5387,24 +5381,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5459,6 +5435,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5468,6 +5450,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5500,6 +5491,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5979,8 +5979,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="821531" y="892970"/>
-          <a:ext cx="6189137" cy="6431753"/>
+          <a:off x="828675" y="885826"/>
+          <a:ext cx="6241524" cy="6334122"/>
           <a:chOff x="828675" y="885826"/>
           <a:chExt cx="6241524" cy="6334122"/>
         </a:xfrm>
@@ -6325,7 +6325,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2020</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6345,7 +6345,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>X</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6655,7 +6655,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2020</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6675,7 +6675,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>X</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6973,7 +6973,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2020</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6993,7 +6993,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>X</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -11729,7 +11729,7 @@
   </sheetPr>
   <dimension ref="A1:BH247"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11741,12 +11741,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="367"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="369"/>
       <c r="E1" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -11798,12 +11798,12 @@
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="367"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="369"/>
       <c r="E2" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -11849,12 +11849,12 @@
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="367"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="369"/>
       <c r="E3" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -11889,12 +11889,12 @@
       <c r="AD3" s="212"/>
       <c r="AE3" s="212"/>
       <c r="AF3" s="213"/>
-      <c r="AG3" s="368" t="str">
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="369"/>
-      <c r="AI3" s="370"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12024,39 +12024,39 @@
       <c r="D53" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="371" t="s">
+      <c r="E53" s="373" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="371"/>
-      <c r="G53" s="371"/>
-      <c r="H53" s="371"/>
-      <c r="I53" s="371"/>
-      <c r="J53" s="371"/>
-      <c r="K53" s="371"/>
-      <c r="L53" s="371"/>
-      <c r="M53" s="371"/>
-      <c r="N53" s="371" t="s">
+      <c r="F53" s="373"/>
+      <c r="G53" s="373"/>
+      <c r="H53" s="373"/>
+      <c r="I53" s="373"/>
+      <c r="J53" s="373"/>
+      <c r="K53" s="373"/>
+      <c r="L53" s="373"/>
+      <c r="M53" s="373"/>
+      <c r="N53" s="373" t="s">
         <v>43</v>
       </c>
-      <c r="O53" s="371"/>
-      <c r="P53" s="371"/>
-      <c r="Q53" s="371" t="s">
+      <c r="O53" s="373"/>
+      <c r="P53" s="373"/>
+      <c r="Q53" s="373" t="s">
         <v>25</v>
       </c>
-      <c r="R53" s="371"/>
-      <c r="S53" s="371"/>
-      <c r="T53" s="371"/>
-      <c r="U53" s="371"/>
-      <c r="V53" s="371" t="s">
+      <c r="R53" s="373"/>
+      <c r="S53" s="373"/>
+      <c r="T53" s="373"/>
+      <c r="U53" s="373"/>
+      <c r="V53" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="W53" s="371"/>
-      <c r="X53" s="371"/>
-      <c r="Y53" s="371"/>
-      <c r="Z53" s="371"/>
-      <c r="AA53" s="371"/>
-      <c r="AB53" s="371"/>
-      <c r="AC53" s="371"/>
+      <c r="W53" s="373"/>
+      <c r="X53" s="373"/>
+      <c r="Y53" s="373"/>
+      <c r="Z53" s="373"/>
+      <c r="AA53" s="373"/>
+      <c r="AB53" s="373"/>
+      <c r="AC53" s="373"/>
       <c r="AD53" s="137"/>
       <c r="AE53" s="137"/>
       <c r="AF53" s="137"/>
@@ -12067,39 +12067,39 @@
       <c r="D54" s="157">
         <v>1</v>
       </c>
-      <c r="E54" s="372" t="s">
+      <c r="E54" s="374" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="373"/>
-      <c r="G54" s="373"/>
-      <c r="H54" s="373"/>
-      <c r="I54" s="373"/>
-      <c r="J54" s="373"/>
-      <c r="K54" s="373"/>
-      <c r="L54" s="373"/>
-      <c r="M54" s="373"/>
-      <c r="N54" s="373" t="s">
+      <c r="F54" s="375"/>
+      <c r="G54" s="375"/>
+      <c r="H54" s="375"/>
+      <c r="I54" s="375"/>
+      <c r="J54" s="375"/>
+      <c r="K54" s="375"/>
+      <c r="L54" s="375"/>
+      <c r="M54" s="375"/>
+      <c r="N54" s="375" t="s">
         <v>183</v>
       </c>
-      <c r="O54" s="373"/>
-      <c r="P54" s="373"/>
-      <c r="Q54" s="381" t="s">
+      <c r="O54" s="375"/>
+      <c r="P54" s="375"/>
+      <c r="Q54" s="382" t="s">
         <v>184</v>
       </c>
-      <c r="R54" s="382"/>
-      <c r="S54" s="382"/>
-      <c r="T54" s="382"/>
-      <c r="U54" s="382"/>
-      <c r="V54" s="381" t="s">
+      <c r="R54" s="383"/>
+      <c r="S54" s="383"/>
+      <c r="T54" s="383"/>
+      <c r="U54" s="383"/>
+      <c r="V54" s="382" t="s">
         <v>122</v>
       </c>
-      <c r="W54" s="382"/>
-      <c r="X54" s="382"/>
-      <c r="Y54" s="382"/>
-      <c r="Z54" s="382"/>
-      <c r="AA54" s="382"/>
-      <c r="AB54" s="382"/>
-      <c r="AC54" s="382"/>
+      <c r="W54" s="383"/>
+      <c r="X54" s="383"/>
+      <c r="Y54" s="383"/>
+      <c r="Z54" s="383"/>
+      <c r="AA54" s="383"/>
+      <c r="AB54" s="383"/>
+      <c r="AC54" s="383"/>
       <c r="AM54" s="35"/>
     </row>
     <row r="55" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12176,36 +12176,36 @@
       <c r="AZ58" s="135"/>
     </row>
     <row r="59" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="378" t="s">
+      <c r="D59" s="379" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="389" t="s">
+      <c r="E59" s="338" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="390"/>
-      <c r="G59" s="390"/>
-      <c r="H59" s="390"/>
-      <c r="I59" s="390"/>
-      <c r="J59" s="390"/>
-      <c r="K59" s="390"/>
-      <c r="L59" s="390"/>
-      <c r="M59" s="390"/>
-      <c r="N59" s="390"/>
-      <c r="O59" s="390"/>
-      <c r="P59" s="390"/>
-      <c r="Q59" s="390"/>
-      <c r="R59" s="390"/>
-      <c r="S59" s="390"/>
-      <c r="T59" s="390"/>
-      <c r="U59" s="390"/>
-      <c r="V59" s="390"/>
-      <c r="W59" s="390"/>
-      <c r="X59" s="390"/>
-      <c r="Y59" s="390"/>
-      <c r="Z59" s="390"/>
-      <c r="AA59" s="390"/>
-      <c r="AB59" s="390"/>
-      <c r="AC59" s="391"/>
+      <c r="F59" s="339"/>
+      <c r="G59" s="339"/>
+      <c r="H59" s="339"/>
+      <c r="I59" s="339"/>
+      <c r="J59" s="339"/>
+      <c r="K59" s="339"/>
+      <c r="L59" s="339"/>
+      <c r="M59" s="339"/>
+      <c r="N59" s="339"/>
+      <c r="O59" s="339"/>
+      <c r="P59" s="339"/>
+      <c r="Q59" s="339"/>
+      <c r="R59" s="339"/>
+      <c r="S59" s="339"/>
+      <c r="T59" s="339"/>
+      <c r="U59" s="339"/>
+      <c r="V59" s="339"/>
+      <c r="W59" s="339"/>
+      <c r="X59" s="339"/>
+      <c r="Y59" s="339"/>
+      <c r="Z59" s="339"/>
+      <c r="AA59" s="339"/>
+      <c r="AB59" s="339"/>
+      <c r="AC59" s="340"/>
       <c r="AD59" s="291" t="s">
         <v>33</v>
       </c>
@@ -12223,29 +12223,29 @@
       <c r="AN59" s="135"/>
     </row>
     <row r="60" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="379"/>
+      <c r="D60" s="380"/>
       <c r="E60" s="291" t="s">
         <v>31</v>
       </c>
       <c r="F60" s="292"/>
       <c r="G60" s="292"/>
       <c r="H60" s="293"/>
-      <c r="I60" s="383" t="s">
+      <c r="I60" s="384" t="s">
         <v>39</v>
       </c>
-      <c r="J60" s="384"/>
-      <c r="K60" s="384"/>
-      <c r="L60" s="385"/>
-      <c r="M60" s="392" t="s">
+      <c r="J60" s="385"/>
+      <c r="K60" s="385"/>
+      <c r="L60" s="386"/>
+      <c r="M60" s="390" t="s">
         <v>118</v>
       </c>
-      <c r="N60" s="384"/>
-      <c r="O60" s="384"/>
-      <c r="P60" s="384"/>
-      <c r="Q60" s="384"/>
-      <c r="R60" s="384"/>
-      <c r="S60" s="384"/>
-      <c r="T60" s="385"/>
+      <c r="N60" s="385"/>
+      <c r="O60" s="385"/>
+      <c r="P60" s="385"/>
+      <c r="Q60" s="385"/>
+      <c r="R60" s="385"/>
+      <c r="S60" s="385"/>
+      <c r="T60" s="386"/>
       <c r="U60" s="291" t="s">
         <v>32</v>
       </c>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="AA60" s="292"/>
       <c r="AB60" s="293"/>
-      <c r="AC60" s="378" t="s">
+      <c r="AC60" s="379" t="s">
         <v>44</v>
       </c>
       <c r="AD60" s="294"/>
@@ -12280,23 +12280,23 @@
       <c r="AT60" s="135"/>
     </row>
     <row r="61" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="380"/>
+      <c r="D61" s="381"/>
       <c r="E61" s="297"/>
       <c r="F61" s="298"/>
       <c r="G61" s="298"/>
       <c r="H61" s="299"/>
-      <c r="I61" s="386"/>
-      <c r="J61" s="387"/>
-      <c r="K61" s="387"/>
-      <c r="L61" s="388"/>
-      <c r="M61" s="386"/>
-      <c r="N61" s="387"/>
-      <c r="O61" s="387"/>
-      <c r="P61" s="387"/>
-      <c r="Q61" s="387"/>
-      <c r="R61" s="387"/>
-      <c r="S61" s="387"/>
-      <c r="T61" s="388"/>
+      <c r="I61" s="387"/>
+      <c r="J61" s="388"/>
+      <c r="K61" s="388"/>
+      <c r="L61" s="389"/>
+      <c r="M61" s="387"/>
+      <c r="N61" s="388"/>
+      <c r="O61" s="388"/>
+      <c r="P61" s="388"/>
+      <c r="Q61" s="388"/>
+      <c r="R61" s="388"/>
+      <c r="S61" s="388"/>
+      <c r="T61" s="389"/>
       <c r="U61" s="297"/>
       <c r="V61" s="298"/>
       <c r="W61" s="298"/>
@@ -12305,7 +12305,7 @@
       <c r="Z61" s="297"/>
       <c r="AA61" s="298"/>
       <c r="AB61" s="299"/>
-      <c r="AC61" s="380"/>
+      <c r="AC61" s="381"/>
       <c r="AD61" s="297"/>
       <c r="AE61" s="298"/>
       <c r="AF61" s="298"/>
@@ -12314,51 +12314,51 @@
       <c r="AI61" s="135"/>
       <c r="AJ61" s="135"/>
       <c r="AK61" s="135"/>
-      <c r="AL61" s="350" t="s">
+      <c r="AL61" s="352" t="s">
         <v>40</v>
       </c>
-      <c r="AM61" s="351"/>
-      <c r="AN61" s="351"/>
-      <c r="AO61" s="351"/>
-      <c r="AP61" s="352"/>
+      <c r="AM61" s="353"/>
+      <c r="AN61" s="353"/>
+      <c r="AO61" s="353"/>
+      <c r="AP61" s="354"/>
       <c r="AQ61" s="135"/>
       <c r="AR61" s="135"/>
       <c r="AS61" s="135"/>
       <c r="AT61" s="135"/>
     </row>
     <row r="62" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="375" t="s">
+      <c r="D62" s="376" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="376"/>
-      <c r="F62" s="376"/>
-      <c r="G62" s="376"/>
-      <c r="H62" s="376"/>
-      <c r="I62" s="376"/>
-      <c r="J62" s="376"/>
-      <c r="K62" s="376"/>
-      <c r="L62" s="376"/>
-      <c r="M62" s="376"/>
-      <c r="N62" s="376"/>
-      <c r="O62" s="376"/>
-      <c r="P62" s="376"/>
-      <c r="Q62" s="376"/>
-      <c r="R62" s="376"/>
-      <c r="S62" s="376"/>
-      <c r="T62" s="376"/>
-      <c r="U62" s="376"/>
-      <c r="V62" s="376"/>
-      <c r="W62" s="376"/>
-      <c r="X62" s="376"/>
-      <c r="Y62" s="376"/>
-      <c r="Z62" s="376"/>
-      <c r="AA62" s="376"/>
-      <c r="AB62" s="376"/>
-      <c r="AC62" s="376"/>
-      <c r="AD62" s="376"/>
-      <c r="AE62" s="376"/>
-      <c r="AF62" s="376"/>
-      <c r="AG62" s="377"/>
+      <c r="E62" s="377"/>
+      <c r="F62" s="377"/>
+      <c r="G62" s="377"/>
+      <c r="H62" s="377"/>
+      <c r="I62" s="377"/>
+      <c r="J62" s="377"/>
+      <c r="K62" s="377"/>
+      <c r="L62" s="377"/>
+      <c r="M62" s="377"/>
+      <c r="N62" s="377"/>
+      <c r="O62" s="377"/>
+      <c r="P62" s="377"/>
+      <c r="Q62" s="377"/>
+      <c r="R62" s="377"/>
+      <c r="S62" s="377"/>
+      <c r="T62" s="377"/>
+      <c r="U62" s="377"/>
+      <c r="V62" s="377"/>
+      <c r="W62" s="377"/>
+      <c r="X62" s="377"/>
+      <c r="Y62" s="377"/>
+      <c r="Z62" s="377"/>
+      <c r="AA62" s="377"/>
+      <c r="AB62" s="377"/>
+      <c r="AC62" s="377"/>
+      <c r="AD62" s="377"/>
+      <c r="AE62" s="377"/>
+      <c r="AF62" s="377"/>
+      <c r="AG62" s="378"/>
       <c r="AH62" s="135"/>
       <c r="AI62" s="135"/>
       <c r="AJ62" s="135"/>
@@ -12384,44 +12384,44 @@
       </c>
       <c r="F63" s="303"/>
       <c r="G63" s="303"/>
-      <c r="H63" s="374"/>
-      <c r="I63" s="319" t="s">
+      <c r="H63" s="325"/>
+      <c r="I63" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J63" s="319"/>
-      <c r="K63" s="319"/>
-      <c r="L63" s="319"/>
-      <c r="M63" s="313" t="s">
+      <c r="J63" s="328"/>
+      <c r="K63" s="328"/>
+      <c r="L63" s="328"/>
+      <c r="M63" s="327" t="s">
         <v>168</v>
       </c>
-      <c r="N63" s="314"/>
-      <c r="O63" s="314"/>
-      <c r="P63" s="314"/>
-      <c r="Q63" s="314"/>
-      <c r="R63" s="314"/>
-      <c r="S63" s="314"/>
-      <c r="T63" s="315"/>
+      <c r="N63" s="318"/>
+      <c r="O63" s="318"/>
+      <c r="P63" s="318"/>
+      <c r="Q63" s="318"/>
+      <c r="R63" s="318"/>
+      <c r="S63" s="318"/>
+      <c r="T63" s="319"/>
       <c r="U63" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="V63" s="308"/>
-      <c r="W63" s="308"/>
-      <c r="X63" s="308"/>
-      <c r="Y63" s="309"/>
-      <c r="Z63" s="307" t="s">
+      <c r="V63" s="323"/>
+      <c r="W63" s="323"/>
+      <c r="X63" s="323"/>
+      <c r="Y63" s="324"/>
+      <c r="Z63" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA63" s="308"/>
-      <c r="AB63" s="309"/>
+      <c r="AA63" s="323"/>
+      <c r="AB63" s="324"/>
       <c r="AC63" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD63" s="232" t="s">
         <v>171</v>
       </c>
-      <c r="AE63" s="308"/>
-      <c r="AF63" s="308"/>
-      <c r="AG63" s="309"/>
+      <c r="AE63" s="323"/>
+      <c r="AF63" s="323"/>
+      <c r="AG63" s="324"/>
       <c r="AL63" s="235" t="s">
         <v>174</v>
       </c>
@@ -12434,7 +12434,7 @@
       <c r="AO63" s="303" t="s">
         <v>146</v>
       </c>
-      <c r="AP63" s="374" t="s">
+      <c r="AP63" s="325" t="s">
         <v>146</v>
       </c>
       <c r="AU63" s="133"/>
@@ -12453,44 +12453,44 @@
       </c>
       <c r="F64" s="303"/>
       <c r="G64" s="303"/>
-      <c r="H64" s="374"/>
-      <c r="I64" s="319" t="s">
+      <c r="H64" s="325"/>
+      <c r="I64" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J64" s="319"/>
-      <c r="K64" s="319"/>
-      <c r="L64" s="319"/>
-      <c r="M64" s="313" t="s">
+      <c r="J64" s="328"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="327" t="s">
         <v>168</v>
       </c>
-      <c r="N64" s="314"/>
-      <c r="O64" s="314"/>
-      <c r="P64" s="314"/>
-      <c r="Q64" s="314"/>
-      <c r="R64" s="314"/>
-      <c r="S64" s="314"/>
-      <c r="T64" s="315"/>
+      <c r="N64" s="318"/>
+      <c r="O64" s="318"/>
+      <c r="P64" s="318"/>
+      <c r="Q64" s="318"/>
+      <c r="R64" s="318"/>
+      <c r="S64" s="318"/>
+      <c r="T64" s="319"/>
       <c r="U64" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="V64" s="308"/>
-      <c r="W64" s="308"/>
-      <c r="X64" s="308"/>
-      <c r="Y64" s="309"/>
-      <c r="Z64" s="307" t="s">
+      <c r="V64" s="323"/>
+      <c r="W64" s="323"/>
+      <c r="X64" s="323"/>
+      <c r="Y64" s="324"/>
+      <c r="Z64" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA64" s="308"/>
-      <c r="AB64" s="309"/>
+      <c r="AA64" s="323"/>
+      <c r="AB64" s="324"/>
       <c r="AC64" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD64" s="232" t="s">
         <v>172</v>
       </c>
-      <c r="AE64" s="308"/>
-      <c r="AF64" s="308"/>
-      <c r="AG64" s="309"/>
+      <c r="AE64" s="323"/>
+      <c r="AF64" s="323"/>
+      <c r="AG64" s="324"/>
       <c r="AL64" s="235" t="s">
         <v>175</v>
       </c>
@@ -12503,7 +12503,7 @@
       <c r="AO64" s="303" t="s">
         <v>146</v>
       </c>
-      <c r="AP64" s="374" t="s">
+      <c r="AP64" s="325" t="s">
         <v>146</v>
       </c>
       <c r="AU64" s="133"/>
@@ -12522,44 +12522,44 @@
       </c>
       <c r="F65" s="303"/>
       <c r="G65" s="303"/>
-      <c r="H65" s="374"/>
-      <c r="I65" s="319" t="s">
+      <c r="H65" s="325"/>
+      <c r="I65" s="328" t="s">
         <v>186</v>
       </c>
-      <c r="J65" s="319"/>
-      <c r="K65" s="319"/>
-      <c r="L65" s="319"/>
-      <c r="M65" s="313" t="s">
+      <c r="J65" s="328"/>
+      <c r="K65" s="328"/>
+      <c r="L65" s="328"/>
+      <c r="M65" s="327" t="s">
         <v>80</v>
       </c>
-      <c r="N65" s="314"/>
-      <c r="O65" s="314"/>
-      <c r="P65" s="314"/>
-      <c r="Q65" s="314"/>
-      <c r="R65" s="314"/>
-      <c r="S65" s="314"/>
-      <c r="T65" s="315"/>
+      <c r="N65" s="318"/>
+      <c r="O65" s="318"/>
+      <c r="P65" s="318"/>
+      <c r="Q65" s="318"/>
+      <c r="R65" s="318"/>
+      <c r="S65" s="318"/>
+      <c r="T65" s="319"/>
       <c r="U65" s="232" t="s">
         <v>368</v>
       </c>
-      <c r="V65" s="308"/>
-      <c r="W65" s="308"/>
-      <c r="X65" s="308"/>
-      <c r="Y65" s="309"/>
-      <c r="Z65" s="325" t="s">
+      <c r="V65" s="323"/>
+      <c r="W65" s="323"/>
+      <c r="X65" s="323"/>
+      <c r="Y65" s="324"/>
+      <c r="Z65" s="320" t="s">
         <v>233</v>
       </c>
-      <c r="AA65" s="326"/>
-      <c r="AB65" s="326"/>
+      <c r="AA65" s="321"/>
+      <c r="AB65" s="321"/>
       <c r="AC65" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD65" s="307" t="s">
+      <c r="AD65" s="322" t="s">
         <v>135</v>
       </c>
-      <c r="AE65" s="308"/>
-      <c r="AF65" s="308"/>
-      <c r="AG65" s="309"/>
+      <c r="AE65" s="323"/>
+      <c r="AF65" s="323"/>
+      <c r="AG65" s="324"/>
       <c r="AH65" s="135"/>
       <c r="AI65" s="135"/>
       <c r="AJ65" s="135"/>
@@ -12576,7 +12576,7 @@
       <c r="AO65" s="303" t="s">
         <v>142</v>
       </c>
-      <c r="AP65" s="374" t="s">
+      <c r="AP65" s="325" t="s">
         <v>142</v>
       </c>
       <c r="AQ65" s="135"/>
@@ -12594,44 +12594,44 @@
       </c>
       <c r="F66" s="303"/>
       <c r="G66" s="303"/>
-      <c r="H66" s="374"/>
-      <c r="I66" s="319" t="s">
+      <c r="H66" s="325"/>
+      <c r="I66" s="328" t="s">
         <v>186</v>
       </c>
-      <c r="J66" s="319"/>
-      <c r="K66" s="319"/>
-      <c r="L66" s="319"/>
-      <c r="M66" s="313" t="s">
+      <c r="J66" s="328"/>
+      <c r="K66" s="328"/>
+      <c r="L66" s="328"/>
+      <c r="M66" s="327" t="s">
         <v>80</v>
       </c>
-      <c r="N66" s="314"/>
-      <c r="O66" s="314"/>
-      <c r="P66" s="314"/>
-      <c r="Q66" s="314"/>
-      <c r="R66" s="314"/>
-      <c r="S66" s="314"/>
-      <c r="T66" s="315"/>
+      <c r="N66" s="318"/>
+      <c r="O66" s="318"/>
+      <c r="P66" s="318"/>
+      <c r="Q66" s="318"/>
+      <c r="R66" s="318"/>
+      <c r="S66" s="318"/>
+      <c r="T66" s="319"/>
       <c r="U66" s="232" t="s">
         <v>367</v>
       </c>
-      <c r="V66" s="308"/>
-      <c r="W66" s="308"/>
-      <c r="X66" s="308"/>
-      <c r="Y66" s="309"/>
-      <c r="Z66" s="325" t="s">
+      <c r="V66" s="323"/>
+      <c r="W66" s="323"/>
+      <c r="X66" s="323"/>
+      <c r="Y66" s="324"/>
+      <c r="Z66" s="320" t="s">
         <v>232</v>
       </c>
-      <c r="AA66" s="326"/>
-      <c r="AB66" s="326"/>
+      <c r="AA66" s="321"/>
+      <c r="AB66" s="321"/>
       <c r="AC66" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD66" s="307" t="s">
+      <c r="AD66" s="322" t="s">
         <v>136</v>
       </c>
-      <c r="AE66" s="308"/>
-      <c r="AF66" s="308"/>
-      <c r="AG66" s="309"/>
+      <c r="AE66" s="323"/>
+      <c r="AF66" s="323"/>
+      <c r="AG66" s="324"/>
       <c r="AH66" s="135"/>
       <c r="AI66" s="135"/>
       <c r="AJ66" s="135"/>
@@ -12648,7 +12648,7 @@
       <c r="AO66" s="303" t="s">
         <v>143</v>
       </c>
-      <c r="AP66" s="374" t="s">
+      <c r="AP66" s="325" t="s">
         <v>143</v>
       </c>
       <c r="AQ66" s="135"/>
@@ -12666,44 +12666,44 @@
       </c>
       <c r="F67" s="303"/>
       <c r="G67" s="303"/>
-      <c r="H67" s="374"/>
-      <c r="I67" s="324" t="s">
+      <c r="H67" s="325"/>
+      <c r="I67" s="326" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="324"/>
-      <c r="K67" s="324"/>
-      <c r="L67" s="324"/>
-      <c r="M67" s="313" t="s">
+      <c r="J67" s="326"/>
+      <c r="K67" s="326"/>
+      <c r="L67" s="326"/>
+      <c r="M67" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N67" s="314"/>
-      <c r="O67" s="314"/>
-      <c r="P67" s="314"/>
-      <c r="Q67" s="314"/>
-      <c r="R67" s="314"/>
-      <c r="S67" s="314"/>
-      <c r="T67" s="315"/>
-      <c r="U67" s="307" t="s">
+      <c r="N67" s="318"/>
+      <c r="O67" s="318"/>
+      <c r="P67" s="318"/>
+      <c r="Q67" s="318"/>
+      <c r="R67" s="318"/>
+      <c r="S67" s="318"/>
+      <c r="T67" s="319"/>
+      <c r="U67" s="322" t="s">
         <v>93</v>
       </c>
-      <c r="V67" s="308"/>
-      <c r="W67" s="308"/>
-      <c r="X67" s="308"/>
-      <c r="Y67" s="309"/>
-      <c r="Z67" s="307" t="s">
+      <c r="V67" s="323"/>
+      <c r="W67" s="323"/>
+      <c r="X67" s="323"/>
+      <c r="Y67" s="324"/>
+      <c r="Z67" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA67" s="308"/>
-      <c r="AB67" s="309"/>
+      <c r="AA67" s="323"/>
+      <c r="AB67" s="324"/>
       <c r="AC67" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD67" s="307" t="s">
+      <c r="AD67" s="322" t="s">
         <v>137</v>
       </c>
-      <c r="AE67" s="308"/>
-      <c r="AF67" s="308"/>
-      <c r="AG67" s="309"/>
+      <c r="AE67" s="323"/>
+      <c r="AF67" s="323"/>
+      <c r="AG67" s="324"/>
       <c r="AL67" s="235" t="s">
         <v>188</v>
       </c>
@@ -12716,7 +12716,7 @@
       <c r="AO67" s="303" t="s">
         <v>147</v>
       </c>
-      <c r="AP67" s="374" t="s">
+      <c r="AP67" s="325" t="s">
         <v>147</v>
       </c>
       <c r="AY67" s="109"/>
@@ -12731,44 +12731,44 @@
       </c>
       <c r="F68" s="303"/>
       <c r="G68" s="303"/>
-      <c r="H68" s="374"/>
-      <c r="I68" s="324" t="s">
+      <c r="H68" s="325"/>
+      <c r="I68" s="326" t="s">
         <v>91</v>
       </c>
-      <c r="J68" s="324"/>
-      <c r="K68" s="324"/>
-      <c r="L68" s="324"/>
-      <c r="M68" s="313" t="s">
+      <c r="J68" s="326"/>
+      <c r="K68" s="326"/>
+      <c r="L68" s="326"/>
+      <c r="M68" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N68" s="314"/>
-      <c r="O68" s="314"/>
-      <c r="P68" s="314"/>
-      <c r="Q68" s="314"/>
-      <c r="R68" s="314"/>
-      <c r="S68" s="314"/>
-      <c r="T68" s="315"/>
-      <c r="U68" s="307" t="s">
+      <c r="N68" s="318"/>
+      <c r="O68" s="318"/>
+      <c r="P68" s="318"/>
+      <c r="Q68" s="318"/>
+      <c r="R68" s="318"/>
+      <c r="S68" s="318"/>
+      <c r="T68" s="319"/>
+      <c r="U68" s="322" t="s">
         <v>93</v>
       </c>
-      <c r="V68" s="308"/>
-      <c r="W68" s="308"/>
-      <c r="X68" s="308"/>
-      <c r="Y68" s="309"/>
-      <c r="Z68" s="307" t="s">
+      <c r="V68" s="323"/>
+      <c r="W68" s="323"/>
+      <c r="X68" s="323"/>
+      <c r="Y68" s="324"/>
+      <c r="Z68" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA68" s="308"/>
-      <c r="AB68" s="309"/>
+      <c r="AA68" s="323"/>
+      <c r="AB68" s="324"/>
       <c r="AC68" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD68" s="307" t="s">
+      <c r="AD68" s="322" t="s">
         <v>137</v>
       </c>
-      <c r="AE68" s="308"/>
-      <c r="AF68" s="308"/>
-      <c r="AG68" s="309"/>
+      <c r="AE68" s="323"/>
+      <c r="AF68" s="323"/>
+      <c r="AG68" s="324"/>
       <c r="AL68" s="235" t="s">
         <v>189</v>
       </c>
@@ -12781,7 +12781,7 @@
       <c r="AO68" s="303" t="s">
         <v>147</v>
       </c>
-      <c r="AP68" s="374" t="s">
+      <c r="AP68" s="325" t="s">
         <v>147</v>
       </c>
       <c r="AY68" s="109"/>
@@ -12794,37 +12794,37 @@
       <c r="E69" s="232" t="s">
         <v>360</v>
       </c>
-      <c r="F69" s="308"/>
-      <c r="G69" s="308"/>
-      <c r="H69" s="309"/>
-      <c r="I69" s="319" t="s">
+      <c r="F69" s="323"/>
+      <c r="G69" s="323"/>
+      <c r="H69" s="324"/>
+      <c r="I69" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J69" s="319"/>
-      <c r="K69" s="319"/>
-      <c r="L69" s="319"/>
-      <c r="M69" s="313" t="s">
+      <c r="J69" s="328"/>
+      <c r="K69" s="328"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N69" s="314"/>
-      <c r="O69" s="314"/>
-      <c r="P69" s="314"/>
-      <c r="Q69" s="314"/>
-      <c r="R69" s="314"/>
-      <c r="S69" s="314"/>
-      <c r="T69" s="315"/>
-      <c r="U69" s="307" t="s">
+      <c r="N69" s="318"/>
+      <c r="O69" s="318"/>
+      <c r="P69" s="318"/>
+      <c r="Q69" s="318"/>
+      <c r="R69" s="318"/>
+      <c r="S69" s="318"/>
+      <c r="T69" s="319"/>
+      <c r="U69" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V69" s="308"/>
-      <c r="W69" s="308"/>
-      <c r="X69" s="308"/>
-      <c r="Y69" s="309"/>
-      <c r="Z69" s="307" t="s">
+      <c r="V69" s="323"/>
+      <c r="W69" s="323"/>
+      <c r="X69" s="323"/>
+      <c r="Y69" s="324"/>
+      <c r="Z69" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA69" s="308"/>
-      <c r="AB69" s="309"/>
+      <c r="AA69" s="323"/>
+      <c r="AB69" s="324"/>
       <c r="AC69" s="172" t="s">
         <v>92</v>
       </c>
@@ -12850,7 +12850,7 @@
       <c r="AO69" s="303" t="s">
         <v>144</v>
       </c>
-      <c r="AP69" s="374" t="s">
+      <c r="AP69" s="325" t="s">
         <v>144</v>
       </c>
       <c r="AQ69" s="135"/>
@@ -12864,37 +12864,37 @@
       <c r="E70" s="232" t="s">
         <v>361</v>
       </c>
-      <c r="F70" s="308"/>
-      <c r="G70" s="308"/>
-      <c r="H70" s="309"/>
-      <c r="I70" s="319" t="s">
+      <c r="F70" s="323"/>
+      <c r="G70" s="323"/>
+      <c r="H70" s="324"/>
+      <c r="I70" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="319"/>
-      <c r="K70" s="319"/>
-      <c r="L70" s="319"/>
-      <c r="M70" s="313" t="s">
+      <c r="J70" s="328"/>
+      <c r="K70" s="328"/>
+      <c r="L70" s="328"/>
+      <c r="M70" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N70" s="314"/>
-      <c r="O70" s="314"/>
-      <c r="P70" s="314"/>
-      <c r="Q70" s="314"/>
-      <c r="R70" s="314"/>
-      <c r="S70" s="314"/>
-      <c r="T70" s="315"/>
-      <c r="U70" s="307" t="s">
+      <c r="N70" s="318"/>
+      <c r="O70" s="318"/>
+      <c r="P70" s="318"/>
+      <c r="Q70" s="318"/>
+      <c r="R70" s="318"/>
+      <c r="S70" s="318"/>
+      <c r="T70" s="319"/>
+      <c r="U70" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V70" s="308"/>
-      <c r="W70" s="308"/>
-      <c r="X70" s="308"/>
-      <c r="Y70" s="309"/>
-      <c r="Z70" s="307" t="s">
+      <c r="V70" s="323"/>
+      <c r="W70" s="323"/>
+      <c r="X70" s="323"/>
+      <c r="Y70" s="324"/>
+      <c r="Z70" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA70" s="308"/>
-      <c r="AB70" s="309"/>
+      <c r="AA70" s="323"/>
+      <c r="AB70" s="324"/>
       <c r="AC70" s="172" t="s">
         <v>92</v>
       </c>
@@ -12920,7 +12920,7 @@
       <c r="AO70" s="303" t="s">
         <v>144</v>
       </c>
-      <c r="AP70" s="374" t="s">
+      <c r="AP70" s="325" t="s">
         <v>144</v>
       </c>
       <c r="AQ70" s="135"/>
@@ -12934,37 +12934,37 @@
       <c r="E71" s="232" t="s">
         <v>362</v>
       </c>
-      <c r="F71" s="308"/>
-      <c r="G71" s="308"/>
-      <c r="H71" s="309"/>
-      <c r="I71" s="319" t="s">
+      <c r="F71" s="323"/>
+      <c r="G71" s="323"/>
+      <c r="H71" s="324"/>
+      <c r="I71" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J71" s="319"/>
-      <c r="K71" s="319"/>
-      <c r="L71" s="319"/>
-      <c r="M71" s="313" t="s">
+      <c r="J71" s="328"/>
+      <c r="K71" s="328"/>
+      <c r="L71" s="328"/>
+      <c r="M71" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N71" s="314"/>
-      <c r="O71" s="314"/>
-      <c r="P71" s="314"/>
-      <c r="Q71" s="314"/>
-      <c r="R71" s="314"/>
-      <c r="S71" s="314"/>
-      <c r="T71" s="315"/>
-      <c r="U71" s="307" t="s">
+      <c r="N71" s="318"/>
+      <c r="O71" s="318"/>
+      <c r="P71" s="318"/>
+      <c r="Q71" s="318"/>
+      <c r="R71" s="318"/>
+      <c r="S71" s="318"/>
+      <c r="T71" s="319"/>
+      <c r="U71" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V71" s="308"/>
-      <c r="W71" s="308"/>
-      <c r="X71" s="308"/>
-      <c r="Y71" s="309"/>
-      <c r="Z71" s="307" t="s">
+      <c r="V71" s="323"/>
+      <c r="W71" s="323"/>
+      <c r="X71" s="323"/>
+      <c r="Y71" s="324"/>
+      <c r="Z71" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA71" s="308"/>
-      <c r="AB71" s="309"/>
+      <c r="AA71" s="323"/>
+      <c r="AB71" s="324"/>
       <c r="AC71" s="172" t="s">
         <v>92</v>
       </c>
@@ -12986,7 +12986,7 @@
       <c r="AO71" s="303" t="s">
         <v>145</v>
       </c>
-      <c r="AP71" s="374" t="s">
+      <c r="AP71" s="325" t="s">
         <v>145</v>
       </c>
       <c r="AU71" s="133"/>
@@ -13003,37 +13003,37 @@
       <c r="E72" s="232" t="s">
         <v>363</v>
       </c>
-      <c r="F72" s="308"/>
-      <c r="G72" s="308"/>
-      <c r="H72" s="309"/>
-      <c r="I72" s="319" t="s">
+      <c r="F72" s="323"/>
+      <c r="G72" s="323"/>
+      <c r="H72" s="324"/>
+      <c r="I72" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J72" s="319"/>
-      <c r="K72" s="319"/>
-      <c r="L72" s="319"/>
-      <c r="M72" s="313" t="s">
+      <c r="J72" s="328"/>
+      <c r="K72" s="328"/>
+      <c r="L72" s="328"/>
+      <c r="M72" s="327" t="s">
         <v>139</v>
       </c>
-      <c r="N72" s="314"/>
-      <c r="O72" s="314"/>
-      <c r="P72" s="314"/>
-      <c r="Q72" s="314"/>
-      <c r="R72" s="314"/>
-      <c r="S72" s="314"/>
-      <c r="T72" s="315"/>
-      <c r="U72" s="307" t="s">
+      <c r="N72" s="318"/>
+      <c r="O72" s="318"/>
+      <c r="P72" s="318"/>
+      <c r="Q72" s="318"/>
+      <c r="R72" s="318"/>
+      <c r="S72" s="318"/>
+      <c r="T72" s="319"/>
+      <c r="U72" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V72" s="308"/>
-      <c r="W72" s="308"/>
-      <c r="X72" s="308"/>
-      <c r="Y72" s="309"/>
-      <c r="Z72" s="307" t="s">
+      <c r="V72" s="323"/>
+      <c r="W72" s="323"/>
+      <c r="X72" s="323"/>
+      <c r="Y72" s="324"/>
+      <c r="Z72" s="322" t="s">
         <v>80</v>
       </c>
-      <c r="AA72" s="308"/>
-      <c r="AB72" s="309"/>
+      <c r="AA72" s="323"/>
+      <c r="AB72" s="324"/>
       <c r="AC72" s="172" t="s">
         <v>92</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="AO72" s="303" t="s">
         <v>145</v>
       </c>
-      <c r="AP72" s="374" t="s">
+      <c r="AP72" s="325" t="s">
         <v>145</v>
       </c>
       <c r="AU72" s="133"/>
@@ -13072,46 +13072,46 @@
       <c r="E73" s="232" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="308"/>
-      <c r="G73" s="308"/>
-      <c r="H73" s="309"/>
-      <c r="I73" s="319" t="s">
+      <c r="F73" s="323"/>
+      <c r="G73" s="323"/>
+      <c r="H73" s="324"/>
+      <c r="I73" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J73" s="319"/>
-      <c r="K73" s="319"/>
-      <c r="L73" s="319"/>
-      <c r="M73" s="398" t="s">
+      <c r="J73" s="328"/>
+      <c r="K73" s="328"/>
+      <c r="L73" s="328"/>
+      <c r="M73" s="396" t="s">
         <v>140</v>
       </c>
-      <c r="N73" s="399"/>
-      <c r="O73" s="399"/>
-      <c r="P73" s="399"/>
-      <c r="Q73" s="399"/>
-      <c r="R73" s="399"/>
-      <c r="S73" s="399"/>
-      <c r="T73" s="399"/>
-      <c r="U73" s="325" t="s">
+      <c r="N73" s="397"/>
+      <c r="O73" s="397"/>
+      <c r="P73" s="397"/>
+      <c r="Q73" s="397"/>
+      <c r="R73" s="397"/>
+      <c r="S73" s="397"/>
+      <c r="T73" s="397"/>
+      <c r="U73" s="320" t="s">
         <v>139</v>
       </c>
-      <c r="V73" s="326"/>
-      <c r="W73" s="326"/>
-      <c r="X73" s="326"/>
-      <c r="Y73" s="326"/>
-      <c r="Z73" s="325" t="s">
+      <c r="V73" s="321"/>
+      <c r="W73" s="321"/>
+      <c r="X73" s="321"/>
+      <c r="Y73" s="321"/>
+      <c r="Z73" s="320" t="s">
         <v>139</v>
       </c>
-      <c r="AA73" s="326"/>
-      <c r="AB73" s="326"/>
+      <c r="AA73" s="321"/>
+      <c r="AB73" s="321"/>
       <c r="AC73" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AD73" s="307" t="s">
+      <c r="AD73" s="322" t="s">
         <v>134</v>
       </c>
-      <c r="AE73" s="308"/>
-      <c r="AF73" s="308"/>
-      <c r="AG73" s="309"/>
+      <c r="AE73" s="323"/>
+      <c r="AF73" s="323"/>
+      <c r="AG73" s="324"/>
       <c r="AH73" s="135"/>
       <c r="AI73" s="135"/>
       <c r="AJ73" s="135"/>
@@ -13128,7 +13128,7 @@
       <c r="AO73" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP73" s="374" t="s">
+      <c r="AP73" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ73" s="135"/>
@@ -13137,38 +13137,38 @@
       <c r="AT73" s="135"/>
     </row>
     <row r="74" spans="4:51" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="375" t="s">
+      <c r="D74" s="376" t="s">
         <v>303</v>
       </c>
-      <c r="E74" s="376"/>
-      <c r="F74" s="376"/>
-      <c r="G74" s="376"/>
-      <c r="H74" s="376"/>
-      <c r="I74" s="376"/>
-      <c r="J74" s="376"/>
-      <c r="K74" s="376"/>
-      <c r="L74" s="376"/>
-      <c r="M74" s="376"/>
-      <c r="N74" s="376"/>
-      <c r="O74" s="376"/>
-      <c r="P74" s="376"/>
-      <c r="Q74" s="376"/>
-      <c r="R74" s="376"/>
-      <c r="S74" s="376"/>
-      <c r="T74" s="376"/>
-      <c r="U74" s="376"/>
-      <c r="V74" s="376"/>
-      <c r="W74" s="376"/>
-      <c r="X74" s="376"/>
-      <c r="Y74" s="376"/>
-      <c r="Z74" s="376"/>
-      <c r="AA74" s="376"/>
-      <c r="AB74" s="376"/>
-      <c r="AC74" s="376"/>
-      <c r="AD74" s="376"/>
-      <c r="AE74" s="376"/>
-      <c r="AF74" s="376"/>
-      <c r="AG74" s="377"/>
+      <c r="E74" s="377"/>
+      <c r="F74" s="377"/>
+      <c r="G74" s="377"/>
+      <c r="H74" s="377"/>
+      <c r="I74" s="377"/>
+      <c r="J74" s="377"/>
+      <c r="K74" s="377"/>
+      <c r="L74" s="377"/>
+      <c r="M74" s="377"/>
+      <c r="N74" s="377"/>
+      <c r="O74" s="377"/>
+      <c r="P74" s="377"/>
+      <c r="Q74" s="377"/>
+      <c r="R74" s="377"/>
+      <c r="S74" s="377"/>
+      <c r="T74" s="377"/>
+      <c r="U74" s="377"/>
+      <c r="V74" s="377"/>
+      <c r="W74" s="377"/>
+      <c r="X74" s="377"/>
+      <c r="Y74" s="377"/>
+      <c r="Z74" s="377"/>
+      <c r="AA74" s="377"/>
+      <c r="AB74" s="377"/>
+      <c r="AC74" s="377"/>
+      <c r="AD74" s="377"/>
+      <c r="AE74" s="377"/>
+      <c r="AF74" s="377"/>
+      <c r="AG74" s="378"/>
       <c r="AH74" s="135"/>
       <c r="AI74" s="135"/>
       <c r="AJ74" s="135"/>
@@ -13195,44 +13195,44 @@
       </c>
       <c r="F75" s="303"/>
       <c r="G75" s="303"/>
-      <c r="H75" s="374"/>
-      <c r="I75" s="403" t="s">
+      <c r="H75" s="325"/>
+      <c r="I75" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J75" s="404"/>
-      <c r="K75" s="404"/>
-      <c r="L75" s="405"/>
-      <c r="M75" s="398" t="s">
+      <c r="J75" s="330"/>
+      <c r="K75" s="330"/>
+      <c r="L75" s="331"/>
+      <c r="M75" s="396" t="s">
         <v>219</v>
       </c>
-      <c r="N75" s="399"/>
-      <c r="O75" s="399"/>
-      <c r="P75" s="399"/>
-      <c r="Q75" s="399"/>
-      <c r="R75" s="399"/>
-      <c r="S75" s="399"/>
-      <c r="T75" s="399"/>
-      <c r="U75" s="325" t="s">
+      <c r="N75" s="397"/>
+      <c r="O75" s="397"/>
+      <c r="P75" s="397"/>
+      <c r="Q75" s="397"/>
+      <c r="R75" s="397"/>
+      <c r="S75" s="397"/>
+      <c r="T75" s="397"/>
+      <c r="U75" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="V75" s="326"/>
-      <c r="W75" s="326"/>
-      <c r="X75" s="326"/>
-      <c r="Y75" s="326"/>
-      <c r="Z75" s="325" t="s">
+      <c r="V75" s="321"/>
+      <c r="W75" s="321"/>
+      <c r="X75" s="321"/>
+      <c r="Y75" s="321"/>
+      <c r="Z75" s="320" t="s">
         <v>205</v>
       </c>
-      <c r="AA75" s="326"/>
-      <c r="AB75" s="326"/>
+      <c r="AA75" s="321"/>
+      <c r="AB75" s="321"/>
       <c r="AC75" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD75" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE75" s="308"/>
-      <c r="AF75" s="308"/>
-      <c r="AG75" s="309"/>
+      <c r="AE75" s="323"/>
+      <c r="AF75" s="323"/>
+      <c r="AG75" s="324"/>
       <c r="AH75" s="135"/>
       <c r="AI75" s="135"/>
       <c r="AJ75" s="135"/>
@@ -13249,7 +13249,7 @@
       <c r="AO75" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP75" s="374" t="s">
+      <c r="AP75" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ75" s="135"/>
@@ -13267,44 +13267,44 @@
       </c>
       <c r="F76" s="303"/>
       <c r="G76" s="303"/>
-      <c r="H76" s="374"/>
-      <c r="I76" s="403" t="s">
+      <c r="H76" s="325"/>
+      <c r="I76" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J76" s="404"/>
-      <c r="K76" s="404"/>
-      <c r="L76" s="405"/>
-      <c r="M76" s="313" t="s">
+      <c r="J76" s="330"/>
+      <c r="K76" s="330"/>
+      <c r="L76" s="331"/>
+      <c r="M76" s="327" t="s">
         <v>220</v>
       </c>
-      <c r="N76" s="406"/>
-      <c r="O76" s="406"/>
-      <c r="P76" s="406"/>
-      <c r="Q76" s="406"/>
-      <c r="R76" s="406"/>
-      <c r="S76" s="406"/>
-      <c r="T76" s="407"/>
+      <c r="N76" s="398"/>
+      <c r="O76" s="398"/>
+      <c r="P76" s="398"/>
+      <c r="Q76" s="398"/>
+      <c r="R76" s="398"/>
+      <c r="S76" s="398"/>
+      <c r="T76" s="399"/>
       <c r="U76" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V76" s="308"/>
-      <c r="W76" s="308"/>
-      <c r="X76" s="308"/>
-      <c r="Y76" s="309"/>
-      <c r="Z76" s="307" t="s">
+      <c r="V76" s="323"/>
+      <c r="W76" s="323"/>
+      <c r="X76" s="323"/>
+      <c r="Y76" s="324"/>
+      <c r="Z76" s="322" t="s">
         <v>204</v>
       </c>
-      <c r="AA76" s="308"/>
-      <c r="AB76" s="309"/>
+      <c r="AA76" s="323"/>
+      <c r="AB76" s="324"/>
       <c r="AC76" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD76" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE76" s="308"/>
-      <c r="AF76" s="308"/>
-      <c r="AG76" s="309"/>
+      <c r="AE76" s="323"/>
+      <c r="AF76" s="323"/>
+      <c r="AG76" s="324"/>
       <c r="AL76" s="235" t="s">
         <v>214</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="AO76" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP76" s="374" t="s">
+      <c r="AP76" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU76" s="133"/>
@@ -13336,44 +13336,44 @@
       </c>
       <c r="F77" s="303"/>
       <c r="G77" s="303"/>
-      <c r="H77" s="374"/>
-      <c r="I77" s="403" t="s">
+      <c r="H77" s="325"/>
+      <c r="I77" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J77" s="404"/>
-      <c r="K77" s="404"/>
-      <c r="L77" s="405"/>
-      <c r="M77" s="313" t="s">
+      <c r="J77" s="330"/>
+      <c r="K77" s="330"/>
+      <c r="L77" s="331"/>
+      <c r="M77" s="327" t="s">
         <v>220</v>
       </c>
-      <c r="N77" s="406"/>
-      <c r="O77" s="406"/>
-      <c r="P77" s="406"/>
-      <c r="Q77" s="406"/>
-      <c r="R77" s="406"/>
-      <c r="S77" s="406"/>
-      <c r="T77" s="407"/>
+      <c r="N77" s="398"/>
+      <c r="O77" s="398"/>
+      <c r="P77" s="398"/>
+      <c r="Q77" s="398"/>
+      <c r="R77" s="398"/>
+      <c r="S77" s="398"/>
+      <c r="T77" s="399"/>
       <c r="U77" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V77" s="308"/>
-      <c r="W77" s="308"/>
-      <c r="X77" s="308"/>
-      <c r="Y77" s="309"/>
-      <c r="Z77" s="307" t="s">
+      <c r="V77" s="323"/>
+      <c r="W77" s="323"/>
+      <c r="X77" s="323"/>
+      <c r="Y77" s="324"/>
+      <c r="Z77" s="322" t="s">
         <v>205</v>
       </c>
-      <c r="AA77" s="308"/>
-      <c r="AB77" s="309"/>
+      <c r="AA77" s="323"/>
+      <c r="AB77" s="324"/>
       <c r="AC77" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD77" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE77" s="308"/>
-      <c r="AF77" s="308"/>
-      <c r="AG77" s="309"/>
+      <c r="AE77" s="323"/>
+      <c r="AF77" s="323"/>
+      <c r="AG77" s="324"/>
       <c r="AL77" s="235" t="s">
         <v>214</v>
       </c>
@@ -13386,7 +13386,7 @@
       <c r="AO77" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP77" s="374" t="s">
+      <c r="AP77" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU77" s="133"/>
@@ -13405,44 +13405,44 @@
       </c>
       <c r="F78" s="303"/>
       <c r="G78" s="303"/>
-      <c r="H78" s="374"/>
-      <c r="I78" s="403" t="s">
+      <c r="H78" s="325"/>
+      <c r="I78" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J78" s="404"/>
-      <c r="K78" s="404"/>
-      <c r="L78" s="405"/>
-      <c r="M78" s="313" t="s">
+      <c r="J78" s="330"/>
+      <c r="K78" s="330"/>
+      <c r="L78" s="331"/>
+      <c r="M78" s="327" t="s">
         <v>222</v>
       </c>
-      <c r="N78" s="314"/>
-      <c r="O78" s="314"/>
-      <c r="P78" s="314"/>
-      <c r="Q78" s="314"/>
-      <c r="R78" s="314"/>
-      <c r="S78" s="314"/>
-      <c r="T78" s="315"/>
+      <c r="N78" s="318"/>
+      <c r="O78" s="318"/>
+      <c r="P78" s="318"/>
+      <c r="Q78" s="318"/>
+      <c r="R78" s="318"/>
+      <c r="S78" s="318"/>
+      <c r="T78" s="319"/>
       <c r="U78" s="232" t="s">
         <v>368</v>
       </c>
-      <c r="V78" s="308"/>
-      <c r="W78" s="308"/>
-      <c r="X78" s="308"/>
-      <c r="Y78" s="309"/>
-      <c r="Z78" s="325" t="s">
+      <c r="V78" s="323"/>
+      <c r="W78" s="323"/>
+      <c r="X78" s="323"/>
+      <c r="Y78" s="324"/>
+      <c r="Z78" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="AA78" s="326"/>
-      <c r="AB78" s="326"/>
+      <c r="AA78" s="321"/>
+      <c r="AB78" s="321"/>
       <c r="AC78" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD78" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE78" s="308"/>
-      <c r="AF78" s="308"/>
-      <c r="AG78" s="309"/>
+      <c r="AE78" s="323"/>
+      <c r="AF78" s="323"/>
+      <c r="AG78" s="324"/>
       <c r="AH78" s="135"/>
       <c r="AI78" s="135"/>
       <c r="AJ78" s="135"/>
@@ -13459,7 +13459,7 @@
       <c r="AO78" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP78" s="374" t="s">
+      <c r="AP78" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ78" s="135"/>
@@ -13477,44 +13477,44 @@
       </c>
       <c r="F79" s="303"/>
       <c r="G79" s="303"/>
-      <c r="H79" s="374"/>
-      <c r="I79" s="403" t="s">
+      <c r="H79" s="325"/>
+      <c r="I79" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J79" s="404"/>
-      <c r="K79" s="404"/>
-      <c r="L79" s="405"/>
-      <c r="M79" s="313" t="s">
+      <c r="J79" s="330"/>
+      <c r="K79" s="330"/>
+      <c r="L79" s="331"/>
+      <c r="M79" s="327" t="s">
         <v>221</v>
       </c>
-      <c r="N79" s="314"/>
-      <c r="O79" s="314"/>
-      <c r="P79" s="314"/>
-      <c r="Q79" s="314"/>
-      <c r="R79" s="314"/>
-      <c r="S79" s="314"/>
-      <c r="T79" s="315"/>
+      <c r="N79" s="318"/>
+      <c r="O79" s="318"/>
+      <c r="P79" s="318"/>
+      <c r="Q79" s="318"/>
+      <c r="R79" s="318"/>
+      <c r="S79" s="318"/>
+      <c r="T79" s="319"/>
       <c r="U79" s="232" t="s">
         <v>367</v>
       </c>
-      <c r="V79" s="308"/>
-      <c r="W79" s="308"/>
-      <c r="X79" s="308"/>
-      <c r="Y79" s="309"/>
-      <c r="Z79" s="325" t="s">
+      <c r="V79" s="323"/>
+      <c r="W79" s="323"/>
+      <c r="X79" s="323"/>
+      <c r="Y79" s="324"/>
+      <c r="Z79" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="AA79" s="326"/>
-      <c r="AB79" s="326"/>
+      <c r="AA79" s="321"/>
+      <c r="AB79" s="321"/>
       <c r="AC79" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD79" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE79" s="308"/>
-      <c r="AF79" s="308"/>
-      <c r="AG79" s="309"/>
+      <c r="AE79" s="323"/>
+      <c r="AF79" s="323"/>
+      <c r="AG79" s="324"/>
       <c r="AH79" s="135"/>
       <c r="AI79" s="135"/>
       <c r="AJ79" s="135"/>
@@ -13531,7 +13531,7 @@
       <c r="AO79" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP79" s="374" t="s">
+      <c r="AP79" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ79" s="135"/>
@@ -13549,44 +13549,44 @@
       </c>
       <c r="F80" s="303"/>
       <c r="G80" s="303"/>
-      <c r="H80" s="374"/>
-      <c r="I80" s="408" t="s">
+      <c r="H80" s="325"/>
+      <c r="I80" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="J80" s="409"/>
-      <c r="K80" s="409"/>
-      <c r="L80" s="410"/>
-      <c r="M80" s="313" t="s">
+      <c r="J80" s="401"/>
+      <c r="K80" s="401"/>
+      <c r="L80" s="402"/>
+      <c r="M80" s="327" t="s">
         <v>223</v>
       </c>
-      <c r="N80" s="314"/>
-      <c r="O80" s="314"/>
-      <c r="P80" s="314"/>
-      <c r="Q80" s="314"/>
-      <c r="R80" s="314"/>
-      <c r="S80" s="314"/>
-      <c r="T80" s="315"/>
+      <c r="N80" s="318"/>
+      <c r="O80" s="318"/>
+      <c r="P80" s="318"/>
+      <c r="Q80" s="318"/>
+      <c r="R80" s="318"/>
+      <c r="S80" s="318"/>
+      <c r="T80" s="319"/>
       <c r="U80" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V80" s="308"/>
-      <c r="W80" s="308"/>
-      <c r="X80" s="308"/>
-      <c r="Y80" s="309"/>
-      <c r="Z80" s="307" t="s">
+      <c r="V80" s="323"/>
+      <c r="W80" s="323"/>
+      <c r="X80" s="323"/>
+      <c r="Y80" s="324"/>
+      <c r="Z80" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA80" s="308"/>
-      <c r="AB80" s="309"/>
+      <c r="AA80" s="323"/>
+      <c r="AB80" s="324"/>
       <c r="AC80" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD80" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE80" s="308"/>
-      <c r="AF80" s="308"/>
-      <c r="AG80" s="309"/>
+      <c r="AE80" s="323"/>
+      <c r="AF80" s="323"/>
+      <c r="AG80" s="324"/>
       <c r="AL80" s="235" t="s">
         <v>214</v>
       </c>
@@ -13599,7 +13599,7 @@
       <c r="AO80" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP80" s="374" t="s">
+      <c r="AP80" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU80" s="133"/>
@@ -13618,44 +13618,44 @@
       </c>
       <c r="F81" s="303"/>
       <c r="G81" s="303"/>
-      <c r="H81" s="374"/>
-      <c r="I81" s="411" t="s">
+      <c r="H81" s="325"/>
+      <c r="I81" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="J81" s="412"/>
-      <c r="K81" s="412"/>
-      <c r="L81" s="413"/>
-      <c r="M81" s="313" t="s">
+      <c r="J81" s="404"/>
+      <c r="K81" s="404"/>
+      <c r="L81" s="405"/>
+      <c r="M81" s="327" t="s">
         <v>224</v>
       </c>
-      <c r="N81" s="314"/>
-      <c r="O81" s="314"/>
-      <c r="P81" s="314"/>
-      <c r="Q81" s="314"/>
-      <c r="R81" s="314"/>
-      <c r="S81" s="314"/>
-      <c r="T81" s="315"/>
+      <c r="N81" s="318"/>
+      <c r="O81" s="318"/>
+      <c r="P81" s="318"/>
+      <c r="Q81" s="318"/>
+      <c r="R81" s="318"/>
+      <c r="S81" s="318"/>
+      <c r="T81" s="319"/>
       <c r="U81" s="232" t="s">
         <v>231</v>
       </c>
-      <c r="V81" s="308"/>
-      <c r="W81" s="308"/>
-      <c r="X81" s="308"/>
-      <c r="Y81" s="309"/>
-      <c r="Z81" s="307" t="s">
+      <c r="V81" s="323"/>
+      <c r="W81" s="323"/>
+      <c r="X81" s="323"/>
+      <c r="Y81" s="324"/>
+      <c r="Z81" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA81" s="308"/>
-      <c r="AB81" s="309"/>
+      <c r="AA81" s="323"/>
+      <c r="AB81" s="324"/>
       <c r="AC81" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD81" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE81" s="308"/>
-      <c r="AF81" s="308"/>
-      <c r="AG81" s="309"/>
+      <c r="AE81" s="323"/>
+      <c r="AF81" s="323"/>
+      <c r="AG81" s="324"/>
       <c r="AL81" s="235" t="s">
         <v>214</v>
       </c>
@@ -13668,7 +13668,7 @@
       <c r="AO81" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP81" s="374" t="s">
+      <c r="AP81" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AY81" s="109"/>
@@ -13681,46 +13681,46 @@
       <c r="E82" s="232" t="s">
         <v>212</v>
       </c>
-      <c r="F82" s="308"/>
-      <c r="G82" s="308"/>
-      <c r="H82" s="309"/>
-      <c r="I82" s="403" t="s">
+      <c r="F82" s="323"/>
+      <c r="G82" s="323"/>
+      <c r="H82" s="324"/>
+      <c r="I82" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J82" s="404"/>
-      <c r="K82" s="404"/>
-      <c r="L82" s="405"/>
-      <c r="M82" s="313" t="s">
+      <c r="J82" s="330"/>
+      <c r="K82" s="330"/>
+      <c r="L82" s="331"/>
+      <c r="M82" s="327" t="s">
         <v>225</v>
       </c>
-      <c r="N82" s="314"/>
-      <c r="O82" s="314"/>
-      <c r="P82" s="314"/>
-      <c r="Q82" s="314"/>
-      <c r="R82" s="314"/>
-      <c r="S82" s="314"/>
-      <c r="T82" s="315"/>
-      <c r="U82" s="307" t="s">
+      <c r="N82" s="318"/>
+      <c r="O82" s="318"/>
+      <c r="P82" s="318"/>
+      <c r="Q82" s="318"/>
+      <c r="R82" s="318"/>
+      <c r="S82" s="318"/>
+      <c r="T82" s="319"/>
+      <c r="U82" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V82" s="308"/>
-      <c r="W82" s="308"/>
-      <c r="X82" s="308"/>
-      <c r="Y82" s="309"/>
-      <c r="Z82" s="307" t="s">
+      <c r="V82" s="323"/>
+      <c r="W82" s="323"/>
+      <c r="X82" s="323"/>
+      <c r="Y82" s="324"/>
+      <c r="Z82" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA82" s="308"/>
-      <c r="AB82" s="309"/>
+      <c r="AA82" s="323"/>
+      <c r="AB82" s="324"/>
       <c r="AC82" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD82" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE82" s="308"/>
-      <c r="AF82" s="308"/>
-      <c r="AG82" s="309"/>
+      <c r="AE82" s="323"/>
+      <c r="AF82" s="323"/>
+      <c r="AG82" s="324"/>
       <c r="AH82" s="151"/>
       <c r="AI82" s="151"/>
       <c r="AJ82" s="151"/>
@@ -13737,7 +13737,7 @@
       <c r="AO82" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP82" s="374" t="s">
+      <c r="AP82" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ82" s="135"/>
@@ -13751,46 +13751,46 @@
       <c r="E83" s="232" t="s">
         <v>213</v>
       </c>
-      <c r="F83" s="308"/>
-      <c r="G83" s="308"/>
-      <c r="H83" s="309"/>
-      <c r="I83" s="403" t="s">
+      <c r="F83" s="323"/>
+      <c r="G83" s="323"/>
+      <c r="H83" s="324"/>
+      <c r="I83" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J83" s="404"/>
-      <c r="K83" s="404"/>
-      <c r="L83" s="405"/>
-      <c r="M83" s="313" t="s">
+      <c r="J83" s="330"/>
+      <c r="K83" s="330"/>
+      <c r="L83" s="331"/>
+      <c r="M83" s="327" t="s">
         <v>226</v>
       </c>
-      <c r="N83" s="314"/>
-      <c r="O83" s="314"/>
-      <c r="P83" s="314"/>
-      <c r="Q83" s="314"/>
-      <c r="R83" s="314"/>
-      <c r="S83" s="314"/>
-      <c r="T83" s="315"/>
-      <c r="U83" s="307" t="s">
+      <c r="N83" s="318"/>
+      <c r="O83" s="318"/>
+      <c r="P83" s="318"/>
+      <c r="Q83" s="318"/>
+      <c r="R83" s="318"/>
+      <c r="S83" s="318"/>
+      <c r="T83" s="319"/>
+      <c r="U83" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V83" s="308"/>
-      <c r="W83" s="308"/>
-      <c r="X83" s="308"/>
-      <c r="Y83" s="309"/>
-      <c r="Z83" s="307" t="s">
+      <c r="V83" s="323"/>
+      <c r="W83" s="323"/>
+      <c r="X83" s="323"/>
+      <c r="Y83" s="324"/>
+      <c r="Z83" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA83" s="308"/>
-      <c r="AB83" s="309"/>
+      <c r="AA83" s="323"/>
+      <c r="AB83" s="324"/>
       <c r="AC83" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD83" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE83" s="308"/>
-      <c r="AF83" s="308"/>
-      <c r="AG83" s="309"/>
+      <c r="AE83" s="323"/>
+      <c r="AF83" s="323"/>
+      <c r="AG83" s="324"/>
       <c r="AL83" s="235" t="s">
         <v>214</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="AO83" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP83" s="374" t="s">
+      <c r="AP83" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU83" s="133"/>
@@ -13920,24 +13920,24 @@
       <c r="AW87" s="106"/>
     </row>
     <row r="88" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D88" s="327" t="s">
+      <c r="D88" s="307" t="s">
         <v>117</v>
       </c>
-      <c r="E88" s="329" t="s">
+      <c r="E88" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="330"/>
-      <c r="G88" s="330"/>
-      <c r="H88" s="330"/>
-      <c r="I88" s="330"/>
-      <c r="J88" s="331"/>
-      <c r="K88" s="329" t="s">
+      <c r="F88" s="310"/>
+      <c r="G88" s="310"/>
+      <c r="H88" s="310"/>
+      <c r="I88" s="310"/>
+      <c r="J88" s="311"/>
+      <c r="K88" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="L88" s="330"/>
-      <c r="M88" s="330"/>
-      <c r="N88" s="331"/>
-      <c r="O88" s="414" t="s">
+      <c r="L88" s="310"/>
+      <c r="M88" s="310"/>
+      <c r="N88" s="311"/>
+      <c r="O88" s="406" t="s">
         <v>51</v>
       </c>
       <c r="P88" s="141" t="s">
@@ -13948,21 +13948,21 @@
       <c r="S88" s="142"/>
       <c r="T88" s="142"/>
       <c r="U88" s="142"/>
-      <c r="V88" s="329" t="s">
+      <c r="V88" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="W88" s="330"/>
-      <c r="X88" s="330"/>
-      <c r="Y88" s="330"/>
-      <c r="Z88" s="330"/>
-      <c r="AA88" s="330"/>
-      <c r="AB88" s="330"/>
-      <c r="AC88" s="330"/>
-      <c r="AD88" s="330"/>
-      <c r="AE88" s="330"/>
-      <c r="AF88" s="330"/>
-      <c r="AG88" s="330"/>
-      <c r="AH88" s="331"/>
+      <c r="W88" s="310"/>
+      <c r="X88" s="310"/>
+      <c r="Y88" s="310"/>
+      <c r="Z88" s="310"/>
+      <c r="AA88" s="310"/>
+      <c r="AB88" s="310"/>
+      <c r="AC88" s="310"/>
+      <c r="AD88" s="310"/>
+      <c r="AE88" s="310"/>
+      <c r="AF88" s="310"/>
+      <c r="AG88" s="310"/>
+      <c r="AH88" s="311"/>
       <c r="AK88" s="106"/>
       <c r="AL88" s="106"/>
       <c r="AM88" s="106"/>
@@ -13978,18 +13978,18 @@
       <c r="AW88" s="106"/>
     </row>
     <row r="89" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D89" s="328"/>
-      <c r="E89" s="332"/>
-      <c r="F89" s="333"/>
-      <c r="G89" s="333"/>
-      <c r="H89" s="333"/>
-      <c r="I89" s="333"/>
-      <c r="J89" s="334"/>
-      <c r="K89" s="332"/>
-      <c r="L89" s="333"/>
-      <c r="M89" s="333"/>
-      <c r="N89" s="334"/>
-      <c r="O89" s="415"/>
+      <c r="D89" s="308"/>
+      <c r="E89" s="312"/>
+      <c r="F89" s="313"/>
+      <c r="G89" s="313"/>
+      <c r="H89" s="313"/>
+      <c r="I89" s="313"/>
+      <c r="J89" s="314"/>
+      <c r="K89" s="312"/>
+      <c r="L89" s="313"/>
+      <c r="M89" s="313"/>
+      <c r="N89" s="314"/>
+      <c r="O89" s="407"/>
       <c r="P89" s="143" t="s">
         <v>52</v>
       </c>
@@ -14002,23 +14002,23 @@
       <c r="S89" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="T89" s="416" t="s">
+      <c r="T89" s="408" t="s">
         <v>59</v>
       </c>
-      <c r="U89" s="417"/>
-      <c r="V89" s="332"/>
-      <c r="W89" s="333"/>
-      <c r="X89" s="333"/>
-      <c r="Y89" s="333"/>
-      <c r="Z89" s="333"/>
-      <c r="AA89" s="333"/>
-      <c r="AB89" s="333"/>
-      <c r="AC89" s="333"/>
-      <c r="AD89" s="333"/>
-      <c r="AE89" s="333"/>
-      <c r="AF89" s="333"/>
-      <c r="AG89" s="333"/>
-      <c r="AH89" s="334"/>
+      <c r="U89" s="409"/>
+      <c r="V89" s="312"/>
+      <c r="W89" s="313"/>
+      <c r="X89" s="313"/>
+      <c r="Y89" s="313"/>
+      <c r="Z89" s="313"/>
+      <c r="AA89" s="313"/>
+      <c r="AB89" s="313"/>
+      <c r="AC89" s="313"/>
+      <c r="AD89" s="313"/>
+      <c r="AE89" s="313"/>
+      <c r="AF89" s="313"/>
+      <c r="AG89" s="313"/>
+      <c r="AH89" s="314"/>
       <c r="AK89" s="106"/>
       <c r="AL89" s="106"/>
       <c r="AM89" s="106"/>
@@ -14037,20 +14037,20 @@
       <c r="D90" s="144">
         <v>1</v>
       </c>
-      <c r="E90" s="393" t="s">
+      <c r="E90" s="391" t="s">
         <v>150</v>
       </c>
-      <c r="F90" s="394"/>
-      <c r="G90" s="394"/>
-      <c r="H90" s="394"/>
-      <c r="I90" s="394"/>
-      <c r="J90" s="395"/>
-      <c r="K90" s="307" t="s">
+      <c r="F90" s="392"/>
+      <c r="G90" s="392"/>
+      <c r="H90" s="392"/>
+      <c r="I90" s="392"/>
+      <c r="J90" s="393"/>
+      <c r="K90" s="322" t="s">
         <v>95</v>
       </c>
-      <c r="L90" s="308"/>
-      <c r="M90" s="308"/>
-      <c r="N90" s="309"/>
+      <c r="L90" s="323"/>
+      <c r="M90" s="323"/>
+      <c r="N90" s="324"/>
       <c r="O90" s="139" t="s">
         <v>96</v>
       </c>
@@ -14066,25 +14066,25 @@
       <c r="S90" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="T90" s="396" t="s">
+      <c r="T90" s="394" t="s">
         <v>92</v>
       </c>
-      <c r="U90" s="397"/>
-      <c r="V90" s="307" t="s">
+      <c r="U90" s="395"/>
+      <c r="V90" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="W90" s="308"/>
-      <c r="X90" s="308"/>
-      <c r="Y90" s="308"/>
-      <c r="Z90" s="308"/>
-      <c r="AA90" s="308"/>
-      <c r="AB90" s="308"/>
-      <c r="AC90" s="308"/>
-      <c r="AD90" s="308"/>
-      <c r="AE90" s="308"/>
-      <c r="AF90" s="308"/>
-      <c r="AG90" s="308"/>
-      <c r="AH90" s="309"/>
+      <c r="W90" s="323"/>
+      <c r="X90" s="323"/>
+      <c r="Y90" s="323"/>
+      <c r="Z90" s="323"/>
+      <c r="AA90" s="323"/>
+      <c r="AB90" s="323"/>
+      <c r="AC90" s="323"/>
+      <c r="AD90" s="323"/>
+      <c r="AE90" s="323"/>
+      <c r="AF90" s="323"/>
+      <c r="AG90" s="323"/>
+      <c r="AH90" s="324"/>
       <c r="AK90" s="106"/>
       <c r="AL90" s="106"/>
       <c r="AM90" s="106"/>
@@ -14103,20 +14103,20 @@
       <c r="D91" s="144">
         <v>2</v>
       </c>
-      <c r="E91" s="393" t="s">
+      <c r="E91" s="391" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="394"/>
-      <c r="G91" s="394"/>
-      <c r="H91" s="394"/>
-      <c r="I91" s="394"/>
-      <c r="J91" s="395"/>
-      <c r="K91" s="307" t="s">
+      <c r="F91" s="392"/>
+      <c r="G91" s="392"/>
+      <c r="H91" s="392"/>
+      <c r="I91" s="392"/>
+      <c r="J91" s="393"/>
+      <c r="K91" s="322" t="s">
         <v>95</v>
       </c>
-      <c r="L91" s="308"/>
-      <c r="M91" s="308"/>
-      <c r="N91" s="309"/>
+      <c r="L91" s="323"/>
+      <c r="M91" s="323"/>
+      <c r="N91" s="324"/>
       <c r="O91" s="139" t="s">
         <v>96</v>
       </c>
@@ -14132,25 +14132,25 @@
       <c r="S91" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="T91" s="396" t="s">
+      <c r="T91" s="394" t="s">
         <v>92</v>
       </c>
-      <c r="U91" s="397"/>
-      <c r="V91" s="307" t="s">
+      <c r="U91" s="395"/>
+      <c r="V91" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="W91" s="308"/>
-      <c r="X91" s="308"/>
-      <c r="Y91" s="308"/>
-      <c r="Z91" s="308"/>
-      <c r="AA91" s="308"/>
-      <c r="AB91" s="308"/>
-      <c r="AC91" s="308"/>
-      <c r="AD91" s="308"/>
-      <c r="AE91" s="308"/>
-      <c r="AF91" s="308"/>
-      <c r="AG91" s="308"/>
-      <c r="AH91" s="309"/>
+      <c r="W91" s="323"/>
+      <c r="X91" s="323"/>
+      <c r="Y91" s="323"/>
+      <c r="Z91" s="323"/>
+      <c r="AA91" s="323"/>
+      <c r="AB91" s="323"/>
+      <c r="AC91" s="323"/>
+      <c r="AD91" s="323"/>
+      <c r="AE91" s="323"/>
+      <c r="AF91" s="323"/>
+      <c r="AG91" s="323"/>
+      <c r="AH91" s="324"/>
       <c r="AK91" s="106"/>
       <c r="AL91" s="106"/>
       <c r="AM91" s="106"/>
@@ -14276,271 +14276,271 @@
       <c r="D96" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="320" t="s">
+      <c r="E96" s="344" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="321"/>
-      <c r="G96" s="321"/>
-      <c r="H96" s="321"/>
-      <c r="I96" s="321"/>
-      <c r="J96" s="322"/>
-      <c r="K96" s="320" t="s">
+      <c r="F96" s="315"/>
+      <c r="G96" s="315"/>
+      <c r="H96" s="315"/>
+      <c r="I96" s="315"/>
+      <c r="J96" s="345"/>
+      <c r="K96" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="L96" s="321"/>
-      <c r="M96" s="321"/>
-      <c r="N96" s="321"/>
-      <c r="O96" s="321"/>
-      <c r="P96" s="321"/>
-      <c r="Q96" s="323"/>
+      <c r="L96" s="315"/>
+      <c r="M96" s="315"/>
+      <c r="N96" s="315"/>
+      <c r="O96" s="315"/>
+      <c r="P96" s="315"/>
+      <c r="Q96" s="316"/>
       <c r="R96" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="S96" s="321"/>
-      <c r="T96" s="321"/>
-      <c r="U96" s="321"/>
-      <c r="V96" s="321"/>
-      <c r="W96" s="321"/>
-      <c r="X96" s="321"/>
-      <c r="Y96" s="323"/>
-      <c r="Z96" s="389" t="s">
+      <c r="S96" s="315"/>
+      <c r="T96" s="315"/>
+      <c r="U96" s="315"/>
+      <c r="V96" s="315"/>
+      <c r="W96" s="315"/>
+      <c r="X96" s="315"/>
+      <c r="Y96" s="316"/>
+      <c r="Z96" s="338" t="s">
         <v>26</v>
       </c>
-      <c r="AA96" s="390"/>
-      <c r="AB96" s="390"/>
-      <c r="AC96" s="390"/>
-      <c r="AD96" s="391"/>
-      <c r="AE96" s="400" t="s">
+      <c r="AA96" s="339"/>
+      <c r="AB96" s="339"/>
+      <c r="AC96" s="339"/>
+      <c r="AD96" s="340"/>
+      <c r="AE96" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="AF96" s="401"/>
-      <c r="AG96" s="401"/>
-      <c r="AH96" s="402"/>
+      <c r="AF96" s="336"/>
+      <c r="AG96" s="336"/>
+      <c r="AH96" s="337"/>
     </row>
     <row r="97" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="147">
         <v>1</v>
       </c>
-      <c r="E97" s="338" t="s">
+      <c r="E97" s="416" t="s">
         <v>98</v>
       </c>
-      <c r="F97" s="317"/>
-      <c r="G97" s="317"/>
-      <c r="H97" s="317"/>
-      <c r="I97" s="317"/>
-      <c r="J97" s="318"/>
-      <c r="K97" s="307" t="s">
+      <c r="F97" s="333"/>
+      <c r="G97" s="333"/>
+      <c r="H97" s="333"/>
+      <c r="I97" s="333"/>
+      <c r="J97" s="334"/>
+      <c r="K97" s="322" t="s">
         <v>99</v>
       </c>
-      <c r="L97" s="308"/>
-      <c r="M97" s="308"/>
-      <c r="N97" s="308"/>
-      <c r="O97" s="308"/>
-      <c r="P97" s="308"/>
-      <c r="Q97" s="309"/>
+      <c r="L97" s="323"/>
+      <c r="M97" s="323"/>
+      <c r="N97" s="323"/>
+      <c r="O97" s="323"/>
+      <c r="P97" s="323"/>
+      <c r="Q97" s="324"/>
       <c r="R97" s="232" t="s">
         <v>197</v>
       </c>
-      <c r="S97" s="308"/>
-      <c r="T97" s="308"/>
-      <c r="U97" s="308"/>
-      <c r="V97" s="308"/>
-      <c r="W97" s="308"/>
-      <c r="X97" s="308"/>
-      <c r="Y97" s="309"/>
-      <c r="Z97" s="307" t="s">
+      <c r="S97" s="323"/>
+      <c r="T97" s="323"/>
+      <c r="U97" s="323"/>
+      <c r="V97" s="323"/>
+      <c r="W97" s="323"/>
+      <c r="X97" s="323"/>
+      <c r="Y97" s="324"/>
+      <c r="Z97" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="AA97" s="308"/>
-      <c r="AB97" s="308"/>
-      <c r="AC97" s="308"/>
-      <c r="AD97" s="309"/>
-      <c r="AE97" s="310" t="s">
+      <c r="AA97" s="323"/>
+      <c r="AB97" s="323"/>
+      <c r="AC97" s="323"/>
+      <c r="AD97" s="324"/>
+      <c r="AE97" s="341" t="s">
         <v>71</v>
       </c>
-      <c r="AF97" s="311"/>
-      <c r="AG97" s="311"/>
-      <c r="AH97" s="312"/>
+      <c r="AF97" s="342"/>
+      <c r="AG97" s="342"/>
+      <c r="AH97" s="343"/>
     </row>
     <row r="98" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="177">
         <v>2</v>
       </c>
-      <c r="E98" s="418" t="s">
+      <c r="E98" s="410" t="s">
         <v>151</v>
       </c>
-      <c r="F98" s="419"/>
-      <c r="G98" s="419"/>
-      <c r="H98" s="419"/>
-      <c r="I98" s="419"/>
-      <c r="J98" s="420"/>
-      <c r="K98" s="418" t="s">
+      <c r="F98" s="411"/>
+      <c r="G98" s="411"/>
+      <c r="H98" s="411"/>
+      <c r="I98" s="411"/>
+      <c r="J98" s="412"/>
+      <c r="K98" s="410" t="s">
         <v>152</v>
       </c>
-      <c r="L98" s="419"/>
-      <c r="M98" s="419"/>
-      <c r="N98" s="419"/>
-      <c r="O98" s="419"/>
-      <c r="P98" s="419"/>
-      <c r="Q98" s="420"/>
-      <c r="R98" s="418" t="s">
+      <c r="L98" s="411"/>
+      <c r="M98" s="411"/>
+      <c r="N98" s="411"/>
+      <c r="O98" s="411"/>
+      <c r="P98" s="411"/>
+      <c r="Q98" s="412"/>
+      <c r="R98" s="410" t="s">
         <v>153</v>
       </c>
-      <c r="S98" s="419"/>
-      <c r="T98" s="419"/>
-      <c r="U98" s="419"/>
-      <c r="V98" s="419"/>
-      <c r="W98" s="419"/>
-      <c r="X98" s="419"/>
-      <c r="Y98" s="420"/>
-      <c r="Z98" s="418" t="s">
+      <c r="S98" s="411"/>
+      <c r="T98" s="411"/>
+      <c r="U98" s="411"/>
+      <c r="V98" s="411"/>
+      <c r="W98" s="411"/>
+      <c r="X98" s="411"/>
+      <c r="Y98" s="412"/>
+      <c r="Z98" s="410" t="s">
         <v>202</v>
       </c>
-      <c r="AA98" s="419"/>
-      <c r="AB98" s="419"/>
-      <c r="AC98" s="419"/>
-      <c r="AD98" s="420"/>
-      <c r="AE98" s="421" t="s">
+      <c r="AA98" s="411"/>
+      <c r="AB98" s="411"/>
+      <c r="AC98" s="411"/>
+      <c r="AD98" s="412"/>
+      <c r="AE98" s="413" t="s">
         <v>74</v>
       </c>
-      <c r="AF98" s="422"/>
-      <c r="AG98" s="422"/>
-      <c r="AH98" s="423"/>
+      <c r="AF98" s="414"/>
+      <c r="AG98" s="414"/>
+      <c r="AH98" s="415"/>
     </row>
     <row r="99" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="147">
         <v>3</v>
       </c>
-      <c r="E99" s="316" t="s">
+      <c r="E99" s="332" t="s">
         <v>200</v>
       </c>
-      <c r="F99" s="317"/>
-      <c r="G99" s="317"/>
-      <c r="H99" s="317"/>
-      <c r="I99" s="317"/>
-      <c r="J99" s="318"/>
+      <c r="F99" s="333"/>
+      <c r="G99" s="333"/>
+      <c r="H99" s="333"/>
+      <c r="I99" s="333"/>
+      <c r="J99" s="334"/>
       <c r="K99" s="232" t="s">
         <v>198</v>
       </c>
-      <c r="L99" s="308"/>
-      <c r="M99" s="308"/>
-      <c r="N99" s="308"/>
-      <c r="O99" s="308"/>
-      <c r="P99" s="308"/>
-      <c r="Q99" s="309"/>
+      <c r="L99" s="323"/>
+      <c r="M99" s="323"/>
+      <c r="N99" s="323"/>
+      <c r="O99" s="323"/>
+      <c r="P99" s="323"/>
+      <c r="Q99" s="324"/>
       <c r="R99" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="S99" s="308"/>
-      <c r="T99" s="308"/>
-      <c r="U99" s="308"/>
-      <c r="V99" s="308"/>
-      <c r="W99" s="308"/>
-      <c r="X99" s="308"/>
-      <c r="Y99" s="309"/>
-      <c r="Z99" s="316" t="s">
+      <c r="S99" s="323"/>
+      <c r="T99" s="323"/>
+      <c r="U99" s="323"/>
+      <c r="V99" s="323"/>
+      <c r="W99" s="323"/>
+      <c r="X99" s="323"/>
+      <c r="Y99" s="324"/>
+      <c r="Z99" s="332" t="s">
         <v>201</v>
       </c>
-      <c r="AA99" s="317"/>
-      <c r="AB99" s="317"/>
-      <c r="AC99" s="317"/>
-      <c r="AD99" s="318"/>
-      <c r="AE99" s="310" t="s">
+      <c r="AA99" s="333"/>
+      <c r="AB99" s="333"/>
+      <c r="AC99" s="333"/>
+      <c r="AD99" s="334"/>
+      <c r="AE99" s="341" t="s">
         <v>71</v>
       </c>
-      <c r="AF99" s="311"/>
-      <c r="AG99" s="311"/>
-      <c r="AH99" s="312"/>
+      <c r="AF99" s="342"/>
+      <c r="AG99" s="342"/>
+      <c r="AH99" s="343"/>
     </row>
     <row r="100" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="147">
         <v>4</v>
       </c>
-      <c r="E100" s="316" t="s">
+      <c r="E100" s="332" t="s">
         <v>312</v>
       </c>
-      <c r="F100" s="317"/>
-      <c r="G100" s="317"/>
-      <c r="H100" s="317"/>
-      <c r="I100" s="317"/>
-      <c r="J100" s="318"/>
+      <c r="F100" s="333"/>
+      <c r="G100" s="333"/>
+      <c r="H100" s="333"/>
+      <c r="I100" s="333"/>
+      <c r="J100" s="334"/>
       <c r="K100" s="232" t="s">
         <v>313</v>
       </c>
-      <c r="L100" s="308"/>
-      <c r="M100" s="308"/>
-      <c r="N100" s="308"/>
-      <c r="O100" s="308"/>
-      <c r="P100" s="308"/>
-      <c r="Q100" s="309"/>
+      <c r="L100" s="323"/>
+      <c r="M100" s="323"/>
+      <c r="N100" s="323"/>
+      <c r="O100" s="323"/>
+      <c r="P100" s="323"/>
+      <c r="Q100" s="324"/>
       <c r="R100" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="S100" s="308"/>
-      <c r="T100" s="308"/>
-      <c r="U100" s="308"/>
-      <c r="V100" s="308"/>
-      <c r="W100" s="308"/>
-      <c r="X100" s="308"/>
-      <c r="Y100" s="309"/>
-      <c r="Z100" s="316" t="s">
+      <c r="S100" s="323"/>
+      <c r="T100" s="323"/>
+      <c r="U100" s="323"/>
+      <c r="V100" s="323"/>
+      <c r="W100" s="323"/>
+      <c r="X100" s="323"/>
+      <c r="Y100" s="324"/>
+      <c r="Z100" s="332" t="s">
         <v>201</v>
       </c>
-      <c r="AA100" s="317"/>
-      <c r="AB100" s="317"/>
-      <c r="AC100" s="317"/>
-      <c r="AD100" s="318"/>
-      <c r="AE100" s="310" t="s">
+      <c r="AA100" s="333"/>
+      <c r="AB100" s="333"/>
+      <c r="AC100" s="333"/>
+      <c r="AD100" s="334"/>
+      <c r="AE100" s="341" t="s">
         <v>71</v>
       </c>
-      <c r="AF100" s="311"/>
-      <c r="AG100" s="311"/>
-      <c r="AH100" s="312"/>
+      <c r="AF100" s="342"/>
+      <c r="AG100" s="342"/>
+      <c r="AH100" s="343"/>
     </row>
     <row r="101" spans="1:56" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="147">
         <v>5</v>
       </c>
-      <c r="E101" s="316" t="s">
+      <c r="E101" s="332" t="s">
         <v>308</v>
       </c>
-      <c r="F101" s="317"/>
-      <c r="G101" s="317"/>
-      <c r="H101" s="317"/>
-      <c r="I101" s="317"/>
-      <c r="J101" s="318"/>
-      <c r="K101" s="316" t="s">
+      <c r="F101" s="333"/>
+      <c r="G101" s="333"/>
+      <c r="H101" s="333"/>
+      <c r="I101" s="333"/>
+      <c r="J101" s="334"/>
+      <c r="K101" s="332" t="s">
         <v>309</v>
       </c>
-      <c r="L101" s="317"/>
-      <c r="M101" s="317"/>
-      <c r="N101" s="317"/>
-      <c r="O101" s="317"/>
-      <c r="P101" s="317"/>
-      <c r="Q101" s="318"/>
-      <c r="R101" s="316" t="s">
+      <c r="L101" s="333"/>
+      <c r="M101" s="333"/>
+      <c r="N101" s="333"/>
+      <c r="O101" s="333"/>
+      <c r="P101" s="333"/>
+      <c r="Q101" s="334"/>
+      <c r="R101" s="332" t="s">
         <v>350</v>
       </c>
-      <c r="S101" s="317"/>
-      <c r="T101" s="317"/>
-      <c r="U101" s="317"/>
-      <c r="V101" s="317"/>
-      <c r="W101" s="317"/>
-      <c r="X101" s="317"/>
-      <c r="Y101" s="318"/>
-      <c r="Z101" s="316" t="s">
+      <c r="S101" s="333"/>
+      <c r="T101" s="333"/>
+      <c r="U101" s="333"/>
+      <c r="V101" s="333"/>
+      <c r="W101" s="333"/>
+      <c r="X101" s="333"/>
+      <c r="Y101" s="334"/>
+      <c r="Z101" s="332" t="s">
         <v>310</v>
       </c>
-      <c r="AA101" s="427"/>
-      <c r="AB101" s="427"/>
-      <c r="AC101" s="427"/>
-      <c r="AD101" s="428"/>
-      <c r="AE101" s="429" t="s">
+      <c r="AA101" s="424"/>
+      <c r="AB101" s="424"/>
+      <c r="AC101" s="424"/>
+      <c r="AD101" s="425"/>
+      <c r="AE101" s="426" t="s">
         <v>71</v>
       </c>
-      <c r="AF101" s="430"/>
-      <c r="AG101" s="430"/>
-      <c r="AH101" s="431"/>
+      <c r="AF101" s="427"/>
+      <c r="AG101" s="427"/>
+      <c r="AH101" s="428"/>
     </row>
     <row r="102" spans="1:56" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D102" s="129"/>
@@ -14775,82 +14775,82 @@
       </c>
     </row>
     <row r="115" spans="5:58" s="109" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G115" s="350" t="s">
+      <c r="G115" s="352" t="s">
         <v>103</v>
       </c>
-      <c r="H115" s="351"/>
-      <c r="I115" s="351"/>
-      <c r="J115" s="351"/>
-      <c r="K115" s="351"/>
-      <c r="L115" s="351"/>
-      <c r="M115" s="351"/>
-      <c r="N115" s="351"/>
-      <c r="O115" s="351"/>
-      <c r="P115" s="352"/>
-      <c r="Q115" s="347" t="s">
+      <c r="H115" s="353"/>
+      <c r="I115" s="353"/>
+      <c r="J115" s="353"/>
+      <c r="K115" s="353"/>
+      <c r="L115" s="353"/>
+      <c r="M115" s="353"/>
+      <c r="N115" s="353"/>
+      <c r="O115" s="353"/>
+      <c r="P115" s="354"/>
+      <c r="Q115" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="R115" s="348"/>
-      <c r="S115" s="348"/>
-      <c r="T115" s="348"/>
-      <c r="U115" s="348"/>
-      <c r="V115" s="348"/>
-      <c r="W115" s="348"/>
-      <c r="X115" s="348"/>
-      <c r="Y115" s="348"/>
-      <c r="Z115" s="349"/>
+      <c r="R115" s="350"/>
+      <c r="S115" s="350"/>
+      <c r="T115" s="350"/>
+      <c r="U115" s="350"/>
+      <c r="V115" s="350"/>
+      <c r="W115" s="350"/>
+      <c r="X115" s="350"/>
+      <c r="Y115" s="350"/>
+      <c r="Z115" s="351"/>
     </row>
     <row r="116" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G116" s="353" t="s">
+      <c r="G116" s="355" t="s">
         <v>155</v>
       </c>
-      <c r="H116" s="354"/>
-      <c r="I116" s="354"/>
-      <c r="J116" s="354"/>
-      <c r="K116" s="354"/>
-      <c r="L116" s="354"/>
-      <c r="M116" s="354"/>
-      <c r="N116" s="354"/>
-      <c r="O116" s="354"/>
-      <c r="P116" s="355"/>
-      <c r="Q116" s="393" t="s">
+      <c r="H116" s="356"/>
+      <c r="I116" s="356"/>
+      <c r="J116" s="356"/>
+      <c r="K116" s="356"/>
+      <c r="L116" s="356"/>
+      <c r="M116" s="356"/>
+      <c r="N116" s="356"/>
+      <c r="O116" s="356"/>
+      <c r="P116" s="357"/>
+      <c r="Q116" s="391" t="s">
         <v>156</v>
       </c>
-      <c r="R116" s="394"/>
-      <c r="S116" s="394"/>
-      <c r="T116" s="394"/>
-      <c r="U116" s="394"/>
-      <c r="V116" s="394"/>
-      <c r="W116" s="394"/>
-      <c r="X116" s="394"/>
-      <c r="Y116" s="394"/>
-      <c r="Z116" s="395"/>
+      <c r="R116" s="392"/>
+      <c r="S116" s="392"/>
+      <c r="T116" s="392"/>
+      <c r="U116" s="392"/>
+      <c r="V116" s="392"/>
+      <c r="W116" s="392"/>
+      <c r="X116" s="392"/>
+      <c r="Y116" s="392"/>
+      <c r="Z116" s="393"/>
       <c r="AG116" s="110"/>
       <c r="AH116" s="110"/>
     </row>
     <row r="117" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="G117" s="356"/>
-      <c r="H117" s="357"/>
-      <c r="I117" s="357"/>
-      <c r="J117" s="357"/>
-      <c r="K117" s="357"/>
-      <c r="L117" s="357"/>
-      <c r="M117" s="357"/>
-      <c r="N117" s="357"/>
-      <c r="O117" s="357"/>
-      <c r="P117" s="358"/>
-      <c r="Q117" s="393" t="s">
+      <c r="G117" s="358"/>
+      <c r="H117" s="359"/>
+      <c r="I117" s="359"/>
+      <c r="J117" s="359"/>
+      <c r="K117" s="359"/>
+      <c r="L117" s="359"/>
+      <c r="M117" s="359"/>
+      <c r="N117" s="359"/>
+      <c r="O117" s="359"/>
+      <c r="P117" s="360"/>
+      <c r="Q117" s="391" t="s">
         <v>157</v>
       </c>
-      <c r="R117" s="394"/>
-      <c r="S117" s="394"/>
-      <c r="T117" s="394"/>
-      <c r="U117" s="394"/>
-      <c r="V117" s="394"/>
-      <c r="W117" s="394"/>
-      <c r="X117" s="394"/>
-      <c r="Y117" s="394"/>
-      <c r="Z117" s="395"/>
+      <c r="R117" s="392"/>
+      <c r="S117" s="392"/>
+      <c r="T117" s="392"/>
+      <c r="U117" s="392"/>
+      <c r="V117" s="392"/>
+      <c r="W117" s="392"/>
+      <c r="X117" s="392"/>
+      <c r="Y117" s="392"/>
+      <c r="Z117" s="393"/>
       <c r="AC117" s="111"/>
       <c r="AD117" s="111"/>
       <c r="AE117" s="111"/>
@@ -14869,28 +14869,28 @@
       <c r="AY117" s="111"/>
     </row>
     <row r="118" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="435" t="s">
+      <c r="G118" s="432" t="s">
         <v>105</v>
       </c>
-      <c r="H118" s="436"/>
-      <c r="I118" s="436"/>
-      <c r="J118" s="436"/>
-      <c r="K118" s="436"/>
-      <c r="L118" s="436"/>
-      <c r="M118" s="436"/>
-      <c r="N118" s="436"/>
-      <c r="O118" s="436"/>
-      <c r="P118" s="436"/>
-      <c r="Q118" s="436"/>
-      <c r="R118" s="436"/>
-      <c r="S118" s="436"/>
-      <c r="T118" s="436"/>
-      <c r="U118" s="436"/>
-      <c r="V118" s="436"/>
-      <c r="W118" s="436"/>
-      <c r="X118" s="436"/>
-      <c r="Y118" s="436"/>
-      <c r="Z118" s="437"/>
+      <c r="H118" s="433"/>
+      <c r="I118" s="433"/>
+      <c r="J118" s="433"/>
+      <c r="K118" s="433"/>
+      <c r="L118" s="433"/>
+      <c r="M118" s="433"/>
+      <c r="N118" s="433"/>
+      <c r="O118" s="433"/>
+      <c r="P118" s="433"/>
+      <c r="Q118" s="433"/>
+      <c r="R118" s="433"/>
+      <c r="S118" s="433"/>
+      <c r="T118" s="433"/>
+      <c r="U118" s="433"/>
+      <c r="V118" s="433"/>
+      <c r="W118" s="433"/>
+      <c r="X118" s="433"/>
+      <c r="Y118" s="433"/>
+      <c r="Z118" s="434"/>
       <c r="AJ118" s="111"/>
       <c r="AK118" s="111"/>
       <c r="AL118" s="111"/>
@@ -15471,82 +15471,82 @@
       </c>
     </row>
     <row r="142" spans="1:58" s="109" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G142" s="350" t="s">
+      <c r="G142" s="352" t="s">
         <v>103</v>
       </c>
-      <c r="H142" s="351"/>
-      <c r="I142" s="351"/>
-      <c r="J142" s="351"/>
-      <c r="K142" s="351"/>
-      <c r="L142" s="351"/>
-      <c r="M142" s="351"/>
-      <c r="N142" s="351"/>
-      <c r="O142" s="351"/>
-      <c r="P142" s="352"/>
-      <c r="Q142" s="347" t="s">
+      <c r="H142" s="353"/>
+      <c r="I142" s="353"/>
+      <c r="J142" s="353"/>
+      <c r="K142" s="353"/>
+      <c r="L142" s="353"/>
+      <c r="M142" s="353"/>
+      <c r="N142" s="353"/>
+      <c r="O142" s="353"/>
+      <c r="P142" s="354"/>
+      <c r="Q142" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="R142" s="348"/>
-      <c r="S142" s="348"/>
-      <c r="T142" s="348"/>
-      <c r="U142" s="348"/>
-      <c r="V142" s="348"/>
-      <c r="W142" s="348"/>
-      <c r="X142" s="348"/>
-      <c r="Y142" s="348"/>
-      <c r="Z142" s="349"/>
+      <c r="R142" s="350"/>
+      <c r="S142" s="350"/>
+      <c r="T142" s="350"/>
+      <c r="U142" s="350"/>
+      <c r="V142" s="350"/>
+      <c r="W142" s="350"/>
+      <c r="X142" s="350"/>
+      <c r="Y142" s="350"/>
+      <c r="Z142" s="351"/>
     </row>
     <row r="143" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G143" s="353" t="s">
+      <c r="G143" s="355" t="s">
         <v>155</v>
       </c>
-      <c r="H143" s="354"/>
-      <c r="I143" s="354"/>
-      <c r="J143" s="354"/>
-      <c r="K143" s="354"/>
-      <c r="L143" s="354"/>
-      <c r="M143" s="354"/>
-      <c r="N143" s="354"/>
-      <c r="O143" s="354"/>
-      <c r="P143" s="355"/>
-      <c r="Q143" s="393" t="s">
+      <c r="H143" s="356"/>
+      <c r="I143" s="356"/>
+      <c r="J143" s="356"/>
+      <c r="K143" s="356"/>
+      <c r="L143" s="356"/>
+      <c r="M143" s="356"/>
+      <c r="N143" s="356"/>
+      <c r="O143" s="356"/>
+      <c r="P143" s="357"/>
+      <c r="Q143" s="391" t="s">
         <v>156</v>
       </c>
-      <c r="R143" s="394"/>
-      <c r="S143" s="394"/>
-      <c r="T143" s="394"/>
-      <c r="U143" s="394"/>
-      <c r="V143" s="394"/>
-      <c r="W143" s="394"/>
-      <c r="X143" s="394"/>
-      <c r="Y143" s="394"/>
-      <c r="Z143" s="395"/>
+      <c r="R143" s="392"/>
+      <c r="S143" s="392"/>
+      <c r="T143" s="392"/>
+      <c r="U143" s="392"/>
+      <c r="V143" s="392"/>
+      <c r="W143" s="392"/>
+      <c r="X143" s="392"/>
+      <c r="Y143" s="392"/>
+      <c r="Z143" s="393"/>
       <c r="AG143" s="110"/>
       <c r="AH143" s="110"/>
     </row>
     <row r="144" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="G144" s="356"/>
-      <c r="H144" s="357"/>
-      <c r="I144" s="357"/>
-      <c r="J144" s="357"/>
-      <c r="K144" s="357"/>
-      <c r="L144" s="357"/>
-      <c r="M144" s="357"/>
-      <c r="N144" s="357"/>
-      <c r="O144" s="357"/>
-      <c r="P144" s="358"/>
-      <c r="Q144" s="393" t="s">
+      <c r="G144" s="358"/>
+      <c r="H144" s="359"/>
+      <c r="I144" s="359"/>
+      <c r="J144" s="359"/>
+      <c r="K144" s="359"/>
+      <c r="L144" s="359"/>
+      <c r="M144" s="359"/>
+      <c r="N144" s="359"/>
+      <c r="O144" s="359"/>
+      <c r="P144" s="360"/>
+      <c r="Q144" s="391" t="s">
         <v>157</v>
       </c>
-      <c r="R144" s="394"/>
-      <c r="S144" s="394"/>
-      <c r="T144" s="394"/>
-      <c r="U144" s="394"/>
-      <c r="V144" s="394"/>
-      <c r="W144" s="394"/>
-      <c r="X144" s="394"/>
-      <c r="Y144" s="394"/>
-      <c r="Z144" s="395"/>
+      <c r="R144" s="392"/>
+      <c r="S144" s="392"/>
+      <c r="T144" s="392"/>
+      <c r="U144" s="392"/>
+      <c r="V144" s="392"/>
+      <c r="W144" s="392"/>
+      <c r="X144" s="392"/>
+      <c r="Y144" s="392"/>
+      <c r="Z144" s="393"/>
       <c r="AC144" s="111"/>
       <c r="AD144" s="111"/>
       <c r="AE144" s="111"/>
@@ -15565,28 +15565,28 @@
       <c r="AY144" s="111"/>
     </row>
     <row r="145" spans="3:58" x14ac:dyDescent="0.15">
-      <c r="G145" s="435" t="s">
+      <c r="G145" s="432" t="s">
         <v>105</v>
       </c>
-      <c r="H145" s="436"/>
-      <c r="I145" s="436"/>
-      <c r="J145" s="436"/>
-      <c r="K145" s="436"/>
-      <c r="L145" s="436"/>
-      <c r="M145" s="436"/>
-      <c r="N145" s="436"/>
-      <c r="O145" s="436"/>
-      <c r="P145" s="436"/>
-      <c r="Q145" s="436"/>
-      <c r="R145" s="436"/>
-      <c r="S145" s="436"/>
-      <c r="T145" s="436"/>
-      <c r="U145" s="436"/>
-      <c r="V145" s="436"/>
-      <c r="W145" s="436"/>
-      <c r="X145" s="436"/>
-      <c r="Y145" s="436"/>
-      <c r="Z145" s="437"/>
+      <c r="H145" s="433"/>
+      <c r="I145" s="433"/>
+      <c r="J145" s="433"/>
+      <c r="K145" s="433"/>
+      <c r="L145" s="433"/>
+      <c r="M145" s="433"/>
+      <c r="N145" s="433"/>
+      <c r="O145" s="433"/>
+      <c r="P145" s="433"/>
+      <c r="Q145" s="433"/>
+      <c r="R145" s="433"/>
+      <c r="S145" s="433"/>
+      <c r="T145" s="433"/>
+      <c r="U145" s="433"/>
+      <c r="V145" s="433"/>
+      <c r="W145" s="433"/>
+      <c r="X145" s="433"/>
+      <c r="Y145" s="433"/>
+      <c r="Z145" s="434"/>
       <c r="AJ145" s="111"/>
       <c r="AK145" s="111"/>
       <c r="AL145" s="111"/>
@@ -16143,40 +16143,40 @@
       <c r="G162" s="300" t="s">
         <v>68</v>
       </c>
-      <c r="H162" s="321"/>
-      <c r="I162" s="321"/>
-      <c r="J162" s="321"/>
-      <c r="K162" s="321"/>
-      <c r="L162" s="323"/>
-      <c r="M162" s="337" t="s">
+      <c r="H162" s="315"/>
+      <c r="I162" s="315"/>
+      <c r="J162" s="315"/>
+      <c r="K162" s="315"/>
+      <c r="L162" s="316"/>
+      <c r="M162" s="435" t="s">
         <v>76</v>
       </c>
-      <c r="N162" s="321"/>
-      <c r="O162" s="321"/>
-      <c r="P162" s="321"/>
-      <c r="Q162" s="321"/>
-      <c r="R162" s="321"/>
-      <c r="S162" s="321"/>
-      <c r="T162" s="321"/>
-      <c r="U162" s="321"/>
-      <c r="V162" s="323"/>
-      <c r="W162" s="344" t="s">
+      <c r="N162" s="315"/>
+      <c r="O162" s="315"/>
+      <c r="P162" s="315"/>
+      <c r="Q162" s="315"/>
+      <c r="R162" s="315"/>
+      <c r="S162" s="315"/>
+      <c r="T162" s="315"/>
+      <c r="U162" s="315"/>
+      <c r="V162" s="316"/>
+      <c r="W162" s="346" t="s">
         <v>77</v>
       </c>
-      <c r="X162" s="345"/>
-      <c r="Y162" s="346"/>
-      <c r="Z162" s="344" t="s">
+      <c r="X162" s="347"/>
+      <c r="Y162" s="348"/>
+      <c r="Z162" s="346" t="s">
         <v>78</v>
       </c>
-      <c r="AA162" s="345"/>
-      <c r="AB162" s="345"/>
-      <c r="AC162" s="346"/>
-      <c r="AD162" s="432" t="s">
+      <c r="AA162" s="347"/>
+      <c r="AB162" s="347"/>
+      <c r="AC162" s="348"/>
+      <c r="AD162" s="429" t="s">
         <v>129</v>
       </c>
-      <c r="AE162" s="433"/>
-      <c r="AF162" s="433"/>
-      <c r="AG162" s="434"/>
+      <c r="AE162" s="430"/>
+      <c r="AF162" s="430"/>
+      <c r="AG162" s="431"/>
       <c r="AJ162" s="126"/>
       <c r="AK162" s="126"/>
       <c r="AL162" s="126"/>
@@ -16206,43 +16206,43 @@
       <c r="F163" s="150">
         <v>1</v>
       </c>
-      <c r="G163" s="335" t="s">
+      <c r="G163" s="317" t="s">
         <v>70</v>
       </c>
-      <c r="H163" s="314"/>
-      <c r="I163" s="314"/>
-      <c r="J163" s="314"/>
-      <c r="K163" s="314"/>
-      <c r="L163" s="315"/>
-      <c r="M163" s="313" t="s">
+      <c r="H163" s="318"/>
+      <c r="I163" s="318"/>
+      <c r="J163" s="318"/>
+      <c r="K163" s="318"/>
+      <c r="L163" s="319"/>
+      <c r="M163" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="N163" s="314"/>
-      <c r="O163" s="314"/>
-      <c r="P163" s="314"/>
-      <c r="Q163" s="314"/>
-      <c r="R163" s="314"/>
-      <c r="S163" s="314"/>
-      <c r="T163" s="314"/>
-      <c r="U163" s="314"/>
-      <c r="V163" s="315"/>
-      <c r="W163" s="362" t="s">
+      <c r="N163" s="318"/>
+      <c r="O163" s="318"/>
+      <c r="P163" s="318"/>
+      <c r="Q163" s="318"/>
+      <c r="R163" s="318"/>
+      <c r="S163" s="318"/>
+      <c r="T163" s="318"/>
+      <c r="U163" s="318"/>
+      <c r="V163" s="319"/>
+      <c r="W163" s="364" t="s">
         <v>131</v>
       </c>
-      <c r="X163" s="363"/>
-      <c r="Y163" s="364"/>
-      <c r="Z163" s="339" t="s">
+      <c r="X163" s="365"/>
+      <c r="Y163" s="366"/>
+      <c r="Z163" s="421" t="s">
         <v>130</v>
       </c>
-      <c r="AA163" s="340"/>
-      <c r="AB163" s="340"/>
-      <c r="AC163" s="341"/>
-      <c r="AD163" s="313" t="s">
+      <c r="AA163" s="436"/>
+      <c r="AB163" s="436"/>
+      <c r="AC163" s="437"/>
+      <c r="AD163" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="AE163" s="314"/>
-      <c r="AF163" s="314"/>
-      <c r="AG163" s="315"/>
+      <c r="AE163" s="318"/>
+      <c r="AF163" s="318"/>
+      <c r="AG163" s="319"/>
       <c r="AI163" s="126"/>
       <c r="AJ163" s="126"/>
       <c r="AK163" s="126"/>
@@ -16273,7 +16273,7 @@
       <c r="F164" s="150">
         <v>2</v>
       </c>
-      <c r="G164" s="336" t="s">
+      <c r="G164" s="417" t="s">
         <v>234</v>
       </c>
       <c r="H164" s="301"/>
@@ -16281,35 +16281,35 @@
       <c r="J164" s="301"/>
       <c r="K164" s="301"/>
       <c r="L164" s="302"/>
-      <c r="M164" s="359" t="s">
+      <c r="M164" s="361" t="s">
         <v>235</v>
       </c>
-      <c r="N164" s="360"/>
-      <c r="O164" s="360"/>
-      <c r="P164" s="360"/>
-      <c r="Q164" s="360"/>
-      <c r="R164" s="360"/>
-      <c r="S164" s="360"/>
-      <c r="T164" s="360"/>
-      <c r="U164" s="360"/>
-      <c r="V164" s="361"/>
-      <c r="W164" s="424" t="s">
+      <c r="N164" s="362"/>
+      <c r="O164" s="362"/>
+      <c r="P164" s="362"/>
+      <c r="Q164" s="362"/>
+      <c r="R164" s="362"/>
+      <c r="S164" s="362"/>
+      <c r="T164" s="362"/>
+      <c r="U164" s="362"/>
+      <c r="V164" s="363"/>
+      <c r="W164" s="418" t="s">
         <v>236</v>
       </c>
-      <c r="X164" s="425"/>
-      <c r="Y164" s="426"/>
-      <c r="Z164" s="339" t="s">
+      <c r="X164" s="419"/>
+      <c r="Y164" s="420"/>
+      <c r="Z164" s="421" t="s">
         <v>237</v>
       </c>
-      <c r="AA164" s="342"/>
-      <c r="AB164" s="342"/>
-      <c r="AC164" s="343"/>
-      <c r="AD164" s="359" t="s">
+      <c r="AA164" s="422"/>
+      <c r="AB164" s="422"/>
+      <c r="AC164" s="423"/>
+      <c r="AD164" s="361" t="s">
         <v>119</v>
       </c>
-      <c r="AE164" s="360"/>
-      <c r="AF164" s="360"/>
-      <c r="AG164" s="361"/>
+      <c r="AE164" s="362"/>
+      <c r="AF164" s="362"/>
+      <c r="AG164" s="363"/>
       <c r="AJ164" s="126"/>
       <c r="BE164" s="111"/>
     </row>
@@ -16319,7 +16319,7 @@
       <c r="F165" s="150">
         <v>3</v>
       </c>
-      <c r="G165" s="336" t="s">
+      <c r="G165" s="417" t="s">
         <v>243</v>
       </c>
       <c r="H165" s="301"/>
@@ -16327,35 +16327,35 @@
       <c r="J165" s="301"/>
       <c r="K165" s="301"/>
       <c r="L165" s="302"/>
-      <c r="M165" s="359" t="s">
+      <c r="M165" s="361" t="s">
         <v>238</v>
       </c>
-      <c r="N165" s="360"/>
-      <c r="O165" s="360"/>
-      <c r="P165" s="360"/>
-      <c r="Q165" s="360"/>
-      <c r="R165" s="360"/>
-      <c r="S165" s="360"/>
-      <c r="T165" s="360"/>
-      <c r="U165" s="360"/>
-      <c r="V165" s="361"/>
-      <c r="W165" s="424" t="s">
+      <c r="N165" s="362"/>
+      <c r="O165" s="362"/>
+      <c r="P165" s="362"/>
+      <c r="Q165" s="362"/>
+      <c r="R165" s="362"/>
+      <c r="S165" s="362"/>
+      <c r="T165" s="362"/>
+      <c r="U165" s="362"/>
+      <c r="V165" s="363"/>
+      <c r="W165" s="418" t="s">
         <v>166</v>
       </c>
-      <c r="X165" s="425"/>
-      <c r="Y165" s="426"/>
-      <c r="Z165" s="339" t="s">
+      <c r="X165" s="419"/>
+      <c r="Y165" s="420"/>
+      <c r="Z165" s="421" t="s">
         <v>239</v>
       </c>
-      <c r="AA165" s="342"/>
-      <c r="AB165" s="342"/>
-      <c r="AC165" s="343"/>
-      <c r="AD165" s="359" t="s">
+      <c r="AA165" s="422"/>
+      <c r="AB165" s="422"/>
+      <c r="AC165" s="423"/>
+      <c r="AD165" s="361" t="s">
         <v>119</v>
       </c>
-      <c r="AE165" s="360"/>
-      <c r="AF165" s="360"/>
-      <c r="AG165" s="361"/>
+      <c r="AE165" s="362"/>
+      <c r="AF165" s="362"/>
+      <c r="AG165" s="363"/>
       <c r="AJ165" s="126"/>
       <c r="BE165" s="111"/>
     </row>
@@ -16365,7 +16365,7 @@
       <c r="F166" s="150">
         <v>4</v>
       </c>
-      <c r="G166" s="336" t="s">
+      <c r="G166" s="417" t="s">
         <v>242</v>
       </c>
       <c r="H166" s="301"/>
@@ -16373,35 +16373,35 @@
       <c r="J166" s="301"/>
       <c r="K166" s="301"/>
       <c r="L166" s="302"/>
-      <c r="M166" s="359" t="s">
+      <c r="M166" s="361" t="s">
         <v>240</v>
       </c>
-      <c r="N166" s="360"/>
-      <c r="O166" s="360"/>
-      <c r="P166" s="360"/>
-      <c r="Q166" s="360"/>
-      <c r="R166" s="360"/>
-      <c r="S166" s="360"/>
-      <c r="T166" s="360"/>
-      <c r="U166" s="360"/>
-      <c r="V166" s="361"/>
-      <c r="W166" s="424" t="s">
+      <c r="N166" s="362"/>
+      <c r="O166" s="362"/>
+      <c r="P166" s="362"/>
+      <c r="Q166" s="362"/>
+      <c r="R166" s="362"/>
+      <c r="S166" s="362"/>
+      <c r="T166" s="362"/>
+      <c r="U166" s="362"/>
+      <c r="V166" s="363"/>
+      <c r="W166" s="418" t="s">
         <v>166</v>
       </c>
-      <c r="X166" s="425"/>
-      <c r="Y166" s="426"/>
-      <c r="Z166" s="339" t="s">
+      <c r="X166" s="419"/>
+      <c r="Y166" s="420"/>
+      <c r="Z166" s="421" t="s">
         <v>241</v>
       </c>
-      <c r="AA166" s="342"/>
-      <c r="AB166" s="342"/>
-      <c r="AC166" s="343"/>
-      <c r="AD166" s="359" t="s">
+      <c r="AA166" s="422"/>
+      <c r="AB166" s="422"/>
+      <c r="AC166" s="423"/>
+      <c r="AD166" s="361" t="s">
         <v>119</v>
       </c>
-      <c r="AE166" s="360"/>
-      <c r="AF166" s="360"/>
-      <c r="AG166" s="361"/>
+      <c r="AE166" s="362"/>
+      <c r="AF166" s="362"/>
+      <c r="AG166" s="363"/>
       <c r="AJ166" s="126"/>
       <c r="BE166" s="111"/>
     </row>
@@ -16510,30 +16510,30 @@
       <c r="K174" s="182"/>
       <c r="L174" s="182"/>
       <c r="M174" s="182"/>
-      <c r="N174" s="347" t="s">
+      <c r="N174" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="O174" s="348"/>
-      <c r="P174" s="348"/>
-      <c r="Q174" s="348"/>
-      <c r="R174" s="348"/>
-      <c r="S174" s="348"/>
-      <c r="T174" s="348"/>
-      <c r="U174" s="348"/>
-      <c r="V174" s="348"/>
-      <c r="W174" s="349"/>
+      <c r="O174" s="350"/>
+      <c r="P174" s="350"/>
+      <c r="Q174" s="350"/>
+      <c r="R174" s="350"/>
+      <c r="S174" s="350"/>
+      <c r="T174" s="350"/>
+      <c r="U174" s="350"/>
+      <c r="V174" s="350"/>
+      <c r="W174" s="351"/>
       <c r="X174" s="441" t="s">
         <v>31</v>
       </c>
-      <c r="Y174" s="348"/>
-      <c r="Z174" s="348"/>
-      <c r="AA174" s="348"/>
-      <c r="AB174" s="348"/>
-      <c r="AC174" s="348"/>
-      <c r="AD174" s="348"/>
-      <c r="AE174" s="348"/>
-      <c r="AF174" s="348"/>
-      <c r="AG174" s="349"/>
+      <c r="Y174" s="350"/>
+      <c r="Z174" s="350"/>
+      <c r="AA174" s="350"/>
+      <c r="AB174" s="350"/>
+      <c r="AC174" s="350"/>
+      <c r="AD174" s="350"/>
+      <c r="AE174" s="350"/>
+      <c r="AF174" s="350"/>
+      <c r="AG174" s="351"/>
     </row>
     <row r="175" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G175" s="169" t="s">
@@ -16545,30 +16545,30 @@
       <c r="K175" s="187"/>
       <c r="L175" s="187"/>
       <c r="M175" s="187"/>
-      <c r="N175" s="393" t="s">
+      <c r="N175" s="391" t="s">
         <v>244</v>
       </c>
-      <c r="O175" s="394"/>
-      <c r="P175" s="394"/>
-      <c r="Q175" s="394"/>
-      <c r="R175" s="394"/>
-      <c r="S175" s="394"/>
-      <c r="T175" s="394"/>
-      <c r="U175" s="394"/>
-      <c r="V175" s="394"/>
-      <c r="W175" s="395"/>
-      <c r="X175" s="393" t="s">
+      <c r="O175" s="392"/>
+      <c r="P175" s="392"/>
+      <c r="Q175" s="392"/>
+      <c r="R175" s="392"/>
+      <c r="S175" s="392"/>
+      <c r="T175" s="392"/>
+      <c r="U175" s="392"/>
+      <c r="V175" s="392"/>
+      <c r="W175" s="393"/>
+      <c r="X175" s="391" t="s">
         <v>250</v>
       </c>
-      <c r="Y175" s="394"/>
-      <c r="Z175" s="394"/>
-      <c r="AA175" s="394"/>
-      <c r="AB175" s="394"/>
-      <c r="AC175" s="394"/>
-      <c r="AD175" s="394"/>
-      <c r="AE175" s="394"/>
-      <c r="AF175" s="394"/>
-      <c r="AG175" s="395"/>
+      <c r="Y175" s="392"/>
+      <c r="Z175" s="392"/>
+      <c r="AA175" s="392"/>
+      <c r="AB175" s="392"/>
+      <c r="AC175" s="392"/>
+      <c r="AD175" s="392"/>
+      <c r="AE175" s="392"/>
+      <c r="AF175" s="392"/>
+      <c r="AG175" s="393"/>
     </row>
     <row r="176" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G176" s="186"/>
@@ -16578,30 +16578,30 @@
       <c r="K176" s="165"/>
       <c r="L176" s="165"/>
       <c r="M176" s="165"/>
-      <c r="N176" s="393" t="s">
+      <c r="N176" s="391" t="s">
         <v>216</v>
       </c>
-      <c r="O176" s="394"/>
-      <c r="P176" s="394"/>
-      <c r="Q176" s="394"/>
-      <c r="R176" s="394"/>
-      <c r="S176" s="394"/>
-      <c r="T176" s="394"/>
-      <c r="U176" s="394"/>
-      <c r="V176" s="394"/>
-      <c r="W176" s="395"/>
-      <c r="X176" s="393" t="s">
+      <c r="O176" s="392"/>
+      <c r="P176" s="392"/>
+      <c r="Q176" s="392"/>
+      <c r="R176" s="392"/>
+      <c r="S176" s="392"/>
+      <c r="T176" s="392"/>
+      <c r="U176" s="392"/>
+      <c r="V176" s="392"/>
+      <c r="W176" s="393"/>
+      <c r="X176" s="391" t="s">
         <v>251</v>
       </c>
-      <c r="Y176" s="394"/>
-      <c r="Z176" s="394"/>
-      <c r="AA176" s="394"/>
-      <c r="AB176" s="394"/>
-      <c r="AC176" s="394"/>
-      <c r="AD176" s="394"/>
-      <c r="AE176" s="394"/>
-      <c r="AF176" s="394"/>
-      <c r="AG176" s="395"/>
+      <c r="Y176" s="392"/>
+      <c r="Z176" s="392"/>
+      <c r="AA176" s="392"/>
+      <c r="AB176" s="392"/>
+      <c r="AC176" s="392"/>
+      <c r="AD176" s="392"/>
+      <c r="AE176" s="392"/>
+      <c r="AF176" s="392"/>
+      <c r="AG176" s="393"/>
     </row>
     <row r="177" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G177" s="186"/>
@@ -16611,30 +16611,30 @@
       <c r="K177" s="165"/>
       <c r="L177" s="165"/>
       <c r="M177" s="165"/>
-      <c r="N177" s="393" t="s">
+      <c r="N177" s="391" t="s">
         <v>246</v>
       </c>
-      <c r="O177" s="394"/>
-      <c r="P177" s="394"/>
-      <c r="Q177" s="394"/>
-      <c r="R177" s="394"/>
-      <c r="S177" s="394"/>
-      <c r="T177" s="394"/>
-      <c r="U177" s="394"/>
-      <c r="V177" s="394"/>
-      <c r="W177" s="395"/>
-      <c r="X177" s="393" t="s">
+      <c r="O177" s="392"/>
+      <c r="P177" s="392"/>
+      <c r="Q177" s="392"/>
+      <c r="R177" s="392"/>
+      <c r="S177" s="392"/>
+      <c r="T177" s="392"/>
+      <c r="U177" s="392"/>
+      <c r="V177" s="392"/>
+      <c r="W177" s="393"/>
+      <c r="X177" s="391" t="s">
         <v>252</v>
       </c>
-      <c r="Y177" s="394"/>
-      <c r="Z177" s="394"/>
-      <c r="AA177" s="394"/>
-      <c r="AB177" s="394"/>
-      <c r="AC177" s="394"/>
-      <c r="AD177" s="394"/>
-      <c r="AE177" s="394"/>
-      <c r="AF177" s="394"/>
-      <c r="AG177" s="395"/>
+      <c r="Y177" s="392"/>
+      <c r="Z177" s="392"/>
+      <c r="AA177" s="392"/>
+      <c r="AB177" s="392"/>
+      <c r="AC177" s="392"/>
+      <c r="AD177" s="392"/>
+      <c r="AE177" s="392"/>
+      <c r="AF177" s="392"/>
+      <c r="AG177" s="393"/>
     </row>
     <row r="178" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G178" s="186"/>
@@ -16644,30 +16644,30 @@
       <c r="K178" s="165"/>
       <c r="L178" s="165"/>
       <c r="M178" s="165"/>
-      <c r="N178" s="393" t="s">
+      <c r="N178" s="391" t="s">
         <v>245</v>
       </c>
-      <c r="O178" s="394"/>
-      <c r="P178" s="394"/>
-      <c r="Q178" s="394"/>
-      <c r="R178" s="394"/>
-      <c r="S178" s="394"/>
-      <c r="T178" s="394"/>
-      <c r="U178" s="394"/>
-      <c r="V178" s="394"/>
-      <c r="W178" s="395"/>
-      <c r="X178" s="393" t="s">
+      <c r="O178" s="392"/>
+      <c r="P178" s="392"/>
+      <c r="Q178" s="392"/>
+      <c r="R178" s="392"/>
+      <c r="S178" s="392"/>
+      <c r="T178" s="392"/>
+      <c r="U178" s="392"/>
+      <c r="V178" s="392"/>
+      <c r="W178" s="393"/>
+      <c r="X178" s="391" t="s">
         <v>173</v>
       </c>
-      <c r="Y178" s="394"/>
-      <c r="Z178" s="394"/>
-      <c r="AA178" s="394"/>
-      <c r="AB178" s="394"/>
-      <c r="AC178" s="394"/>
-      <c r="AD178" s="394"/>
-      <c r="AE178" s="394"/>
-      <c r="AF178" s="394"/>
-      <c r="AG178" s="395"/>
+      <c r="Y178" s="392"/>
+      <c r="Z178" s="392"/>
+      <c r="AA178" s="392"/>
+      <c r="AB178" s="392"/>
+      <c r="AC178" s="392"/>
+      <c r="AD178" s="392"/>
+      <c r="AE178" s="392"/>
+      <c r="AF178" s="392"/>
+      <c r="AG178" s="393"/>
     </row>
     <row r="179" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G179" s="186"/>
@@ -16677,30 +16677,30 @@
       <c r="K179" s="165"/>
       <c r="L179" s="165"/>
       <c r="M179" s="165"/>
-      <c r="N179" s="393" t="s">
+      <c r="N179" s="391" t="s">
         <v>247</v>
       </c>
-      <c r="O179" s="394"/>
-      <c r="P179" s="394"/>
-      <c r="Q179" s="394"/>
-      <c r="R179" s="394"/>
-      <c r="S179" s="394"/>
-      <c r="T179" s="394"/>
-      <c r="U179" s="394"/>
-      <c r="V179" s="394"/>
-      <c r="W179" s="395"/>
-      <c r="X179" s="393" t="s">
+      <c r="O179" s="392"/>
+      <c r="P179" s="392"/>
+      <c r="Q179" s="392"/>
+      <c r="R179" s="392"/>
+      <c r="S179" s="392"/>
+      <c r="T179" s="392"/>
+      <c r="U179" s="392"/>
+      <c r="V179" s="392"/>
+      <c r="W179" s="393"/>
+      <c r="X179" s="391" t="s">
         <v>253</v>
       </c>
-      <c r="Y179" s="394"/>
-      <c r="Z179" s="394"/>
-      <c r="AA179" s="394"/>
-      <c r="AB179" s="394"/>
-      <c r="AC179" s="394"/>
-      <c r="AD179" s="394"/>
-      <c r="AE179" s="394"/>
-      <c r="AF179" s="394"/>
-      <c r="AG179" s="395"/>
+      <c r="Y179" s="392"/>
+      <c r="Z179" s="392"/>
+      <c r="AA179" s="392"/>
+      <c r="AB179" s="392"/>
+      <c r="AC179" s="392"/>
+      <c r="AD179" s="392"/>
+      <c r="AE179" s="392"/>
+      <c r="AF179" s="392"/>
+      <c r="AG179" s="393"/>
     </row>
     <row r="180" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G180" s="186"/>
@@ -16710,30 +16710,30 @@
       <c r="K180" s="165"/>
       <c r="L180" s="165"/>
       <c r="M180" s="165"/>
-      <c r="N180" s="393" t="s">
+      <c r="N180" s="391" t="s">
         <v>248</v>
       </c>
-      <c r="O180" s="394"/>
-      <c r="P180" s="394"/>
-      <c r="Q180" s="394"/>
-      <c r="R180" s="394"/>
-      <c r="S180" s="394"/>
-      <c r="T180" s="394"/>
-      <c r="U180" s="394"/>
-      <c r="V180" s="394"/>
-      <c r="W180" s="395"/>
-      <c r="X180" s="393" t="s">
+      <c r="O180" s="392"/>
+      <c r="P180" s="392"/>
+      <c r="Q180" s="392"/>
+      <c r="R180" s="392"/>
+      <c r="S180" s="392"/>
+      <c r="T180" s="392"/>
+      <c r="U180" s="392"/>
+      <c r="V180" s="392"/>
+      <c r="W180" s="393"/>
+      <c r="X180" s="391" t="s">
         <v>254</v>
       </c>
-      <c r="Y180" s="394"/>
-      <c r="Z180" s="394"/>
-      <c r="AA180" s="394"/>
-      <c r="AB180" s="394"/>
-      <c r="AC180" s="394"/>
-      <c r="AD180" s="394"/>
-      <c r="AE180" s="394"/>
-      <c r="AF180" s="394"/>
-      <c r="AG180" s="395"/>
+      <c r="Y180" s="392"/>
+      <c r="Z180" s="392"/>
+      <c r="AA180" s="392"/>
+      <c r="AB180" s="392"/>
+      <c r="AC180" s="392"/>
+      <c r="AD180" s="392"/>
+      <c r="AE180" s="392"/>
+      <c r="AF180" s="392"/>
+      <c r="AG180" s="393"/>
     </row>
     <row r="181" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G181" s="186"/>
@@ -16743,30 +16743,30 @@
       <c r="K181" s="165"/>
       <c r="L181" s="165"/>
       <c r="M181" s="165"/>
-      <c r="N181" s="393" t="s">
+      <c r="N181" s="391" t="s">
         <v>217</v>
       </c>
-      <c r="O181" s="394"/>
-      <c r="P181" s="394"/>
-      <c r="Q181" s="394"/>
-      <c r="R181" s="394"/>
-      <c r="S181" s="394"/>
-      <c r="T181" s="394"/>
-      <c r="U181" s="394"/>
-      <c r="V181" s="394"/>
-      <c r="W181" s="395"/>
-      <c r="X181" s="393" t="s">
+      <c r="O181" s="392"/>
+      <c r="P181" s="392"/>
+      <c r="Q181" s="392"/>
+      <c r="R181" s="392"/>
+      <c r="S181" s="392"/>
+      <c r="T181" s="392"/>
+      <c r="U181" s="392"/>
+      <c r="V181" s="392"/>
+      <c r="W181" s="393"/>
+      <c r="X181" s="391" t="s">
         <v>255</v>
       </c>
-      <c r="Y181" s="394"/>
-      <c r="Z181" s="394"/>
-      <c r="AA181" s="394"/>
-      <c r="AB181" s="394"/>
-      <c r="AC181" s="394"/>
-      <c r="AD181" s="394"/>
-      <c r="AE181" s="394"/>
-      <c r="AF181" s="394"/>
-      <c r="AG181" s="395"/>
+      <c r="Y181" s="392"/>
+      <c r="Z181" s="392"/>
+      <c r="AA181" s="392"/>
+      <c r="AB181" s="392"/>
+      <c r="AC181" s="392"/>
+      <c r="AD181" s="392"/>
+      <c r="AE181" s="392"/>
+      <c r="AF181" s="392"/>
+      <c r="AG181" s="393"/>
     </row>
     <row r="182" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G182" s="188"/>
@@ -16776,30 +16776,30 @@
       <c r="K182" s="189"/>
       <c r="L182" s="189"/>
       <c r="M182" s="189"/>
-      <c r="N182" s="393" t="s">
+      <c r="N182" s="391" t="s">
         <v>218</v>
       </c>
-      <c r="O182" s="394"/>
-      <c r="P182" s="394"/>
-      <c r="Q182" s="394"/>
-      <c r="R182" s="394"/>
-      <c r="S182" s="394"/>
-      <c r="T182" s="394"/>
-      <c r="U182" s="394"/>
-      <c r="V182" s="394"/>
-      <c r="W182" s="395"/>
-      <c r="X182" s="393" t="s">
+      <c r="O182" s="392"/>
+      <c r="P182" s="392"/>
+      <c r="Q182" s="392"/>
+      <c r="R182" s="392"/>
+      <c r="S182" s="392"/>
+      <c r="T182" s="392"/>
+      <c r="U182" s="392"/>
+      <c r="V182" s="392"/>
+      <c r="W182" s="393"/>
+      <c r="X182" s="391" t="s">
         <v>256</v>
       </c>
-      <c r="Y182" s="394"/>
-      <c r="Z182" s="394"/>
-      <c r="AA182" s="394"/>
-      <c r="AB182" s="394"/>
-      <c r="AC182" s="394"/>
-      <c r="AD182" s="394"/>
-      <c r="AE182" s="394"/>
-      <c r="AF182" s="394"/>
-      <c r="AG182" s="395"/>
+      <c r="Y182" s="392"/>
+      <c r="Z182" s="392"/>
+      <c r="AA182" s="392"/>
+      <c r="AB182" s="392"/>
+      <c r="AC182" s="392"/>
+      <c r="AD182" s="392"/>
+      <c r="AE182" s="392"/>
+      <c r="AF182" s="392"/>
+      <c r="AG182" s="393"/>
     </row>
     <row r="183" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G183" s="235" t="s">
@@ -16811,30 +16811,30 @@
       <c r="K183" s="236"/>
       <c r="L183" s="236"/>
       <c r="M183" s="237"/>
-      <c r="N183" s="393" t="s">
+      <c r="N183" s="391" t="s">
         <v>157</v>
       </c>
-      <c r="O183" s="394"/>
-      <c r="P183" s="394"/>
-      <c r="Q183" s="394"/>
-      <c r="R183" s="394"/>
-      <c r="S183" s="394"/>
-      <c r="T183" s="394"/>
-      <c r="U183" s="394"/>
-      <c r="V183" s="394"/>
-      <c r="W183" s="395"/>
-      <c r="X183" s="393" t="s">
+      <c r="O183" s="392"/>
+      <c r="P183" s="392"/>
+      <c r="Q183" s="392"/>
+      <c r="R183" s="392"/>
+      <c r="S183" s="392"/>
+      <c r="T183" s="392"/>
+      <c r="U183" s="392"/>
+      <c r="V183" s="392"/>
+      <c r="W183" s="393"/>
+      <c r="X183" s="391" t="s">
         <v>257</v>
       </c>
-      <c r="Y183" s="394"/>
-      <c r="Z183" s="394"/>
-      <c r="AA183" s="394"/>
-      <c r="AB183" s="394"/>
-      <c r="AC183" s="394"/>
-      <c r="AD183" s="394"/>
-      <c r="AE183" s="394"/>
-      <c r="AF183" s="394"/>
-      <c r="AG183" s="395"/>
+      <c r="Y183" s="392"/>
+      <c r="Z183" s="392"/>
+      <c r="AA183" s="392"/>
+      <c r="AB183" s="392"/>
+      <c r="AC183" s="392"/>
+      <c r="AD183" s="392"/>
+      <c r="AE183" s="392"/>
+      <c r="AF183" s="392"/>
+      <c r="AG183" s="393"/>
     </row>
     <row r="184" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G184" s="235" t="s">
@@ -16885,32 +16885,32 @@
       <c r="G185" s="442" t="s">
         <v>258</v>
       </c>
-      <c r="H185" s="436"/>
-      <c r="I185" s="436"/>
-      <c r="J185" s="436"/>
-      <c r="K185" s="436"/>
-      <c r="L185" s="436"/>
-      <c r="M185" s="436"/>
-      <c r="N185" s="436"/>
-      <c r="O185" s="436"/>
-      <c r="P185" s="436"/>
-      <c r="Q185" s="436"/>
-      <c r="R185" s="436"/>
-      <c r="S185" s="436"/>
-      <c r="T185" s="436"/>
-      <c r="U185" s="436"/>
-      <c r="V185" s="436"/>
-      <c r="W185" s="436"/>
-      <c r="X185" s="436"/>
-      <c r="Y185" s="436"/>
-      <c r="Z185" s="436"/>
-      <c r="AA185" s="436"/>
-      <c r="AB185" s="436"/>
-      <c r="AC185" s="436"/>
-      <c r="AD185" s="436"/>
-      <c r="AE185" s="436"/>
-      <c r="AF185" s="436"/>
-      <c r="AG185" s="437"/>
+      <c r="H185" s="433"/>
+      <c r="I185" s="433"/>
+      <c r="J185" s="433"/>
+      <c r="K185" s="433"/>
+      <c r="L185" s="433"/>
+      <c r="M185" s="433"/>
+      <c r="N185" s="433"/>
+      <c r="O185" s="433"/>
+      <c r="P185" s="433"/>
+      <c r="Q185" s="433"/>
+      <c r="R185" s="433"/>
+      <c r="S185" s="433"/>
+      <c r="T185" s="433"/>
+      <c r="U185" s="433"/>
+      <c r="V185" s="433"/>
+      <c r="W185" s="433"/>
+      <c r="X185" s="433"/>
+      <c r="Y185" s="433"/>
+      <c r="Z185" s="433"/>
+      <c r="AA185" s="433"/>
+      <c r="AB185" s="433"/>
+      <c r="AC185" s="433"/>
+      <c r="AD185" s="433"/>
+      <c r="AE185" s="433"/>
+      <c r="AF185" s="433"/>
+      <c r="AG185" s="434"/>
       <c r="AJ185" s="111"/>
       <c r="AK185" s="111"/>
       <c r="AL185" s="111"/>
@@ -17418,35 +17418,35 @@
       <c r="BF194" s="111"/>
     </row>
     <row r="195" spans="7:58" x14ac:dyDescent="0.15">
-      <c r="G195" s="435" t="s">
+      <c r="G195" s="432" t="s">
         <v>105</v>
       </c>
-      <c r="H195" s="436"/>
-      <c r="I195" s="436"/>
-      <c r="J195" s="436"/>
-      <c r="K195" s="436"/>
-      <c r="L195" s="436"/>
-      <c r="M195" s="436"/>
-      <c r="N195" s="436"/>
-      <c r="O195" s="436"/>
-      <c r="P195" s="436"/>
-      <c r="Q195" s="436"/>
-      <c r="R195" s="436"/>
-      <c r="S195" s="436"/>
-      <c r="T195" s="436"/>
-      <c r="U195" s="436"/>
-      <c r="V195" s="436"/>
-      <c r="W195" s="436"/>
-      <c r="X195" s="436"/>
-      <c r="Y195" s="436"/>
-      <c r="Z195" s="436"/>
-      <c r="AA195" s="436"/>
-      <c r="AB195" s="436"/>
-      <c r="AC195" s="436"/>
-      <c r="AD195" s="436"/>
-      <c r="AE195" s="436"/>
-      <c r="AF195" s="436"/>
-      <c r="AG195" s="437"/>
+      <c r="H195" s="433"/>
+      <c r="I195" s="433"/>
+      <c r="J195" s="433"/>
+      <c r="K195" s="433"/>
+      <c r="L195" s="433"/>
+      <c r="M195" s="433"/>
+      <c r="N195" s="433"/>
+      <c r="O195" s="433"/>
+      <c r="P195" s="433"/>
+      <c r="Q195" s="433"/>
+      <c r="R195" s="433"/>
+      <c r="S195" s="433"/>
+      <c r="T195" s="433"/>
+      <c r="U195" s="433"/>
+      <c r="V195" s="433"/>
+      <c r="W195" s="433"/>
+      <c r="X195" s="433"/>
+      <c r="Y195" s="433"/>
+      <c r="Z195" s="433"/>
+      <c r="AA195" s="433"/>
+      <c r="AB195" s="433"/>
+      <c r="AC195" s="433"/>
+      <c r="AD195" s="433"/>
+      <c r="AE195" s="433"/>
+      <c r="AF195" s="433"/>
+      <c r="AG195" s="434"/>
       <c r="AJ195" s="111"/>
       <c r="AK195" s="111"/>
       <c r="AL195" s="111"/>
@@ -18682,32 +18682,32 @@
       <c r="G219" s="442" t="s">
         <v>287</v>
       </c>
-      <c r="H219" s="436"/>
-      <c r="I219" s="436"/>
-      <c r="J219" s="436"/>
-      <c r="K219" s="436"/>
-      <c r="L219" s="436"/>
-      <c r="M219" s="436"/>
-      <c r="N219" s="436"/>
-      <c r="O219" s="436"/>
-      <c r="P219" s="436"/>
-      <c r="Q219" s="436"/>
-      <c r="R219" s="436"/>
-      <c r="S219" s="436"/>
-      <c r="T219" s="436"/>
-      <c r="U219" s="436"/>
-      <c r="V219" s="436"/>
-      <c r="W219" s="436"/>
-      <c r="X219" s="436"/>
-      <c r="Y219" s="436"/>
-      <c r="Z219" s="436"/>
-      <c r="AA219" s="436"/>
-      <c r="AB219" s="436"/>
-      <c r="AC219" s="436"/>
-      <c r="AD219" s="436"/>
-      <c r="AE219" s="436"/>
-      <c r="AF219" s="436"/>
-      <c r="AG219" s="437"/>
+      <c r="H219" s="433"/>
+      <c r="I219" s="433"/>
+      <c r="J219" s="433"/>
+      <c r="K219" s="433"/>
+      <c r="L219" s="433"/>
+      <c r="M219" s="433"/>
+      <c r="N219" s="433"/>
+      <c r="O219" s="433"/>
+      <c r="P219" s="433"/>
+      <c r="Q219" s="433"/>
+      <c r="R219" s="433"/>
+      <c r="S219" s="433"/>
+      <c r="T219" s="433"/>
+      <c r="U219" s="433"/>
+      <c r="V219" s="433"/>
+      <c r="W219" s="433"/>
+      <c r="X219" s="433"/>
+      <c r="Y219" s="433"/>
+      <c r="Z219" s="433"/>
+      <c r="AA219" s="433"/>
+      <c r="AB219" s="433"/>
+      <c r="AC219" s="433"/>
+      <c r="AD219" s="433"/>
+      <c r="AE219" s="433"/>
+      <c r="AF219" s="433"/>
+      <c r="AG219" s="434"/>
       <c r="AJ219" s="111"/>
       <c r="AK219" s="111"/>
       <c r="AL219" s="111"/>
@@ -19964,10 +19964,10 @@
     <mergeCell ref="Q143:Z143"/>
     <mergeCell ref="Q144:Z144"/>
     <mergeCell ref="G118:Z118"/>
-    <mergeCell ref="Z100:AD100"/>
-    <mergeCell ref="AE100:AH100"/>
-    <mergeCell ref="E82:H82"/>
-    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="G164:L164"/>
+    <mergeCell ref="M162:V162"/>
+    <mergeCell ref="Z163:AC163"/>
+    <mergeCell ref="Z164:AC164"/>
     <mergeCell ref="M82:T82"/>
     <mergeCell ref="U82:Y82"/>
     <mergeCell ref="Z82:AB82"/>
@@ -19981,10 +19981,12 @@
     <mergeCell ref="R98:Y98"/>
     <mergeCell ref="Z98:AD98"/>
     <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="E99:J99"/>
     <mergeCell ref="E91:J91"/>
     <mergeCell ref="K91:N91"/>
     <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V90:AH90"/>
+    <mergeCell ref="E97:J97"/>
+    <mergeCell ref="R96:Y96"/>
     <mergeCell ref="AL82:AP82"/>
     <mergeCell ref="E83:H83"/>
     <mergeCell ref="I83:L83"/>
@@ -20007,6 +20009,8 @@
     <mergeCell ref="Z81:AB81"/>
     <mergeCell ref="AD81:AG81"/>
     <mergeCell ref="AL81:AP81"/>
+    <mergeCell ref="E82:H82"/>
+    <mergeCell ref="I82:L82"/>
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="M78:T78"/>
     <mergeCell ref="U78:Y78"/>
@@ -20084,6 +20088,11 @@
     <mergeCell ref="U60:Y61"/>
     <mergeCell ref="M60:T61"/>
     <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="AD63:AG63"/>
+    <mergeCell ref="M64:T64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AD64:AG64"/>
     <mergeCell ref="E53:M53"/>
     <mergeCell ref="N53:P53"/>
     <mergeCell ref="Q53:U53"/>
@@ -20125,12 +20134,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="G164:L164"/>
-    <mergeCell ref="M162:V162"/>
-    <mergeCell ref="V90:AH90"/>
-    <mergeCell ref="E97:J97"/>
-    <mergeCell ref="Z163:AC163"/>
-    <mergeCell ref="Z164:AC164"/>
     <mergeCell ref="Z162:AC162"/>
     <mergeCell ref="M163:V163"/>
     <mergeCell ref="Q115:Z115"/>
@@ -20141,9 +20144,11 @@
     <mergeCell ref="M164:V164"/>
     <mergeCell ref="W162:Y162"/>
     <mergeCell ref="W163:Y163"/>
-    <mergeCell ref="R96:Y96"/>
     <mergeCell ref="G142:P142"/>
     <mergeCell ref="Q142:Z142"/>
+    <mergeCell ref="Z100:AD100"/>
+    <mergeCell ref="AE100:AH100"/>
+    <mergeCell ref="E99:J99"/>
     <mergeCell ref="AE96:AH96"/>
     <mergeCell ref="Z96:AD96"/>
     <mergeCell ref="E100:J100"/>
@@ -20153,6 +20158,21 @@
     <mergeCell ref="Z65:AB65"/>
     <mergeCell ref="AD71:AG71"/>
     <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD68:AG68"/>
+    <mergeCell ref="AD70:AG70"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AD69:AG69"/>
+    <mergeCell ref="AD67:AG67"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="AE99:AH99"/>
+    <mergeCell ref="E96:J96"/>
+    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="E72:H72"/>
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="E88:J89"/>
     <mergeCell ref="K88:N89"/>
@@ -20165,38 +20185,18 @@
     <mergeCell ref="M68:T68"/>
     <mergeCell ref="U68:Y68"/>
     <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AD68:AG68"/>
     <mergeCell ref="I70:L70"/>
     <mergeCell ref="M70:T70"/>
     <mergeCell ref="U70:Y70"/>
     <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="AD70:AG70"/>
     <mergeCell ref="E77:H77"/>
     <mergeCell ref="I77:L77"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AD69:AG69"/>
-    <mergeCell ref="AD63:AG63"/>
-    <mergeCell ref="AD67:AG67"/>
-    <mergeCell ref="AE97:AH97"/>
-    <mergeCell ref="AE99:AH99"/>
-    <mergeCell ref="M64:T64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AD64:AG64"/>
     <mergeCell ref="K99:Q99"/>
     <mergeCell ref="R99:Y99"/>
     <mergeCell ref="Z99:AD99"/>
     <mergeCell ref="M67:T67"/>
     <mergeCell ref="I69:L69"/>
     <mergeCell ref="I71:L71"/>
-    <mergeCell ref="E96:J96"/>
-    <mergeCell ref="K96:Q96"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="E72:H72"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -20264,12 +20264,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="367"/>
+      <c r="B1" s="368"/>
+      <c r="C1" s="368"/>
+      <c r="D1" s="369"/>
       <c r="E1" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -20321,12 +20321,12 @@
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="367" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="366"/>
-      <c r="C2" s="366"/>
-      <c r="D2" s="367"/>
+      <c r="B2" s="368"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="369"/>
       <c r="E2" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -20372,12 +20372,12 @@
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="365" t="s">
+      <c r="A3" s="367" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="366"/>
-      <c r="C3" s="366"/>
-      <c r="D3" s="367"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="369"/>
       <c r="E3" s="280" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -20412,12 +20412,12 @@
       <c r="AD3" s="212"/>
       <c r="AE3" s="212"/>
       <c r="AF3" s="213"/>
-      <c r="AG3" s="368" t="str">
+      <c r="AG3" s="370" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="369"/>
-      <c r="AI3" s="370"/>
+      <c r="AH3" s="371"/>
+      <c r="AI3" s="372"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20532,39 +20532,39 @@
       <c r="D38" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="371" t="s">
+      <c r="E38" s="373" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="371"/>
-      <c r="G38" s="371"/>
-      <c r="H38" s="371"/>
-      <c r="I38" s="371"/>
-      <c r="J38" s="371"/>
-      <c r="K38" s="371"/>
-      <c r="L38" s="371"/>
-      <c r="M38" s="371"/>
-      <c r="N38" s="371" t="s">
+      <c r="F38" s="373"/>
+      <c r="G38" s="373"/>
+      <c r="H38" s="373"/>
+      <c r="I38" s="373"/>
+      <c r="J38" s="373"/>
+      <c r="K38" s="373"/>
+      <c r="L38" s="373"/>
+      <c r="M38" s="373"/>
+      <c r="N38" s="373" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="371"/>
-      <c r="P38" s="371"/>
-      <c r="Q38" s="371" t="s">
+      <c r="O38" s="373"/>
+      <c r="P38" s="373"/>
+      <c r="Q38" s="373" t="s">
         <v>25</v>
       </c>
-      <c r="R38" s="371"/>
-      <c r="S38" s="371"/>
-      <c r="T38" s="371"/>
-      <c r="U38" s="371"/>
-      <c r="V38" s="371" t="s">
+      <c r="R38" s="373"/>
+      <c r="S38" s="373"/>
+      <c r="T38" s="373"/>
+      <c r="U38" s="373"/>
+      <c r="V38" s="373" t="s">
         <v>14</v>
       </c>
-      <c r="W38" s="371"/>
-      <c r="X38" s="371"/>
-      <c r="Y38" s="371"/>
-      <c r="Z38" s="371"/>
-      <c r="AA38" s="371"/>
-      <c r="AB38" s="371"/>
-      <c r="AC38" s="371"/>
+      <c r="W38" s="373"/>
+      <c r="X38" s="373"/>
+      <c r="Y38" s="373"/>
+      <c r="Z38" s="373"/>
+      <c r="AA38" s="373"/>
+      <c r="AB38" s="373"/>
+      <c r="AC38" s="373"/>
       <c r="AD38" s="137"/>
       <c r="AE38" s="137"/>
       <c r="AF38" s="137"/>
@@ -20575,41 +20575,41 @@
       <c r="D39" s="157">
         <v>1</v>
       </c>
-      <c r="E39" s="382" t="s">
+      <c r="E39" s="383" t="s">
         <v>325</v>
       </c>
-      <c r="F39" s="382"/>
-      <c r="G39" s="382"/>
-      <c r="H39" s="382"/>
-      <c r="I39" s="382"/>
-      <c r="J39" s="382"/>
-      <c r="K39" s="382"/>
-      <c r="L39" s="382"/>
-      <c r="M39" s="382"/>
-      <c r="N39" s="382" t="s">
+      <c r="F39" s="383"/>
+      <c r="G39" s="383"/>
+      <c r="H39" s="383"/>
+      <c r="I39" s="383"/>
+      <c r="J39" s="383"/>
+      <c r="K39" s="383"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383" t="s">
         <v>325</v>
       </c>
-      <c r="O39" s="382"/>
-      <c r="P39" s="382"/>
+      <c r="O39" s="383"/>
+      <c r="P39" s="383"/>
       <c r="Q39" s="443" t="s">
         <v>326</v>
       </c>
-      <c r="R39" s="311"/>
-      <c r="S39" s="311"/>
-      <c r="T39" s="311"/>
-      <c r="U39" s="312"/>
-      <c r="V39" s="382" t="s">
+      <c r="R39" s="342"/>
+      <c r="S39" s="342"/>
+      <c r="T39" s="342"/>
+      <c r="U39" s="343"/>
+      <c r="V39" s="383" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="382" t="s">
+      <c r="W39" s="383" t="s">
         <v>327</v>
       </c>
-      <c r="X39" s="382"/>
-      <c r="Y39" s="382"/>
-      <c r="Z39" s="382"/>
-      <c r="AA39" s="382"/>
-      <c r="AB39" s="382"/>
-      <c r="AC39" s="382"/>
+      <c r="X39" s="383"/>
+      <c r="Y39" s="383"/>
+      <c r="Z39" s="383"/>
+      <c r="AA39" s="383"/>
+      <c r="AB39" s="383"/>
+      <c r="AC39" s="383"/>
       <c r="AM39" s="35"/>
     </row>
     <row r="40" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -20686,36 +20686,36 @@
       <c r="AZ43" s="135"/>
     </row>
     <row r="44" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="378" t="s">
+      <c r="D44" s="379" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="389" t="s">
+      <c r="E44" s="338" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="390"/>
-      <c r="G44" s="390"/>
-      <c r="H44" s="390"/>
-      <c r="I44" s="390"/>
-      <c r="J44" s="390"/>
-      <c r="K44" s="390"/>
-      <c r="L44" s="390"/>
-      <c r="M44" s="390"/>
-      <c r="N44" s="390"/>
-      <c r="O44" s="390"/>
-      <c r="P44" s="390"/>
-      <c r="Q44" s="390"/>
-      <c r="R44" s="390"/>
-      <c r="S44" s="390"/>
-      <c r="T44" s="390"/>
-      <c r="U44" s="390"/>
-      <c r="V44" s="390"/>
-      <c r="W44" s="390"/>
-      <c r="X44" s="390"/>
-      <c r="Y44" s="390"/>
-      <c r="Z44" s="390"/>
-      <c r="AA44" s="390"/>
-      <c r="AB44" s="390"/>
-      <c r="AC44" s="391"/>
+      <c r="F44" s="339"/>
+      <c r="G44" s="339"/>
+      <c r="H44" s="339"/>
+      <c r="I44" s="339"/>
+      <c r="J44" s="339"/>
+      <c r="K44" s="339"/>
+      <c r="L44" s="339"/>
+      <c r="M44" s="339"/>
+      <c r="N44" s="339"/>
+      <c r="O44" s="339"/>
+      <c r="P44" s="339"/>
+      <c r="Q44" s="339"/>
+      <c r="R44" s="339"/>
+      <c r="S44" s="339"/>
+      <c r="T44" s="339"/>
+      <c r="U44" s="339"/>
+      <c r="V44" s="339"/>
+      <c r="W44" s="339"/>
+      <c r="X44" s="339"/>
+      <c r="Y44" s="339"/>
+      <c r="Z44" s="339"/>
+      <c r="AA44" s="339"/>
+      <c r="AB44" s="339"/>
+      <c r="AC44" s="340"/>
       <c r="AD44" s="291" t="s">
         <v>33</v>
       </c>
@@ -20733,29 +20733,29 @@
       <c r="AN44" s="135"/>
     </row>
     <row r="45" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="379"/>
+      <c r="D45" s="380"/>
       <c r="E45" s="291" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="292"/>
       <c r="G45" s="292"/>
       <c r="H45" s="293"/>
-      <c r="I45" s="383" t="s">
+      <c r="I45" s="384" t="s">
         <v>39</v>
       </c>
-      <c r="J45" s="384"/>
-      <c r="K45" s="384"/>
-      <c r="L45" s="385"/>
-      <c r="M45" s="392" t="s">
+      <c r="J45" s="385"/>
+      <c r="K45" s="385"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="390" t="s">
         <v>115</v>
       </c>
-      <c r="N45" s="384"/>
-      <c r="O45" s="384"/>
-      <c r="P45" s="384"/>
-      <c r="Q45" s="384"/>
-      <c r="R45" s="384"/>
-      <c r="S45" s="384"/>
-      <c r="T45" s="385"/>
+      <c r="N45" s="385"/>
+      <c r="O45" s="385"/>
+      <c r="P45" s="385"/>
+      <c r="Q45" s="385"/>
+      <c r="R45" s="385"/>
+      <c r="S45" s="385"/>
+      <c r="T45" s="386"/>
       <c r="U45" s="291" t="s">
         <v>32</v>
       </c>
@@ -20768,7 +20768,7 @@
       </c>
       <c r="AA45" s="292"/>
       <c r="AB45" s="293"/>
-      <c r="AC45" s="378" t="s">
+      <c r="AC45" s="379" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="294"/>
@@ -20790,23 +20790,23 @@
       <c r="AT45" s="135"/>
     </row>
     <row r="46" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="380"/>
+      <c r="D46" s="381"/>
       <c r="E46" s="297"/>
       <c r="F46" s="298"/>
       <c r="G46" s="298"/>
       <c r="H46" s="299"/>
-      <c r="I46" s="386"/>
-      <c r="J46" s="387"/>
-      <c r="K46" s="387"/>
-      <c r="L46" s="388"/>
-      <c r="M46" s="386"/>
-      <c r="N46" s="387"/>
-      <c r="O46" s="387"/>
-      <c r="P46" s="387"/>
-      <c r="Q46" s="387"/>
-      <c r="R46" s="387"/>
-      <c r="S46" s="387"/>
-      <c r="T46" s="388"/>
+      <c r="I46" s="387"/>
+      <c r="J46" s="388"/>
+      <c r="K46" s="388"/>
+      <c r="L46" s="389"/>
+      <c r="M46" s="387"/>
+      <c r="N46" s="388"/>
+      <c r="O46" s="388"/>
+      <c r="P46" s="388"/>
+      <c r="Q46" s="388"/>
+      <c r="R46" s="388"/>
+      <c r="S46" s="388"/>
+      <c r="T46" s="389"/>
       <c r="U46" s="297"/>
       <c r="V46" s="298"/>
       <c r="W46" s="298"/>
@@ -20815,7 +20815,7 @@
       <c r="Z46" s="297"/>
       <c r="AA46" s="298"/>
       <c r="AB46" s="299"/>
-      <c r="AC46" s="380"/>
+      <c r="AC46" s="381"/>
       <c r="AD46" s="297"/>
       <c r="AE46" s="298"/>
       <c r="AF46" s="298"/>
@@ -20824,51 +20824,51 @@
       <c r="AI46" s="135"/>
       <c r="AJ46" s="135"/>
       <c r="AK46" s="135"/>
-      <c r="AL46" s="350" t="s">
+      <c r="AL46" s="352" t="s">
         <v>40</v>
       </c>
-      <c r="AM46" s="351"/>
-      <c r="AN46" s="351"/>
-      <c r="AO46" s="351"/>
-      <c r="AP46" s="352"/>
+      <c r="AM46" s="353"/>
+      <c r="AN46" s="353"/>
+      <c r="AO46" s="353"/>
+      <c r="AP46" s="354"/>
       <c r="AQ46" s="135"/>
       <c r="AR46" s="135"/>
       <c r="AS46" s="135"/>
       <c r="AT46" s="135"/>
     </row>
     <row r="47" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="375" t="s">
+      <c r="D47" s="376" t="s">
         <v>328</v>
       </c>
-      <c r="E47" s="376"/>
-      <c r="F47" s="376"/>
-      <c r="G47" s="376"/>
-      <c r="H47" s="376"/>
-      <c r="I47" s="376"/>
-      <c r="J47" s="376"/>
-      <c r="K47" s="376"/>
-      <c r="L47" s="376"/>
-      <c r="M47" s="376"/>
-      <c r="N47" s="376"/>
-      <c r="O47" s="376"/>
-      <c r="P47" s="376"/>
-      <c r="Q47" s="376"/>
-      <c r="R47" s="376"/>
-      <c r="S47" s="376"/>
-      <c r="T47" s="376"/>
-      <c r="U47" s="376"/>
-      <c r="V47" s="376"/>
-      <c r="W47" s="376"/>
-      <c r="X47" s="376"/>
-      <c r="Y47" s="376"/>
-      <c r="Z47" s="376"/>
-      <c r="AA47" s="376"/>
-      <c r="AB47" s="376"/>
-      <c r="AC47" s="376"/>
-      <c r="AD47" s="376"/>
-      <c r="AE47" s="376"/>
-      <c r="AF47" s="376"/>
-      <c r="AG47" s="377"/>
+      <c r="E47" s="377"/>
+      <c r="F47" s="377"/>
+      <c r="G47" s="377"/>
+      <c r="H47" s="377"/>
+      <c r="I47" s="377"/>
+      <c r="J47" s="377"/>
+      <c r="K47" s="377"/>
+      <c r="L47" s="377"/>
+      <c r="M47" s="377"/>
+      <c r="N47" s="377"/>
+      <c r="O47" s="377"/>
+      <c r="P47" s="377"/>
+      <c r="Q47" s="377"/>
+      <c r="R47" s="377"/>
+      <c r="S47" s="377"/>
+      <c r="T47" s="377"/>
+      <c r="U47" s="377"/>
+      <c r="V47" s="377"/>
+      <c r="W47" s="377"/>
+      <c r="X47" s="377"/>
+      <c r="Y47" s="377"/>
+      <c r="Z47" s="377"/>
+      <c r="AA47" s="377"/>
+      <c r="AB47" s="377"/>
+      <c r="AC47" s="377"/>
+      <c r="AD47" s="377"/>
+      <c r="AE47" s="377"/>
+      <c r="AF47" s="377"/>
+      <c r="AG47" s="378"/>
       <c r="AH47" s="135"/>
       <c r="AI47" s="135"/>
       <c r="AJ47" s="135"/>
@@ -20894,44 +20894,44 @@
       </c>
       <c r="F48" s="303"/>
       <c r="G48" s="303"/>
-      <c r="H48" s="374"/>
-      <c r="I48" s="403" t="s">
+      <c r="H48" s="325"/>
+      <c r="I48" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="404"/>
-      <c r="K48" s="404"/>
-      <c r="L48" s="405"/>
-      <c r="M48" s="313" t="s">
+      <c r="J48" s="330"/>
+      <c r="K48" s="330"/>
+      <c r="L48" s="331"/>
+      <c r="M48" s="327" t="s">
         <v>220</v>
       </c>
-      <c r="N48" s="406"/>
-      <c r="O48" s="406"/>
-      <c r="P48" s="406"/>
-      <c r="Q48" s="406"/>
-      <c r="R48" s="406"/>
-      <c r="S48" s="406"/>
-      <c r="T48" s="407"/>
+      <c r="N48" s="398"/>
+      <c r="O48" s="398"/>
+      <c r="P48" s="398"/>
+      <c r="Q48" s="398"/>
+      <c r="R48" s="398"/>
+      <c r="S48" s="398"/>
+      <c r="T48" s="399"/>
       <c r="U48" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V48" s="308"/>
-      <c r="W48" s="308"/>
-      <c r="X48" s="308"/>
-      <c r="Y48" s="309"/>
-      <c r="Z48" s="307" t="s">
+      <c r="V48" s="323"/>
+      <c r="W48" s="323"/>
+      <c r="X48" s="323"/>
+      <c r="Y48" s="324"/>
+      <c r="Z48" s="322" t="s">
         <v>204</v>
       </c>
-      <c r="AA48" s="308"/>
-      <c r="AB48" s="309"/>
+      <c r="AA48" s="323"/>
+      <c r="AB48" s="324"/>
       <c r="AC48" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD48" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE48" s="308"/>
-      <c r="AF48" s="308"/>
-      <c r="AG48" s="309"/>
+      <c r="AE48" s="323"/>
+      <c r="AF48" s="323"/>
+      <c r="AG48" s="324"/>
       <c r="AL48" s="235" t="s">
         <v>214</v>
       </c>
@@ -20944,7 +20944,7 @@
       <c r="AO48" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP48" s="374" t="s">
+      <c r="AP48" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU48" s="133"/>
@@ -20963,44 +20963,44 @@
       </c>
       <c r="F49" s="303"/>
       <c r="G49" s="303"/>
-      <c r="H49" s="374"/>
-      <c r="I49" s="403" t="s">
+      <c r="H49" s="325"/>
+      <c r="I49" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J49" s="404"/>
-      <c r="K49" s="404"/>
-      <c r="L49" s="405"/>
-      <c r="M49" s="313" t="s">
+      <c r="J49" s="330"/>
+      <c r="K49" s="330"/>
+      <c r="L49" s="331"/>
+      <c r="M49" s="327" t="s">
         <v>220</v>
       </c>
-      <c r="N49" s="406"/>
-      <c r="O49" s="406"/>
-      <c r="P49" s="406"/>
-      <c r="Q49" s="406"/>
-      <c r="R49" s="406"/>
-      <c r="S49" s="406"/>
-      <c r="T49" s="407"/>
+      <c r="N49" s="398"/>
+      <c r="O49" s="398"/>
+      <c r="P49" s="398"/>
+      <c r="Q49" s="398"/>
+      <c r="R49" s="398"/>
+      <c r="S49" s="398"/>
+      <c r="T49" s="399"/>
       <c r="U49" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V49" s="308"/>
-      <c r="W49" s="308"/>
-      <c r="X49" s="308"/>
-      <c r="Y49" s="309"/>
-      <c r="Z49" s="307" t="s">
+      <c r="V49" s="323"/>
+      <c r="W49" s="323"/>
+      <c r="X49" s="323"/>
+      <c r="Y49" s="324"/>
+      <c r="Z49" s="322" t="s">
         <v>205</v>
       </c>
-      <c r="AA49" s="308"/>
-      <c r="AB49" s="309"/>
+      <c r="AA49" s="323"/>
+      <c r="AB49" s="324"/>
       <c r="AC49" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD49" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE49" s="308"/>
-      <c r="AF49" s="308"/>
-      <c r="AG49" s="309"/>
+      <c r="AE49" s="323"/>
+      <c r="AF49" s="323"/>
+      <c r="AG49" s="324"/>
       <c r="AL49" s="235" t="s">
         <v>214</v>
       </c>
@@ -21013,7 +21013,7 @@
       <c r="AO49" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP49" s="374" t="s">
+      <c r="AP49" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU49" s="133"/>
@@ -21032,44 +21032,44 @@
       </c>
       <c r="F50" s="303"/>
       <c r="G50" s="303"/>
-      <c r="H50" s="374"/>
-      <c r="I50" s="403" t="s">
+      <c r="H50" s="325"/>
+      <c r="I50" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J50" s="404"/>
-      <c r="K50" s="404"/>
-      <c r="L50" s="405"/>
-      <c r="M50" s="398" t="s">
+      <c r="J50" s="330"/>
+      <c r="K50" s="330"/>
+      <c r="L50" s="331"/>
+      <c r="M50" s="396" t="s">
         <v>219</v>
       </c>
-      <c r="N50" s="399"/>
-      <c r="O50" s="399"/>
-      <c r="P50" s="399"/>
-      <c r="Q50" s="399"/>
-      <c r="R50" s="399"/>
-      <c r="S50" s="399"/>
-      <c r="T50" s="399"/>
-      <c r="U50" s="325" t="s">
+      <c r="N50" s="397"/>
+      <c r="O50" s="397"/>
+      <c r="P50" s="397"/>
+      <c r="Q50" s="397"/>
+      <c r="R50" s="397"/>
+      <c r="S50" s="397"/>
+      <c r="T50" s="397"/>
+      <c r="U50" s="320" t="s">
         <v>92</v>
       </c>
-      <c r="V50" s="326"/>
-      <c r="W50" s="326"/>
-      <c r="X50" s="326"/>
-      <c r="Y50" s="326"/>
-      <c r="Z50" s="325" t="s">
+      <c r="V50" s="321"/>
+      <c r="W50" s="321"/>
+      <c r="X50" s="321"/>
+      <c r="Y50" s="321"/>
+      <c r="Z50" s="320" t="s">
         <v>205</v>
       </c>
-      <c r="AA50" s="326"/>
-      <c r="AB50" s="326"/>
+      <c r="AA50" s="321"/>
+      <c r="AB50" s="321"/>
       <c r="AC50" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD50" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE50" s="308"/>
-      <c r="AF50" s="308"/>
-      <c r="AG50" s="309"/>
+      <c r="AE50" s="323"/>
+      <c r="AF50" s="323"/>
+      <c r="AG50" s="324"/>
       <c r="AH50" s="135"/>
       <c r="AI50" s="135"/>
       <c r="AJ50" s="135"/>
@@ -21086,7 +21086,7 @@
       <c r="AO50" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP50" s="374" t="s">
+      <c r="AP50" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ50" s="135"/>
@@ -21104,44 +21104,44 @@
       </c>
       <c r="F51" s="303"/>
       <c r="G51" s="303"/>
-      <c r="H51" s="374"/>
-      <c r="I51" s="403" t="s">
+      <c r="H51" s="325"/>
+      <c r="I51" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J51" s="404"/>
-      <c r="K51" s="404"/>
-      <c r="L51" s="405"/>
-      <c r="M51" s="313" t="s">
+      <c r="J51" s="330"/>
+      <c r="K51" s="330"/>
+      <c r="L51" s="331"/>
+      <c r="M51" s="327" t="s">
         <v>222</v>
       </c>
-      <c r="N51" s="314"/>
-      <c r="O51" s="314"/>
-      <c r="P51" s="314"/>
-      <c r="Q51" s="314"/>
-      <c r="R51" s="314"/>
-      <c r="S51" s="314"/>
-      <c r="T51" s="315"/>
+      <c r="N51" s="318"/>
+      <c r="O51" s="318"/>
+      <c r="P51" s="318"/>
+      <c r="Q51" s="318"/>
+      <c r="R51" s="318"/>
+      <c r="S51" s="318"/>
+      <c r="T51" s="319"/>
       <c r="U51" s="232" t="s">
         <v>229</v>
       </c>
-      <c r="V51" s="308"/>
-      <c r="W51" s="308"/>
-      <c r="X51" s="308"/>
-      <c r="Y51" s="309"/>
-      <c r="Z51" s="325" t="s">
+      <c r="V51" s="323"/>
+      <c r="W51" s="323"/>
+      <c r="X51" s="323"/>
+      <c r="Y51" s="324"/>
+      <c r="Z51" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="AA51" s="326"/>
-      <c r="AB51" s="326"/>
+      <c r="AA51" s="321"/>
+      <c r="AB51" s="321"/>
       <c r="AC51" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD51" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE51" s="308"/>
-      <c r="AF51" s="308"/>
-      <c r="AG51" s="309"/>
+      <c r="AE51" s="323"/>
+      <c r="AF51" s="323"/>
+      <c r="AG51" s="324"/>
       <c r="AH51" s="135"/>
       <c r="AI51" s="135"/>
       <c r="AJ51" s="135"/>
@@ -21158,7 +21158,7 @@
       <c r="AO51" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP51" s="374" t="s">
+      <c r="AP51" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ51" s="135"/>
@@ -21176,44 +21176,44 @@
       </c>
       <c r="F52" s="303"/>
       <c r="G52" s="303"/>
-      <c r="H52" s="374"/>
-      <c r="I52" s="403" t="s">
+      <c r="H52" s="325"/>
+      <c r="I52" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="404"/>
-      <c r="K52" s="404"/>
-      <c r="L52" s="405"/>
-      <c r="M52" s="313" t="s">
+      <c r="J52" s="330"/>
+      <c r="K52" s="330"/>
+      <c r="L52" s="331"/>
+      <c r="M52" s="327" t="s">
         <v>221</v>
       </c>
-      <c r="N52" s="314"/>
-      <c r="O52" s="314"/>
-      <c r="P52" s="314"/>
-      <c r="Q52" s="314"/>
-      <c r="R52" s="314"/>
-      <c r="S52" s="314"/>
-      <c r="T52" s="315"/>
+      <c r="N52" s="318"/>
+      <c r="O52" s="318"/>
+      <c r="P52" s="318"/>
+      <c r="Q52" s="318"/>
+      <c r="R52" s="318"/>
+      <c r="S52" s="318"/>
+      <c r="T52" s="319"/>
       <c r="U52" s="232" t="s">
         <v>230</v>
       </c>
-      <c r="V52" s="308"/>
-      <c r="W52" s="308"/>
-      <c r="X52" s="308"/>
-      <c r="Y52" s="309"/>
-      <c r="Z52" s="325" t="s">
+      <c r="V52" s="323"/>
+      <c r="W52" s="323"/>
+      <c r="X52" s="323"/>
+      <c r="Y52" s="324"/>
+      <c r="Z52" s="320" t="s">
         <v>208</v>
       </c>
-      <c r="AA52" s="326"/>
-      <c r="AB52" s="326"/>
+      <c r="AA52" s="321"/>
+      <c r="AB52" s="321"/>
       <c r="AC52" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD52" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE52" s="308"/>
-      <c r="AF52" s="308"/>
-      <c r="AG52" s="309"/>
+      <c r="AE52" s="323"/>
+      <c r="AF52" s="323"/>
+      <c r="AG52" s="324"/>
       <c r="AH52" s="135"/>
       <c r="AI52" s="135"/>
       <c r="AJ52" s="135"/>
@@ -21230,7 +21230,7 @@
       <c r="AO52" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP52" s="374" t="s">
+      <c r="AP52" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ52" s="135"/>
@@ -21248,44 +21248,44 @@
       </c>
       <c r="F53" s="303"/>
       <c r="G53" s="303"/>
-      <c r="H53" s="374"/>
-      <c r="I53" s="411" t="s">
+      <c r="H53" s="325"/>
+      <c r="I53" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="J53" s="412"/>
-      <c r="K53" s="412"/>
-      <c r="L53" s="413"/>
-      <c r="M53" s="313" t="s">
+      <c r="J53" s="404"/>
+      <c r="K53" s="404"/>
+      <c r="L53" s="405"/>
+      <c r="M53" s="327" t="s">
         <v>224</v>
       </c>
-      <c r="N53" s="314"/>
-      <c r="O53" s="314"/>
-      <c r="P53" s="314"/>
-      <c r="Q53" s="314"/>
-      <c r="R53" s="314"/>
-      <c r="S53" s="314"/>
-      <c r="T53" s="315"/>
+      <c r="N53" s="318"/>
+      <c r="O53" s="318"/>
+      <c r="P53" s="318"/>
+      <c r="Q53" s="318"/>
+      <c r="R53" s="318"/>
+      <c r="S53" s="318"/>
+      <c r="T53" s="319"/>
       <c r="U53" s="232" t="s">
         <v>231</v>
       </c>
-      <c r="V53" s="308"/>
-      <c r="W53" s="308"/>
-      <c r="X53" s="308"/>
-      <c r="Y53" s="309"/>
-      <c r="Z53" s="307" t="s">
+      <c r="V53" s="323"/>
+      <c r="W53" s="323"/>
+      <c r="X53" s="323"/>
+      <c r="Y53" s="324"/>
+      <c r="Z53" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA53" s="308"/>
-      <c r="AB53" s="309"/>
+      <c r="AA53" s="323"/>
+      <c r="AB53" s="324"/>
       <c r="AC53" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD53" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE53" s="308"/>
-      <c r="AF53" s="308"/>
-      <c r="AG53" s="309"/>
+      <c r="AE53" s="323"/>
+      <c r="AF53" s="323"/>
+      <c r="AG53" s="324"/>
       <c r="AL53" s="235" t="s">
         <v>214</v>
       </c>
@@ -21298,7 +21298,7 @@
       <c r="AO53" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP53" s="374" t="s">
+      <c r="AP53" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AY53" s="109"/>
@@ -21313,44 +21313,44 @@
       </c>
       <c r="F54" s="303"/>
       <c r="G54" s="303"/>
-      <c r="H54" s="374"/>
-      <c r="I54" s="411" t="s">
+      <c r="H54" s="325"/>
+      <c r="I54" s="403" t="s">
         <v>89</v>
       </c>
-      <c r="J54" s="412"/>
-      <c r="K54" s="412"/>
-      <c r="L54" s="413"/>
-      <c r="M54" s="313" t="s">
+      <c r="J54" s="404"/>
+      <c r="K54" s="404"/>
+      <c r="L54" s="405"/>
+      <c r="M54" s="327" t="s">
         <v>332</v>
       </c>
-      <c r="N54" s="314"/>
-      <c r="O54" s="314"/>
-      <c r="P54" s="314"/>
-      <c r="Q54" s="314"/>
-      <c r="R54" s="314"/>
-      <c r="S54" s="314"/>
-      <c r="T54" s="315"/>
+      <c r="N54" s="318"/>
+      <c r="O54" s="318"/>
+      <c r="P54" s="318"/>
+      <c r="Q54" s="318"/>
+      <c r="R54" s="318"/>
+      <c r="S54" s="318"/>
+      <c r="T54" s="319"/>
       <c r="U54" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V54" s="308"/>
-      <c r="W54" s="308"/>
-      <c r="X54" s="308"/>
-      <c r="Y54" s="309"/>
-      <c r="Z54" s="307" t="s">
+      <c r="V54" s="323"/>
+      <c r="W54" s="323"/>
+      <c r="X54" s="323"/>
+      <c r="Y54" s="324"/>
+      <c r="Z54" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA54" s="308"/>
-      <c r="AB54" s="309"/>
+      <c r="AA54" s="323"/>
+      <c r="AB54" s="324"/>
       <c r="AC54" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD54" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE54" s="308"/>
-      <c r="AF54" s="308"/>
-      <c r="AG54" s="309"/>
+      <c r="AE54" s="323"/>
+      <c r="AF54" s="323"/>
+      <c r="AG54" s="324"/>
       <c r="AL54" s="235" t="s">
         <v>214</v>
       </c>
@@ -21363,7 +21363,7 @@
       <c r="AO54" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP54" s="374" t="s">
+      <c r="AP54" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AY54" s="109"/>
@@ -21378,44 +21378,44 @@
       </c>
       <c r="F55" s="303"/>
       <c r="G55" s="303"/>
-      <c r="H55" s="374"/>
-      <c r="I55" s="408" t="s">
+      <c r="H55" s="325"/>
+      <c r="I55" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="J55" s="409"/>
-      <c r="K55" s="409"/>
-      <c r="L55" s="410"/>
-      <c r="M55" s="313" t="s">
+      <c r="J55" s="401"/>
+      <c r="K55" s="401"/>
+      <c r="L55" s="402"/>
+      <c r="M55" s="327" t="s">
         <v>223</v>
       </c>
-      <c r="N55" s="314"/>
-      <c r="O55" s="314"/>
-      <c r="P55" s="314"/>
-      <c r="Q55" s="314"/>
-      <c r="R55" s="314"/>
-      <c r="S55" s="314"/>
-      <c r="T55" s="315"/>
+      <c r="N55" s="318"/>
+      <c r="O55" s="318"/>
+      <c r="P55" s="318"/>
+      <c r="Q55" s="318"/>
+      <c r="R55" s="318"/>
+      <c r="S55" s="318"/>
+      <c r="T55" s="319"/>
       <c r="U55" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V55" s="308"/>
-      <c r="W55" s="308"/>
-      <c r="X55" s="308"/>
-      <c r="Y55" s="309"/>
-      <c r="Z55" s="307" t="s">
+      <c r="V55" s="323"/>
+      <c r="W55" s="323"/>
+      <c r="X55" s="323"/>
+      <c r="Y55" s="324"/>
+      <c r="Z55" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA55" s="308"/>
-      <c r="AB55" s="309"/>
+      <c r="AA55" s="323"/>
+      <c r="AB55" s="324"/>
       <c r="AC55" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD55" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE55" s="308"/>
-      <c r="AF55" s="308"/>
-      <c r="AG55" s="309"/>
+      <c r="AE55" s="323"/>
+      <c r="AF55" s="323"/>
+      <c r="AG55" s="324"/>
       <c r="AL55" s="235" t="s">
         <v>214</v>
       </c>
@@ -21428,7 +21428,7 @@
       <c r="AO55" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP55" s="374" t="s">
+      <c r="AP55" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU55" s="133"/>
@@ -21447,44 +21447,44 @@
       </c>
       <c r="F56" s="303"/>
       <c r="G56" s="303"/>
-      <c r="H56" s="374"/>
-      <c r="I56" s="408" t="s">
+      <c r="H56" s="325"/>
+      <c r="I56" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="J56" s="409"/>
-      <c r="K56" s="409"/>
-      <c r="L56" s="410"/>
-      <c r="M56" s="313" t="s">
+      <c r="J56" s="401"/>
+      <c r="K56" s="401"/>
+      <c r="L56" s="402"/>
+      <c r="M56" s="327" t="s">
         <v>334</v>
       </c>
-      <c r="N56" s="314"/>
-      <c r="O56" s="314"/>
-      <c r="P56" s="314"/>
-      <c r="Q56" s="314"/>
-      <c r="R56" s="314"/>
-      <c r="S56" s="314"/>
-      <c r="T56" s="315"/>
+      <c r="N56" s="318"/>
+      <c r="O56" s="318"/>
+      <c r="P56" s="318"/>
+      <c r="Q56" s="318"/>
+      <c r="R56" s="318"/>
+      <c r="S56" s="318"/>
+      <c r="T56" s="319"/>
       <c r="U56" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V56" s="308"/>
-      <c r="W56" s="308"/>
-      <c r="X56" s="308"/>
-      <c r="Y56" s="309"/>
-      <c r="Z56" s="307" t="s">
+      <c r="V56" s="323"/>
+      <c r="W56" s="323"/>
+      <c r="X56" s="323"/>
+      <c r="Y56" s="324"/>
+      <c r="Z56" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA56" s="308"/>
-      <c r="AB56" s="309"/>
+      <c r="AA56" s="323"/>
+      <c r="AB56" s="324"/>
       <c r="AC56" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD56" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE56" s="308"/>
-      <c r="AF56" s="308"/>
-      <c r="AG56" s="309"/>
+      <c r="AE56" s="323"/>
+      <c r="AF56" s="323"/>
+      <c r="AG56" s="324"/>
       <c r="AL56" s="235" t="s">
         <v>214</v>
       </c>
@@ -21497,7 +21497,7 @@
       <c r="AO56" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP56" s="374" t="s">
+      <c r="AP56" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU56" s="133"/>
@@ -21514,46 +21514,46 @@
       <c r="E57" s="232" t="s">
         <v>212</v>
       </c>
-      <c r="F57" s="308"/>
-      <c r="G57" s="308"/>
-      <c r="H57" s="309"/>
-      <c r="I57" s="403" t="s">
+      <c r="F57" s="323"/>
+      <c r="G57" s="323"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J57" s="404"/>
-      <c r="K57" s="404"/>
-      <c r="L57" s="405"/>
-      <c r="M57" s="313" t="s">
+      <c r="J57" s="330"/>
+      <c r="K57" s="330"/>
+      <c r="L57" s="331"/>
+      <c r="M57" s="327" t="s">
         <v>225</v>
       </c>
-      <c r="N57" s="314"/>
-      <c r="O57" s="314"/>
-      <c r="P57" s="314"/>
-      <c r="Q57" s="314"/>
-      <c r="R57" s="314"/>
-      <c r="S57" s="314"/>
-      <c r="T57" s="315"/>
-      <c r="U57" s="307" t="s">
+      <c r="N57" s="318"/>
+      <c r="O57" s="318"/>
+      <c r="P57" s="318"/>
+      <c r="Q57" s="318"/>
+      <c r="R57" s="318"/>
+      <c r="S57" s="318"/>
+      <c r="T57" s="319"/>
+      <c r="U57" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V57" s="308"/>
-      <c r="W57" s="308"/>
-      <c r="X57" s="308"/>
-      <c r="Y57" s="309"/>
-      <c r="Z57" s="307" t="s">
+      <c r="V57" s="323"/>
+      <c r="W57" s="323"/>
+      <c r="X57" s="323"/>
+      <c r="Y57" s="324"/>
+      <c r="Z57" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA57" s="308"/>
-      <c r="AB57" s="309"/>
+      <c r="AA57" s="323"/>
+      <c r="AB57" s="324"/>
       <c r="AC57" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD57" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE57" s="308"/>
-      <c r="AF57" s="308"/>
-      <c r="AG57" s="309"/>
+      <c r="AE57" s="323"/>
+      <c r="AF57" s="323"/>
+      <c r="AG57" s="324"/>
       <c r="AH57" s="151"/>
       <c r="AI57" s="151"/>
       <c r="AJ57" s="151"/>
@@ -21570,7 +21570,7 @@
       <c r="AO57" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP57" s="374" t="s">
+      <c r="AP57" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AQ57" s="135"/>
@@ -21584,46 +21584,46 @@
       <c r="E58" s="232" t="s">
         <v>213</v>
       </c>
-      <c r="F58" s="308"/>
-      <c r="G58" s="308"/>
-      <c r="H58" s="309"/>
-      <c r="I58" s="403" t="s">
+      <c r="F58" s="323"/>
+      <c r="G58" s="323"/>
+      <c r="H58" s="324"/>
+      <c r="I58" s="329" t="s">
         <v>89</v>
       </c>
-      <c r="J58" s="404"/>
-      <c r="K58" s="404"/>
-      <c r="L58" s="405"/>
-      <c r="M58" s="313" t="s">
+      <c r="J58" s="330"/>
+      <c r="K58" s="330"/>
+      <c r="L58" s="331"/>
+      <c r="M58" s="327" t="s">
         <v>226</v>
       </c>
-      <c r="N58" s="314"/>
-      <c r="O58" s="314"/>
-      <c r="P58" s="314"/>
-      <c r="Q58" s="314"/>
-      <c r="R58" s="314"/>
-      <c r="S58" s="314"/>
-      <c r="T58" s="315"/>
-      <c r="U58" s="307" t="s">
+      <c r="N58" s="318"/>
+      <c r="O58" s="318"/>
+      <c r="P58" s="318"/>
+      <c r="Q58" s="318"/>
+      <c r="R58" s="318"/>
+      <c r="S58" s="318"/>
+      <c r="T58" s="319"/>
+      <c r="U58" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="V58" s="308"/>
-      <c r="W58" s="308"/>
-      <c r="X58" s="308"/>
-      <c r="Y58" s="309"/>
-      <c r="Z58" s="307" t="s">
+      <c r="V58" s="323"/>
+      <c r="W58" s="323"/>
+      <c r="X58" s="323"/>
+      <c r="Y58" s="324"/>
+      <c r="Z58" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA58" s="308"/>
-      <c r="AB58" s="309"/>
+      <c r="AA58" s="323"/>
+      <c r="AB58" s="324"/>
       <c r="AC58" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD58" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE58" s="308"/>
-      <c r="AF58" s="308"/>
-      <c r="AG58" s="309"/>
+      <c r="AE58" s="323"/>
+      <c r="AF58" s="323"/>
+      <c r="AG58" s="324"/>
       <c r="AL58" s="235" t="s">
         <v>214</v>
       </c>
@@ -21636,7 +21636,7 @@
       <c r="AO58" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP58" s="374" t="s">
+      <c r="AP58" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU58" s="133"/>
@@ -21655,44 +21655,44 @@
       </c>
       <c r="F59" s="303"/>
       <c r="G59" s="303"/>
-      <c r="H59" s="374"/>
-      <c r="I59" s="408" t="s">
+      <c r="H59" s="325"/>
+      <c r="I59" s="400" t="s">
         <v>89</v>
       </c>
-      <c r="J59" s="409"/>
-      <c r="K59" s="409"/>
-      <c r="L59" s="410"/>
-      <c r="M59" s="313" t="s">
+      <c r="J59" s="401"/>
+      <c r="K59" s="401"/>
+      <c r="L59" s="402"/>
+      <c r="M59" s="327" t="s">
         <v>335</v>
       </c>
-      <c r="N59" s="314"/>
-      <c r="O59" s="314"/>
-      <c r="P59" s="314"/>
-      <c r="Q59" s="314"/>
-      <c r="R59" s="314"/>
-      <c r="S59" s="314"/>
-      <c r="T59" s="315"/>
+      <c r="N59" s="318"/>
+      <c r="O59" s="318"/>
+      <c r="P59" s="318"/>
+      <c r="Q59" s="318"/>
+      <c r="R59" s="318"/>
+      <c r="S59" s="318"/>
+      <c r="T59" s="319"/>
       <c r="U59" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="V59" s="308"/>
-      <c r="W59" s="308"/>
-      <c r="X59" s="308"/>
-      <c r="Y59" s="309"/>
-      <c r="Z59" s="307" t="s">
+      <c r="V59" s="323"/>
+      <c r="W59" s="323"/>
+      <c r="X59" s="323"/>
+      <c r="Y59" s="324"/>
+      <c r="Z59" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="AA59" s="308"/>
-      <c r="AB59" s="309"/>
+      <c r="AA59" s="323"/>
+      <c r="AB59" s="324"/>
       <c r="AC59" s="172" t="s">
         <v>92</v>
       </c>
       <c r="AD59" s="232" t="s">
         <v>215</v>
       </c>
-      <c r="AE59" s="308"/>
-      <c r="AF59" s="308"/>
-      <c r="AG59" s="309"/>
+      <c r="AE59" s="323"/>
+      <c r="AF59" s="323"/>
+      <c r="AG59" s="324"/>
       <c r="AL59" s="235" t="s">
         <v>214</v>
       </c>
@@ -21705,7 +21705,7 @@
       <c r="AO59" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="AP59" s="374" t="s">
+      <c r="AP59" s="325" t="s">
         <v>141</v>
       </c>
       <c r="AU59" s="133"/>
@@ -21822,24 +21822,24 @@
       <c r="AW63" s="106"/>
     </row>
     <row r="64" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="D64" s="327" t="s">
+      <c r="D64" s="307" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="329" t="s">
+      <c r="E64" s="309" t="s">
         <v>49</v>
       </c>
-      <c r="F64" s="330"/>
-      <c r="G64" s="330"/>
-      <c r="H64" s="330"/>
-      <c r="I64" s="330"/>
-      <c r="J64" s="331"/>
-      <c r="K64" s="329" t="s">
+      <c r="F64" s="310"/>
+      <c r="G64" s="310"/>
+      <c r="H64" s="310"/>
+      <c r="I64" s="310"/>
+      <c r="J64" s="311"/>
+      <c r="K64" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="L64" s="330"/>
-      <c r="M64" s="330"/>
-      <c r="N64" s="331"/>
-      <c r="O64" s="414" t="s">
+      <c r="L64" s="310"/>
+      <c r="M64" s="310"/>
+      <c r="N64" s="311"/>
+      <c r="O64" s="406" t="s">
         <v>51</v>
       </c>
       <c r="P64" s="170" t="s">
@@ -21850,21 +21850,21 @@
       <c r="S64" s="142"/>
       <c r="T64" s="142"/>
       <c r="U64" s="142"/>
-      <c r="V64" s="329" t="s">
+      <c r="V64" s="309" t="s">
         <v>30</v>
       </c>
-      <c r="W64" s="330"/>
-      <c r="X64" s="330"/>
-      <c r="Y64" s="330"/>
-      <c r="Z64" s="330"/>
-      <c r="AA64" s="330"/>
-      <c r="AB64" s="330"/>
-      <c r="AC64" s="330"/>
-      <c r="AD64" s="330"/>
-      <c r="AE64" s="330"/>
-      <c r="AF64" s="330"/>
-      <c r="AG64" s="330"/>
-      <c r="AH64" s="331"/>
+      <c r="W64" s="310"/>
+      <c r="X64" s="310"/>
+      <c r="Y64" s="310"/>
+      <c r="Z64" s="310"/>
+      <c r="AA64" s="310"/>
+      <c r="AB64" s="310"/>
+      <c r="AC64" s="310"/>
+      <c r="AD64" s="310"/>
+      <c r="AE64" s="310"/>
+      <c r="AF64" s="310"/>
+      <c r="AG64" s="310"/>
+      <c r="AH64" s="311"/>
       <c r="AK64" s="106"/>
       <c r="AL64" s="106"/>
       <c r="AM64" s="106"/>
@@ -21880,18 +21880,18 @@
       <c r="AW64" s="106"/>
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.15">
-      <c r="D65" s="328"/>
-      <c r="E65" s="332"/>
-      <c r="F65" s="333"/>
-      <c r="G65" s="333"/>
-      <c r="H65" s="333"/>
-      <c r="I65" s="333"/>
-      <c r="J65" s="334"/>
-      <c r="K65" s="332"/>
-      <c r="L65" s="333"/>
-      <c r="M65" s="333"/>
-      <c r="N65" s="334"/>
-      <c r="O65" s="415"/>
+      <c r="D65" s="308"/>
+      <c r="E65" s="312"/>
+      <c r="F65" s="313"/>
+      <c r="G65" s="313"/>
+      <c r="H65" s="313"/>
+      <c r="I65" s="313"/>
+      <c r="J65" s="314"/>
+      <c r="K65" s="312"/>
+      <c r="L65" s="313"/>
+      <c r="M65" s="313"/>
+      <c r="N65" s="314"/>
+      <c r="O65" s="407"/>
       <c r="P65" s="143" t="s">
         <v>52</v>
       </c>
@@ -21904,23 +21904,23 @@
       <c r="S65" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="T65" s="416" t="s">
+      <c r="T65" s="408" t="s">
         <v>59</v>
       </c>
-      <c r="U65" s="417"/>
-      <c r="V65" s="332"/>
-      <c r="W65" s="333"/>
-      <c r="X65" s="333"/>
-      <c r="Y65" s="333"/>
-      <c r="Z65" s="333"/>
-      <c r="AA65" s="333"/>
-      <c r="AB65" s="333"/>
-      <c r="AC65" s="333"/>
-      <c r="AD65" s="333"/>
-      <c r="AE65" s="333"/>
-      <c r="AF65" s="333"/>
-      <c r="AG65" s="333"/>
-      <c r="AH65" s="334"/>
+      <c r="U65" s="409"/>
+      <c r="V65" s="312"/>
+      <c r="W65" s="313"/>
+      <c r="X65" s="313"/>
+      <c r="Y65" s="313"/>
+      <c r="Z65" s="313"/>
+      <c r="AA65" s="313"/>
+      <c r="AB65" s="313"/>
+      <c r="AC65" s="313"/>
+      <c r="AD65" s="313"/>
+      <c r="AE65" s="313"/>
+      <c r="AF65" s="313"/>
+      <c r="AG65" s="313"/>
+      <c r="AH65" s="314"/>
       <c r="AK65" s="106"/>
       <c r="AL65" s="106"/>
       <c r="AM65" s="106"/>
@@ -21939,20 +21939,20 @@
       <c r="D66" s="144">
         <v>1</v>
       </c>
-      <c r="E66" s="393" t="s">
+      <c r="E66" s="391" t="s">
         <v>150</v>
       </c>
-      <c r="F66" s="394"/>
-      <c r="G66" s="394"/>
-      <c r="H66" s="394"/>
-      <c r="I66" s="394"/>
-      <c r="J66" s="395"/>
-      <c r="K66" s="307" t="s">
+      <c r="F66" s="392"/>
+      <c r="G66" s="392"/>
+      <c r="H66" s="392"/>
+      <c r="I66" s="392"/>
+      <c r="J66" s="393"/>
+      <c r="K66" s="322" t="s">
         <v>95</v>
       </c>
-      <c r="L66" s="308"/>
-      <c r="M66" s="308"/>
-      <c r="N66" s="309"/>
+      <c r="L66" s="323"/>
+      <c r="M66" s="323"/>
+      <c r="N66" s="324"/>
       <c r="O66" s="139" t="s">
         <v>96</v>
       </c>
@@ -21968,25 +21968,25 @@
       <c r="S66" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="T66" s="396" t="s">
+      <c r="T66" s="394" t="s">
         <v>92</v>
       </c>
-      <c r="U66" s="397"/>
-      <c r="V66" s="307" t="s">
+      <c r="U66" s="395"/>
+      <c r="V66" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="W66" s="308"/>
-      <c r="X66" s="308"/>
-      <c r="Y66" s="308"/>
-      <c r="Z66" s="308"/>
-      <c r="AA66" s="308"/>
-      <c r="AB66" s="308"/>
-      <c r="AC66" s="308"/>
-      <c r="AD66" s="308"/>
-      <c r="AE66" s="308"/>
-      <c r="AF66" s="308"/>
-      <c r="AG66" s="308"/>
-      <c r="AH66" s="309"/>
+      <c r="W66" s="323"/>
+      <c r="X66" s="323"/>
+      <c r="Y66" s="323"/>
+      <c r="Z66" s="323"/>
+      <c r="AA66" s="323"/>
+      <c r="AB66" s="323"/>
+      <c r="AC66" s="323"/>
+      <c r="AD66" s="323"/>
+      <c r="AE66" s="323"/>
+      <c r="AF66" s="323"/>
+      <c r="AG66" s="323"/>
+      <c r="AH66" s="324"/>
       <c r="AK66" s="106"/>
       <c r="AL66" s="106"/>
       <c r="AM66" s="106"/>
@@ -22005,20 +22005,20 @@
       <c r="D67" s="144">
         <v>2</v>
       </c>
-      <c r="E67" s="393" t="s">
+      <c r="E67" s="391" t="s">
         <v>196</v>
       </c>
-      <c r="F67" s="394"/>
-      <c r="G67" s="394"/>
-      <c r="H67" s="394"/>
-      <c r="I67" s="394"/>
-      <c r="J67" s="395"/>
-      <c r="K67" s="307" t="s">
+      <c r="F67" s="392"/>
+      <c r="G67" s="392"/>
+      <c r="H67" s="392"/>
+      <c r="I67" s="392"/>
+      <c r="J67" s="393"/>
+      <c r="K67" s="322" t="s">
         <v>95</v>
       </c>
-      <c r="L67" s="308"/>
-      <c r="M67" s="308"/>
-      <c r="N67" s="309"/>
+      <c r="L67" s="323"/>
+      <c r="M67" s="323"/>
+      <c r="N67" s="324"/>
       <c r="O67" s="139" t="s">
         <v>96</v>
       </c>
@@ -22034,25 +22034,25 @@
       <c r="S67" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="T67" s="396" t="s">
+      <c r="T67" s="394" t="s">
         <v>92</v>
       </c>
-      <c r="U67" s="397"/>
-      <c r="V67" s="307" t="s">
+      <c r="U67" s="395"/>
+      <c r="V67" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="W67" s="308"/>
-      <c r="X67" s="308"/>
-      <c r="Y67" s="308"/>
-      <c r="Z67" s="308"/>
-      <c r="AA67" s="308"/>
-      <c r="AB67" s="308"/>
-      <c r="AC67" s="308"/>
-      <c r="AD67" s="308"/>
-      <c r="AE67" s="308"/>
-      <c r="AF67" s="308"/>
-      <c r="AG67" s="308"/>
-      <c r="AH67" s="309"/>
+      <c r="W67" s="323"/>
+      <c r="X67" s="323"/>
+      <c r="Y67" s="323"/>
+      <c r="Z67" s="323"/>
+      <c r="AA67" s="323"/>
+      <c r="AB67" s="323"/>
+      <c r="AC67" s="323"/>
+      <c r="AD67" s="323"/>
+      <c r="AE67" s="323"/>
+      <c r="AF67" s="323"/>
+      <c r="AG67" s="323"/>
+      <c r="AH67" s="324"/>
       <c r="AK67" s="106"/>
       <c r="AL67" s="106"/>
       <c r="AM67" s="106"/>
@@ -22231,38 +22231,38 @@
       <c r="H73" s="452"/>
       <c r="I73" s="452"/>
       <c r="J73" s="452"/>
-      <c r="K73" s="326" t="s">
+      <c r="K73" s="321" t="s">
         <v>99</v>
       </c>
-      <c r="L73" s="326"/>
-      <c r="M73" s="326"/>
-      <c r="N73" s="326"/>
-      <c r="O73" s="326"/>
-      <c r="P73" s="326"/>
-      <c r="Q73" s="326"/>
-      <c r="R73" s="325" t="s">
+      <c r="L73" s="321"/>
+      <c r="M73" s="321"/>
+      <c r="N73" s="321"/>
+      <c r="O73" s="321"/>
+      <c r="P73" s="321"/>
+      <c r="Q73" s="321"/>
+      <c r="R73" s="320" t="s">
         <v>354</v>
       </c>
-      <c r="S73" s="326"/>
-      <c r="T73" s="326"/>
-      <c r="U73" s="326"/>
-      <c r="V73" s="326"/>
-      <c r="W73" s="326"/>
-      <c r="X73" s="326"/>
-      <c r="Y73" s="326"/>
-      <c r="Z73" s="326" t="s">
+      <c r="S73" s="321"/>
+      <c r="T73" s="321"/>
+      <c r="U73" s="321"/>
+      <c r="V73" s="321"/>
+      <c r="W73" s="321"/>
+      <c r="X73" s="321"/>
+      <c r="Y73" s="321"/>
+      <c r="Z73" s="321" t="s">
         <v>97</v>
       </c>
-      <c r="AA73" s="326"/>
-      <c r="AB73" s="326"/>
-      <c r="AC73" s="326"/>
-      <c r="AD73" s="326"/>
-      <c r="AE73" s="399" t="s">
+      <c r="AA73" s="321"/>
+      <c r="AB73" s="321"/>
+      <c r="AC73" s="321"/>
+      <c r="AD73" s="321"/>
+      <c r="AE73" s="397" t="s">
         <v>71</v>
       </c>
-      <c r="AF73" s="399"/>
-      <c r="AG73" s="399"/>
-      <c r="AH73" s="399"/>
+      <c r="AF73" s="397"/>
+      <c r="AG73" s="397"/>
+      <c r="AH73" s="397"/>
     </row>
     <row r="74" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="209">
@@ -22276,25 +22276,25 @@
       <c r="H74" s="452"/>
       <c r="I74" s="452"/>
       <c r="J74" s="452"/>
-      <c r="K74" s="325" t="s">
+      <c r="K74" s="320" t="s">
         <v>337</v>
       </c>
-      <c r="L74" s="326"/>
-      <c r="M74" s="326"/>
-      <c r="N74" s="326"/>
-      <c r="O74" s="326"/>
-      <c r="P74" s="326"/>
-      <c r="Q74" s="326"/>
-      <c r="R74" s="325" t="s">
+      <c r="L74" s="321"/>
+      <c r="M74" s="321"/>
+      <c r="N74" s="321"/>
+      <c r="O74" s="321"/>
+      <c r="P74" s="321"/>
+      <c r="Q74" s="321"/>
+      <c r="R74" s="320" t="s">
         <v>197</v>
       </c>
-      <c r="S74" s="326"/>
-      <c r="T74" s="326"/>
-      <c r="U74" s="326"/>
-      <c r="V74" s="326"/>
-      <c r="W74" s="326"/>
-      <c r="X74" s="326"/>
-      <c r="Y74" s="326"/>
+      <c r="S74" s="321"/>
+      <c r="T74" s="321"/>
+      <c r="U74" s="321"/>
+      <c r="V74" s="321"/>
+      <c r="W74" s="321"/>
+      <c r="X74" s="321"/>
+      <c r="Y74" s="321"/>
       <c r="Z74" s="455" t="s">
         <v>338</v>
       </c>
@@ -22302,12 +22302,12 @@
       <c r="AB74" s="452"/>
       <c r="AC74" s="452"/>
       <c r="AD74" s="452"/>
-      <c r="AE74" s="399" t="s">
+      <c r="AE74" s="397" t="s">
         <v>71</v>
       </c>
-      <c r="AF74" s="399"/>
-      <c r="AG74" s="399"/>
-      <c r="AH74" s="399"/>
+      <c r="AF74" s="397"/>
+      <c r="AG74" s="397"/>
+      <c r="AH74" s="397"/>
     </row>
     <row r="75" spans="1:56" s="109" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="147">
@@ -22321,38 +22321,38 @@
       <c r="H75" s="454"/>
       <c r="I75" s="454"/>
       <c r="J75" s="454"/>
-      <c r="K75" s="398" t="s">
+      <c r="K75" s="396" t="s">
         <v>370</v>
       </c>
-      <c r="L75" s="399"/>
-      <c r="M75" s="399"/>
-      <c r="N75" s="399"/>
-      <c r="O75" s="399"/>
-      <c r="P75" s="399"/>
-      <c r="Q75" s="399"/>
-      <c r="R75" s="398" t="s">
+      <c r="L75" s="397"/>
+      <c r="M75" s="397"/>
+      <c r="N75" s="397"/>
+      <c r="O75" s="397"/>
+      <c r="P75" s="397"/>
+      <c r="Q75" s="397"/>
+      <c r="R75" s="396" t="s">
         <v>371</v>
       </c>
-      <c r="S75" s="399"/>
-      <c r="T75" s="399"/>
-      <c r="U75" s="399"/>
-      <c r="V75" s="399"/>
-      <c r="W75" s="399"/>
-      <c r="X75" s="399"/>
-      <c r="Y75" s="399"/>
-      <c r="Z75" s="398" t="s">
+      <c r="S75" s="397"/>
+      <c r="T75" s="397"/>
+      <c r="U75" s="397"/>
+      <c r="V75" s="397"/>
+      <c r="W75" s="397"/>
+      <c r="X75" s="397"/>
+      <c r="Y75" s="397"/>
+      <c r="Z75" s="396" t="s">
         <v>372</v>
       </c>
-      <c r="AA75" s="399"/>
-      <c r="AB75" s="399"/>
-      <c r="AC75" s="399"/>
-      <c r="AD75" s="399"/>
-      <c r="AE75" s="399" t="s">
+      <c r="AA75" s="397"/>
+      <c r="AB75" s="397"/>
+      <c r="AC75" s="397"/>
+      <c r="AD75" s="397"/>
+      <c r="AE75" s="397" t="s">
         <v>71</v>
       </c>
-      <c r="AF75" s="399"/>
-      <c r="AG75" s="399"/>
-      <c r="AH75" s="399"/>
+      <c r="AF75" s="397"/>
+      <c r="AG75" s="397"/>
+      <c r="AH75" s="397"/>
       <c r="AN75" s="29"/>
       <c r="AO75" s="29"/>
       <c r="AP75" s="29"/>
@@ -22510,40 +22510,40 @@
       <c r="G83" s="300" t="s">
         <v>68</v>
       </c>
-      <c r="H83" s="321"/>
-      <c r="I83" s="321"/>
-      <c r="J83" s="321"/>
-      <c r="K83" s="321"/>
-      <c r="L83" s="323"/>
-      <c r="M83" s="337" t="s">
+      <c r="H83" s="315"/>
+      <c r="I83" s="315"/>
+      <c r="J83" s="315"/>
+      <c r="K83" s="315"/>
+      <c r="L83" s="316"/>
+      <c r="M83" s="435" t="s">
         <v>76</v>
       </c>
-      <c r="N83" s="321"/>
-      <c r="O83" s="321"/>
-      <c r="P83" s="321"/>
-      <c r="Q83" s="321"/>
-      <c r="R83" s="321"/>
-      <c r="S83" s="321"/>
-      <c r="T83" s="321"/>
-      <c r="U83" s="321"/>
-      <c r="V83" s="323"/>
-      <c r="W83" s="344" t="s">
+      <c r="N83" s="315"/>
+      <c r="O83" s="315"/>
+      <c r="P83" s="315"/>
+      <c r="Q83" s="315"/>
+      <c r="R83" s="315"/>
+      <c r="S83" s="315"/>
+      <c r="T83" s="315"/>
+      <c r="U83" s="315"/>
+      <c r="V83" s="316"/>
+      <c r="W83" s="346" t="s">
         <v>77</v>
       </c>
-      <c r="X83" s="345"/>
-      <c r="Y83" s="346"/>
-      <c r="Z83" s="344" t="s">
+      <c r="X83" s="347"/>
+      <c r="Y83" s="348"/>
+      <c r="Z83" s="346" t="s">
         <v>78</v>
       </c>
-      <c r="AA83" s="345"/>
-      <c r="AB83" s="345"/>
-      <c r="AC83" s="346"/>
-      <c r="AD83" s="432" t="s">
+      <c r="AA83" s="347"/>
+      <c r="AB83" s="347"/>
+      <c r="AC83" s="348"/>
+      <c r="AD83" s="429" t="s">
         <v>129</v>
       </c>
-      <c r="AE83" s="433"/>
-      <c r="AF83" s="433"/>
-      <c r="AG83" s="434"/>
+      <c r="AE83" s="430"/>
+      <c r="AF83" s="430"/>
+      <c r="AG83" s="431"/>
       <c r="AJ83" s="126"/>
       <c r="AK83" s="126"/>
       <c r="AL83" s="126"/>
@@ -22573,43 +22573,43 @@
       <c r="F84" s="150">
         <v>1</v>
       </c>
-      <c r="G84" s="335" t="s">
+      <c r="G84" s="317" t="s">
         <v>70</v>
       </c>
-      <c r="H84" s="314"/>
-      <c r="I84" s="314"/>
-      <c r="J84" s="314"/>
-      <c r="K84" s="314"/>
-      <c r="L84" s="315"/>
-      <c r="M84" s="313" t="s">
+      <c r="H84" s="318"/>
+      <c r="I84" s="318"/>
+      <c r="J84" s="318"/>
+      <c r="K84" s="318"/>
+      <c r="L84" s="319"/>
+      <c r="M84" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="N84" s="314"/>
-      <c r="O84" s="314"/>
-      <c r="P84" s="314"/>
-      <c r="Q84" s="314"/>
-      <c r="R84" s="314"/>
-      <c r="S84" s="314"/>
-      <c r="T84" s="314"/>
-      <c r="U84" s="314"/>
-      <c r="V84" s="315"/>
-      <c r="W84" s="362" t="s">
+      <c r="N84" s="318"/>
+      <c r="O84" s="318"/>
+      <c r="P84" s="318"/>
+      <c r="Q84" s="318"/>
+      <c r="R84" s="318"/>
+      <c r="S84" s="318"/>
+      <c r="T84" s="318"/>
+      <c r="U84" s="318"/>
+      <c r="V84" s="319"/>
+      <c r="W84" s="364" t="s">
         <v>131</v>
       </c>
-      <c r="X84" s="363"/>
-      <c r="Y84" s="364"/>
-      <c r="Z84" s="339" t="s">
+      <c r="X84" s="365"/>
+      <c r="Y84" s="366"/>
+      <c r="Z84" s="421" t="s">
         <v>130</v>
       </c>
-      <c r="AA84" s="340"/>
-      <c r="AB84" s="340"/>
-      <c r="AC84" s="341"/>
-      <c r="AD84" s="313" t="s">
+      <c r="AA84" s="436"/>
+      <c r="AB84" s="436"/>
+      <c r="AC84" s="437"/>
+      <c r="AD84" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="AE84" s="314"/>
-      <c r="AF84" s="314"/>
-      <c r="AG84" s="315"/>
+      <c r="AE84" s="318"/>
+      <c r="AF84" s="318"/>
+      <c r="AG84" s="319"/>
       <c r="AI84" s="126"/>
       <c r="AJ84" s="126"/>
       <c r="AK84" s="126"/>
@@ -22795,30 +22795,30 @@
       <c r="K92" s="185"/>
       <c r="L92" s="185"/>
       <c r="M92" s="185"/>
-      <c r="N92" s="347" t="s">
+      <c r="N92" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="O92" s="348"/>
-      <c r="P92" s="348"/>
-      <c r="Q92" s="348"/>
-      <c r="R92" s="348"/>
-      <c r="S92" s="348"/>
-      <c r="T92" s="348"/>
-      <c r="U92" s="348"/>
-      <c r="V92" s="348"/>
-      <c r="W92" s="349"/>
+      <c r="O92" s="350"/>
+      <c r="P92" s="350"/>
+      <c r="Q92" s="350"/>
+      <c r="R92" s="350"/>
+      <c r="S92" s="350"/>
+      <c r="T92" s="350"/>
+      <c r="U92" s="350"/>
+      <c r="V92" s="350"/>
+      <c r="W92" s="351"/>
       <c r="X92" s="441" t="s">
         <v>31</v>
       </c>
-      <c r="Y92" s="348"/>
-      <c r="Z92" s="348"/>
-      <c r="AA92" s="348"/>
-      <c r="AB92" s="348"/>
-      <c r="AC92" s="348"/>
-      <c r="AD92" s="348"/>
-      <c r="AE92" s="348"/>
-      <c r="AF92" s="348"/>
-      <c r="AG92" s="349"/>
+      <c r="Y92" s="350"/>
+      <c r="Z92" s="350"/>
+      <c r="AA92" s="350"/>
+      <c r="AB92" s="350"/>
+      <c r="AC92" s="350"/>
+      <c r="AD92" s="350"/>
+      <c r="AE92" s="350"/>
+      <c r="AF92" s="350"/>
+      <c r="AG92" s="351"/>
     </row>
     <row r="93" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G93" s="169" t="s">
@@ -22830,30 +22830,30 @@
       <c r="K93" s="187"/>
       <c r="L93" s="187"/>
       <c r="M93" s="187"/>
-      <c r="N93" s="393" t="s">
+      <c r="N93" s="391" t="s">
         <v>244</v>
       </c>
-      <c r="O93" s="394"/>
-      <c r="P93" s="394"/>
-      <c r="Q93" s="394"/>
-      <c r="R93" s="394"/>
-      <c r="S93" s="394"/>
-      <c r="T93" s="394"/>
-      <c r="U93" s="394"/>
-      <c r="V93" s="394"/>
-      <c r="W93" s="395"/>
-      <c r="X93" s="393" t="s">
+      <c r="O93" s="392"/>
+      <c r="P93" s="392"/>
+      <c r="Q93" s="392"/>
+      <c r="R93" s="392"/>
+      <c r="S93" s="392"/>
+      <c r="T93" s="392"/>
+      <c r="U93" s="392"/>
+      <c r="V93" s="392"/>
+      <c r="W93" s="393"/>
+      <c r="X93" s="391" t="s">
         <v>250</v>
       </c>
-      <c r="Y93" s="394"/>
-      <c r="Z93" s="394"/>
-      <c r="AA93" s="394"/>
-      <c r="AB93" s="394"/>
-      <c r="AC93" s="394"/>
-      <c r="AD93" s="394"/>
-      <c r="AE93" s="394"/>
-      <c r="AF93" s="394"/>
-      <c r="AG93" s="395"/>
+      <c r="Y93" s="392"/>
+      <c r="Z93" s="392"/>
+      <c r="AA93" s="392"/>
+      <c r="AB93" s="392"/>
+      <c r="AC93" s="392"/>
+      <c r="AD93" s="392"/>
+      <c r="AE93" s="392"/>
+      <c r="AF93" s="392"/>
+      <c r="AG93" s="393"/>
     </row>
     <row r="94" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G94" s="186"/>
@@ -22863,30 +22863,30 @@
       <c r="K94" s="165"/>
       <c r="L94" s="165"/>
       <c r="M94" s="165"/>
-      <c r="N94" s="393" t="s">
+      <c r="N94" s="391" t="s">
         <v>216</v>
       </c>
-      <c r="O94" s="394"/>
-      <c r="P94" s="394"/>
-      <c r="Q94" s="394"/>
-      <c r="R94" s="394"/>
-      <c r="S94" s="394"/>
-      <c r="T94" s="394"/>
-      <c r="U94" s="394"/>
-      <c r="V94" s="394"/>
-      <c r="W94" s="395"/>
-      <c r="X94" s="393" t="s">
+      <c r="O94" s="392"/>
+      <c r="P94" s="392"/>
+      <c r="Q94" s="392"/>
+      <c r="R94" s="392"/>
+      <c r="S94" s="392"/>
+      <c r="T94" s="392"/>
+      <c r="U94" s="392"/>
+      <c r="V94" s="392"/>
+      <c r="W94" s="393"/>
+      <c r="X94" s="391" t="s">
         <v>251</v>
       </c>
-      <c r="Y94" s="394"/>
-      <c r="Z94" s="394"/>
-      <c r="AA94" s="394"/>
-      <c r="AB94" s="394"/>
-      <c r="AC94" s="394"/>
-      <c r="AD94" s="394"/>
-      <c r="AE94" s="394"/>
-      <c r="AF94" s="394"/>
-      <c r="AG94" s="395"/>
+      <c r="Y94" s="392"/>
+      <c r="Z94" s="392"/>
+      <c r="AA94" s="392"/>
+      <c r="AB94" s="392"/>
+      <c r="AC94" s="392"/>
+      <c r="AD94" s="392"/>
+      <c r="AE94" s="392"/>
+      <c r="AF94" s="392"/>
+      <c r="AG94" s="393"/>
     </row>
     <row r="95" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G95" s="186"/>
@@ -22896,30 +22896,30 @@
       <c r="K95" s="165"/>
       <c r="L95" s="165"/>
       <c r="M95" s="165"/>
-      <c r="N95" s="393" t="s">
+      <c r="N95" s="391" t="s">
         <v>246</v>
       </c>
-      <c r="O95" s="394"/>
-      <c r="P95" s="394"/>
-      <c r="Q95" s="394"/>
-      <c r="R95" s="394"/>
-      <c r="S95" s="394"/>
-      <c r="T95" s="394"/>
-      <c r="U95" s="394"/>
-      <c r="V95" s="394"/>
-      <c r="W95" s="395"/>
-      <c r="X95" s="393" t="s">
+      <c r="O95" s="392"/>
+      <c r="P95" s="392"/>
+      <c r="Q95" s="392"/>
+      <c r="R95" s="392"/>
+      <c r="S95" s="392"/>
+      <c r="T95" s="392"/>
+      <c r="U95" s="392"/>
+      <c r="V95" s="392"/>
+      <c r="W95" s="393"/>
+      <c r="X95" s="391" t="s">
         <v>252</v>
       </c>
-      <c r="Y95" s="394"/>
-      <c r="Z95" s="394"/>
-      <c r="AA95" s="394"/>
-      <c r="AB95" s="394"/>
-      <c r="AC95" s="394"/>
-      <c r="AD95" s="394"/>
-      <c r="AE95" s="394"/>
-      <c r="AF95" s="394"/>
-      <c r="AG95" s="395"/>
+      <c r="Y95" s="392"/>
+      <c r="Z95" s="392"/>
+      <c r="AA95" s="392"/>
+      <c r="AB95" s="392"/>
+      <c r="AC95" s="392"/>
+      <c r="AD95" s="392"/>
+      <c r="AE95" s="392"/>
+      <c r="AF95" s="392"/>
+      <c r="AG95" s="393"/>
     </row>
     <row r="96" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G96" s="186"/>
@@ -22929,30 +22929,30 @@
       <c r="K96" s="165"/>
       <c r="L96" s="165"/>
       <c r="M96" s="165"/>
-      <c r="N96" s="393" t="s">
+      <c r="N96" s="391" t="s">
         <v>245</v>
       </c>
-      <c r="O96" s="394"/>
-      <c r="P96" s="394"/>
-      <c r="Q96" s="394"/>
-      <c r="R96" s="394"/>
-      <c r="S96" s="394"/>
-      <c r="T96" s="394"/>
-      <c r="U96" s="394"/>
-      <c r="V96" s="394"/>
-      <c r="W96" s="395"/>
-      <c r="X96" s="393" t="s">
+      <c r="O96" s="392"/>
+      <c r="P96" s="392"/>
+      <c r="Q96" s="392"/>
+      <c r="R96" s="392"/>
+      <c r="S96" s="392"/>
+      <c r="T96" s="392"/>
+      <c r="U96" s="392"/>
+      <c r="V96" s="392"/>
+      <c r="W96" s="393"/>
+      <c r="X96" s="391" t="s">
         <v>173</v>
       </c>
-      <c r="Y96" s="394"/>
-      <c r="Z96" s="394"/>
-      <c r="AA96" s="394"/>
-      <c r="AB96" s="394"/>
-      <c r="AC96" s="394"/>
-      <c r="AD96" s="394"/>
-      <c r="AE96" s="394"/>
-      <c r="AF96" s="394"/>
-      <c r="AG96" s="395"/>
+      <c r="Y96" s="392"/>
+      <c r="Z96" s="392"/>
+      <c r="AA96" s="392"/>
+      <c r="AB96" s="392"/>
+      <c r="AC96" s="392"/>
+      <c r="AD96" s="392"/>
+      <c r="AE96" s="392"/>
+      <c r="AF96" s="392"/>
+      <c r="AG96" s="393"/>
     </row>
     <row r="97" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G97" s="186"/>
@@ -22962,30 +22962,30 @@
       <c r="K97" s="165"/>
       <c r="L97" s="165"/>
       <c r="M97" s="165"/>
-      <c r="N97" s="393" t="s">
+      <c r="N97" s="391" t="s">
         <v>248</v>
       </c>
-      <c r="O97" s="394"/>
-      <c r="P97" s="394"/>
-      <c r="Q97" s="394"/>
-      <c r="R97" s="394"/>
-      <c r="S97" s="394"/>
-      <c r="T97" s="394"/>
-      <c r="U97" s="394"/>
-      <c r="V97" s="394"/>
-      <c r="W97" s="395"/>
-      <c r="X97" s="393" t="s">
+      <c r="O97" s="392"/>
+      <c r="P97" s="392"/>
+      <c r="Q97" s="392"/>
+      <c r="R97" s="392"/>
+      <c r="S97" s="392"/>
+      <c r="T97" s="392"/>
+      <c r="U97" s="392"/>
+      <c r="V97" s="392"/>
+      <c r="W97" s="393"/>
+      <c r="X97" s="391" t="s">
         <v>248</v>
       </c>
-      <c r="Y97" s="394"/>
-      <c r="Z97" s="394"/>
-      <c r="AA97" s="394"/>
-      <c r="AB97" s="394"/>
-      <c r="AC97" s="394"/>
-      <c r="AD97" s="394"/>
-      <c r="AE97" s="394"/>
-      <c r="AF97" s="394"/>
-      <c r="AG97" s="395"/>
+      <c r="Y97" s="392"/>
+      <c r="Z97" s="392"/>
+      <c r="AA97" s="392"/>
+      <c r="AB97" s="392"/>
+      <c r="AC97" s="392"/>
+      <c r="AD97" s="392"/>
+      <c r="AE97" s="392"/>
+      <c r="AF97" s="392"/>
+      <c r="AG97" s="393"/>
     </row>
     <row r="98" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G98" s="186"/>
@@ -22995,30 +22995,30 @@
       <c r="K98" s="165"/>
       <c r="L98" s="165"/>
       <c r="M98" s="165"/>
-      <c r="N98" s="393" t="s">
+      <c r="N98" s="391" t="s">
         <v>340</v>
       </c>
-      <c r="O98" s="394"/>
-      <c r="P98" s="394"/>
-      <c r="Q98" s="394"/>
-      <c r="R98" s="394"/>
-      <c r="S98" s="394"/>
-      <c r="T98" s="394"/>
-      <c r="U98" s="394"/>
-      <c r="V98" s="394"/>
-      <c r="W98" s="395"/>
-      <c r="X98" s="393" t="s">
+      <c r="O98" s="392"/>
+      <c r="P98" s="392"/>
+      <c r="Q98" s="392"/>
+      <c r="R98" s="392"/>
+      <c r="S98" s="392"/>
+      <c r="T98" s="392"/>
+      <c r="U98" s="392"/>
+      <c r="V98" s="392"/>
+      <c r="W98" s="393"/>
+      <c r="X98" s="391" t="s">
         <v>341</v>
       </c>
-      <c r="Y98" s="394"/>
-      <c r="Z98" s="394"/>
-      <c r="AA98" s="394"/>
-      <c r="AB98" s="394"/>
-      <c r="AC98" s="394"/>
-      <c r="AD98" s="394"/>
-      <c r="AE98" s="394"/>
-      <c r="AF98" s="394"/>
-      <c r="AG98" s="395"/>
+      <c r="Y98" s="392"/>
+      <c r="Z98" s="392"/>
+      <c r="AA98" s="392"/>
+      <c r="AB98" s="392"/>
+      <c r="AC98" s="392"/>
+      <c r="AD98" s="392"/>
+      <c r="AE98" s="392"/>
+      <c r="AF98" s="392"/>
+      <c r="AG98" s="393"/>
     </row>
     <row r="99" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G99" s="186"/>
@@ -23028,30 +23028,30 @@
       <c r="K99" s="165"/>
       <c r="L99" s="165"/>
       <c r="M99" s="165"/>
-      <c r="N99" s="393" t="s">
+      <c r="N99" s="391" t="s">
         <v>247</v>
       </c>
-      <c r="O99" s="394"/>
-      <c r="P99" s="394"/>
-      <c r="Q99" s="394"/>
-      <c r="R99" s="394"/>
-      <c r="S99" s="394"/>
-      <c r="T99" s="394"/>
-      <c r="U99" s="394"/>
-      <c r="V99" s="394"/>
-      <c r="W99" s="395"/>
-      <c r="X99" s="393" t="s">
+      <c r="O99" s="392"/>
+      <c r="P99" s="392"/>
+      <c r="Q99" s="392"/>
+      <c r="R99" s="392"/>
+      <c r="S99" s="392"/>
+      <c r="T99" s="392"/>
+      <c r="U99" s="392"/>
+      <c r="V99" s="392"/>
+      <c r="W99" s="393"/>
+      <c r="X99" s="391" t="s">
         <v>253</v>
       </c>
-      <c r="Y99" s="394"/>
-      <c r="Z99" s="394"/>
-      <c r="AA99" s="394"/>
-      <c r="AB99" s="394"/>
-      <c r="AC99" s="394"/>
-      <c r="AD99" s="394"/>
-      <c r="AE99" s="394"/>
-      <c r="AF99" s="394"/>
-      <c r="AG99" s="395"/>
+      <c r="Y99" s="392"/>
+      <c r="Z99" s="392"/>
+      <c r="AA99" s="392"/>
+      <c r="AB99" s="392"/>
+      <c r="AC99" s="392"/>
+      <c r="AD99" s="392"/>
+      <c r="AE99" s="392"/>
+      <c r="AF99" s="392"/>
+      <c r="AG99" s="393"/>
     </row>
     <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G100" s="186"/>
@@ -23061,30 +23061,30 @@
       <c r="K100" s="165"/>
       <c r="L100" s="165"/>
       <c r="M100" s="165"/>
-      <c r="N100" s="393" t="s">
+      <c r="N100" s="391" t="s">
         <v>339</v>
       </c>
-      <c r="O100" s="394"/>
-      <c r="P100" s="394"/>
-      <c r="Q100" s="394"/>
-      <c r="R100" s="394"/>
-      <c r="S100" s="394"/>
-      <c r="T100" s="394"/>
-      <c r="U100" s="394"/>
-      <c r="V100" s="394"/>
-      <c r="W100" s="395"/>
-      <c r="X100" s="393" t="s">
+      <c r="O100" s="392"/>
+      <c r="P100" s="392"/>
+      <c r="Q100" s="392"/>
+      <c r="R100" s="392"/>
+      <c r="S100" s="392"/>
+      <c r="T100" s="392"/>
+      <c r="U100" s="392"/>
+      <c r="V100" s="392"/>
+      <c r="W100" s="393"/>
+      <c r="X100" s="391" t="s">
         <v>333</v>
       </c>
-      <c r="Y100" s="394"/>
-      <c r="Z100" s="394"/>
-      <c r="AA100" s="394"/>
-      <c r="AB100" s="394"/>
-      <c r="AC100" s="394"/>
-      <c r="AD100" s="394"/>
-      <c r="AE100" s="394"/>
-      <c r="AF100" s="394"/>
-      <c r="AG100" s="395"/>
+      <c r="Y100" s="392"/>
+      <c r="Z100" s="392"/>
+      <c r="AA100" s="392"/>
+      <c r="AB100" s="392"/>
+      <c r="AC100" s="392"/>
+      <c r="AD100" s="392"/>
+      <c r="AE100" s="392"/>
+      <c r="AF100" s="392"/>
+      <c r="AG100" s="393"/>
     </row>
     <row r="101" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G101" s="186"/>
@@ -23094,30 +23094,30 @@
       <c r="K101" s="165"/>
       <c r="L101" s="165"/>
       <c r="M101" s="165"/>
-      <c r="N101" s="393" t="s">
+      <c r="N101" s="391" t="s">
         <v>217</v>
       </c>
-      <c r="O101" s="394"/>
-      <c r="P101" s="394"/>
-      <c r="Q101" s="394"/>
-      <c r="R101" s="394"/>
-      <c r="S101" s="394"/>
-      <c r="T101" s="394"/>
-      <c r="U101" s="394"/>
-      <c r="V101" s="394"/>
-      <c r="W101" s="395"/>
-      <c r="X101" s="393" t="s">
+      <c r="O101" s="392"/>
+      <c r="P101" s="392"/>
+      <c r="Q101" s="392"/>
+      <c r="R101" s="392"/>
+      <c r="S101" s="392"/>
+      <c r="T101" s="392"/>
+      <c r="U101" s="392"/>
+      <c r="V101" s="392"/>
+      <c r="W101" s="393"/>
+      <c r="X101" s="391" t="s">
         <v>255</v>
       </c>
-      <c r="Y101" s="394"/>
-      <c r="Z101" s="394"/>
-      <c r="AA101" s="394"/>
-      <c r="AB101" s="394"/>
-      <c r="AC101" s="394"/>
-      <c r="AD101" s="394"/>
-      <c r="AE101" s="394"/>
-      <c r="AF101" s="394"/>
-      <c r="AG101" s="395"/>
+      <c r="Y101" s="392"/>
+      <c r="Z101" s="392"/>
+      <c r="AA101" s="392"/>
+      <c r="AB101" s="392"/>
+      <c r="AC101" s="392"/>
+      <c r="AD101" s="392"/>
+      <c r="AE101" s="392"/>
+      <c r="AF101" s="392"/>
+      <c r="AG101" s="393"/>
     </row>
     <row r="102" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G102" s="186"/>
@@ -23127,30 +23127,30 @@
       <c r="K102" s="165"/>
       <c r="L102" s="165"/>
       <c r="M102" s="165"/>
-      <c r="N102" s="393" t="s">
+      <c r="N102" s="391" t="s">
         <v>218</v>
       </c>
-      <c r="O102" s="394"/>
-      <c r="P102" s="394"/>
-      <c r="Q102" s="394"/>
-      <c r="R102" s="394"/>
-      <c r="S102" s="394"/>
-      <c r="T102" s="394"/>
-      <c r="U102" s="394"/>
-      <c r="V102" s="394"/>
-      <c r="W102" s="395"/>
-      <c r="X102" s="393" t="s">
+      <c r="O102" s="392"/>
+      <c r="P102" s="392"/>
+      <c r="Q102" s="392"/>
+      <c r="R102" s="392"/>
+      <c r="S102" s="392"/>
+      <c r="T102" s="392"/>
+      <c r="U102" s="392"/>
+      <c r="V102" s="392"/>
+      <c r="W102" s="393"/>
+      <c r="X102" s="391" t="s">
         <v>256</v>
       </c>
-      <c r="Y102" s="394"/>
-      <c r="Z102" s="394"/>
-      <c r="AA102" s="394"/>
-      <c r="AB102" s="394"/>
-      <c r="AC102" s="394"/>
-      <c r="AD102" s="394"/>
-      <c r="AE102" s="394"/>
-      <c r="AF102" s="394"/>
-      <c r="AG102" s="395"/>
+      <c r="Y102" s="392"/>
+      <c r="Z102" s="392"/>
+      <c r="AA102" s="392"/>
+      <c r="AB102" s="392"/>
+      <c r="AC102" s="392"/>
+      <c r="AD102" s="392"/>
+      <c r="AE102" s="392"/>
+      <c r="AF102" s="392"/>
+      <c r="AG102" s="393"/>
     </row>
     <row r="103" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G103" s="188"/>
@@ -23160,30 +23160,30 @@
       <c r="K103" s="189"/>
       <c r="L103" s="189"/>
       <c r="M103" s="189"/>
-      <c r="N103" s="393" t="s">
+      <c r="N103" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="O103" s="394"/>
-      <c r="P103" s="394"/>
-      <c r="Q103" s="394"/>
-      <c r="R103" s="394"/>
-      <c r="S103" s="394"/>
-      <c r="T103" s="394"/>
-      <c r="U103" s="394"/>
-      <c r="V103" s="394"/>
-      <c r="W103" s="395"/>
-      <c r="X103" s="393" t="s">
+      <c r="O103" s="392"/>
+      <c r="P103" s="392"/>
+      <c r="Q103" s="392"/>
+      <c r="R103" s="392"/>
+      <c r="S103" s="392"/>
+      <c r="T103" s="392"/>
+      <c r="U103" s="392"/>
+      <c r="V103" s="392"/>
+      <c r="W103" s="393"/>
+      <c r="X103" s="391" t="s">
         <v>30</v>
       </c>
-      <c r="Y103" s="394"/>
-      <c r="Z103" s="394"/>
-      <c r="AA103" s="394"/>
-      <c r="AB103" s="394"/>
-      <c r="AC103" s="394"/>
-      <c r="AD103" s="394"/>
-      <c r="AE103" s="394"/>
-      <c r="AF103" s="394"/>
-      <c r="AG103" s="395"/>
+      <c r="Y103" s="392"/>
+      <c r="Z103" s="392"/>
+      <c r="AA103" s="392"/>
+      <c r="AB103" s="392"/>
+      <c r="AC103" s="392"/>
+      <c r="AD103" s="392"/>
+      <c r="AE103" s="392"/>
+      <c r="AF103" s="392"/>
+      <c r="AG103" s="393"/>
     </row>
     <row r="104" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G104" s="235" t="s">
@@ -23195,30 +23195,30 @@
       <c r="K104" s="236"/>
       <c r="L104" s="236"/>
       <c r="M104" s="237"/>
-      <c r="N104" s="393" t="s">
+      <c r="N104" s="391" t="s">
         <v>157</v>
       </c>
-      <c r="O104" s="394"/>
-      <c r="P104" s="394"/>
-      <c r="Q104" s="394"/>
-      <c r="R104" s="394"/>
-      <c r="S104" s="394"/>
-      <c r="T104" s="394"/>
-      <c r="U104" s="394"/>
-      <c r="V104" s="394"/>
-      <c r="W104" s="395"/>
-      <c r="X104" s="393" t="s">
+      <c r="O104" s="392"/>
+      <c r="P104" s="392"/>
+      <c r="Q104" s="392"/>
+      <c r="R104" s="392"/>
+      <c r="S104" s="392"/>
+      <c r="T104" s="392"/>
+      <c r="U104" s="392"/>
+      <c r="V104" s="392"/>
+      <c r="W104" s="393"/>
+      <c r="X104" s="391" t="s">
         <v>257</v>
       </c>
-      <c r="Y104" s="394"/>
-      <c r="Z104" s="394"/>
-      <c r="AA104" s="394"/>
-      <c r="AB104" s="394"/>
-      <c r="AC104" s="394"/>
-      <c r="AD104" s="394"/>
-      <c r="AE104" s="394"/>
-      <c r="AF104" s="394"/>
-      <c r="AG104" s="395"/>
+      <c r="Y104" s="392"/>
+      <c r="Z104" s="392"/>
+      <c r="AA104" s="392"/>
+      <c r="AB104" s="392"/>
+      <c r="AC104" s="392"/>
+      <c r="AD104" s="392"/>
+      <c r="AE104" s="392"/>
+      <c r="AF104" s="392"/>
+      <c r="AG104" s="393"/>
     </row>
     <row r="105" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G105" s="235" t="s">
@@ -23269,32 +23269,32 @@
       <c r="G106" s="442" t="s">
         <v>258</v>
       </c>
-      <c r="H106" s="436"/>
-      <c r="I106" s="436"/>
-      <c r="J106" s="436"/>
-      <c r="K106" s="436"/>
-      <c r="L106" s="436"/>
-      <c r="M106" s="436"/>
-      <c r="N106" s="436"/>
-      <c r="O106" s="436"/>
-      <c r="P106" s="436"/>
-      <c r="Q106" s="436"/>
-      <c r="R106" s="436"/>
-      <c r="S106" s="436"/>
-      <c r="T106" s="436"/>
-      <c r="U106" s="436"/>
-      <c r="V106" s="436"/>
-      <c r="W106" s="436"/>
-      <c r="X106" s="436"/>
-      <c r="Y106" s="436"/>
-      <c r="Z106" s="436"/>
-      <c r="AA106" s="436"/>
-      <c r="AB106" s="436"/>
-      <c r="AC106" s="436"/>
-      <c r="AD106" s="436"/>
-      <c r="AE106" s="436"/>
-      <c r="AF106" s="436"/>
-      <c r="AG106" s="437"/>
+      <c r="H106" s="433"/>
+      <c r="I106" s="433"/>
+      <c r="J106" s="433"/>
+      <c r="K106" s="433"/>
+      <c r="L106" s="433"/>
+      <c r="M106" s="433"/>
+      <c r="N106" s="433"/>
+      <c r="O106" s="433"/>
+      <c r="P106" s="433"/>
+      <c r="Q106" s="433"/>
+      <c r="R106" s="433"/>
+      <c r="S106" s="433"/>
+      <c r="T106" s="433"/>
+      <c r="U106" s="433"/>
+      <c r="V106" s="433"/>
+      <c r="W106" s="433"/>
+      <c r="X106" s="433"/>
+      <c r="Y106" s="433"/>
+      <c r="Z106" s="433"/>
+      <c r="AA106" s="433"/>
+      <c r="AB106" s="433"/>
+      <c r="AC106" s="433"/>
+      <c r="AD106" s="433"/>
+      <c r="AE106" s="433"/>
+      <c r="AF106" s="433"/>
+      <c r="AG106" s="434"/>
       <c r="AJ106" s="111"/>
       <c r="AK106" s="111"/>
       <c r="AL106" s="111"/>
@@ -23802,35 +23802,35 @@
       <c r="BF115" s="111"/>
     </row>
     <row r="116" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="435" t="s">
+      <c r="G116" s="432" t="s">
         <v>105</v>
       </c>
-      <c r="H116" s="436"/>
-      <c r="I116" s="436"/>
-      <c r="J116" s="436"/>
-      <c r="K116" s="436"/>
-      <c r="L116" s="436"/>
-      <c r="M116" s="436"/>
-      <c r="N116" s="436"/>
-      <c r="O116" s="436"/>
-      <c r="P116" s="436"/>
-      <c r="Q116" s="436"/>
-      <c r="R116" s="436"/>
-      <c r="S116" s="436"/>
-      <c r="T116" s="436"/>
-      <c r="U116" s="436"/>
-      <c r="V116" s="436"/>
-      <c r="W116" s="436"/>
-      <c r="X116" s="436"/>
-      <c r="Y116" s="436"/>
-      <c r="Z116" s="436"/>
-      <c r="AA116" s="436"/>
-      <c r="AB116" s="436"/>
-      <c r="AC116" s="436"/>
-      <c r="AD116" s="436"/>
-      <c r="AE116" s="436"/>
-      <c r="AF116" s="436"/>
-      <c r="AG116" s="437"/>
+      <c r="H116" s="433"/>
+      <c r="I116" s="433"/>
+      <c r="J116" s="433"/>
+      <c r="K116" s="433"/>
+      <c r="L116" s="433"/>
+      <c r="M116" s="433"/>
+      <c r="N116" s="433"/>
+      <c r="O116" s="433"/>
+      <c r="P116" s="433"/>
+      <c r="Q116" s="433"/>
+      <c r="R116" s="433"/>
+      <c r="S116" s="433"/>
+      <c r="T116" s="433"/>
+      <c r="U116" s="433"/>
+      <c r="V116" s="433"/>
+      <c r="W116" s="433"/>
+      <c r="X116" s="433"/>
+      <c r="Y116" s="433"/>
+      <c r="Z116" s="433"/>
+      <c r="AA116" s="433"/>
+      <c r="AB116" s="433"/>
+      <c r="AC116" s="433"/>
+      <c r="AD116" s="433"/>
+      <c r="AE116" s="433"/>
+      <c r="AF116" s="433"/>
+      <c r="AG116" s="434"/>
       <c r="AJ116" s="111"/>
       <c r="AK116" s="111"/>
       <c r="AL116" s="111"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFCF5D8-8127-451B-887A-F4668D50588C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3F1555-D24B-45EF-A2BA-98699C1053F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,19 +3574,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>2020年3月版では以下の条件で仮実装</t>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カリジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>組織.組織ID</t>
   </si>
   <si>
@@ -3790,19 +3777,6 @@
     </rPh>
     <rPh sb="32" eb="34">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「更新」ボタンを利用不可にする。</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -3880,6 +3854,29 @@
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>「更新」ボタンを非表示にする。</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2022年8月版では以下の条件で仮実装</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カリジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -5573,6 +5570,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5717,9 +5726,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5758,15 +5764,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -5781,6 +5778,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5805,17 +5808,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6595,7 +6592,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2020</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6615,7 +6612,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6925,7 +6922,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2020</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6945,7 +6942,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7243,7 +7240,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2020</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7263,7 +7260,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7482,7 +7479,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2020</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7502,7 +7499,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7949,7 +7946,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L23" s="19"/>
     </row>
@@ -9051,12 +9048,12 @@
       <c r="E10" s="257"/>
       <c r="F10" s="258"/>
       <c r="G10" s="227" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="228"/>
       <c r="I10" s="229"/>
       <c r="J10" s="236" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K10" s="240"/>
       <c r="L10" s="240"/>
@@ -9065,7 +9062,7 @@
       <c r="O10" s="240"/>
       <c r="P10" s="241"/>
       <c r="Q10" s="236" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="R10" s="237"/>
       <c r="S10" s="237"/>
@@ -9082,7 +9079,7 @@
       <c r="AD10" s="237"/>
       <c r="AE10" s="238"/>
       <c r="AF10" s="239" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG10" s="240"/>
       <c r="AH10" s="240"/>
@@ -12191,7 +12188,7 @@
   </sheetPr>
   <dimension ref="A1:BH255"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A127" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -12203,12 +12200,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="376"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="380"/>
       <c r="E1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -12260,12 +12257,12 @@
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="376"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="380"/>
       <c r="E2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -12311,12 +12308,12 @@
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="374" t="s">
+      <c r="A3" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="376"/>
+      <c r="B3" s="379"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="380"/>
       <c r="E3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -12351,12 +12348,12 @@
       <c r="AD3" s="216"/>
       <c r="AE3" s="216"/>
       <c r="AF3" s="217"/>
-      <c r="AG3" s="377" t="str">
+      <c r="AG3" s="381" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="378"/>
-      <c r="AI3" s="379"/>
+      <c r="AH3" s="382"/>
+      <c r="AI3" s="383"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12486,39 +12483,39 @@
       <c r="D53" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="380" t="s">
+      <c r="E53" s="384" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="380"/>
-      <c r="G53" s="380"/>
-      <c r="H53" s="380"/>
-      <c r="I53" s="380"/>
-      <c r="J53" s="380"/>
-      <c r="K53" s="380"/>
-      <c r="L53" s="380"/>
-      <c r="M53" s="380"/>
-      <c r="N53" s="380" t="s">
+      <c r="F53" s="384"/>
+      <c r="G53" s="384"/>
+      <c r="H53" s="384"/>
+      <c r="I53" s="384"/>
+      <c r="J53" s="384"/>
+      <c r="K53" s="384"/>
+      <c r="L53" s="384"/>
+      <c r="M53" s="384"/>
+      <c r="N53" s="384" t="s">
         <v>33</v>
       </c>
-      <c r="O53" s="380"/>
-      <c r="P53" s="380"/>
-      <c r="Q53" s="380" t="s">
+      <c r="O53" s="384"/>
+      <c r="P53" s="384"/>
+      <c r="Q53" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="380"/>
-      <c r="S53" s="380"/>
-      <c r="T53" s="380"/>
-      <c r="U53" s="380"/>
-      <c r="V53" s="380" t="s">
+      <c r="R53" s="384"/>
+      <c r="S53" s="384"/>
+      <c r="T53" s="384"/>
+      <c r="U53" s="384"/>
+      <c r="V53" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="W53" s="380"/>
-      <c r="X53" s="380"/>
-      <c r="Y53" s="380"/>
-      <c r="Z53" s="380"/>
-      <c r="AA53" s="380"/>
-      <c r="AB53" s="380"/>
-      <c r="AC53" s="380"/>
+      <c r="W53" s="384"/>
+      <c r="X53" s="384"/>
+      <c r="Y53" s="384"/>
+      <c r="Z53" s="384"/>
+      <c r="AA53" s="384"/>
+      <c r="AB53" s="384"/>
+      <c r="AC53" s="384"/>
       <c r="AD53" s="137"/>
       <c r="AE53" s="137"/>
       <c r="AF53" s="137"/>
@@ -12529,39 +12526,39 @@
       <c r="D54" s="157">
         <v>1</v>
       </c>
-      <c r="E54" s="381" t="s">
+      <c r="E54" s="385" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="382"/>
-      <c r="G54" s="382"/>
-      <c r="H54" s="382"/>
-      <c r="I54" s="382"/>
-      <c r="J54" s="382"/>
-      <c r="K54" s="382"/>
-      <c r="L54" s="382"/>
-      <c r="M54" s="382"/>
-      <c r="N54" s="382" t="s">
+      <c r="F54" s="386"/>
+      <c r="G54" s="386"/>
+      <c r="H54" s="386"/>
+      <c r="I54" s="386"/>
+      <c r="J54" s="386"/>
+      <c r="K54" s="386"/>
+      <c r="L54" s="386"/>
+      <c r="M54" s="386"/>
+      <c r="N54" s="386" t="s">
         <v>173</v>
       </c>
-      <c r="O54" s="382"/>
-      <c r="P54" s="382"/>
-      <c r="Q54" s="389" t="s">
+      <c r="O54" s="386"/>
+      <c r="P54" s="386"/>
+      <c r="Q54" s="393" t="s">
         <v>174</v>
       </c>
-      <c r="R54" s="390"/>
-      <c r="S54" s="390"/>
-      <c r="T54" s="390"/>
-      <c r="U54" s="390"/>
-      <c r="V54" s="389" t="s">
+      <c r="R54" s="394"/>
+      <c r="S54" s="394"/>
+      <c r="T54" s="394"/>
+      <c r="U54" s="394"/>
+      <c r="V54" s="393" t="s">
         <v>112</v>
       </c>
-      <c r="W54" s="390"/>
-      <c r="X54" s="390"/>
-      <c r="Y54" s="390"/>
-      <c r="Z54" s="390"/>
-      <c r="AA54" s="390"/>
-      <c r="AB54" s="390"/>
-      <c r="AC54" s="390"/>
+      <c r="W54" s="394"/>
+      <c r="X54" s="394"/>
+      <c r="Y54" s="394"/>
+      <c r="Z54" s="394"/>
+      <c r="AA54" s="394"/>
+      <c r="AB54" s="394"/>
+      <c r="AC54" s="394"/>
       <c r="AM54" s="35"/>
     </row>
     <row r="55" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12638,36 +12635,36 @@
       <c r="AZ58" s="135"/>
     </row>
     <row r="59" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="386" t="s">
+      <c r="D59" s="390" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="397" t="s">
+      <c r="E59" s="401" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="398"/>
-      <c r="G59" s="398"/>
-      <c r="H59" s="398"/>
-      <c r="I59" s="398"/>
-      <c r="J59" s="398"/>
-      <c r="K59" s="398"/>
-      <c r="L59" s="398"/>
-      <c r="M59" s="398"/>
-      <c r="N59" s="398"/>
-      <c r="O59" s="398"/>
-      <c r="P59" s="398"/>
-      <c r="Q59" s="398"/>
-      <c r="R59" s="398"/>
-      <c r="S59" s="398"/>
-      <c r="T59" s="398"/>
-      <c r="U59" s="398"/>
-      <c r="V59" s="398"/>
-      <c r="W59" s="398"/>
-      <c r="X59" s="398"/>
-      <c r="Y59" s="398"/>
-      <c r="Z59" s="398"/>
-      <c r="AA59" s="398"/>
-      <c r="AB59" s="398"/>
-      <c r="AC59" s="399"/>
+      <c r="F59" s="402"/>
+      <c r="G59" s="402"/>
+      <c r="H59" s="402"/>
+      <c r="I59" s="402"/>
+      <c r="J59" s="402"/>
+      <c r="K59" s="402"/>
+      <c r="L59" s="402"/>
+      <c r="M59" s="402"/>
+      <c r="N59" s="402"/>
+      <c r="O59" s="402"/>
+      <c r="P59" s="402"/>
+      <c r="Q59" s="402"/>
+      <c r="R59" s="402"/>
+      <c r="S59" s="402"/>
+      <c r="T59" s="402"/>
+      <c r="U59" s="402"/>
+      <c r="V59" s="402"/>
+      <c r="W59" s="402"/>
+      <c r="X59" s="402"/>
+      <c r="Y59" s="402"/>
+      <c r="Z59" s="402"/>
+      <c r="AA59" s="402"/>
+      <c r="AB59" s="402"/>
+      <c r="AC59" s="403"/>
       <c r="AD59" s="295" t="s">
         <v>23</v>
       </c>
@@ -12685,29 +12682,29 @@
       <c r="AN59" s="135"/>
     </row>
     <row r="60" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="387"/>
+      <c r="D60" s="391"/>
       <c r="E60" s="295" t="s">
         <v>21</v>
       </c>
       <c r="F60" s="296"/>
       <c r="G60" s="296"/>
       <c r="H60" s="297"/>
-      <c r="I60" s="391" t="s">
+      <c r="I60" s="395" t="s">
         <v>29</v>
       </c>
-      <c r="J60" s="392"/>
-      <c r="K60" s="392"/>
-      <c r="L60" s="393"/>
-      <c r="M60" s="391" t="s">
+      <c r="J60" s="396"/>
+      <c r="K60" s="396"/>
+      <c r="L60" s="397"/>
+      <c r="M60" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="N60" s="392"/>
-      <c r="O60" s="392"/>
-      <c r="P60" s="392"/>
-      <c r="Q60" s="392"/>
-      <c r="R60" s="392"/>
-      <c r="S60" s="392"/>
-      <c r="T60" s="393"/>
+      <c r="N60" s="396"/>
+      <c r="O60" s="396"/>
+      <c r="P60" s="396"/>
+      <c r="Q60" s="396"/>
+      <c r="R60" s="396"/>
+      <c r="S60" s="396"/>
+      <c r="T60" s="397"/>
       <c r="U60" s="295" t="s">
         <v>22</v>
       </c>
@@ -12720,7 +12717,7 @@
       </c>
       <c r="AA60" s="296"/>
       <c r="AB60" s="297"/>
-      <c r="AC60" s="386" t="s">
+      <c r="AC60" s="390" t="s">
         <v>34</v>
       </c>
       <c r="AD60" s="298"/>
@@ -12742,23 +12739,23 @@
       <c r="AT60" s="135"/>
     </row>
     <row r="61" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="388"/>
+      <c r="D61" s="392"/>
       <c r="E61" s="301"/>
       <c r="F61" s="302"/>
       <c r="G61" s="302"/>
       <c r="H61" s="303"/>
-      <c r="I61" s="394"/>
-      <c r="J61" s="395"/>
-      <c r="K61" s="395"/>
-      <c r="L61" s="396"/>
-      <c r="M61" s="394"/>
-      <c r="N61" s="395"/>
-      <c r="O61" s="395"/>
-      <c r="P61" s="395"/>
-      <c r="Q61" s="395"/>
-      <c r="R61" s="395"/>
-      <c r="S61" s="395"/>
-      <c r="T61" s="396"/>
+      <c r="I61" s="398"/>
+      <c r="J61" s="399"/>
+      <c r="K61" s="399"/>
+      <c r="L61" s="400"/>
+      <c r="M61" s="398"/>
+      <c r="N61" s="399"/>
+      <c r="O61" s="399"/>
+      <c r="P61" s="399"/>
+      <c r="Q61" s="399"/>
+      <c r="R61" s="399"/>
+      <c r="S61" s="399"/>
+      <c r="T61" s="400"/>
       <c r="U61" s="301"/>
       <c r="V61" s="302"/>
       <c r="W61" s="302"/>
@@ -12767,7 +12764,7 @@
       <c r="Z61" s="301"/>
       <c r="AA61" s="302"/>
       <c r="AB61" s="303"/>
-      <c r="AC61" s="388"/>
+      <c r="AC61" s="392"/>
       <c r="AD61" s="301"/>
       <c r="AE61" s="302"/>
       <c r="AF61" s="302"/>
@@ -12789,38 +12786,38 @@
       <c r="AT61" s="135"/>
     </row>
     <row r="62" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="383" t="s">
+      <c r="D62" s="387" t="s">
         <v>175</v>
       </c>
-      <c r="E62" s="384"/>
-      <c r="F62" s="384"/>
-      <c r="G62" s="384"/>
-      <c r="H62" s="384"/>
-      <c r="I62" s="384"/>
-      <c r="J62" s="384"/>
-      <c r="K62" s="384"/>
-      <c r="L62" s="384"/>
-      <c r="M62" s="384"/>
-      <c r="N62" s="384"/>
-      <c r="O62" s="384"/>
-      <c r="P62" s="384"/>
-      <c r="Q62" s="384"/>
-      <c r="R62" s="384"/>
-      <c r="S62" s="384"/>
-      <c r="T62" s="384"/>
-      <c r="U62" s="384"/>
-      <c r="V62" s="384"/>
-      <c r="W62" s="384"/>
-      <c r="X62" s="384"/>
-      <c r="Y62" s="384"/>
-      <c r="Z62" s="384"/>
-      <c r="AA62" s="384"/>
-      <c r="AB62" s="384"/>
-      <c r="AC62" s="384"/>
-      <c r="AD62" s="384"/>
-      <c r="AE62" s="384"/>
-      <c r="AF62" s="384"/>
-      <c r="AG62" s="385"/>
+      <c r="E62" s="388"/>
+      <c r="F62" s="388"/>
+      <c r="G62" s="388"/>
+      <c r="H62" s="388"/>
+      <c r="I62" s="388"/>
+      <c r="J62" s="388"/>
+      <c r="K62" s="388"/>
+      <c r="L62" s="388"/>
+      <c r="M62" s="388"/>
+      <c r="N62" s="388"/>
+      <c r="O62" s="388"/>
+      <c r="P62" s="388"/>
+      <c r="Q62" s="388"/>
+      <c r="R62" s="388"/>
+      <c r="S62" s="388"/>
+      <c r="T62" s="388"/>
+      <c r="U62" s="388"/>
+      <c r="V62" s="388"/>
+      <c r="W62" s="388"/>
+      <c r="X62" s="388"/>
+      <c r="Y62" s="388"/>
+      <c r="Z62" s="388"/>
+      <c r="AA62" s="388"/>
+      <c r="AB62" s="388"/>
+      <c r="AC62" s="388"/>
+      <c r="AD62" s="388"/>
+      <c r="AE62" s="388"/>
+      <c r="AF62" s="388"/>
+      <c r="AG62" s="389"/>
       <c r="AH62" s="135"/>
       <c r="AI62" s="135"/>
       <c r="AJ62" s="135"/>
@@ -12864,7 +12861,7 @@
       <c r="S63" s="322"/>
       <c r="T63" s="323"/>
       <c r="U63" s="236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V63" s="327"/>
       <c r="W63" s="327"/>
@@ -12933,7 +12930,7 @@
       <c r="S64" s="322"/>
       <c r="T64" s="323"/>
       <c r="U64" s="236" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V64" s="327"/>
       <c r="W64" s="327"/>
@@ -13260,7 +13257,7 @@
       <c r="G69" s="327"/>
       <c r="H69" s="328"/>
       <c r="I69" s="332" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J69" s="332"/>
       <c r="K69" s="332"/>
@@ -13330,7 +13327,7 @@
       <c r="G70" s="327"/>
       <c r="H70" s="328"/>
       <c r="I70" s="332" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J70" s="332"/>
       <c r="K70" s="332"/>
@@ -13400,7 +13397,7 @@
       <c r="G71" s="327"/>
       <c r="H71" s="328"/>
       <c r="I71" s="332" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J71" s="332"/>
       <c r="K71" s="332"/>
@@ -13469,7 +13466,7 @@
       <c r="G72" s="327"/>
       <c r="H72" s="328"/>
       <c r="I72" s="332" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J72" s="332"/>
       <c r="K72" s="332"/>
@@ -13543,16 +13540,16 @@
       <c r="J73" s="332"/>
       <c r="K73" s="332"/>
       <c r="L73" s="332"/>
-      <c r="M73" s="405" t="s">
+      <c r="M73" s="409" t="s">
         <v>130</v>
       </c>
-      <c r="N73" s="406"/>
-      <c r="O73" s="406"/>
-      <c r="P73" s="406"/>
-      <c r="Q73" s="406"/>
-      <c r="R73" s="406"/>
-      <c r="S73" s="406"/>
-      <c r="T73" s="406"/>
+      <c r="N73" s="410"/>
+      <c r="O73" s="410"/>
+      <c r="P73" s="410"/>
+      <c r="Q73" s="410"/>
+      <c r="R73" s="410"/>
+      <c r="S73" s="410"/>
+      <c r="T73" s="410"/>
       <c r="U73" s="324" t="s">
         <v>129</v>
       </c>
@@ -13599,38 +13596,38 @@
       <c r="AT73" s="135"/>
     </row>
     <row r="74" spans="4:51" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="383" t="s">
+      <c r="D74" s="387" t="s">
         <v>291</v>
       </c>
-      <c r="E74" s="384"/>
-      <c r="F74" s="384"/>
-      <c r="G74" s="384"/>
-      <c r="H74" s="384"/>
-      <c r="I74" s="384"/>
-      <c r="J74" s="384"/>
-      <c r="K74" s="384"/>
-      <c r="L74" s="384"/>
-      <c r="M74" s="384"/>
-      <c r="N74" s="384"/>
-      <c r="O74" s="384"/>
-      <c r="P74" s="384"/>
-      <c r="Q74" s="384"/>
-      <c r="R74" s="384"/>
-      <c r="S74" s="384"/>
-      <c r="T74" s="384"/>
-      <c r="U74" s="384"/>
-      <c r="V74" s="384"/>
-      <c r="W74" s="384"/>
-      <c r="X74" s="384"/>
-      <c r="Y74" s="384"/>
-      <c r="Z74" s="384"/>
-      <c r="AA74" s="384"/>
-      <c r="AB74" s="384"/>
-      <c r="AC74" s="384"/>
-      <c r="AD74" s="384"/>
-      <c r="AE74" s="384"/>
-      <c r="AF74" s="384"/>
-      <c r="AG74" s="385"/>
+      <c r="E74" s="388"/>
+      <c r="F74" s="388"/>
+      <c r="G74" s="388"/>
+      <c r="H74" s="388"/>
+      <c r="I74" s="388"/>
+      <c r="J74" s="388"/>
+      <c r="K74" s="388"/>
+      <c r="L74" s="388"/>
+      <c r="M74" s="388"/>
+      <c r="N74" s="388"/>
+      <c r="O74" s="388"/>
+      <c r="P74" s="388"/>
+      <c r="Q74" s="388"/>
+      <c r="R74" s="388"/>
+      <c r="S74" s="388"/>
+      <c r="T74" s="388"/>
+      <c r="U74" s="388"/>
+      <c r="V74" s="388"/>
+      <c r="W74" s="388"/>
+      <c r="X74" s="388"/>
+      <c r="Y74" s="388"/>
+      <c r="Z74" s="388"/>
+      <c r="AA74" s="388"/>
+      <c r="AB74" s="388"/>
+      <c r="AC74" s="388"/>
+      <c r="AD74" s="388"/>
+      <c r="AE74" s="388"/>
+      <c r="AF74" s="388"/>
+      <c r="AG74" s="389"/>
       <c r="AH74" s="135"/>
       <c r="AI74" s="135"/>
       <c r="AJ74" s="135"/>
@@ -13659,21 +13656,21 @@
       <c r="G75" s="307"/>
       <c r="H75" s="329"/>
       <c r="I75" s="333" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J75" s="334"/>
       <c r="K75" s="334"/>
       <c r="L75" s="335"/>
-      <c r="M75" s="405" t="s">
+      <c r="M75" s="409" t="s">
         <v>209</v>
       </c>
-      <c r="N75" s="406"/>
-      <c r="O75" s="406"/>
-      <c r="P75" s="406"/>
-      <c r="Q75" s="406"/>
-      <c r="R75" s="406"/>
-      <c r="S75" s="406"/>
-      <c r="T75" s="406"/>
+      <c r="N75" s="410"/>
+      <c r="O75" s="410"/>
+      <c r="P75" s="410"/>
+      <c r="Q75" s="410"/>
+      <c r="R75" s="410"/>
+      <c r="S75" s="410"/>
+      <c r="T75" s="410"/>
       <c r="U75" s="324" t="s">
         <v>354</v>
       </c>
@@ -14012,12 +14009,12 @@
       <c r="F80" s="307"/>
       <c r="G80" s="307"/>
       <c r="H80" s="329"/>
-      <c r="I80" s="407" t="s">
+      <c r="I80" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="J80" s="408"/>
-      <c r="K80" s="408"/>
-      <c r="L80" s="409"/>
+      <c r="J80" s="412"/>
+      <c r="K80" s="412"/>
+      <c r="L80" s="413"/>
       <c r="M80" s="331" t="s">
         <v>213</v>
       </c>
@@ -14081,12 +14078,12 @@
       <c r="F81" s="307"/>
       <c r="G81" s="307"/>
       <c r="H81" s="329"/>
-      <c r="I81" s="410" t="s">
+      <c r="I81" s="414" t="s">
         <v>79</v>
       </c>
-      <c r="J81" s="411"/>
-      <c r="K81" s="411"/>
-      <c r="L81" s="412"/>
+      <c r="J81" s="415"/>
+      <c r="K81" s="415"/>
+      <c r="L81" s="416"/>
       <c r="M81" s="331" t="s">
         <v>214</v>
       </c>
@@ -14399,7 +14396,7 @@
       <c r="L88" s="314"/>
       <c r="M88" s="314"/>
       <c r="N88" s="315"/>
-      <c r="O88" s="413" t="s">
+      <c r="O88" s="417" t="s">
         <v>41</v>
       </c>
       <c r="P88" s="141" t="s">
@@ -14451,7 +14448,7 @@
       <c r="L89" s="317"/>
       <c r="M89" s="317"/>
       <c r="N89" s="318"/>
-      <c r="O89" s="414"/>
+      <c r="O89" s="418"/>
       <c r="P89" s="143" t="s">
         <v>42</v>
       </c>
@@ -14464,10 +14461,10 @@
       <c r="S89" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="T89" s="415" t="s">
+      <c r="T89" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="U89" s="416"/>
+      <c r="U89" s="420"/>
       <c r="V89" s="316"/>
       <c r="W89" s="317"/>
       <c r="X89" s="317"/>
@@ -14499,14 +14496,14 @@
       <c r="D90" s="144">
         <v>1</v>
       </c>
-      <c r="E90" s="400" t="s">
+      <c r="E90" s="404" t="s">
         <v>140</v>
       </c>
-      <c r="F90" s="401"/>
-      <c r="G90" s="401"/>
-      <c r="H90" s="401"/>
-      <c r="I90" s="401"/>
-      <c r="J90" s="402"/>
+      <c r="F90" s="405"/>
+      <c r="G90" s="405"/>
+      <c r="H90" s="405"/>
+      <c r="I90" s="405"/>
+      <c r="J90" s="406"/>
       <c r="K90" s="326" t="s">
         <v>85</v>
       </c>
@@ -14528,10 +14525,10 @@
       <c r="S90" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="T90" s="403" t="s">
+      <c r="T90" s="407" t="s">
         <v>82</v>
       </c>
-      <c r="U90" s="404"/>
+      <c r="U90" s="408"/>
       <c r="V90" s="326" t="s">
         <v>87</v>
       </c>
@@ -14565,14 +14562,14 @@
       <c r="D91" s="144">
         <v>2</v>
       </c>
-      <c r="E91" s="400" t="s">
+      <c r="E91" s="404" t="s">
         <v>186</v>
       </c>
-      <c r="F91" s="401"/>
-      <c r="G91" s="401"/>
-      <c r="H91" s="401"/>
-      <c r="I91" s="401"/>
-      <c r="J91" s="402"/>
+      <c r="F91" s="405"/>
+      <c r="G91" s="405"/>
+      <c r="H91" s="405"/>
+      <c r="I91" s="405"/>
+      <c r="J91" s="406"/>
       <c r="K91" s="326" t="s">
         <v>85</v>
       </c>
@@ -14594,10 +14591,10 @@
       <c r="S91" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="T91" s="403" t="s">
+      <c r="T91" s="407" t="s">
         <v>82</v>
       </c>
-      <c r="U91" s="404"/>
+      <c r="U91" s="408"/>
       <c r="V91" s="326" t="s">
         <v>87</v>
       </c>
@@ -14765,19 +14762,19 @@
       <c r="W96" s="319"/>
       <c r="X96" s="319"/>
       <c r="Y96" s="320"/>
-      <c r="Z96" s="397" t="s">
+      <c r="Z96" s="401" t="s">
         <v>16</v>
       </c>
-      <c r="AA96" s="398"/>
-      <c r="AB96" s="398"/>
-      <c r="AC96" s="398"/>
-      <c r="AD96" s="399"/>
-      <c r="AE96" s="417" t="s">
+      <c r="AA96" s="402"/>
+      <c r="AB96" s="402"/>
+      <c r="AC96" s="402"/>
+      <c r="AD96" s="403"/>
+      <c r="AE96" s="421" t="s">
         <v>118</v>
       </c>
-      <c r="AF96" s="418"/>
-      <c r="AG96" s="418"/>
-      <c r="AH96" s="419"/>
+      <c r="AF96" s="422"/>
+      <c r="AG96" s="422"/>
+      <c r="AH96" s="423"/>
     </row>
     <row r="97" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="147">
@@ -14993,16 +14990,16 @@
       <c r="Z101" s="336" t="s">
         <v>298</v>
       </c>
-      <c r="AA101" s="427"/>
-      <c r="AB101" s="427"/>
-      <c r="AC101" s="427"/>
-      <c r="AD101" s="428"/>
-      <c r="AE101" s="429" t="s">
+      <c r="AA101" s="430"/>
+      <c r="AB101" s="430"/>
+      <c r="AC101" s="430"/>
+      <c r="AD101" s="431"/>
+      <c r="AE101" s="432" t="s">
         <v>61</v>
       </c>
-      <c r="AF101" s="430"/>
-      <c r="AG101" s="430"/>
-      <c r="AH101" s="431"/>
+      <c r="AF101" s="433"/>
+      <c r="AG101" s="433"/>
+      <c r="AH101" s="434"/>
     </row>
     <row r="102" spans="1:56" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D102" s="129"/>
@@ -15275,18 +15272,18 @@
       <c r="N116" s="353"/>
       <c r="O116" s="353"/>
       <c r="P116" s="354"/>
-      <c r="Q116" s="400" t="s">
+      <c r="Q116" s="404" t="s">
         <v>146</v>
       </c>
-      <c r="R116" s="401"/>
-      <c r="S116" s="401"/>
-      <c r="T116" s="401"/>
-      <c r="U116" s="401"/>
-      <c r="V116" s="401"/>
-      <c r="W116" s="401"/>
-      <c r="X116" s="401"/>
-      <c r="Y116" s="401"/>
-      <c r="Z116" s="402"/>
+      <c r="R116" s="405"/>
+      <c r="S116" s="405"/>
+      <c r="T116" s="405"/>
+      <c r="U116" s="405"/>
+      <c r="V116" s="405"/>
+      <c r="W116" s="405"/>
+      <c r="X116" s="405"/>
+      <c r="Y116" s="405"/>
+      <c r="Z116" s="406"/>
       <c r="AG116" s="110"/>
       <c r="AH116" s="110"/>
     </row>
@@ -15301,18 +15298,18 @@
       <c r="N117" s="356"/>
       <c r="O117" s="356"/>
       <c r="P117" s="357"/>
-      <c r="Q117" s="400" t="s">
+      <c r="Q117" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="R117" s="401"/>
-      <c r="S117" s="401"/>
-      <c r="T117" s="401"/>
-      <c r="U117" s="401"/>
-      <c r="V117" s="401"/>
-      <c r="W117" s="401"/>
-      <c r="X117" s="401"/>
-      <c r="Y117" s="401"/>
-      <c r="Z117" s="402"/>
+      <c r="R117" s="405"/>
+      <c r="S117" s="405"/>
+      <c r="T117" s="405"/>
+      <c r="U117" s="405"/>
+      <c r="V117" s="405"/>
+      <c r="W117" s="405"/>
+      <c r="X117" s="405"/>
+      <c r="Y117" s="405"/>
+      <c r="Z117" s="406"/>
       <c r="AC117" s="111"/>
       <c r="AD117" s="111"/>
       <c r="AE117" s="111"/>
@@ -15331,28 +15328,28 @@
       <c r="AY117" s="111"/>
     </row>
     <row r="118" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="G118" s="435" t="s">
+      <c r="G118" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="H118" s="436"/>
-      <c r="I118" s="436"/>
-      <c r="J118" s="436"/>
-      <c r="K118" s="436"/>
-      <c r="L118" s="436"/>
-      <c r="M118" s="436"/>
-      <c r="N118" s="436"/>
-      <c r="O118" s="436"/>
-      <c r="P118" s="436"/>
-      <c r="Q118" s="436"/>
-      <c r="R118" s="436"/>
-      <c r="S118" s="436"/>
-      <c r="T118" s="436"/>
-      <c r="U118" s="436"/>
-      <c r="V118" s="436"/>
-      <c r="W118" s="436"/>
-      <c r="X118" s="436"/>
-      <c r="Y118" s="436"/>
-      <c r="Z118" s="437"/>
+      <c r="H118" s="439"/>
+      <c r="I118" s="439"/>
+      <c r="J118" s="439"/>
+      <c r="K118" s="439"/>
+      <c r="L118" s="439"/>
+      <c r="M118" s="439"/>
+      <c r="N118" s="439"/>
+      <c r="O118" s="439"/>
+      <c r="P118" s="439"/>
+      <c r="Q118" s="439"/>
+      <c r="R118" s="439"/>
+      <c r="S118" s="439"/>
+      <c r="T118" s="439"/>
+      <c r="U118" s="439"/>
+      <c r="V118" s="439"/>
+      <c r="W118" s="439"/>
+      <c r="X118" s="439"/>
+      <c r="Y118" s="439"/>
+      <c r="Z118" s="440"/>
       <c r="AJ118" s="111"/>
       <c r="AK118" s="111"/>
       <c r="AL118" s="111"/>
@@ -15522,25 +15519,25 @@
       <c r="G122" s="445" t="s">
         <v>275</v>
       </c>
-      <c r="H122" s="436"/>
-      <c r="I122" s="436"/>
-      <c r="J122" s="436"/>
-      <c r="K122" s="436"/>
-      <c r="L122" s="436"/>
-      <c r="M122" s="436"/>
-      <c r="N122" s="436"/>
-      <c r="O122" s="436"/>
-      <c r="P122" s="436"/>
-      <c r="Q122" s="436"/>
-      <c r="R122" s="436"/>
-      <c r="S122" s="436"/>
-      <c r="T122" s="436"/>
-      <c r="U122" s="436"/>
-      <c r="V122" s="436"/>
-      <c r="W122" s="436"/>
-      <c r="X122" s="436"/>
-      <c r="Y122" s="436"/>
-      <c r="Z122" s="437"/>
+      <c r="H122" s="439"/>
+      <c r="I122" s="439"/>
+      <c r="J122" s="439"/>
+      <c r="K122" s="439"/>
+      <c r="L122" s="439"/>
+      <c r="M122" s="439"/>
+      <c r="N122" s="439"/>
+      <c r="O122" s="439"/>
+      <c r="P122" s="439"/>
+      <c r="Q122" s="439"/>
+      <c r="R122" s="439"/>
+      <c r="S122" s="439"/>
+      <c r="T122" s="439"/>
+      <c r="U122" s="439"/>
+      <c r="V122" s="439"/>
+      <c r="W122" s="439"/>
+      <c r="X122" s="439"/>
+      <c r="Y122" s="439"/>
+      <c r="Z122" s="440"/>
       <c r="AJ122" s="111"/>
       <c r="AK122" s="111"/>
       <c r="AL122" s="111"/>
@@ -15620,7 +15617,7 @@
       <c r="K124" s="116"/>
       <c r="L124" s="117"/>
       <c r="M124" s="117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N124" s="116"/>
       <c r="O124" s="116"/>
@@ -16120,7 +16117,7 @@
     </row>
     <row r="145" spans="5:58" x14ac:dyDescent="0.15">
       <c r="AL145" s="104" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="5:58" s="109" customFormat="1" x14ac:dyDescent="0.15">
@@ -16186,18 +16183,18 @@
       <c r="N147" s="353"/>
       <c r="O147" s="353"/>
       <c r="P147" s="354"/>
-      <c r="Q147" s="400" t="s">
+      <c r="Q147" s="404" t="s">
         <v>146</v>
       </c>
-      <c r="R147" s="401"/>
-      <c r="S147" s="401"/>
-      <c r="T147" s="401"/>
-      <c r="U147" s="401"/>
-      <c r="V147" s="401"/>
-      <c r="W147" s="401"/>
-      <c r="X147" s="401"/>
-      <c r="Y147" s="401"/>
-      <c r="Z147" s="402"/>
+      <c r="R147" s="405"/>
+      <c r="S147" s="405"/>
+      <c r="T147" s="405"/>
+      <c r="U147" s="405"/>
+      <c r="V147" s="405"/>
+      <c r="W147" s="405"/>
+      <c r="X147" s="405"/>
+      <c r="Y147" s="405"/>
+      <c r="Z147" s="406"/>
       <c r="AG147" s="110"/>
       <c r="AH147" s="110"/>
       <c r="AL147" s="352" t="s">
@@ -16212,18 +16209,18 @@
       <c r="AS147" s="353"/>
       <c r="AT147" s="353"/>
       <c r="AU147" s="354"/>
-      <c r="AV147" s="400" t="s">
+      <c r="AV147" s="404" t="s">
         <v>146</v>
       </c>
-      <c r="AW147" s="401"/>
-      <c r="AX147" s="401"/>
-      <c r="AY147" s="401"/>
-      <c r="AZ147" s="401"/>
-      <c r="BA147" s="401"/>
-      <c r="BB147" s="401"/>
-      <c r="BC147" s="401"/>
-      <c r="BD147" s="401"/>
-      <c r="BE147" s="402"/>
+      <c r="AW147" s="405"/>
+      <c r="AX147" s="405"/>
+      <c r="AY147" s="405"/>
+      <c r="AZ147" s="405"/>
+      <c r="BA147" s="405"/>
+      <c r="BB147" s="405"/>
+      <c r="BC147" s="405"/>
+      <c r="BD147" s="405"/>
+      <c r="BE147" s="406"/>
     </row>
     <row r="148" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G148" s="355"/>
@@ -16236,18 +16233,18 @@
       <c r="N148" s="356"/>
       <c r="O148" s="356"/>
       <c r="P148" s="357"/>
-      <c r="Q148" s="400" t="s">
+      <c r="Q148" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="R148" s="401"/>
-      <c r="S148" s="401"/>
-      <c r="T148" s="401"/>
-      <c r="U148" s="401"/>
-      <c r="V148" s="401"/>
-      <c r="W148" s="401"/>
-      <c r="X148" s="401"/>
-      <c r="Y148" s="401"/>
-      <c r="Z148" s="402"/>
+      <c r="R148" s="405"/>
+      <c r="S148" s="405"/>
+      <c r="T148" s="405"/>
+      <c r="U148" s="405"/>
+      <c r="V148" s="405"/>
+      <c r="W148" s="405"/>
+      <c r="X148" s="405"/>
+      <c r="Y148" s="405"/>
+      <c r="Z148" s="406"/>
       <c r="AC148" s="111"/>
       <c r="AD148" s="111"/>
       <c r="AE148" s="111"/>
@@ -16264,66 +16261,66 @@
       <c r="AS148" s="356"/>
       <c r="AT148" s="356"/>
       <c r="AU148" s="357"/>
-      <c r="AV148" s="400" t="s">
+      <c r="AV148" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="AW148" s="401"/>
-      <c r="AX148" s="401"/>
-      <c r="AY148" s="401"/>
-      <c r="AZ148" s="401"/>
-      <c r="BA148" s="401"/>
-      <c r="BB148" s="401"/>
-      <c r="BC148" s="401"/>
-      <c r="BD148" s="401"/>
-      <c r="BE148" s="402"/>
+      <c r="AW148" s="405"/>
+      <c r="AX148" s="405"/>
+      <c r="AY148" s="405"/>
+      <c r="AZ148" s="405"/>
+      <c r="BA148" s="405"/>
+      <c r="BB148" s="405"/>
+      <c r="BC148" s="405"/>
+      <c r="BD148" s="405"/>
+      <c r="BE148" s="406"/>
     </row>
     <row r="149" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="G149" s="435" t="s">
+      <c r="G149" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="H149" s="436"/>
-      <c r="I149" s="436"/>
-      <c r="J149" s="436"/>
-      <c r="K149" s="436"/>
-      <c r="L149" s="436"/>
-      <c r="M149" s="436"/>
-      <c r="N149" s="436"/>
-      <c r="O149" s="436"/>
-      <c r="P149" s="436"/>
-      <c r="Q149" s="436"/>
-      <c r="R149" s="436"/>
-      <c r="S149" s="436"/>
-      <c r="T149" s="436"/>
-      <c r="U149" s="436"/>
-      <c r="V149" s="436"/>
-      <c r="W149" s="436"/>
-      <c r="X149" s="436"/>
-      <c r="Y149" s="436"/>
-      <c r="Z149" s="437"/>
+      <c r="H149" s="439"/>
+      <c r="I149" s="439"/>
+      <c r="J149" s="439"/>
+      <c r="K149" s="439"/>
+      <c r="L149" s="439"/>
+      <c r="M149" s="439"/>
+      <c r="N149" s="439"/>
+      <c r="O149" s="439"/>
+      <c r="P149" s="439"/>
+      <c r="Q149" s="439"/>
+      <c r="R149" s="439"/>
+      <c r="S149" s="439"/>
+      <c r="T149" s="439"/>
+      <c r="U149" s="439"/>
+      <c r="V149" s="439"/>
+      <c r="W149" s="439"/>
+      <c r="X149" s="439"/>
+      <c r="Y149" s="439"/>
+      <c r="Z149" s="440"/>
       <c r="AJ149" s="111"/>
       <c r="AK149" s="111"/>
-      <c r="AL149" s="435" t="s">
+      <c r="AL149" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="AM149" s="436"/>
-      <c r="AN149" s="436"/>
-      <c r="AO149" s="436"/>
-      <c r="AP149" s="436"/>
-      <c r="AQ149" s="436"/>
-      <c r="AR149" s="436"/>
-      <c r="AS149" s="436"/>
-      <c r="AT149" s="436"/>
-      <c r="AU149" s="436"/>
-      <c r="AV149" s="436"/>
-      <c r="AW149" s="436"/>
-      <c r="AX149" s="436"/>
-      <c r="AY149" s="436"/>
-      <c r="AZ149" s="436"/>
-      <c r="BA149" s="436"/>
-      <c r="BB149" s="436"/>
-      <c r="BC149" s="436"/>
-      <c r="BD149" s="436"/>
-      <c r="BE149" s="437"/>
+      <c r="AM149" s="439"/>
+      <c r="AN149" s="439"/>
+      <c r="AO149" s="439"/>
+      <c r="AP149" s="439"/>
+      <c r="AQ149" s="439"/>
+      <c r="AR149" s="439"/>
+      <c r="AS149" s="439"/>
+      <c r="AT149" s="439"/>
+      <c r="AU149" s="439"/>
+      <c r="AV149" s="439"/>
+      <c r="AW149" s="439"/>
+      <c r="AX149" s="439"/>
+      <c r="AY149" s="439"/>
+      <c r="AZ149" s="439"/>
+      <c r="BA149" s="439"/>
+      <c r="BB149" s="439"/>
+      <c r="BC149" s="439"/>
+      <c r="BD149" s="439"/>
+      <c r="BE149" s="440"/>
       <c r="BF149" s="111"/>
     </row>
     <row r="150" spans="5:58" x14ac:dyDescent="0.15">
@@ -16477,49 +16474,49 @@
       <c r="G153" s="445" t="s">
         <v>275</v>
       </c>
-      <c r="H153" s="436"/>
-      <c r="I153" s="436"/>
-      <c r="J153" s="436"/>
-      <c r="K153" s="436"/>
-      <c r="L153" s="436"/>
-      <c r="M153" s="436"/>
-      <c r="N153" s="436"/>
-      <c r="O153" s="436"/>
-      <c r="P153" s="436"/>
-      <c r="Q153" s="436"/>
-      <c r="R153" s="436"/>
-      <c r="S153" s="436"/>
-      <c r="T153" s="436"/>
-      <c r="U153" s="436"/>
-      <c r="V153" s="436"/>
-      <c r="W153" s="436"/>
-      <c r="X153" s="436"/>
-      <c r="Y153" s="436"/>
-      <c r="Z153" s="437"/>
+      <c r="H153" s="439"/>
+      <c r="I153" s="439"/>
+      <c r="J153" s="439"/>
+      <c r="K153" s="439"/>
+      <c r="L153" s="439"/>
+      <c r="M153" s="439"/>
+      <c r="N153" s="439"/>
+      <c r="O153" s="439"/>
+      <c r="P153" s="439"/>
+      <c r="Q153" s="439"/>
+      <c r="R153" s="439"/>
+      <c r="S153" s="439"/>
+      <c r="T153" s="439"/>
+      <c r="U153" s="439"/>
+      <c r="V153" s="439"/>
+      <c r="W153" s="439"/>
+      <c r="X153" s="439"/>
+      <c r="Y153" s="439"/>
+      <c r="Z153" s="440"/>
       <c r="AJ153" s="111"/>
       <c r="AK153" s="111"/>
       <c r="AL153" s="445" t="s">
         <v>275</v>
       </c>
-      <c r="AM153" s="436"/>
-      <c r="AN153" s="436"/>
-      <c r="AO153" s="436"/>
-      <c r="AP153" s="436"/>
-      <c r="AQ153" s="436"/>
-      <c r="AR153" s="436"/>
-      <c r="AS153" s="436"/>
-      <c r="AT153" s="436"/>
-      <c r="AU153" s="436"/>
-      <c r="AV153" s="436"/>
-      <c r="AW153" s="436"/>
-      <c r="AX153" s="436"/>
-      <c r="AY153" s="436"/>
-      <c r="AZ153" s="436"/>
-      <c r="BA153" s="436"/>
-      <c r="BB153" s="436"/>
-      <c r="BC153" s="436"/>
-      <c r="BD153" s="436"/>
-      <c r="BE153" s="437"/>
+      <c r="AM153" s="439"/>
+      <c r="AN153" s="439"/>
+      <c r="AO153" s="439"/>
+      <c r="AP153" s="439"/>
+      <c r="AQ153" s="439"/>
+      <c r="AR153" s="439"/>
+      <c r="AS153" s="439"/>
+      <c r="AT153" s="439"/>
+      <c r="AU153" s="439"/>
+      <c r="AV153" s="439"/>
+      <c r="AW153" s="439"/>
+      <c r="AX153" s="439"/>
+      <c r="AY153" s="439"/>
+      <c r="AZ153" s="439"/>
+      <c r="BA153" s="439"/>
+      <c r="BB153" s="439"/>
+      <c r="BC153" s="439"/>
+      <c r="BD153" s="439"/>
+      <c r="BE153" s="440"/>
       <c r="BF153" s="111"/>
     </row>
     <row r="154" spans="5:58" x14ac:dyDescent="0.15">
@@ -16577,7 +16574,7 @@
       <c r="K155" s="116"/>
       <c r="L155" s="117"/>
       <c r="M155" s="117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N155" s="116"/>
       <c r="O155" s="116"/>
@@ -16603,7 +16600,7 @@
       <c r="AP155" s="116"/>
       <c r="AQ155" s="117"/>
       <c r="AR155" s="117" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AS155" s="116"/>
       <c r="AT155" s="116"/>
@@ -17061,7 +17058,7 @@
       <c r="J170" s="319"/>
       <c r="K170" s="319"/>
       <c r="L170" s="320"/>
-      <c r="M170" s="438" t="s">
+      <c r="M170" s="374" t="s">
         <v>66</v>
       </c>
       <c r="N170" s="319"/>
@@ -17084,12 +17081,12 @@
       <c r="AA170" s="362"/>
       <c r="AB170" s="362"/>
       <c r="AC170" s="363"/>
-      <c r="AD170" s="432" t="s">
+      <c r="AD170" s="435" t="s">
         <v>119</v>
       </c>
-      <c r="AE170" s="433"/>
-      <c r="AF170" s="433"/>
-      <c r="AG170" s="434"/>
+      <c r="AE170" s="436"/>
+      <c r="AF170" s="436"/>
+      <c r="AG170" s="437"/>
       <c r="AJ170" s="126"/>
       <c r="AK170" s="126"/>
       <c r="AL170" s="126"/>
@@ -17144,12 +17141,12 @@
       </c>
       <c r="X171" s="365"/>
       <c r="Y171" s="366"/>
-      <c r="Z171" s="424" t="s">
+      <c r="Z171" s="375" t="s">
         <v>120</v>
       </c>
-      <c r="AA171" s="439"/>
-      <c r="AB171" s="439"/>
-      <c r="AC171" s="440"/>
+      <c r="AA171" s="376"/>
+      <c r="AB171" s="376"/>
+      <c r="AC171" s="377"/>
       <c r="AD171" s="331" t="s">
         <v>109</v>
       </c>
@@ -17186,7 +17183,7 @@
       <c r="F172" s="150">
         <v>2</v>
       </c>
-      <c r="G172" s="420" t="s">
+      <c r="G172" s="424" t="s">
         <v>223</v>
       </c>
       <c r="H172" s="305"/>
@@ -17206,17 +17203,17 @@
       <c r="T172" s="359"/>
       <c r="U172" s="359"/>
       <c r="V172" s="360"/>
-      <c r="W172" s="421" t="s">
+      <c r="W172" s="425" t="s">
         <v>225</v>
       </c>
-      <c r="X172" s="422"/>
-      <c r="Y172" s="423"/>
-      <c r="Z172" s="424" t="s">
+      <c r="X172" s="426"/>
+      <c r="Y172" s="427"/>
+      <c r="Z172" s="375" t="s">
         <v>226</v>
       </c>
-      <c r="AA172" s="425"/>
-      <c r="AB172" s="425"/>
-      <c r="AC172" s="426"/>
+      <c r="AA172" s="428"/>
+      <c r="AB172" s="428"/>
+      <c r="AC172" s="429"/>
       <c r="AD172" s="358" t="s">
         <v>109</v>
       </c>
@@ -17232,7 +17229,7 @@
       <c r="F173" s="150">
         <v>3</v>
       </c>
-      <c r="G173" s="420" t="s">
+      <c r="G173" s="424" t="s">
         <v>232</v>
       </c>
       <c r="H173" s="305"/>
@@ -17252,17 +17249,17 @@
       <c r="T173" s="359"/>
       <c r="U173" s="359"/>
       <c r="V173" s="360"/>
-      <c r="W173" s="421" t="s">
+      <c r="W173" s="425" t="s">
         <v>156</v>
       </c>
-      <c r="X173" s="422"/>
-      <c r="Y173" s="423"/>
-      <c r="Z173" s="424" t="s">
+      <c r="X173" s="426"/>
+      <c r="Y173" s="427"/>
+      <c r="Z173" s="375" t="s">
         <v>228</v>
       </c>
-      <c r="AA173" s="425"/>
-      <c r="AB173" s="425"/>
-      <c r="AC173" s="426"/>
+      <c r="AA173" s="428"/>
+      <c r="AB173" s="428"/>
+      <c r="AC173" s="429"/>
       <c r="AD173" s="358" t="s">
         <v>109</v>
       </c>
@@ -17278,7 +17275,7 @@
       <c r="F174" s="150">
         <v>4</v>
       </c>
-      <c r="G174" s="420" t="s">
+      <c r="G174" s="424" t="s">
         <v>231</v>
       </c>
       <c r="H174" s="305"/>
@@ -17298,17 +17295,17 @@
       <c r="T174" s="359"/>
       <c r="U174" s="359"/>
       <c r="V174" s="360"/>
-      <c r="W174" s="421" t="s">
+      <c r="W174" s="425" t="s">
         <v>156</v>
       </c>
-      <c r="X174" s="422"/>
-      <c r="Y174" s="423"/>
-      <c r="Z174" s="424" t="s">
+      <c r="X174" s="426"/>
+      <c r="Y174" s="427"/>
+      <c r="Z174" s="375" t="s">
         <v>230</v>
       </c>
-      <c r="AA174" s="425"/>
-      <c r="AB174" s="425"/>
-      <c r="AC174" s="426"/>
+      <c r="AA174" s="428"/>
+      <c r="AB174" s="428"/>
+      <c r="AC174" s="429"/>
       <c r="AD174" s="358" t="s">
         <v>109</v>
       </c>
@@ -17458,30 +17455,30 @@
       <c r="K183" s="187"/>
       <c r="L183" s="187"/>
       <c r="M183" s="187"/>
-      <c r="N183" s="400" t="s">
+      <c r="N183" s="404" t="s">
         <v>233</v>
       </c>
-      <c r="O183" s="401"/>
-      <c r="P183" s="401"/>
-      <c r="Q183" s="401"/>
-      <c r="R183" s="401"/>
-      <c r="S183" s="401"/>
-      <c r="T183" s="401"/>
-      <c r="U183" s="401"/>
-      <c r="V183" s="401"/>
-      <c r="W183" s="402"/>
-      <c r="X183" s="400" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y183" s="401"/>
-      <c r="Z183" s="401"/>
-      <c r="AA183" s="401"/>
-      <c r="AB183" s="401"/>
-      <c r="AC183" s="401"/>
-      <c r="AD183" s="401"/>
-      <c r="AE183" s="401"/>
-      <c r="AF183" s="401"/>
-      <c r="AG183" s="402"/>
+      <c r="O183" s="405"/>
+      <c r="P183" s="405"/>
+      <c r="Q183" s="405"/>
+      <c r="R183" s="405"/>
+      <c r="S183" s="405"/>
+      <c r="T183" s="405"/>
+      <c r="U183" s="405"/>
+      <c r="V183" s="405"/>
+      <c r="W183" s="406"/>
+      <c r="X183" s="404" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y183" s="405"/>
+      <c r="Z183" s="405"/>
+      <c r="AA183" s="405"/>
+      <c r="AB183" s="405"/>
+      <c r="AC183" s="405"/>
+      <c r="AD183" s="405"/>
+      <c r="AE183" s="405"/>
+      <c r="AF183" s="405"/>
+      <c r="AG183" s="406"/>
     </row>
     <row r="184" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G184" s="186"/>
@@ -17491,30 +17488,30 @@
       <c r="K184" s="165"/>
       <c r="L184" s="165"/>
       <c r="M184" s="165"/>
-      <c r="N184" s="400" t="s">
+      <c r="N184" s="404" t="s">
         <v>206</v>
       </c>
-      <c r="O184" s="401"/>
-      <c r="P184" s="401"/>
-      <c r="Q184" s="401"/>
-      <c r="R184" s="401"/>
-      <c r="S184" s="401"/>
-      <c r="T184" s="401"/>
-      <c r="U184" s="401"/>
-      <c r="V184" s="401"/>
-      <c r="W184" s="402"/>
-      <c r="X184" s="400" t="s">
+      <c r="O184" s="405"/>
+      <c r="P184" s="405"/>
+      <c r="Q184" s="405"/>
+      <c r="R184" s="405"/>
+      <c r="S184" s="405"/>
+      <c r="T184" s="405"/>
+      <c r="U184" s="405"/>
+      <c r="V184" s="405"/>
+      <c r="W184" s="406"/>
+      <c r="X184" s="404" t="s">
         <v>239</v>
       </c>
-      <c r="Y184" s="401"/>
-      <c r="Z184" s="401"/>
-      <c r="AA184" s="401"/>
-      <c r="AB184" s="401"/>
-      <c r="AC184" s="401"/>
-      <c r="AD184" s="401"/>
-      <c r="AE184" s="401"/>
-      <c r="AF184" s="401"/>
-      <c r="AG184" s="402"/>
+      <c r="Y184" s="405"/>
+      <c r="Z184" s="405"/>
+      <c r="AA184" s="405"/>
+      <c r="AB184" s="405"/>
+      <c r="AC184" s="405"/>
+      <c r="AD184" s="405"/>
+      <c r="AE184" s="405"/>
+      <c r="AF184" s="405"/>
+      <c r="AG184" s="406"/>
     </row>
     <row r="185" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G185" s="186"/>
@@ -17524,30 +17521,30 @@
       <c r="K185" s="165"/>
       <c r="L185" s="165"/>
       <c r="M185" s="165"/>
-      <c r="N185" s="400" t="s">
+      <c r="N185" s="404" t="s">
         <v>235</v>
       </c>
-      <c r="O185" s="401"/>
-      <c r="P185" s="401"/>
-      <c r="Q185" s="401"/>
-      <c r="R185" s="401"/>
-      <c r="S185" s="401"/>
-      <c r="T185" s="401"/>
-      <c r="U185" s="401"/>
-      <c r="V185" s="401"/>
-      <c r="W185" s="402"/>
-      <c r="X185" s="400" t="s">
+      <c r="O185" s="405"/>
+      <c r="P185" s="405"/>
+      <c r="Q185" s="405"/>
+      <c r="R185" s="405"/>
+      <c r="S185" s="405"/>
+      <c r="T185" s="405"/>
+      <c r="U185" s="405"/>
+      <c r="V185" s="405"/>
+      <c r="W185" s="406"/>
+      <c r="X185" s="404" t="s">
         <v>240</v>
       </c>
-      <c r="Y185" s="401"/>
-      <c r="Z185" s="401"/>
-      <c r="AA185" s="401"/>
-      <c r="AB185" s="401"/>
-      <c r="AC185" s="401"/>
-      <c r="AD185" s="401"/>
-      <c r="AE185" s="401"/>
-      <c r="AF185" s="401"/>
-      <c r="AG185" s="402"/>
+      <c r="Y185" s="405"/>
+      <c r="Z185" s="405"/>
+      <c r="AA185" s="405"/>
+      <c r="AB185" s="405"/>
+      <c r="AC185" s="405"/>
+      <c r="AD185" s="405"/>
+      <c r="AE185" s="405"/>
+      <c r="AF185" s="405"/>
+      <c r="AG185" s="406"/>
     </row>
     <row r="186" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G186" s="186"/>
@@ -17557,30 +17554,30 @@
       <c r="K186" s="165"/>
       <c r="L186" s="165"/>
       <c r="M186" s="165"/>
-      <c r="N186" s="400" t="s">
+      <c r="N186" s="404" t="s">
         <v>234</v>
       </c>
-      <c r="O186" s="401"/>
-      <c r="P186" s="401"/>
-      <c r="Q186" s="401"/>
-      <c r="R186" s="401"/>
-      <c r="S186" s="401"/>
-      <c r="T186" s="401"/>
-      <c r="U186" s="401"/>
-      <c r="V186" s="401"/>
-      <c r="W186" s="402"/>
-      <c r="X186" s="400" t="s">
+      <c r="O186" s="405"/>
+      <c r="P186" s="405"/>
+      <c r="Q186" s="405"/>
+      <c r="R186" s="405"/>
+      <c r="S186" s="405"/>
+      <c r="T186" s="405"/>
+      <c r="U186" s="405"/>
+      <c r="V186" s="405"/>
+      <c r="W186" s="406"/>
+      <c r="X186" s="404" t="s">
         <v>163</v>
       </c>
-      <c r="Y186" s="401"/>
-      <c r="Z186" s="401"/>
-      <c r="AA186" s="401"/>
-      <c r="AB186" s="401"/>
-      <c r="AC186" s="401"/>
-      <c r="AD186" s="401"/>
-      <c r="AE186" s="401"/>
-      <c r="AF186" s="401"/>
-      <c r="AG186" s="402"/>
+      <c r="Y186" s="405"/>
+      <c r="Z186" s="405"/>
+      <c r="AA186" s="405"/>
+      <c r="AB186" s="405"/>
+      <c r="AC186" s="405"/>
+      <c r="AD186" s="405"/>
+      <c r="AE186" s="405"/>
+      <c r="AF186" s="405"/>
+      <c r="AG186" s="406"/>
     </row>
     <row r="187" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G187" s="186"/>
@@ -17590,30 +17587,30 @@
       <c r="K187" s="165"/>
       <c r="L187" s="165"/>
       <c r="M187" s="165"/>
-      <c r="N187" s="400" t="s">
+      <c r="N187" s="404" t="s">
         <v>236</v>
       </c>
-      <c r="O187" s="401"/>
-      <c r="P187" s="401"/>
-      <c r="Q187" s="401"/>
-      <c r="R187" s="401"/>
-      <c r="S187" s="401"/>
-      <c r="T187" s="401"/>
-      <c r="U187" s="401"/>
-      <c r="V187" s="401"/>
-      <c r="W187" s="402"/>
-      <c r="X187" s="400" t="s">
+      <c r="O187" s="405"/>
+      <c r="P187" s="405"/>
+      <c r="Q187" s="405"/>
+      <c r="R187" s="405"/>
+      <c r="S187" s="405"/>
+      <c r="T187" s="405"/>
+      <c r="U187" s="405"/>
+      <c r="V187" s="405"/>
+      <c r="W187" s="406"/>
+      <c r="X187" s="404" t="s">
         <v>241</v>
       </c>
-      <c r="Y187" s="401"/>
-      <c r="Z187" s="401"/>
-      <c r="AA187" s="401"/>
-      <c r="AB187" s="401"/>
-      <c r="AC187" s="401"/>
-      <c r="AD187" s="401"/>
-      <c r="AE187" s="401"/>
-      <c r="AF187" s="401"/>
-      <c r="AG187" s="402"/>
+      <c r="Y187" s="405"/>
+      <c r="Z187" s="405"/>
+      <c r="AA187" s="405"/>
+      <c r="AB187" s="405"/>
+      <c r="AC187" s="405"/>
+      <c r="AD187" s="405"/>
+      <c r="AE187" s="405"/>
+      <c r="AF187" s="405"/>
+      <c r="AG187" s="406"/>
     </row>
     <row r="188" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G188" s="186"/>
@@ -17623,30 +17620,30 @@
       <c r="K188" s="165"/>
       <c r="L188" s="165"/>
       <c r="M188" s="165"/>
-      <c r="N188" s="400" t="s">
+      <c r="N188" s="404" t="s">
         <v>237</v>
       </c>
-      <c r="O188" s="401"/>
-      <c r="P188" s="401"/>
-      <c r="Q188" s="401"/>
-      <c r="R188" s="401"/>
-      <c r="S188" s="401"/>
-      <c r="T188" s="401"/>
-      <c r="U188" s="401"/>
-      <c r="V188" s="401"/>
-      <c r="W188" s="402"/>
-      <c r="X188" s="400" t="s">
+      <c r="O188" s="405"/>
+      <c r="P188" s="405"/>
+      <c r="Q188" s="405"/>
+      <c r="R188" s="405"/>
+      <c r="S188" s="405"/>
+      <c r="T188" s="405"/>
+      <c r="U188" s="405"/>
+      <c r="V188" s="405"/>
+      <c r="W188" s="406"/>
+      <c r="X188" s="404" t="s">
         <v>242</v>
       </c>
-      <c r="Y188" s="401"/>
-      <c r="Z188" s="401"/>
-      <c r="AA188" s="401"/>
-      <c r="AB188" s="401"/>
-      <c r="AC188" s="401"/>
-      <c r="AD188" s="401"/>
-      <c r="AE188" s="401"/>
-      <c r="AF188" s="401"/>
-      <c r="AG188" s="402"/>
+      <c r="Y188" s="405"/>
+      <c r="Z188" s="405"/>
+      <c r="AA188" s="405"/>
+      <c r="AB188" s="405"/>
+      <c r="AC188" s="405"/>
+      <c r="AD188" s="405"/>
+      <c r="AE188" s="405"/>
+      <c r="AF188" s="405"/>
+      <c r="AG188" s="406"/>
     </row>
     <row r="189" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G189" s="186"/>
@@ -17656,30 +17653,30 @@
       <c r="K189" s="165"/>
       <c r="L189" s="165"/>
       <c r="M189" s="165"/>
-      <c r="N189" s="400" t="s">
+      <c r="N189" s="404" t="s">
         <v>207</v>
       </c>
-      <c r="O189" s="401"/>
-      <c r="P189" s="401"/>
-      <c r="Q189" s="401"/>
-      <c r="R189" s="401"/>
-      <c r="S189" s="401"/>
-      <c r="T189" s="401"/>
-      <c r="U189" s="401"/>
-      <c r="V189" s="401"/>
-      <c r="W189" s="402"/>
-      <c r="X189" s="400" t="s">
+      <c r="O189" s="405"/>
+      <c r="P189" s="405"/>
+      <c r="Q189" s="405"/>
+      <c r="R189" s="405"/>
+      <c r="S189" s="405"/>
+      <c r="T189" s="405"/>
+      <c r="U189" s="405"/>
+      <c r="V189" s="405"/>
+      <c r="W189" s="406"/>
+      <c r="X189" s="404" t="s">
         <v>243</v>
       </c>
-      <c r="Y189" s="401"/>
-      <c r="Z189" s="401"/>
-      <c r="AA189" s="401"/>
-      <c r="AB189" s="401"/>
-      <c r="AC189" s="401"/>
-      <c r="AD189" s="401"/>
-      <c r="AE189" s="401"/>
-      <c r="AF189" s="401"/>
-      <c r="AG189" s="402"/>
+      <c r="Y189" s="405"/>
+      <c r="Z189" s="405"/>
+      <c r="AA189" s="405"/>
+      <c r="AB189" s="405"/>
+      <c r="AC189" s="405"/>
+      <c r="AD189" s="405"/>
+      <c r="AE189" s="405"/>
+      <c r="AF189" s="405"/>
+      <c r="AG189" s="406"/>
     </row>
     <row r="190" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G190" s="188"/>
@@ -17689,30 +17686,30 @@
       <c r="K190" s="189"/>
       <c r="L190" s="189"/>
       <c r="M190" s="189"/>
-      <c r="N190" s="400" t="s">
+      <c r="N190" s="404" t="s">
         <v>208</v>
       </c>
-      <c r="O190" s="401"/>
-      <c r="P190" s="401"/>
-      <c r="Q190" s="401"/>
-      <c r="R190" s="401"/>
-      <c r="S190" s="401"/>
-      <c r="T190" s="401"/>
-      <c r="U190" s="401"/>
-      <c r="V190" s="401"/>
-      <c r="W190" s="402"/>
-      <c r="X190" s="400" t="s">
+      <c r="O190" s="405"/>
+      <c r="P190" s="405"/>
+      <c r="Q190" s="405"/>
+      <c r="R190" s="405"/>
+      <c r="S190" s="405"/>
+      <c r="T190" s="405"/>
+      <c r="U190" s="405"/>
+      <c r="V190" s="405"/>
+      <c r="W190" s="406"/>
+      <c r="X190" s="404" t="s">
         <v>244</v>
       </c>
-      <c r="Y190" s="401"/>
-      <c r="Z190" s="401"/>
-      <c r="AA190" s="401"/>
-      <c r="AB190" s="401"/>
-      <c r="AC190" s="401"/>
-      <c r="AD190" s="401"/>
-      <c r="AE190" s="401"/>
-      <c r="AF190" s="401"/>
-      <c r="AG190" s="402"/>
+      <c r="Y190" s="405"/>
+      <c r="Z190" s="405"/>
+      <c r="AA190" s="405"/>
+      <c r="AB190" s="405"/>
+      <c r="AC190" s="405"/>
+      <c r="AD190" s="405"/>
+      <c r="AE190" s="405"/>
+      <c r="AF190" s="405"/>
+      <c r="AG190" s="406"/>
     </row>
     <row r="191" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G191" s="239" t="s">
@@ -17724,30 +17721,30 @@
       <c r="K191" s="240"/>
       <c r="L191" s="240"/>
       <c r="M191" s="241"/>
-      <c r="N191" s="400" t="s">
+      <c r="N191" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="O191" s="401"/>
-      <c r="P191" s="401"/>
-      <c r="Q191" s="401"/>
-      <c r="R191" s="401"/>
-      <c r="S191" s="401"/>
-      <c r="T191" s="401"/>
-      <c r="U191" s="401"/>
-      <c r="V191" s="401"/>
-      <c r="W191" s="402"/>
-      <c r="X191" s="400" t="s">
+      <c r="O191" s="405"/>
+      <c r="P191" s="405"/>
+      <c r="Q191" s="405"/>
+      <c r="R191" s="405"/>
+      <c r="S191" s="405"/>
+      <c r="T191" s="405"/>
+      <c r="U191" s="405"/>
+      <c r="V191" s="405"/>
+      <c r="W191" s="406"/>
+      <c r="X191" s="404" t="s">
         <v>245</v>
       </c>
-      <c r="Y191" s="401"/>
-      <c r="Z191" s="401"/>
-      <c r="AA191" s="401"/>
-      <c r="AB191" s="401"/>
-      <c r="AC191" s="401"/>
-      <c r="AD191" s="401"/>
-      <c r="AE191" s="401"/>
-      <c r="AF191" s="401"/>
-      <c r="AG191" s="402"/>
+      <c r="Y191" s="405"/>
+      <c r="Z191" s="405"/>
+      <c r="AA191" s="405"/>
+      <c r="AB191" s="405"/>
+      <c r="AC191" s="405"/>
+      <c r="AD191" s="405"/>
+      <c r="AE191" s="405"/>
+      <c r="AF191" s="405"/>
+      <c r="AG191" s="406"/>
     </row>
     <row r="192" spans="4:51" x14ac:dyDescent="0.15">
       <c r="G192" s="239" t="s">
@@ -17798,32 +17795,32 @@
       <c r="G193" s="445" t="s">
         <v>246</v>
       </c>
-      <c r="H193" s="436"/>
-      <c r="I193" s="436"/>
-      <c r="J193" s="436"/>
-      <c r="K193" s="436"/>
-      <c r="L193" s="436"/>
-      <c r="M193" s="436"/>
-      <c r="N193" s="436"/>
-      <c r="O193" s="436"/>
-      <c r="P193" s="436"/>
-      <c r="Q193" s="436"/>
-      <c r="R193" s="436"/>
-      <c r="S193" s="436"/>
-      <c r="T193" s="436"/>
-      <c r="U193" s="436"/>
-      <c r="V193" s="436"/>
-      <c r="W193" s="436"/>
-      <c r="X193" s="436"/>
-      <c r="Y193" s="436"/>
-      <c r="Z193" s="436"/>
-      <c r="AA193" s="436"/>
-      <c r="AB193" s="436"/>
-      <c r="AC193" s="436"/>
-      <c r="AD193" s="436"/>
-      <c r="AE193" s="436"/>
-      <c r="AF193" s="436"/>
-      <c r="AG193" s="437"/>
+      <c r="H193" s="439"/>
+      <c r="I193" s="439"/>
+      <c r="J193" s="439"/>
+      <c r="K193" s="439"/>
+      <c r="L193" s="439"/>
+      <c r="M193" s="439"/>
+      <c r="N193" s="439"/>
+      <c r="O193" s="439"/>
+      <c r="P193" s="439"/>
+      <c r="Q193" s="439"/>
+      <c r="R193" s="439"/>
+      <c r="S193" s="439"/>
+      <c r="T193" s="439"/>
+      <c r="U193" s="439"/>
+      <c r="V193" s="439"/>
+      <c r="W193" s="439"/>
+      <c r="X193" s="439"/>
+      <c r="Y193" s="439"/>
+      <c r="Z193" s="439"/>
+      <c r="AA193" s="439"/>
+      <c r="AB193" s="439"/>
+      <c r="AC193" s="439"/>
+      <c r="AD193" s="439"/>
+      <c r="AE193" s="439"/>
+      <c r="AF193" s="439"/>
+      <c r="AG193" s="440"/>
       <c r="AJ193" s="111"/>
       <c r="AK193" s="111"/>
       <c r="AL193" s="111"/>
@@ -18331,35 +18328,35 @@
       <c r="BF202" s="111"/>
     </row>
     <row r="203" spans="7:58" x14ac:dyDescent="0.15">
-      <c r="G203" s="435" t="s">
+      <c r="G203" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="H203" s="436"/>
-      <c r="I203" s="436"/>
-      <c r="J203" s="436"/>
-      <c r="K203" s="436"/>
-      <c r="L203" s="436"/>
-      <c r="M203" s="436"/>
-      <c r="N203" s="436"/>
-      <c r="O203" s="436"/>
-      <c r="P203" s="436"/>
-      <c r="Q203" s="436"/>
-      <c r="R203" s="436"/>
-      <c r="S203" s="436"/>
-      <c r="T203" s="436"/>
-      <c r="U203" s="436"/>
-      <c r="V203" s="436"/>
-      <c r="W203" s="436"/>
-      <c r="X203" s="436"/>
-      <c r="Y203" s="436"/>
-      <c r="Z203" s="436"/>
-      <c r="AA203" s="436"/>
-      <c r="AB203" s="436"/>
-      <c r="AC203" s="436"/>
-      <c r="AD203" s="436"/>
-      <c r="AE203" s="436"/>
-      <c r="AF203" s="436"/>
-      <c r="AG203" s="437"/>
+      <c r="H203" s="439"/>
+      <c r="I203" s="439"/>
+      <c r="J203" s="439"/>
+      <c r="K203" s="439"/>
+      <c r="L203" s="439"/>
+      <c r="M203" s="439"/>
+      <c r="N203" s="439"/>
+      <c r="O203" s="439"/>
+      <c r="P203" s="439"/>
+      <c r="Q203" s="439"/>
+      <c r="R203" s="439"/>
+      <c r="S203" s="439"/>
+      <c r="T203" s="439"/>
+      <c r="U203" s="439"/>
+      <c r="V203" s="439"/>
+      <c r="W203" s="439"/>
+      <c r="X203" s="439"/>
+      <c r="Y203" s="439"/>
+      <c r="Z203" s="439"/>
+      <c r="AA203" s="439"/>
+      <c r="AB203" s="439"/>
+      <c r="AC203" s="439"/>
+      <c r="AD203" s="439"/>
+      <c r="AE203" s="439"/>
+      <c r="AF203" s="439"/>
+      <c r="AG203" s="440"/>
       <c r="AJ203" s="111"/>
       <c r="AK203" s="111"/>
       <c r="AL203" s="111"/>
@@ -19595,32 +19592,32 @@
       <c r="G227" s="445" t="s">
         <v>275</v>
       </c>
-      <c r="H227" s="436"/>
-      <c r="I227" s="436"/>
-      <c r="J227" s="436"/>
-      <c r="K227" s="436"/>
-      <c r="L227" s="436"/>
-      <c r="M227" s="436"/>
-      <c r="N227" s="436"/>
-      <c r="O227" s="436"/>
-      <c r="P227" s="436"/>
-      <c r="Q227" s="436"/>
-      <c r="R227" s="436"/>
-      <c r="S227" s="436"/>
-      <c r="T227" s="436"/>
-      <c r="U227" s="436"/>
-      <c r="V227" s="436"/>
-      <c r="W227" s="436"/>
-      <c r="X227" s="436"/>
-      <c r="Y227" s="436"/>
-      <c r="Z227" s="436"/>
-      <c r="AA227" s="436"/>
-      <c r="AB227" s="436"/>
-      <c r="AC227" s="436"/>
-      <c r="AD227" s="436"/>
-      <c r="AE227" s="436"/>
-      <c r="AF227" s="436"/>
-      <c r="AG227" s="437"/>
+      <c r="H227" s="439"/>
+      <c r="I227" s="439"/>
+      <c r="J227" s="439"/>
+      <c r="K227" s="439"/>
+      <c r="L227" s="439"/>
+      <c r="M227" s="439"/>
+      <c r="N227" s="439"/>
+      <c r="O227" s="439"/>
+      <c r="P227" s="439"/>
+      <c r="Q227" s="439"/>
+      <c r="R227" s="439"/>
+      <c r="S227" s="439"/>
+      <c r="T227" s="439"/>
+      <c r="U227" s="439"/>
+      <c r="V227" s="439"/>
+      <c r="W227" s="439"/>
+      <c r="X227" s="439"/>
+      <c r="Y227" s="439"/>
+      <c r="Z227" s="439"/>
+      <c r="AA227" s="439"/>
+      <c r="AB227" s="439"/>
+      <c r="AC227" s="439"/>
+      <c r="AD227" s="439"/>
+      <c r="AE227" s="439"/>
+      <c r="AF227" s="439"/>
+      <c r="AG227" s="440"/>
       <c r="AJ227" s="111"/>
       <c r="AK227" s="111"/>
       <c r="AL227" s="111"/>
@@ -21147,7 +21144,7 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="49" max="16383" man="1"/>
     <brk id="69" max="34" man="1"/>
-    <brk id="93" max="34" man="1"/>
+    <brk id="85" max="34" man="1"/>
     <brk id="133" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
@@ -21175,7 +21172,7 @@
   <dimension ref="A1:BF158"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -21186,12 +21183,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="376"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="380"/>
       <c r="E1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
@@ -21243,12 +21240,12 @@
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="376"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="380"/>
       <c r="E2" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
@@ -21294,12 +21291,12 @@
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="374" t="s">
+      <c r="A3" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="376"/>
+      <c r="B3" s="379"/>
+      <c r="C3" s="379"/>
+      <c r="D3" s="380"/>
       <c r="E3" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
@@ -21334,12 +21331,12 @@
       <c r="AD3" s="216"/>
       <c r="AE3" s="216"/>
       <c r="AF3" s="217"/>
-      <c r="AG3" s="377" t="str">
+      <c r="AG3" s="381" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="378"/>
-      <c r="AI3" s="379"/>
+      <c r="AH3" s="382"/>
+      <c r="AI3" s="383"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21454,39 +21451,39 @@
       <c r="D38" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="380" t="s">
+      <c r="E38" s="384" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="380"/>
-      <c r="G38" s="380"/>
-      <c r="H38" s="380"/>
-      <c r="I38" s="380"/>
-      <c r="J38" s="380"/>
-      <c r="K38" s="380"/>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380" t="s">
+      <c r="F38" s="384"/>
+      <c r="G38" s="384"/>
+      <c r="H38" s="384"/>
+      <c r="I38" s="384"/>
+      <c r="J38" s="384"/>
+      <c r="K38" s="384"/>
+      <c r="L38" s="384"/>
+      <c r="M38" s="384"/>
+      <c r="N38" s="384" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="380"/>
-      <c r="P38" s="380"/>
-      <c r="Q38" s="380" t="s">
+      <c r="O38" s="384"/>
+      <c r="P38" s="384"/>
+      <c r="Q38" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="R38" s="380"/>
-      <c r="S38" s="380"/>
-      <c r="T38" s="380"/>
-      <c r="U38" s="380"/>
-      <c r="V38" s="380" t="s">
+      <c r="R38" s="384"/>
+      <c r="S38" s="384"/>
+      <c r="T38" s="384"/>
+      <c r="U38" s="384"/>
+      <c r="V38" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="W38" s="380"/>
-      <c r="X38" s="380"/>
-      <c r="Y38" s="380"/>
-      <c r="Z38" s="380"/>
-      <c r="AA38" s="380"/>
-      <c r="AB38" s="380"/>
-      <c r="AC38" s="380"/>
+      <c r="W38" s="384"/>
+      <c r="X38" s="384"/>
+      <c r="Y38" s="384"/>
+      <c r="Z38" s="384"/>
+      <c r="AA38" s="384"/>
+      <c r="AB38" s="384"/>
+      <c r="AC38" s="384"/>
       <c r="AD38" s="137"/>
       <c r="AE38" s="137"/>
       <c r="AF38" s="137"/>
@@ -21497,22 +21494,22 @@
       <c r="D39" s="157">
         <v>1</v>
       </c>
-      <c r="E39" s="390" t="s">
+      <c r="E39" s="394" t="s">
         <v>313</v>
       </c>
-      <c r="F39" s="390"/>
-      <c r="G39" s="390"/>
-      <c r="H39" s="390"/>
-      <c r="I39" s="390"/>
-      <c r="J39" s="390"/>
-      <c r="K39" s="390"/>
-      <c r="L39" s="390"/>
-      <c r="M39" s="390"/>
-      <c r="N39" s="390" t="s">
+      <c r="F39" s="394"/>
+      <c r="G39" s="394"/>
+      <c r="H39" s="394"/>
+      <c r="I39" s="394"/>
+      <c r="J39" s="394"/>
+      <c r="K39" s="394"/>
+      <c r="L39" s="394"/>
+      <c r="M39" s="394"/>
+      <c r="N39" s="394" t="s">
         <v>313</v>
       </c>
-      <c r="O39" s="390"/>
-      <c r="P39" s="390"/>
+      <c r="O39" s="394"/>
+      <c r="P39" s="394"/>
       <c r="Q39" s="446" t="s">
         <v>314</v>
       </c>
@@ -21520,18 +21517,18 @@
       <c r="S39" s="340"/>
       <c r="T39" s="340"/>
       <c r="U39" s="341"/>
-      <c r="V39" s="390" t="s">
+      <c r="V39" s="394" t="s">
         <v>82</v>
       </c>
-      <c r="W39" s="390" t="s">
+      <c r="W39" s="394" t="s">
         <v>315</v>
       </c>
-      <c r="X39" s="390"/>
-      <c r="Y39" s="390"/>
-      <c r="Z39" s="390"/>
-      <c r="AA39" s="390"/>
-      <c r="AB39" s="390"/>
-      <c r="AC39" s="390"/>
+      <c r="X39" s="394"/>
+      <c r="Y39" s="394"/>
+      <c r="Z39" s="394"/>
+      <c r="AA39" s="394"/>
+      <c r="AB39" s="394"/>
+      <c r="AC39" s="394"/>
       <c r="AM39" s="35"/>
     </row>
     <row r="40" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -21608,36 +21605,36 @@
       <c r="AZ43" s="135"/>
     </row>
     <row r="44" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="386" t="s">
+      <c r="D44" s="390" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="397" t="s">
+      <c r="E44" s="401" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="398"/>
-      <c r="G44" s="398"/>
-      <c r="H44" s="398"/>
-      <c r="I44" s="398"/>
-      <c r="J44" s="398"/>
-      <c r="K44" s="398"/>
-      <c r="L44" s="398"/>
-      <c r="M44" s="398"/>
-      <c r="N44" s="398"/>
-      <c r="O44" s="398"/>
-      <c r="P44" s="398"/>
-      <c r="Q44" s="398"/>
-      <c r="R44" s="398"/>
-      <c r="S44" s="398"/>
-      <c r="T44" s="398"/>
-      <c r="U44" s="398"/>
-      <c r="V44" s="398"/>
-      <c r="W44" s="398"/>
-      <c r="X44" s="398"/>
-      <c r="Y44" s="398"/>
-      <c r="Z44" s="398"/>
-      <c r="AA44" s="398"/>
-      <c r="AB44" s="398"/>
-      <c r="AC44" s="399"/>
+      <c r="F44" s="402"/>
+      <c r="G44" s="402"/>
+      <c r="H44" s="402"/>
+      <c r="I44" s="402"/>
+      <c r="J44" s="402"/>
+      <c r="K44" s="402"/>
+      <c r="L44" s="402"/>
+      <c r="M44" s="402"/>
+      <c r="N44" s="402"/>
+      <c r="O44" s="402"/>
+      <c r="P44" s="402"/>
+      <c r="Q44" s="402"/>
+      <c r="R44" s="402"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="402"/>
+      <c r="U44" s="402"/>
+      <c r="V44" s="402"/>
+      <c r="W44" s="402"/>
+      <c r="X44" s="402"/>
+      <c r="Y44" s="402"/>
+      <c r="Z44" s="402"/>
+      <c r="AA44" s="402"/>
+      <c r="AB44" s="402"/>
+      <c r="AC44" s="403"/>
       <c r="AD44" s="295" t="s">
         <v>23</v>
       </c>
@@ -21655,7 +21652,7 @@
       <c r="AN44" s="135"/>
     </row>
     <row r="45" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="387"/>
+      <c r="D45" s="391"/>
       <c r="E45" s="295" t="s">
         <v>21</v>
       </c>
@@ -21665,19 +21662,19 @@
       <c r="I45" s="447" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="392"/>
-      <c r="K45" s="392"/>
-      <c r="L45" s="393"/>
-      <c r="M45" s="391" t="s">
+      <c r="J45" s="396"/>
+      <c r="K45" s="396"/>
+      <c r="L45" s="397"/>
+      <c r="M45" s="395" t="s">
         <v>105</v>
       </c>
-      <c r="N45" s="392"/>
-      <c r="O45" s="392"/>
-      <c r="P45" s="392"/>
-      <c r="Q45" s="392"/>
-      <c r="R45" s="392"/>
-      <c r="S45" s="392"/>
-      <c r="T45" s="393"/>
+      <c r="N45" s="396"/>
+      <c r="O45" s="396"/>
+      <c r="P45" s="396"/>
+      <c r="Q45" s="396"/>
+      <c r="R45" s="396"/>
+      <c r="S45" s="396"/>
+      <c r="T45" s="397"/>
       <c r="U45" s="295" t="s">
         <v>22</v>
       </c>
@@ -21690,7 +21687,7 @@
       </c>
       <c r="AA45" s="296"/>
       <c r="AB45" s="297"/>
-      <c r="AC45" s="386" t="s">
+      <c r="AC45" s="390" t="s">
         <v>34</v>
       </c>
       <c r="AD45" s="298"/>
@@ -21712,23 +21709,23 @@
       <c r="AT45" s="135"/>
     </row>
     <row r="46" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="388"/>
+      <c r="D46" s="392"/>
       <c r="E46" s="301"/>
       <c r="F46" s="302"/>
       <c r="G46" s="302"/>
       <c r="H46" s="303"/>
-      <c r="I46" s="394"/>
-      <c r="J46" s="395"/>
-      <c r="K46" s="395"/>
-      <c r="L46" s="396"/>
-      <c r="M46" s="394"/>
-      <c r="N46" s="395"/>
-      <c r="O46" s="395"/>
-      <c r="P46" s="395"/>
-      <c r="Q46" s="395"/>
-      <c r="R46" s="395"/>
-      <c r="S46" s="395"/>
-      <c r="T46" s="396"/>
+      <c r="I46" s="398"/>
+      <c r="J46" s="399"/>
+      <c r="K46" s="399"/>
+      <c r="L46" s="400"/>
+      <c r="M46" s="398"/>
+      <c r="N46" s="399"/>
+      <c r="O46" s="399"/>
+      <c r="P46" s="399"/>
+      <c r="Q46" s="399"/>
+      <c r="R46" s="399"/>
+      <c r="S46" s="399"/>
+      <c r="T46" s="400"/>
       <c r="U46" s="301"/>
       <c r="V46" s="302"/>
       <c r="W46" s="302"/>
@@ -21737,7 +21734,7 @@
       <c r="Z46" s="301"/>
       <c r="AA46" s="302"/>
       <c r="AB46" s="303"/>
-      <c r="AC46" s="388"/>
+      <c r="AC46" s="392"/>
       <c r="AD46" s="301"/>
       <c r="AE46" s="302"/>
       <c r="AF46" s="302"/>
@@ -21759,38 +21756,38 @@
       <c r="AT46" s="135"/>
     </row>
     <row r="47" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="383" t="s">
+      <c r="D47" s="387" t="s">
         <v>316</v>
       </c>
-      <c r="E47" s="384"/>
-      <c r="F47" s="384"/>
-      <c r="G47" s="384"/>
-      <c r="H47" s="384"/>
-      <c r="I47" s="384"/>
-      <c r="J47" s="384"/>
-      <c r="K47" s="384"/>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="384"/>
-      <c r="P47" s="384"/>
-      <c r="Q47" s="384"/>
-      <c r="R47" s="384"/>
-      <c r="S47" s="384"/>
-      <c r="T47" s="384"/>
-      <c r="U47" s="384"/>
-      <c r="V47" s="384"/>
-      <c r="W47" s="384"/>
-      <c r="X47" s="384"/>
-      <c r="Y47" s="384"/>
-      <c r="Z47" s="384"/>
-      <c r="AA47" s="384"/>
-      <c r="AB47" s="384"/>
-      <c r="AC47" s="384"/>
-      <c r="AD47" s="384"/>
-      <c r="AE47" s="384"/>
-      <c r="AF47" s="384"/>
-      <c r="AG47" s="385"/>
+      <c r="E47" s="388"/>
+      <c r="F47" s="388"/>
+      <c r="G47" s="388"/>
+      <c r="H47" s="388"/>
+      <c r="I47" s="388"/>
+      <c r="J47" s="388"/>
+      <c r="K47" s="388"/>
+      <c r="L47" s="388"/>
+      <c r="M47" s="388"/>
+      <c r="N47" s="388"/>
+      <c r="O47" s="388"/>
+      <c r="P47" s="388"/>
+      <c r="Q47" s="388"/>
+      <c r="R47" s="388"/>
+      <c r="S47" s="388"/>
+      <c r="T47" s="388"/>
+      <c r="U47" s="388"/>
+      <c r="V47" s="388"/>
+      <c r="W47" s="388"/>
+      <c r="X47" s="388"/>
+      <c r="Y47" s="388"/>
+      <c r="Z47" s="388"/>
+      <c r="AA47" s="388"/>
+      <c r="AB47" s="388"/>
+      <c r="AC47" s="388"/>
+      <c r="AD47" s="388"/>
+      <c r="AE47" s="388"/>
+      <c r="AF47" s="388"/>
+      <c r="AG47" s="389"/>
       <c r="AH47" s="135"/>
       <c r="AI47" s="135"/>
       <c r="AJ47" s="135"/>
@@ -21961,16 +21958,16 @@
       <c r="J50" s="334"/>
       <c r="K50" s="334"/>
       <c r="L50" s="335"/>
-      <c r="M50" s="405" t="s">
+      <c r="M50" s="409" t="s">
         <v>209</v>
       </c>
-      <c r="N50" s="406"/>
-      <c r="O50" s="406"/>
-      <c r="P50" s="406"/>
-      <c r="Q50" s="406"/>
-      <c r="R50" s="406"/>
-      <c r="S50" s="406"/>
-      <c r="T50" s="406"/>
+      <c r="N50" s="410"/>
+      <c r="O50" s="410"/>
+      <c r="P50" s="410"/>
+      <c r="Q50" s="410"/>
+      <c r="R50" s="410"/>
+      <c r="S50" s="410"/>
+      <c r="T50" s="410"/>
       <c r="U50" s="324" t="s">
         <v>82</v>
       </c>
@@ -22171,12 +22168,12 @@
       <c r="F53" s="307"/>
       <c r="G53" s="307"/>
       <c r="H53" s="329"/>
-      <c r="I53" s="410" t="s">
+      <c r="I53" s="414" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="411"/>
-      <c r="K53" s="411"/>
-      <c r="L53" s="412"/>
+      <c r="J53" s="415"/>
+      <c r="K53" s="415"/>
+      <c r="L53" s="416"/>
       <c r="M53" s="331" t="s">
         <v>214</v>
       </c>
@@ -22188,7 +22185,7 @@
       <c r="S53" s="322"/>
       <c r="T53" s="323"/>
       <c r="U53" s="236" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V53" s="327"/>
       <c r="W53" s="327"/>
@@ -22236,12 +22233,12 @@
       <c r="F54" s="307"/>
       <c r="G54" s="307"/>
       <c r="H54" s="329"/>
-      <c r="I54" s="410" t="s">
+      <c r="I54" s="414" t="s">
         <v>79</v>
       </c>
-      <c r="J54" s="411"/>
-      <c r="K54" s="411"/>
-      <c r="L54" s="412"/>
+      <c r="J54" s="415"/>
+      <c r="K54" s="415"/>
+      <c r="L54" s="416"/>
       <c r="M54" s="331" t="s">
         <v>320</v>
       </c>
@@ -22301,12 +22298,12 @@
       <c r="F55" s="307"/>
       <c r="G55" s="307"/>
       <c r="H55" s="329"/>
-      <c r="I55" s="407" t="s">
+      <c r="I55" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="J55" s="408"/>
-      <c r="K55" s="408"/>
-      <c r="L55" s="409"/>
+      <c r="J55" s="412"/>
+      <c r="K55" s="412"/>
+      <c r="L55" s="413"/>
       <c r="M55" s="331" t="s">
         <v>213</v>
       </c>
@@ -22370,12 +22367,12 @@
       <c r="F56" s="307"/>
       <c r="G56" s="307"/>
       <c r="H56" s="329"/>
-      <c r="I56" s="407" t="s">
+      <c r="I56" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="408"/>
-      <c r="K56" s="408"/>
-      <c r="L56" s="409"/>
+      <c r="J56" s="412"/>
+      <c r="K56" s="412"/>
+      <c r="L56" s="413"/>
       <c r="M56" s="331" t="s">
         <v>322</v>
       </c>
@@ -22578,12 +22575,12 @@
       <c r="F59" s="307"/>
       <c r="G59" s="307"/>
       <c r="H59" s="329"/>
-      <c r="I59" s="407" t="s">
+      <c r="I59" s="411" t="s">
         <v>79</v>
       </c>
-      <c r="J59" s="408"/>
-      <c r="K59" s="408"/>
-      <c r="L59" s="409"/>
+      <c r="J59" s="412"/>
+      <c r="K59" s="412"/>
+      <c r="L59" s="413"/>
       <c r="M59" s="331" t="s">
         <v>323</v>
       </c>
@@ -22761,7 +22758,7 @@
       <c r="L64" s="314"/>
       <c r="M64" s="314"/>
       <c r="N64" s="315"/>
-      <c r="O64" s="413" t="s">
+      <c r="O64" s="417" t="s">
         <v>41</v>
       </c>
       <c r="P64" s="170" t="s">
@@ -22813,7 +22810,7 @@
       <c r="L65" s="317"/>
       <c r="M65" s="317"/>
       <c r="N65" s="318"/>
-      <c r="O65" s="414"/>
+      <c r="O65" s="418"/>
       <c r="P65" s="143" t="s">
         <v>42</v>
       </c>
@@ -22826,10 +22823,10 @@
       <c r="S65" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="T65" s="415" t="s">
+      <c r="T65" s="419" t="s">
         <v>49</v>
       </c>
-      <c r="U65" s="416"/>
+      <c r="U65" s="420"/>
       <c r="V65" s="316"/>
       <c r="W65" s="317"/>
       <c r="X65" s="317"/>
@@ -22861,14 +22858,14 @@
       <c r="D66" s="144">
         <v>1</v>
       </c>
-      <c r="E66" s="400" t="s">
+      <c r="E66" s="404" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="401"/>
-      <c r="G66" s="401"/>
-      <c r="H66" s="401"/>
-      <c r="I66" s="401"/>
-      <c r="J66" s="402"/>
+      <c r="F66" s="405"/>
+      <c r="G66" s="405"/>
+      <c r="H66" s="405"/>
+      <c r="I66" s="405"/>
+      <c r="J66" s="406"/>
       <c r="K66" s="326" t="s">
         <v>85</v>
       </c>
@@ -22890,10 +22887,10 @@
       <c r="S66" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="T66" s="403" t="s">
+      <c r="T66" s="407" t="s">
         <v>82</v>
       </c>
-      <c r="U66" s="404"/>
+      <c r="U66" s="408"/>
       <c r="V66" s="326" t="s">
         <v>87</v>
       </c>
@@ -22927,14 +22924,14 @@
       <c r="D67" s="144">
         <v>2</v>
       </c>
-      <c r="E67" s="400" t="s">
+      <c r="E67" s="404" t="s">
         <v>186</v>
       </c>
-      <c r="F67" s="401"/>
-      <c r="G67" s="401"/>
-      <c r="H67" s="401"/>
-      <c r="I67" s="401"/>
-      <c r="J67" s="402"/>
+      <c r="F67" s="405"/>
+      <c r="G67" s="405"/>
+      <c r="H67" s="405"/>
+      <c r="I67" s="405"/>
+      <c r="J67" s="406"/>
       <c r="K67" s="326" t="s">
         <v>85</v>
       </c>
@@ -22956,10 +22953,10 @@
       <c r="S67" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="T67" s="403" t="s">
+      <c r="T67" s="407" t="s">
         <v>82</v>
       </c>
-      <c r="U67" s="404"/>
+      <c r="U67" s="408"/>
       <c r="V67" s="326" t="s">
         <v>87</v>
       </c>
@@ -23100,33 +23097,33 @@
       <c r="D72" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="448" t="s">
+      <c r="E72" s="450" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="449"/>
-      <c r="G72" s="449"/>
-      <c r="H72" s="449"/>
-      <c r="I72" s="449"/>
-      <c r="J72" s="450"/>
-      <c r="K72" s="448" t="s">
+      <c r="F72" s="451"/>
+      <c r="G72" s="451"/>
+      <c r="H72" s="451"/>
+      <c r="I72" s="451"/>
+      <c r="J72" s="452"/>
+      <c r="K72" s="450" t="s">
         <v>28</v>
       </c>
-      <c r="L72" s="449"/>
-      <c r="M72" s="449"/>
-      <c r="N72" s="449"/>
-      <c r="O72" s="449"/>
-      <c r="P72" s="449"/>
-      <c r="Q72" s="451"/>
-      <c r="R72" s="452" t="s">
+      <c r="L72" s="451"/>
+      <c r="M72" s="451"/>
+      <c r="N72" s="451"/>
+      <c r="O72" s="451"/>
+      <c r="P72" s="451"/>
+      <c r="Q72" s="453"/>
+      <c r="R72" s="454" t="s">
         <v>63</v>
       </c>
-      <c r="S72" s="449"/>
-      <c r="T72" s="449"/>
-      <c r="U72" s="449"/>
-      <c r="V72" s="449"/>
-      <c r="W72" s="449"/>
-      <c r="X72" s="449"/>
-      <c r="Y72" s="451"/>
+      <c r="S72" s="451"/>
+      <c r="T72" s="451"/>
+      <c r="U72" s="451"/>
+      <c r="V72" s="451"/>
+      <c r="W72" s="451"/>
+      <c r="X72" s="451"/>
+      <c r="Y72" s="453"/>
       <c r="Z72" s="295" t="s">
         <v>16</v>
       </c>
@@ -23134,25 +23131,25 @@
       <c r="AB72" s="296"/>
       <c r="AC72" s="296"/>
       <c r="AD72" s="297"/>
-      <c r="AE72" s="453" t="s">
+      <c r="AE72" s="455" t="s">
         <v>118</v>
       </c>
-      <c r="AF72" s="454"/>
-      <c r="AG72" s="454"/>
-      <c r="AH72" s="455"/>
+      <c r="AF72" s="456"/>
+      <c r="AG72" s="456"/>
+      <c r="AH72" s="457"/>
     </row>
     <row r="73" spans="1:56" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="147">
         <v>1</v>
       </c>
-      <c r="E73" s="456" t="s">
+      <c r="E73" s="449" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="456"/>
-      <c r="G73" s="456"/>
-      <c r="H73" s="456"/>
-      <c r="I73" s="456"/>
-      <c r="J73" s="456"/>
+      <c r="F73" s="449"/>
+      <c r="G73" s="449"/>
+      <c r="H73" s="449"/>
+      <c r="I73" s="449"/>
+      <c r="J73" s="449"/>
       <c r="K73" s="325" t="s">
         <v>89</v>
       </c>
@@ -23179,25 +23176,25 @@
       <c r="AB73" s="325"/>
       <c r="AC73" s="325"/>
       <c r="AD73" s="325"/>
-      <c r="AE73" s="406" t="s">
+      <c r="AE73" s="410" t="s">
         <v>61</v>
       </c>
-      <c r="AF73" s="406"/>
-      <c r="AG73" s="406"/>
-      <c r="AH73" s="406"/>
+      <c r="AF73" s="410"/>
+      <c r="AG73" s="410"/>
+      <c r="AH73" s="410"/>
     </row>
     <row r="74" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D74" s="209">
         <v>2</v>
       </c>
-      <c r="E74" s="459" t="s">
+      <c r="E74" s="448" t="s">
         <v>324</v>
       </c>
-      <c r="F74" s="456"/>
-      <c r="G74" s="456"/>
-      <c r="H74" s="456"/>
-      <c r="I74" s="456"/>
-      <c r="J74" s="456"/>
+      <c r="F74" s="449"/>
+      <c r="G74" s="449"/>
+      <c r="H74" s="449"/>
+      <c r="I74" s="449"/>
+      <c r="J74" s="449"/>
       <c r="K74" s="324" t="s">
         <v>325</v>
       </c>
@@ -23217,64 +23214,64 @@
       <c r="W74" s="325"/>
       <c r="X74" s="325"/>
       <c r="Y74" s="325"/>
-      <c r="Z74" s="459" t="s">
+      <c r="Z74" s="448" t="s">
         <v>326</v>
       </c>
-      <c r="AA74" s="456"/>
-      <c r="AB74" s="456"/>
-      <c r="AC74" s="456"/>
-      <c r="AD74" s="456"/>
-      <c r="AE74" s="406" t="s">
+      <c r="AA74" s="449"/>
+      <c r="AB74" s="449"/>
+      <c r="AC74" s="449"/>
+      <c r="AD74" s="449"/>
+      <c r="AE74" s="410" t="s">
         <v>61</v>
       </c>
-      <c r="AF74" s="406"/>
-      <c r="AG74" s="406"/>
-      <c r="AH74" s="406"/>
+      <c r="AF74" s="410"/>
+      <c r="AG74" s="410"/>
+      <c r="AH74" s="410"/>
     </row>
     <row r="75" spans="1:56" s="109" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="147">
         <v>3</v>
       </c>
-      <c r="E75" s="457" t="s">
+      <c r="E75" s="458" t="s">
         <v>357</v>
       </c>
-      <c r="F75" s="458"/>
-      <c r="G75" s="458"/>
-      <c r="H75" s="458"/>
-      <c r="I75" s="458"/>
-      <c r="J75" s="458"/>
-      <c r="K75" s="405" t="s">
+      <c r="F75" s="459"/>
+      <c r="G75" s="459"/>
+      <c r="H75" s="459"/>
+      <c r="I75" s="459"/>
+      <c r="J75" s="459"/>
+      <c r="K75" s="409" t="s">
         <v>358</v>
       </c>
-      <c r="L75" s="406"/>
-      <c r="M75" s="406"/>
-      <c r="N75" s="406"/>
-      <c r="O75" s="406"/>
-      <c r="P75" s="406"/>
-      <c r="Q75" s="406"/>
-      <c r="R75" s="405" t="s">
+      <c r="L75" s="410"/>
+      <c r="M75" s="410"/>
+      <c r="N75" s="410"/>
+      <c r="O75" s="410"/>
+      <c r="P75" s="410"/>
+      <c r="Q75" s="410"/>
+      <c r="R75" s="409" t="s">
         <v>359</v>
       </c>
-      <c r="S75" s="406"/>
-      <c r="T75" s="406"/>
-      <c r="U75" s="406"/>
-      <c r="V75" s="406"/>
-      <c r="W75" s="406"/>
-      <c r="X75" s="406"/>
-      <c r="Y75" s="406"/>
-      <c r="Z75" s="405" t="s">
+      <c r="S75" s="410"/>
+      <c r="T75" s="410"/>
+      <c r="U75" s="410"/>
+      <c r="V75" s="410"/>
+      <c r="W75" s="410"/>
+      <c r="X75" s="410"/>
+      <c r="Y75" s="410"/>
+      <c r="Z75" s="409" t="s">
         <v>360</v>
       </c>
-      <c r="AA75" s="406"/>
-      <c r="AB75" s="406"/>
-      <c r="AC75" s="406"/>
-      <c r="AD75" s="406"/>
-      <c r="AE75" s="406" t="s">
+      <c r="AA75" s="410"/>
+      <c r="AB75" s="410"/>
+      <c r="AC75" s="410"/>
+      <c r="AD75" s="410"/>
+      <c r="AE75" s="410" t="s">
         <v>61</v>
       </c>
-      <c r="AF75" s="406"/>
-      <c r="AG75" s="406"/>
-      <c r="AH75" s="406"/>
+      <c r="AF75" s="410"/>
+      <c r="AG75" s="410"/>
+      <c r="AH75" s="410"/>
       <c r="AN75" s="29"/>
       <c r="AO75" s="29"/>
       <c r="AP75" s="29"/>
@@ -23437,7 +23434,7 @@
       <c r="J83" s="319"/>
       <c r="K83" s="319"/>
       <c r="L83" s="320"/>
-      <c r="M83" s="438" t="s">
+      <c r="M83" s="374" t="s">
         <v>66</v>
       </c>
       <c r="N83" s="319"/>
@@ -23460,12 +23457,12 @@
       <c r="AA83" s="362"/>
       <c r="AB83" s="362"/>
       <c r="AC83" s="363"/>
-      <c r="AD83" s="432" t="s">
+      <c r="AD83" s="435" t="s">
         <v>119</v>
       </c>
-      <c r="AE83" s="433"/>
-      <c r="AF83" s="433"/>
-      <c r="AG83" s="434"/>
+      <c r="AE83" s="436"/>
+      <c r="AF83" s="436"/>
+      <c r="AG83" s="437"/>
       <c r="AJ83" s="126"/>
       <c r="AK83" s="126"/>
       <c r="AL83" s="126"/>
@@ -23520,12 +23517,12 @@
       </c>
       <c r="X84" s="365"/>
       <c r="Y84" s="366"/>
-      <c r="Z84" s="424" t="s">
+      <c r="Z84" s="375" t="s">
         <v>120</v>
       </c>
-      <c r="AA84" s="439"/>
-      <c r="AB84" s="439"/>
-      <c r="AC84" s="440"/>
+      <c r="AA84" s="376"/>
+      <c r="AB84" s="376"/>
+      <c r="AC84" s="377"/>
       <c r="AD84" s="331" t="s">
         <v>109</v>
       </c>
@@ -23707,6 +23704,7 @@
         <v>282</v>
       </c>
     </row>
+    <row r="91" spans="1:57" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="1:57" s="109" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G92" s="184" t="s">
         <v>93</v>
@@ -23752,30 +23750,30 @@
       <c r="K93" s="187"/>
       <c r="L93" s="187"/>
       <c r="M93" s="187"/>
-      <c r="N93" s="400" t="s">
+      <c r="N93" s="404" t="s">
         <v>233</v>
       </c>
-      <c r="O93" s="401"/>
-      <c r="P93" s="401"/>
-      <c r="Q93" s="401"/>
-      <c r="R93" s="401"/>
-      <c r="S93" s="401"/>
-      <c r="T93" s="401"/>
-      <c r="U93" s="401"/>
-      <c r="V93" s="401"/>
-      <c r="W93" s="402"/>
-      <c r="X93" s="400" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y93" s="401"/>
-      <c r="Z93" s="401"/>
-      <c r="AA93" s="401"/>
-      <c r="AB93" s="401"/>
-      <c r="AC93" s="401"/>
-      <c r="AD93" s="401"/>
-      <c r="AE93" s="401"/>
-      <c r="AF93" s="401"/>
-      <c r="AG93" s="402"/>
+      <c r="O93" s="405"/>
+      <c r="P93" s="405"/>
+      <c r="Q93" s="405"/>
+      <c r="R93" s="405"/>
+      <c r="S93" s="405"/>
+      <c r="T93" s="405"/>
+      <c r="U93" s="405"/>
+      <c r="V93" s="405"/>
+      <c r="W93" s="406"/>
+      <c r="X93" s="404" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y93" s="405"/>
+      <c r="Z93" s="405"/>
+      <c r="AA93" s="405"/>
+      <c r="AB93" s="405"/>
+      <c r="AC93" s="405"/>
+      <c r="AD93" s="405"/>
+      <c r="AE93" s="405"/>
+      <c r="AF93" s="405"/>
+      <c r="AG93" s="406"/>
     </row>
     <row r="94" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G94" s="186"/>
@@ -23785,30 +23783,30 @@
       <c r="K94" s="165"/>
       <c r="L94" s="165"/>
       <c r="M94" s="165"/>
-      <c r="N94" s="400" t="s">
+      <c r="N94" s="404" t="s">
         <v>206</v>
       </c>
-      <c r="O94" s="401"/>
-      <c r="P94" s="401"/>
-      <c r="Q94" s="401"/>
-      <c r="R94" s="401"/>
-      <c r="S94" s="401"/>
-      <c r="T94" s="401"/>
-      <c r="U94" s="401"/>
-      <c r="V94" s="401"/>
-      <c r="W94" s="402"/>
-      <c r="X94" s="400" t="s">
+      <c r="O94" s="405"/>
+      <c r="P94" s="405"/>
+      <c r="Q94" s="405"/>
+      <c r="R94" s="405"/>
+      <c r="S94" s="405"/>
+      <c r="T94" s="405"/>
+      <c r="U94" s="405"/>
+      <c r="V94" s="405"/>
+      <c r="W94" s="406"/>
+      <c r="X94" s="404" t="s">
         <v>239</v>
       </c>
-      <c r="Y94" s="401"/>
-      <c r="Z94" s="401"/>
-      <c r="AA94" s="401"/>
-      <c r="AB94" s="401"/>
-      <c r="AC94" s="401"/>
-      <c r="AD94" s="401"/>
-      <c r="AE94" s="401"/>
-      <c r="AF94" s="401"/>
-      <c r="AG94" s="402"/>
+      <c r="Y94" s="405"/>
+      <c r="Z94" s="405"/>
+      <c r="AA94" s="405"/>
+      <c r="AB94" s="405"/>
+      <c r="AC94" s="405"/>
+      <c r="AD94" s="405"/>
+      <c r="AE94" s="405"/>
+      <c r="AF94" s="405"/>
+      <c r="AG94" s="406"/>
     </row>
     <row r="95" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G95" s="186"/>
@@ -23818,30 +23816,30 @@
       <c r="K95" s="165"/>
       <c r="L95" s="165"/>
       <c r="M95" s="165"/>
-      <c r="N95" s="400" t="s">
+      <c r="N95" s="404" t="s">
         <v>235</v>
       </c>
-      <c r="O95" s="401"/>
-      <c r="P95" s="401"/>
-      <c r="Q95" s="401"/>
-      <c r="R95" s="401"/>
-      <c r="S95" s="401"/>
-      <c r="T95" s="401"/>
-      <c r="U95" s="401"/>
-      <c r="V95" s="401"/>
-      <c r="W95" s="402"/>
-      <c r="X95" s="400" t="s">
+      <c r="O95" s="405"/>
+      <c r="P95" s="405"/>
+      <c r="Q95" s="405"/>
+      <c r="R95" s="405"/>
+      <c r="S95" s="405"/>
+      <c r="T95" s="405"/>
+      <c r="U95" s="405"/>
+      <c r="V95" s="405"/>
+      <c r="W95" s="406"/>
+      <c r="X95" s="404" t="s">
         <v>240</v>
       </c>
-      <c r="Y95" s="401"/>
-      <c r="Z95" s="401"/>
-      <c r="AA95" s="401"/>
-      <c r="AB95" s="401"/>
-      <c r="AC95" s="401"/>
-      <c r="AD95" s="401"/>
-      <c r="AE95" s="401"/>
-      <c r="AF95" s="401"/>
-      <c r="AG95" s="402"/>
+      <c r="Y95" s="405"/>
+      <c r="Z95" s="405"/>
+      <c r="AA95" s="405"/>
+      <c r="AB95" s="405"/>
+      <c r="AC95" s="405"/>
+      <c r="AD95" s="405"/>
+      <c r="AE95" s="405"/>
+      <c r="AF95" s="405"/>
+      <c r="AG95" s="406"/>
     </row>
     <row r="96" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G96" s="186"/>
@@ -23851,30 +23849,30 @@
       <c r="K96" s="165"/>
       <c r="L96" s="165"/>
       <c r="M96" s="165"/>
-      <c r="N96" s="400" t="s">
+      <c r="N96" s="404" t="s">
         <v>234</v>
       </c>
-      <c r="O96" s="401"/>
-      <c r="P96" s="401"/>
-      <c r="Q96" s="401"/>
-      <c r="R96" s="401"/>
-      <c r="S96" s="401"/>
-      <c r="T96" s="401"/>
-      <c r="U96" s="401"/>
-      <c r="V96" s="401"/>
-      <c r="W96" s="402"/>
-      <c r="X96" s="400" t="s">
+      <c r="O96" s="405"/>
+      <c r="P96" s="405"/>
+      <c r="Q96" s="405"/>
+      <c r="R96" s="405"/>
+      <c r="S96" s="405"/>
+      <c r="T96" s="405"/>
+      <c r="U96" s="405"/>
+      <c r="V96" s="405"/>
+      <c r="W96" s="406"/>
+      <c r="X96" s="404" t="s">
         <v>163</v>
       </c>
-      <c r="Y96" s="401"/>
-      <c r="Z96" s="401"/>
-      <c r="AA96" s="401"/>
-      <c r="AB96" s="401"/>
-      <c r="AC96" s="401"/>
-      <c r="AD96" s="401"/>
-      <c r="AE96" s="401"/>
-      <c r="AF96" s="401"/>
-      <c r="AG96" s="402"/>
+      <c r="Y96" s="405"/>
+      <c r="Z96" s="405"/>
+      <c r="AA96" s="405"/>
+      <c r="AB96" s="405"/>
+      <c r="AC96" s="405"/>
+      <c r="AD96" s="405"/>
+      <c r="AE96" s="405"/>
+      <c r="AF96" s="405"/>
+      <c r="AG96" s="406"/>
     </row>
     <row r="97" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G97" s="186"/>
@@ -23884,30 +23882,30 @@
       <c r="K97" s="165"/>
       <c r="L97" s="165"/>
       <c r="M97" s="165"/>
-      <c r="N97" s="400" t="s">
+      <c r="N97" s="404" t="s">
         <v>237</v>
       </c>
-      <c r="O97" s="401"/>
-      <c r="P97" s="401"/>
-      <c r="Q97" s="401"/>
-      <c r="R97" s="401"/>
-      <c r="S97" s="401"/>
-      <c r="T97" s="401"/>
-      <c r="U97" s="401"/>
-      <c r="V97" s="401"/>
-      <c r="W97" s="402"/>
-      <c r="X97" s="400" t="s">
+      <c r="O97" s="405"/>
+      <c r="P97" s="405"/>
+      <c r="Q97" s="405"/>
+      <c r="R97" s="405"/>
+      <c r="S97" s="405"/>
+      <c r="T97" s="405"/>
+      <c r="U97" s="405"/>
+      <c r="V97" s="405"/>
+      <c r="W97" s="406"/>
+      <c r="X97" s="404" t="s">
         <v>237</v>
       </c>
-      <c r="Y97" s="401"/>
-      <c r="Z97" s="401"/>
-      <c r="AA97" s="401"/>
-      <c r="AB97" s="401"/>
-      <c r="AC97" s="401"/>
-      <c r="AD97" s="401"/>
-      <c r="AE97" s="401"/>
-      <c r="AF97" s="401"/>
-      <c r="AG97" s="402"/>
+      <c r="Y97" s="405"/>
+      <c r="Z97" s="405"/>
+      <c r="AA97" s="405"/>
+      <c r="AB97" s="405"/>
+      <c r="AC97" s="405"/>
+      <c r="AD97" s="405"/>
+      <c r="AE97" s="405"/>
+      <c r="AF97" s="405"/>
+      <c r="AG97" s="406"/>
     </row>
     <row r="98" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G98" s="186"/>
@@ -23917,30 +23915,30 @@
       <c r="K98" s="165"/>
       <c r="L98" s="165"/>
       <c r="M98" s="165"/>
-      <c r="N98" s="400" t="s">
+      <c r="N98" s="404" t="s">
         <v>328</v>
       </c>
-      <c r="O98" s="401"/>
-      <c r="P98" s="401"/>
-      <c r="Q98" s="401"/>
-      <c r="R98" s="401"/>
-      <c r="S98" s="401"/>
-      <c r="T98" s="401"/>
-      <c r="U98" s="401"/>
-      <c r="V98" s="401"/>
-      <c r="W98" s="402"/>
-      <c r="X98" s="400" t="s">
+      <c r="O98" s="405"/>
+      <c r="P98" s="405"/>
+      <c r="Q98" s="405"/>
+      <c r="R98" s="405"/>
+      <c r="S98" s="405"/>
+      <c r="T98" s="405"/>
+      <c r="U98" s="405"/>
+      <c r="V98" s="405"/>
+      <c r="W98" s="406"/>
+      <c r="X98" s="404" t="s">
         <v>329</v>
       </c>
-      <c r="Y98" s="401"/>
-      <c r="Z98" s="401"/>
-      <c r="AA98" s="401"/>
-      <c r="AB98" s="401"/>
-      <c r="AC98" s="401"/>
-      <c r="AD98" s="401"/>
-      <c r="AE98" s="401"/>
-      <c r="AF98" s="401"/>
-      <c r="AG98" s="402"/>
+      <c r="Y98" s="405"/>
+      <c r="Z98" s="405"/>
+      <c r="AA98" s="405"/>
+      <c r="AB98" s="405"/>
+      <c r="AC98" s="405"/>
+      <c r="AD98" s="405"/>
+      <c r="AE98" s="405"/>
+      <c r="AF98" s="405"/>
+      <c r="AG98" s="406"/>
     </row>
     <row r="99" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G99" s="186"/>
@@ -23950,30 +23948,30 @@
       <c r="K99" s="165"/>
       <c r="L99" s="165"/>
       <c r="M99" s="165"/>
-      <c r="N99" s="400" t="s">
+      <c r="N99" s="404" t="s">
         <v>236</v>
       </c>
-      <c r="O99" s="401"/>
-      <c r="P99" s="401"/>
-      <c r="Q99" s="401"/>
-      <c r="R99" s="401"/>
-      <c r="S99" s="401"/>
-      <c r="T99" s="401"/>
-      <c r="U99" s="401"/>
-      <c r="V99" s="401"/>
-      <c r="W99" s="402"/>
-      <c r="X99" s="400" t="s">
+      <c r="O99" s="405"/>
+      <c r="P99" s="405"/>
+      <c r="Q99" s="405"/>
+      <c r="R99" s="405"/>
+      <c r="S99" s="405"/>
+      <c r="T99" s="405"/>
+      <c r="U99" s="405"/>
+      <c r="V99" s="405"/>
+      <c r="W99" s="406"/>
+      <c r="X99" s="404" t="s">
         <v>241</v>
       </c>
-      <c r="Y99" s="401"/>
-      <c r="Z99" s="401"/>
-      <c r="AA99" s="401"/>
-      <c r="AB99" s="401"/>
-      <c r="AC99" s="401"/>
-      <c r="AD99" s="401"/>
-      <c r="AE99" s="401"/>
-      <c r="AF99" s="401"/>
-      <c r="AG99" s="402"/>
+      <c r="Y99" s="405"/>
+      <c r="Z99" s="405"/>
+      <c r="AA99" s="405"/>
+      <c r="AB99" s="405"/>
+      <c r="AC99" s="405"/>
+      <c r="AD99" s="405"/>
+      <c r="AE99" s="405"/>
+      <c r="AF99" s="405"/>
+      <c r="AG99" s="406"/>
     </row>
     <row r="100" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G100" s="186"/>
@@ -23983,30 +23981,30 @@
       <c r="K100" s="165"/>
       <c r="L100" s="165"/>
       <c r="M100" s="165"/>
-      <c r="N100" s="400" t="s">
+      <c r="N100" s="404" t="s">
         <v>327</v>
       </c>
-      <c r="O100" s="401"/>
-      <c r="P100" s="401"/>
-      <c r="Q100" s="401"/>
-      <c r="R100" s="401"/>
-      <c r="S100" s="401"/>
-      <c r="T100" s="401"/>
-      <c r="U100" s="401"/>
-      <c r="V100" s="401"/>
-      <c r="W100" s="402"/>
-      <c r="X100" s="400" t="s">
+      <c r="O100" s="405"/>
+      <c r="P100" s="405"/>
+      <c r="Q100" s="405"/>
+      <c r="R100" s="405"/>
+      <c r="S100" s="405"/>
+      <c r="T100" s="405"/>
+      <c r="U100" s="405"/>
+      <c r="V100" s="405"/>
+      <c r="W100" s="406"/>
+      <c r="X100" s="404" t="s">
         <v>321</v>
       </c>
-      <c r="Y100" s="401"/>
-      <c r="Z100" s="401"/>
-      <c r="AA100" s="401"/>
-      <c r="AB100" s="401"/>
-      <c r="AC100" s="401"/>
-      <c r="AD100" s="401"/>
-      <c r="AE100" s="401"/>
-      <c r="AF100" s="401"/>
-      <c r="AG100" s="402"/>
+      <c r="Y100" s="405"/>
+      <c r="Z100" s="405"/>
+      <c r="AA100" s="405"/>
+      <c r="AB100" s="405"/>
+      <c r="AC100" s="405"/>
+      <c r="AD100" s="405"/>
+      <c r="AE100" s="405"/>
+      <c r="AF100" s="405"/>
+      <c r="AG100" s="406"/>
     </row>
     <row r="101" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G101" s="186"/>
@@ -24016,30 +24014,30 @@
       <c r="K101" s="165"/>
       <c r="L101" s="165"/>
       <c r="M101" s="165"/>
-      <c r="N101" s="400" t="s">
+      <c r="N101" s="404" t="s">
         <v>207</v>
       </c>
-      <c r="O101" s="401"/>
-      <c r="P101" s="401"/>
-      <c r="Q101" s="401"/>
-      <c r="R101" s="401"/>
-      <c r="S101" s="401"/>
-      <c r="T101" s="401"/>
-      <c r="U101" s="401"/>
-      <c r="V101" s="401"/>
-      <c r="W101" s="402"/>
-      <c r="X101" s="400" t="s">
+      <c r="O101" s="405"/>
+      <c r="P101" s="405"/>
+      <c r="Q101" s="405"/>
+      <c r="R101" s="405"/>
+      <c r="S101" s="405"/>
+      <c r="T101" s="405"/>
+      <c r="U101" s="405"/>
+      <c r="V101" s="405"/>
+      <c r="W101" s="406"/>
+      <c r="X101" s="404" t="s">
         <v>243</v>
       </c>
-      <c r="Y101" s="401"/>
-      <c r="Z101" s="401"/>
-      <c r="AA101" s="401"/>
-      <c r="AB101" s="401"/>
-      <c r="AC101" s="401"/>
-      <c r="AD101" s="401"/>
-      <c r="AE101" s="401"/>
-      <c r="AF101" s="401"/>
-      <c r="AG101" s="402"/>
+      <c r="Y101" s="405"/>
+      <c r="Z101" s="405"/>
+      <c r="AA101" s="405"/>
+      <c r="AB101" s="405"/>
+      <c r="AC101" s="405"/>
+      <c r="AD101" s="405"/>
+      <c r="AE101" s="405"/>
+      <c r="AF101" s="405"/>
+      <c r="AG101" s="406"/>
     </row>
     <row r="102" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G102" s="186"/>
@@ -24049,30 +24047,30 @@
       <c r="K102" s="165"/>
       <c r="L102" s="165"/>
       <c r="M102" s="165"/>
-      <c r="N102" s="400" t="s">
+      <c r="N102" s="404" t="s">
         <v>208</v>
       </c>
-      <c r="O102" s="401"/>
-      <c r="P102" s="401"/>
-      <c r="Q102" s="401"/>
-      <c r="R102" s="401"/>
-      <c r="S102" s="401"/>
-      <c r="T102" s="401"/>
-      <c r="U102" s="401"/>
-      <c r="V102" s="401"/>
-      <c r="W102" s="402"/>
-      <c r="X102" s="400" t="s">
+      <c r="O102" s="405"/>
+      <c r="P102" s="405"/>
+      <c r="Q102" s="405"/>
+      <c r="R102" s="405"/>
+      <c r="S102" s="405"/>
+      <c r="T102" s="405"/>
+      <c r="U102" s="405"/>
+      <c r="V102" s="405"/>
+      <c r="W102" s="406"/>
+      <c r="X102" s="404" t="s">
         <v>244</v>
       </c>
-      <c r="Y102" s="401"/>
-      <c r="Z102" s="401"/>
-      <c r="AA102" s="401"/>
-      <c r="AB102" s="401"/>
-      <c r="AC102" s="401"/>
-      <c r="AD102" s="401"/>
-      <c r="AE102" s="401"/>
-      <c r="AF102" s="401"/>
-      <c r="AG102" s="402"/>
+      <c r="Y102" s="405"/>
+      <c r="Z102" s="405"/>
+      <c r="AA102" s="405"/>
+      <c r="AB102" s="405"/>
+      <c r="AC102" s="405"/>
+      <c r="AD102" s="405"/>
+      <c r="AE102" s="405"/>
+      <c r="AF102" s="405"/>
+      <c r="AG102" s="406"/>
     </row>
     <row r="103" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G103" s="188"/>
@@ -24082,30 +24080,30 @@
       <c r="K103" s="189"/>
       <c r="L103" s="189"/>
       <c r="M103" s="189"/>
-      <c r="N103" s="400" t="s">
+      <c r="N103" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="O103" s="401"/>
-      <c r="P103" s="401"/>
-      <c r="Q103" s="401"/>
-      <c r="R103" s="401"/>
-      <c r="S103" s="401"/>
-      <c r="T103" s="401"/>
-      <c r="U103" s="401"/>
-      <c r="V103" s="401"/>
-      <c r="W103" s="402"/>
-      <c r="X103" s="400" t="s">
+      <c r="O103" s="405"/>
+      <c r="P103" s="405"/>
+      <c r="Q103" s="405"/>
+      <c r="R103" s="405"/>
+      <c r="S103" s="405"/>
+      <c r="T103" s="405"/>
+      <c r="U103" s="405"/>
+      <c r="V103" s="405"/>
+      <c r="W103" s="406"/>
+      <c r="X103" s="404" t="s">
         <v>20</v>
       </c>
-      <c r="Y103" s="401"/>
-      <c r="Z103" s="401"/>
-      <c r="AA103" s="401"/>
-      <c r="AB103" s="401"/>
-      <c r="AC103" s="401"/>
-      <c r="AD103" s="401"/>
-      <c r="AE103" s="401"/>
-      <c r="AF103" s="401"/>
-      <c r="AG103" s="402"/>
+      <c r="Y103" s="405"/>
+      <c r="Z103" s="405"/>
+      <c r="AA103" s="405"/>
+      <c r="AB103" s="405"/>
+      <c r="AC103" s="405"/>
+      <c r="AD103" s="405"/>
+      <c r="AE103" s="405"/>
+      <c r="AF103" s="405"/>
+      <c r="AG103" s="406"/>
     </row>
     <row r="104" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G104" s="239" t="s">
@@ -24117,30 +24115,30 @@
       <c r="K104" s="240"/>
       <c r="L104" s="240"/>
       <c r="M104" s="241"/>
-      <c r="N104" s="400" t="s">
+      <c r="N104" s="404" t="s">
         <v>147</v>
       </c>
-      <c r="O104" s="401"/>
-      <c r="P104" s="401"/>
-      <c r="Q104" s="401"/>
-      <c r="R104" s="401"/>
-      <c r="S104" s="401"/>
-      <c r="T104" s="401"/>
-      <c r="U104" s="401"/>
-      <c r="V104" s="401"/>
-      <c r="W104" s="402"/>
-      <c r="X104" s="400" t="s">
+      <c r="O104" s="405"/>
+      <c r="P104" s="405"/>
+      <c r="Q104" s="405"/>
+      <c r="R104" s="405"/>
+      <c r="S104" s="405"/>
+      <c r="T104" s="405"/>
+      <c r="U104" s="405"/>
+      <c r="V104" s="405"/>
+      <c r="W104" s="406"/>
+      <c r="X104" s="404" t="s">
         <v>245</v>
       </c>
-      <c r="Y104" s="401"/>
-      <c r="Z104" s="401"/>
-      <c r="AA104" s="401"/>
-      <c r="AB104" s="401"/>
-      <c r="AC104" s="401"/>
-      <c r="AD104" s="401"/>
-      <c r="AE104" s="401"/>
-      <c r="AF104" s="401"/>
-      <c r="AG104" s="402"/>
+      <c r="Y104" s="405"/>
+      <c r="Z104" s="405"/>
+      <c r="AA104" s="405"/>
+      <c r="AB104" s="405"/>
+      <c r="AC104" s="405"/>
+      <c r="AD104" s="405"/>
+      <c r="AE104" s="405"/>
+      <c r="AF104" s="405"/>
+      <c r="AG104" s="406"/>
     </row>
     <row r="105" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G105" s="239" t="s">
@@ -24191,32 +24189,32 @@
       <c r="G106" s="445" t="s">
         <v>246</v>
       </c>
-      <c r="H106" s="436"/>
-      <c r="I106" s="436"/>
-      <c r="J106" s="436"/>
-      <c r="K106" s="436"/>
-      <c r="L106" s="436"/>
-      <c r="M106" s="436"/>
-      <c r="N106" s="436"/>
-      <c r="O106" s="436"/>
-      <c r="P106" s="436"/>
-      <c r="Q106" s="436"/>
-      <c r="R106" s="436"/>
-      <c r="S106" s="436"/>
-      <c r="T106" s="436"/>
-      <c r="U106" s="436"/>
-      <c r="V106" s="436"/>
-      <c r="W106" s="436"/>
-      <c r="X106" s="436"/>
-      <c r="Y106" s="436"/>
-      <c r="Z106" s="436"/>
-      <c r="AA106" s="436"/>
-      <c r="AB106" s="436"/>
-      <c r="AC106" s="436"/>
-      <c r="AD106" s="436"/>
-      <c r="AE106" s="436"/>
-      <c r="AF106" s="436"/>
-      <c r="AG106" s="437"/>
+      <c r="H106" s="439"/>
+      <c r="I106" s="439"/>
+      <c r="J106" s="439"/>
+      <c r="K106" s="439"/>
+      <c r="L106" s="439"/>
+      <c r="M106" s="439"/>
+      <c r="N106" s="439"/>
+      <c r="O106" s="439"/>
+      <c r="P106" s="439"/>
+      <c r="Q106" s="439"/>
+      <c r="R106" s="439"/>
+      <c r="S106" s="439"/>
+      <c r="T106" s="439"/>
+      <c r="U106" s="439"/>
+      <c r="V106" s="439"/>
+      <c r="W106" s="439"/>
+      <c r="X106" s="439"/>
+      <c r="Y106" s="439"/>
+      <c r="Z106" s="439"/>
+      <c r="AA106" s="439"/>
+      <c r="AB106" s="439"/>
+      <c r="AC106" s="439"/>
+      <c r="AD106" s="439"/>
+      <c r="AE106" s="439"/>
+      <c r="AF106" s="439"/>
+      <c r="AG106" s="440"/>
       <c r="AJ106" s="111"/>
       <c r="AK106" s="111"/>
       <c r="AL106" s="111"/>
@@ -24724,35 +24722,35 @@
       <c r="BF115" s="111"/>
     </row>
     <row r="116" spans="6:58" x14ac:dyDescent="0.15">
-      <c r="G116" s="435" t="s">
+      <c r="G116" s="438" t="s">
         <v>95</v>
       </c>
-      <c r="H116" s="436"/>
-      <c r="I116" s="436"/>
-      <c r="J116" s="436"/>
-      <c r="K116" s="436"/>
-      <c r="L116" s="436"/>
-      <c r="M116" s="436"/>
-      <c r="N116" s="436"/>
-      <c r="O116" s="436"/>
-      <c r="P116" s="436"/>
-      <c r="Q116" s="436"/>
-      <c r="R116" s="436"/>
-      <c r="S116" s="436"/>
-      <c r="T116" s="436"/>
-      <c r="U116" s="436"/>
-      <c r="V116" s="436"/>
-      <c r="W116" s="436"/>
-      <c r="X116" s="436"/>
-      <c r="Y116" s="436"/>
-      <c r="Z116" s="436"/>
-      <c r="AA116" s="436"/>
-      <c r="AB116" s="436"/>
-      <c r="AC116" s="436"/>
-      <c r="AD116" s="436"/>
-      <c r="AE116" s="436"/>
-      <c r="AF116" s="436"/>
-      <c r="AG116" s="437"/>
+      <c r="H116" s="439"/>
+      <c r="I116" s="439"/>
+      <c r="J116" s="439"/>
+      <c r="K116" s="439"/>
+      <c r="L116" s="439"/>
+      <c r="M116" s="439"/>
+      <c r="N116" s="439"/>
+      <c r="O116" s="439"/>
+      <c r="P116" s="439"/>
+      <c r="Q116" s="439"/>
+      <c r="R116" s="439"/>
+      <c r="S116" s="439"/>
+      <c r="T116" s="439"/>
+      <c r="U116" s="439"/>
+      <c r="V116" s="439"/>
+      <c r="W116" s="439"/>
+      <c r="X116" s="439"/>
+      <c r="Y116" s="439"/>
+      <c r="Z116" s="439"/>
+      <c r="AA116" s="439"/>
+      <c r="AB116" s="439"/>
+      <c r="AC116" s="439"/>
+      <c r="AD116" s="439"/>
+      <c r="AE116" s="439"/>
+      <c r="AF116" s="439"/>
+      <c r="AG116" s="440"/>
       <c r="AJ116" s="111"/>
       <c r="AK116" s="111"/>
       <c r="AL116" s="111"/>
@@ -25053,7 +25051,7 @@
     </row>
     <row r="123" spans="6:58" x14ac:dyDescent="0.15">
       <c r="F123" s="104" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G123" s="116"/>
       <c r="H123" s="116"/>
@@ -25182,7 +25180,7 @@
     </row>
     <row r="126" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H126" s="187"/>
       <c r="I126" s="187"/>
@@ -25190,61 +25188,61 @@
       <c r="K126" s="187"/>
       <c r="L126" s="187"/>
       <c r="M126" s="187"/>
-      <c r="N126" s="400" t="s">
-        <v>391</v>
-      </c>
-      <c r="O126" s="401"/>
-      <c r="P126" s="401"/>
-      <c r="Q126" s="401"/>
-      <c r="R126" s="401"/>
-      <c r="S126" s="401"/>
-      <c r="T126" s="401"/>
-      <c r="U126" s="401"/>
-      <c r="V126" s="401"/>
-      <c r="W126" s="402"/>
-      <c r="X126" s="400" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y126" s="401"/>
-      <c r="Z126" s="401"/>
-      <c r="AA126" s="401"/>
-      <c r="AB126" s="401"/>
-      <c r="AC126" s="401"/>
-      <c r="AD126" s="401"/>
-      <c r="AE126" s="401"/>
-      <c r="AF126" s="401"/>
-      <c r="AG126" s="402"/>
+      <c r="N126" s="404" t="s">
+        <v>390</v>
+      </c>
+      <c r="O126" s="405"/>
+      <c r="P126" s="405"/>
+      <c r="Q126" s="405"/>
+      <c r="R126" s="405"/>
+      <c r="S126" s="405"/>
+      <c r="T126" s="405"/>
+      <c r="U126" s="405"/>
+      <c r="V126" s="405"/>
+      <c r="W126" s="406"/>
+      <c r="X126" s="404" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y126" s="405"/>
+      <c r="Z126" s="405"/>
+      <c r="AA126" s="405"/>
+      <c r="AB126" s="405"/>
+      <c r="AC126" s="405"/>
+      <c r="AD126" s="405"/>
+      <c r="AE126" s="405"/>
+      <c r="AF126" s="405"/>
+      <c r="AG126" s="406"/>
     </row>
     <row r="127" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G127" s="445" t="s">
         <v>246</v>
       </c>
-      <c r="H127" s="436"/>
-      <c r="I127" s="436"/>
-      <c r="J127" s="436"/>
-      <c r="K127" s="436"/>
-      <c r="L127" s="436"/>
-      <c r="M127" s="436"/>
-      <c r="N127" s="436"/>
-      <c r="O127" s="436"/>
-      <c r="P127" s="436"/>
-      <c r="Q127" s="436"/>
-      <c r="R127" s="436"/>
-      <c r="S127" s="436"/>
-      <c r="T127" s="436"/>
-      <c r="U127" s="436"/>
-      <c r="V127" s="436"/>
-      <c r="W127" s="436"/>
-      <c r="X127" s="436"/>
-      <c r="Y127" s="436"/>
-      <c r="Z127" s="436"/>
-      <c r="AA127" s="436"/>
-      <c r="AB127" s="436"/>
-      <c r="AC127" s="436"/>
-      <c r="AD127" s="436"/>
-      <c r="AE127" s="436"/>
-      <c r="AF127" s="436"/>
-      <c r="AG127" s="437"/>
+      <c r="H127" s="439"/>
+      <c r="I127" s="439"/>
+      <c r="J127" s="439"/>
+      <c r="K127" s="439"/>
+      <c r="L127" s="439"/>
+      <c r="M127" s="439"/>
+      <c r="N127" s="439"/>
+      <c r="O127" s="439"/>
+      <c r="P127" s="439"/>
+      <c r="Q127" s="439"/>
+      <c r="R127" s="439"/>
+      <c r="S127" s="439"/>
+      <c r="T127" s="439"/>
+      <c r="U127" s="439"/>
+      <c r="V127" s="439"/>
+      <c r="W127" s="439"/>
+      <c r="X127" s="439"/>
+      <c r="Y127" s="439"/>
+      <c r="Z127" s="439"/>
+      <c r="AA127" s="439"/>
+      <c r="AB127" s="439"/>
+      <c r="AC127" s="439"/>
+      <c r="AD127" s="439"/>
+      <c r="AE127" s="439"/>
+      <c r="AF127" s="439"/>
+      <c r="AG127" s="440"/>
       <c r="AJ127" s="111"/>
       <c r="AK127" s="111"/>
       <c r="AL127" s="111"/>
@@ -25325,12 +25323,12 @@
       <c r="G129" s="115"/>
       <c r="H129" s="173"/>
       <c r="I129" s="173" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J129" s="116"/>
       <c r="K129" s="116"/>
       <c r="R129" s="173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S129" s="116"/>
       <c r="T129" s="116"/>
@@ -25422,10 +25420,10 @@
     <row r="131" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G131" s="115"/>
       <c r="H131" s="173" t="s">
+        <v>393</v>
+      </c>
+      <c r="I131" s="173" t="s">
         <v>394</v>
-      </c>
-      <c r="I131" s="173" t="s">
-        <v>395</v>
       </c>
       <c r="J131" s="117"/>
       <c r="K131" s="116"/>
@@ -25436,12 +25434,12 @@
       <c r="P131" s="173"/>
       <c r="Q131" s="116"/>
       <c r="R131" s="173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S131" s="116"/>
       <c r="T131" s="116"/>
       <c r="U131" s="173" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V131" s="118"/>
       <c r="W131" s="116"/>
@@ -25585,7 +25583,7 @@
     </row>
     <row r="134" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G134" s="173" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H134" s="116"/>
       <c r="I134" s="116"/>
@@ -25997,7 +25995,7 @@
     <row r="145" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E145" s="130"/>
       <c r="F145" s="71" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G145" s="167"/>
       <c r="H145" s="167"/>
@@ -26067,7 +26065,7 @@
     <row r="147" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F147" s="130"/>
       <c r="G147" s="71" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H147" s="167"/>
       <c r="I147" s="167"/>
@@ -26261,6 +26259,20 @@
     <mergeCell ref="R75:Y75"/>
     <mergeCell ref="Z75:AD75"/>
     <mergeCell ref="AE75:AH75"/>
+    <mergeCell ref="N92:W92"/>
+    <mergeCell ref="X92:AG92"/>
+    <mergeCell ref="N93:W93"/>
+    <mergeCell ref="X93:AG93"/>
+    <mergeCell ref="N94:W94"/>
+    <mergeCell ref="X94:AG94"/>
+    <mergeCell ref="N96:W96"/>
+    <mergeCell ref="X96:AG96"/>
+    <mergeCell ref="N95:W95"/>
+    <mergeCell ref="X95:AG95"/>
+    <mergeCell ref="N97:W97"/>
+    <mergeCell ref="X97:AG97"/>
+    <mergeCell ref="N101:W101"/>
+    <mergeCell ref="X101:AG101"/>
     <mergeCell ref="R74:Y74"/>
     <mergeCell ref="E74:J74"/>
     <mergeCell ref="K74:Q74"/>
@@ -26410,20 +26422,15 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="N92:W92"/>
-    <mergeCell ref="X92:AG92"/>
-    <mergeCell ref="N93:W93"/>
-    <mergeCell ref="X93:AG93"/>
-    <mergeCell ref="N94:W94"/>
-    <mergeCell ref="X94:AG94"/>
-    <mergeCell ref="N96:W96"/>
-    <mergeCell ref="X96:AG96"/>
-    <mergeCell ref="N95:W95"/>
-    <mergeCell ref="X95:AG95"/>
-    <mergeCell ref="N97:W97"/>
-    <mergeCell ref="X97:AG97"/>
-    <mergeCell ref="N101:W101"/>
-    <mergeCell ref="X101:AG101"/>
+    <mergeCell ref="G116:AG116"/>
+    <mergeCell ref="N102:W102"/>
+    <mergeCell ref="X102:AG102"/>
+    <mergeCell ref="N98:W98"/>
+    <mergeCell ref="X98:AG98"/>
+    <mergeCell ref="N99:W99"/>
+    <mergeCell ref="X99:AG99"/>
+    <mergeCell ref="N100:W100"/>
+    <mergeCell ref="X100:AG100"/>
     <mergeCell ref="N103:W103"/>
     <mergeCell ref="X103:AG103"/>
     <mergeCell ref="G104:M104"/>
@@ -26433,15 +26440,6 @@
     <mergeCell ref="N105:W105"/>
     <mergeCell ref="X105:AG105"/>
     <mergeCell ref="G106:AG106"/>
-    <mergeCell ref="G116:AG116"/>
-    <mergeCell ref="N102:W102"/>
-    <mergeCell ref="X102:AG102"/>
-    <mergeCell ref="N98:W98"/>
-    <mergeCell ref="X98:AG98"/>
-    <mergeCell ref="N99:W99"/>
-    <mergeCell ref="X99:AG99"/>
-    <mergeCell ref="N100:W100"/>
-    <mergeCell ref="X100:AG100"/>
     <mergeCell ref="G83:L83"/>
     <mergeCell ref="M83:V83"/>
     <mergeCell ref="W83:Y83"/>
@@ -26576,7 +26574,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" s="211" t="s">
         <v>115</v>
@@ -26587,7 +26585,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>74</v>
@@ -26595,7 +26593,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>75</v>
@@ -26613,27 +26611,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F0BC7-0AED-4E20-889D-524F1BA70BA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A433C-FCE7-44BE-8FE2-74DE9A9499CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="404">
   <si>
     <t>PJ名</t>
   </si>
@@ -2142,23 +2142,6 @@
   </si>
   <si>
     <t>validator.priceRange.message</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>{0}：売上高_実績_TO
-{1}：売上高_実績_FROM</t>
-    <rPh sb="4" eb="7">
-      <t>ウリアゲダカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ウリアゲダカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジッセキ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -3847,46 +3830,46 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>(c)ユーザがメンバの場合、身が参加しているプロジェクトか確認し、「更新」ボタンの表示制御を判断する。</t>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
+    <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>validator.dateRange.message</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>(c)ユーザがメンバの場合、自身が参加しているプロジェクトか確認し、「更新」ボタンの表示制御を判断する。</t>
+    <rPh sb="14" eb="16">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="40" eb="45">
+    <rPh sb="41" eb="46">
       <t>ヒョウジセイギョヨウ</t>
     </rPh>
-    <rPh sb="46" eb="48">
+    <rPh sb="47" eb="49">
       <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>プロジェクトマネージャ以外かつ、上記データが存在しない場合は、「更新」ボタンを非表示とする。</t>
+    <t>ユーザがメンバかつ、上記データが存在しない場合は、「更新」ボタンを非表示とする。</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキ</t>
+    </rPh>
     <rPh sb="16" eb="18">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
       <t>ソンザイ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="29" eb="33">
+    <rPh sb="23" eb="27">
       <t>リヨウフカ</t>
     </rPh>
-    <rPh sb="39" eb="42">
+    <rPh sb="33" eb="36">
       <t>ヒヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>com.nablarch.example.app.entity.core.validation.validator.DateRelationUtil.message</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -7957,7 +7940,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="J23" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L23" s="19"/>
     </row>
@@ -8632,7 +8615,7 @@
       <c r="Q1" s="219"/>
       <c r="R1" s="220"/>
       <c r="S1" s="272" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T1" s="273"/>
       <c r="U1" s="273"/>
@@ -9008,12 +8991,12 @@
       <c r="E9" s="238"/>
       <c r="F9" s="239"/>
       <c r="G9" s="240" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H9" s="241"/>
       <c r="I9" s="242"/>
       <c r="J9" s="232" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K9" s="233"/>
       <c r="L9" s="233"/>
@@ -9022,7 +9005,7 @@
       <c r="O9" s="233"/>
       <c r="P9" s="234"/>
       <c r="Q9" s="229" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R9" s="230"/>
       <c r="S9" s="230"/>
@@ -9039,7 +9022,7 @@
       <c r="AD9" s="230"/>
       <c r="AE9" s="231"/>
       <c r="AF9" s="232" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG9" s="233"/>
       <c r="AH9" s="233"/>
@@ -9059,12 +9042,12 @@
       <c r="E10" s="238"/>
       <c r="F10" s="239"/>
       <c r="G10" s="240" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H10" s="241"/>
       <c r="I10" s="242"/>
       <c r="J10" s="229" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K10" s="233"/>
       <c r="L10" s="233"/>
@@ -9073,7 +9056,7 @@
       <c r="O10" s="233"/>
       <c r="P10" s="234"/>
       <c r="Q10" s="229" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R10" s="230"/>
       <c r="S10" s="230"/>
@@ -9090,7 +9073,7 @@
       <c r="AD10" s="230"/>
       <c r="AE10" s="231"/>
       <c r="AF10" s="232" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG10" s="233"/>
       <c r="AH10" s="233"/>
@@ -11005,7 +10988,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="31"/>
@@ -11045,7 +11028,7 @@
       <c r="A19" s="31"/>
       <c r="B19" s="53"/>
       <c r="C19" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="53"/>
@@ -11084,7 +11067,7 @@
       <c r="A20" s="31"/>
       <c r="B20" s="53"/>
       <c r="C20" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" s="62"/>
       <c r="J20" s="53"/>
@@ -11118,7 +11101,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="62"/>
       <c r="C21" s="104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -11157,7 +11140,7 @@
       <c r="A22" s="31"/>
       <c r="B22" s="41"/>
       <c r="C22" s="104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -11196,7 +11179,7 @@
       <c r="A23" s="31"/>
       <c r="B23" s="41"/>
       <c r="C23" s="104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H23" s="53"/>
       <c r="I23" s="58"/>
@@ -11231,7 +11214,7 @@
       <c r="A24" s="31"/>
       <c r="B24" s="58"/>
       <c r="C24" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -11909,7 +11892,7 @@
       <c r="E9" s="309"/>
       <c r="F9" s="310"/>
       <c r="G9" s="232" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="305"/>
       <c r="I9" s="305"/>
@@ -11947,7 +11930,7 @@
       <c r="E10" s="296"/>
       <c r="F10" s="297"/>
       <c r="G10" s="169" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -12017,7 +12000,7 @@
       <c r="E12" s="299"/>
       <c r="F12" s="300"/>
       <c r="G12" s="171" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -12872,7 +12855,7 @@
       <c r="S63" s="348"/>
       <c r="T63" s="349"/>
       <c r="U63" s="229" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V63" s="369"/>
       <c r="W63" s="369"/>
@@ -12941,7 +12924,7 @@
       <c r="S64" s="348"/>
       <c r="T64" s="349"/>
       <c r="U64" s="229" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V64" s="369"/>
       <c r="W64" s="369"/>
@@ -13010,7 +12993,7 @@
       <c r="S65" s="348"/>
       <c r="T65" s="349"/>
       <c r="U65" s="229" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V65" s="369"/>
       <c r="W65" s="369"/>
@@ -13082,7 +13065,7 @@
       <c r="S66" s="348"/>
       <c r="T66" s="349"/>
       <c r="U66" s="229" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V66" s="369"/>
       <c r="W66" s="369"/>
@@ -13169,7 +13152,7 @@
         <v>82</v>
       </c>
       <c r="AD67" s="229" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE67" s="369"/>
       <c r="AF67" s="369"/>
@@ -13234,7 +13217,7 @@
         <v>82</v>
       </c>
       <c r="AD68" s="229" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AE68" s="369"/>
       <c r="AF68" s="369"/>
@@ -13262,13 +13245,13 @@
         <v>7</v>
       </c>
       <c r="E69" s="229" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="369"/>
       <c r="G69" s="369"/>
       <c r="H69" s="370"/>
       <c r="I69" s="398" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J69" s="398"/>
       <c r="K69" s="398"/>
@@ -13332,13 +13315,13 @@
         <v>8</v>
       </c>
       <c r="E70" s="229" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F70" s="369"/>
       <c r="G70" s="369"/>
       <c r="H70" s="370"/>
       <c r="I70" s="398" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J70" s="398"/>
       <c r="K70" s="398"/>
@@ -13402,13 +13385,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="229" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F71" s="369"/>
       <c r="G71" s="369"/>
       <c r="H71" s="370"/>
       <c r="I71" s="398" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J71" s="398"/>
       <c r="K71" s="398"/>
@@ -13471,13 +13454,13 @@
         <v>10</v>
       </c>
       <c r="E72" s="229" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F72" s="369"/>
       <c r="G72" s="369"/>
       <c r="H72" s="370"/>
       <c r="I72" s="398" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J72" s="398"/>
       <c r="K72" s="398"/>
@@ -13608,7 +13591,7 @@
     </row>
     <row r="74" spans="4:51" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D74" s="399" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E74" s="400"/>
       <c r="F74" s="400"/>
@@ -13667,13 +13650,13 @@
       <c r="G75" s="307"/>
       <c r="H75" s="387"/>
       <c r="I75" s="371" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J75" s="372"/>
       <c r="K75" s="372"/>
       <c r="L75" s="373"/>
       <c r="M75" s="394" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N75" s="395"/>
       <c r="O75" s="395"/>
@@ -13683,7 +13666,7 @@
       <c r="S75" s="395"/>
       <c r="T75" s="395"/>
       <c r="U75" s="396" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V75" s="397"/>
       <c r="W75" s="397"/>
@@ -13883,7 +13866,7 @@
       <c r="K78" s="372"/>
       <c r="L78" s="373"/>
       <c r="M78" s="347" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N78" s="348"/>
       <c r="O78" s="348"/>
@@ -13893,7 +13876,7 @@
       <c r="S78" s="348"/>
       <c r="T78" s="349"/>
       <c r="U78" s="229" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V78" s="369"/>
       <c r="W78" s="369"/>
@@ -13955,7 +13938,7 @@
       <c r="K79" s="372"/>
       <c r="L79" s="373"/>
       <c r="M79" s="347" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N79" s="348"/>
       <c r="O79" s="348"/>
@@ -13965,7 +13948,7 @@
       <c r="S79" s="348"/>
       <c r="T79" s="349"/>
       <c r="U79" s="229" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V79" s="369"/>
       <c r="W79" s="369"/>
@@ -14027,7 +14010,7 @@
       <c r="K80" s="389"/>
       <c r="L80" s="390"/>
       <c r="M80" s="347" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N80" s="348"/>
       <c r="O80" s="348"/>
@@ -14096,7 +14079,7 @@
       <c r="K81" s="392"/>
       <c r="L81" s="393"/>
       <c r="M81" s="347" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N81" s="348"/>
       <c r="O81" s="348"/>
@@ -14161,7 +14144,7 @@
       <c r="K82" s="372"/>
       <c r="L82" s="373"/>
       <c r="M82" s="347" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N82" s="348"/>
       <c r="O82" s="348"/>
@@ -14231,7 +14214,7 @@
       <c r="K83" s="372"/>
       <c r="L83" s="373"/>
       <c r="M83" s="347" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N83" s="348"/>
       <c r="O83" s="348"/>
@@ -14927,7 +14910,7 @@
         <v>4</v>
       </c>
       <c r="E100" s="358" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F100" s="359"/>
       <c r="G100" s="359"/>
@@ -14935,7 +14918,7 @@
       <c r="I100" s="359"/>
       <c r="J100" s="360"/>
       <c r="K100" s="229" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L100" s="369"/>
       <c r="M100" s="369"/>
@@ -14972,7 +14955,7 @@
         <v>5</v>
       </c>
       <c r="E101" s="358" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F101" s="359"/>
       <c r="G101" s="359"/>
@@ -14980,7 +14963,7 @@
       <c r="I101" s="359"/>
       <c r="J101" s="360"/>
       <c r="K101" s="358" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L101" s="359"/>
       <c r="M101" s="359"/>
@@ -14989,7 +14972,7 @@
       <c r="P101" s="359"/>
       <c r="Q101" s="360"/>
       <c r="R101" s="358" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S101" s="359"/>
       <c r="T101" s="359"/>
@@ -14999,7 +14982,7 @@
       <c r="X101" s="359"/>
       <c r="Y101" s="360"/>
       <c r="Z101" s="358" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AA101" s="361"/>
       <c r="AB101" s="361"/>
@@ -15433,14 +15416,14 @@
     <row r="120" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G120" s="115"/>
       <c r="H120" s="173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I120" s="116"/>
       <c r="J120" s="116"/>
       <c r="K120" s="116"/>
       <c r="L120" s="117"/>
       <c r="M120" s="196" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N120" s="116"/>
       <c r="O120" s="116"/>
@@ -15528,7 +15511,7 @@
     </row>
     <row r="122" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G122" s="329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H122" s="327"/>
       <c r="I122" s="327"/>
@@ -15621,14 +15604,14 @@
     <row r="124" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G124" s="115"/>
       <c r="H124" s="173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I124" s="116"/>
       <c r="J124" s="116"/>
       <c r="K124" s="116"/>
       <c r="L124" s="117"/>
       <c r="M124" s="196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N124" s="116"/>
       <c r="O124" s="116"/>
@@ -15927,7 +15910,7 @@
     <row r="133" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E133" s="127"/>
       <c r="F133" s="71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G133" s="71"/>
       <c r="AJ133" s="111"/>
@@ -16128,7 +16111,7 @@
     </row>
     <row r="145" spans="5:58" x14ac:dyDescent="0.15">
       <c r="AL145" s="104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="5:58" s="109" customFormat="1" x14ac:dyDescent="0.15">
@@ -16382,7 +16365,7 @@
     <row r="151" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G151" s="115"/>
       <c r="H151" s="173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I151" s="116"/>
       <c r="J151" s="116"/>
@@ -16417,10 +16400,10 @@
       <c r="AP151" s="116"/>
       <c r="AQ151" s="117"/>
       <c r="AR151" s="196" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS151" s="173" t="s">
         <v>350</v>
-      </c>
-      <c r="AS151" s="173" t="s">
-        <v>351</v>
       </c>
       <c r="AT151" s="116"/>
       <c r="AU151" s="173"/>
@@ -16483,7 +16466,7 @@
     </row>
     <row r="153" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G153" s="329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H153" s="327"/>
       <c r="I153" s="327"/>
@@ -16507,7 +16490,7 @@
       <c r="AJ153" s="111"/>
       <c r="AK153" s="111"/>
       <c r="AL153" s="329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM153" s="327"/>
       <c r="AN153" s="327"/>
@@ -16578,14 +16561,14 @@
     <row r="155" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G155" s="115"/>
       <c r="H155" s="173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I155" s="116"/>
       <c r="J155" s="116"/>
       <c r="K155" s="116"/>
       <c r="L155" s="117"/>
       <c r="M155" s="196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N155" s="116"/>
       <c r="O155" s="116"/>
@@ -16604,14 +16587,14 @@
       <c r="AK155" s="111"/>
       <c r="AL155" s="115"/>
       <c r="AM155" s="173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN155" s="116"/>
       <c r="AO155" s="116"/>
       <c r="AP155" s="116"/>
       <c r="AQ155" s="117"/>
       <c r="AR155" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AS155" s="116"/>
       <c r="AT155" s="116"/>
@@ -17220,7 +17203,7 @@
       <c r="X172" s="342"/>
       <c r="Y172" s="343"/>
       <c r="Z172" s="334" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="AA172" s="335"/>
       <c r="AB172" s="335"/>
@@ -17234,14 +17217,14 @@
       <c r="AJ172" s="126"/>
       <c r="BE172" s="111"/>
     </row>
-    <row r="173" spans="1:58" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:58" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="106"/>
       <c r="E173" s="107"/>
       <c r="F173" s="150">
         <v>3</v>
       </c>
       <c r="G173" s="337" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H173" s="305"/>
       <c r="I173" s="305"/>
@@ -17249,7 +17232,7 @@
       <c r="K173" s="305"/>
       <c r="L173" s="306"/>
       <c r="M173" s="338" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N173" s="339"/>
       <c r="O173" s="339"/>
@@ -17261,12 +17244,12 @@
       <c r="U173" s="339"/>
       <c r="V173" s="340"/>
       <c r="W173" s="341" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="X173" s="342"/>
       <c r="Y173" s="343"/>
       <c r="Z173" s="334" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AA173" s="335"/>
       <c r="AB173" s="335"/>
@@ -17280,14 +17263,14 @@
       <c r="AJ173" s="126"/>
       <c r="BE173" s="111"/>
     </row>
-    <row r="174" spans="1:58" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:58" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="106"/>
       <c r="E174" s="107"/>
       <c r="F174" s="150">
         <v>4</v>
       </c>
       <c r="G174" s="337" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H174" s="305"/>
       <c r="I174" s="305"/>
@@ -17295,7 +17278,7 @@
       <c r="K174" s="305"/>
       <c r="L174" s="306"/>
       <c r="M174" s="338" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N174" s="339"/>
       <c r="O174" s="339"/>
@@ -17307,12 +17290,12 @@
       <c r="U174" s="339"/>
       <c r="V174" s="340"/>
       <c r="W174" s="341" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="X174" s="342"/>
       <c r="Y174" s="343"/>
       <c r="Z174" s="334" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AA174" s="335"/>
       <c r="AB174" s="335"/>
@@ -17418,7 +17401,7 @@
     </row>
     <row r="180" spans="4:51" x14ac:dyDescent="0.15">
       <c r="F180" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="4:51" s="109" customFormat="1" x14ac:dyDescent="0.15">
@@ -17458,7 +17441,7 @@
     </row>
     <row r="183" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G183" s="169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H183" s="187"/>
       <c r="I183" s="187"/>
@@ -17467,7 +17450,7 @@
       <c r="L183" s="187"/>
       <c r="M183" s="187"/>
       <c r="N183" s="323" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O183" s="324"/>
       <c r="P183" s="324"/>
@@ -17479,7 +17462,7 @@
       <c r="V183" s="324"/>
       <c r="W183" s="325"/>
       <c r="X183" s="323" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y183" s="324"/>
       <c r="Z183" s="324"/>
@@ -17512,7 +17495,7 @@
       <c r="V184" s="324"/>
       <c r="W184" s="325"/>
       <c r="X184" s="323" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y184" s="324"/>
       <c r="Z184" s="324"/>
@@ -17533,7 +17516,7 @@
       <c r="L185" s="165"/>
       <c r="M185" s="165"/>
       <c r="N185" s="323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O185" s="324"/>
       <c r="P185" s="324"/>
@@ -17545,7 +17528,7 @@
       <c r="V185" s="324"/>
       <c r="W185" s="325"/>
       <c r="X185" s="323" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y185" s="324"/>
       <c r="Z185" s="324"/>
@@ -17566,7 +17549,7 @@
       <c r="L186" s="165"/>
       <c r="M186" s="165"/>
       <c r="N186" s="323" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O186" s="324"/>
       <c r="P186" s="324"/>
@@ -17599,7 +17582,7 @@
       <c r="L187" s="165"/>
       <c r="M187" s="165"/>
       <c r="N187" s="323" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O187" s="324"/>
       <c r="P187" s="324"/>
@@ -17611,7 +17594,7 @@
       <c r="V187" s="324"/>
       <c r="W187" s="325"/>
       <c r="X187" s="323" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y187" s="324"/>
       <c r="Z187" s="324"/>
@@ -17632,7 +17615,7 @@
       <c r="L188" s="165"/>
       <c r="M188" s="165"/>
       <c r="N188" s="323" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O188" s="324"/>
       <c r="P188" s="324"/>
@@ -17644,7 +17627,7 @@
       <c r="V188" s="324"/>
       <c r="W188" s="325"/>
       <c r="X188" s="323" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y188" s="324"/>
       <c r="Z188" s="324"/>
@@ -17677,7 +17660,7 @@
       <c r="V189" s="324"/>
       <c r="W189" s="325"/>
       <c r="X189" s="323" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y189" s="324"/>
       <c r="Z189" s="324"/>
@@ -17710,7 +17693,7 @@
       <c r="V190" s="324"/>
       <c r="W190" s="325"/>
       <c r="X190" s="323" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y190" s="324"/>
       <c r="Z190" s="324"/>
@@ -17724,7 +17707,7 @@
     </row>
     <row r="191" spans="4:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G191" s="232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H191" s="233"/>
       <c r="I191" s="233"/>
@@ -17745,7 +17728,7 @@
       <c r="V191" s="324"/>
       <c r="W191" s="325"/>
       <c r="X191" s="323" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y191" s="324"/>
       <c r="Z191" s="324"/>
@@ -17804,7 +17787,7 @@
     </row>
     <row r="193" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G193" s="329" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H193" s="327"/>
       <c r="I193" s="327"/>
@@ -17911,7 +17894,7 @@
     <row r="195" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G195" s="115"/>
       <c r="H195" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I195" s="116"/>
       <c r="J195" s="116"/>
@@ -18006,13 +17989,13 @@
       <c r="G197" s="115"/>
       <c r="H197" s="173"/>
       <c r="I197" s="196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J197" s="117"/>
       <c r="K197" s="116"/>
       <c r="L197" s="116"/>
       <c r="M197" s="173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N197" s="116"/>
       <c r="O197" s="116"/>
@@ -18062,20 +18045,20 @@
       <c r="G198" s="115"/>
       <c r="H198" s="173"/>
       <c r="I198" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="J198" s="116" t="s">
         <v>235</v>
-      </c>
-      <c r="J198" s="116" t="s">
-        <v>236</v>
       </c>
       <c r="K198" s="116"/>
       <c r="L198" s="117"/>
       <c r="M198" s="117"/>
       <c r="N198" s="116"/>
       <c r="O198" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="P198" s="173" t="s">
         <v>240</v>
-      </c>
-      <c r="P198" s="173" t="s">
-        <v>241</v>
       </c>
       <c r="Q198" s="116"/>
       <c r="R198" s="116"/>
@@ -18174,13 +18157,13 @@
       <c r="G200" s="115"/>
       <c r="H200" s="173"/>
       <c r="I200" s="196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J200" s="117"/>
       <c r="K200" s="116"/>
       <c r="L200" s="116"/>
       <c r="M200" s="173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N200" s="116"/>
       <c r="O200" s="116"/>
@@ -18230,20 +18213,20 @@
       <c r="G201" s="115"/>
       <c r="H201" s="173"/>
       <c r="I201" s="173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J201" s="173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K201" s="116"/>
       <c r="L201" s="117"/>
       <c r="M201" s="117"/>
       <c r="N201" s="116"/>
       <c r="O201" s="173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P201" s="173" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q201" s="116"/>
       <c r="R201" s="116"/>
@@ -18447,7 +18430,7 @@
     <row r="205" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G205" s="115"/>
       <c r="J205" s="173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K205" s="116"/>
       <c r="L205" s="116"/>
@@ -18467,7 +18450,7 @@
       <c r="Y205" s="116"/>
       <c r="Z205" s="125"/>
       <c r="AA205" s="197" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AC205" s="109"/>
       <c r="AD205" s="109"/>
@@ -18506,7 +18489,7 @@
       <c r="Y206" s="116"/>
       <c r="Z206" s="125"/>
       <c r="AA206" s="205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC206" s="109"/>
       <c r="AD206" s="109"/>
@@ -18540,10 +18523,10 @@
     <row r="207" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G207" s="115"/>
       <c r="H207" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J207" s="173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K207" s="116"/>
       <c r="L207" s="116"/>
@@ -18555,7 +18538,7 @@
       <c r="S207" s="116"/>
       <c r="T207" s="116"/>
       <c r="U207" s="173" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V207" s="116"/>
       <c r="W207" s="116"/>
@@ -18645,22 +18628,22 @@
     <row r="209" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G209" s="115"/>
       <c r="H209" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J209" s="173" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K209" s="116"/>
       <c r="L209" s="116"/>
       <c r="M209" s="116"/>
       <c r="N209" s="117"/>
       <c r="R209" s="196" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S209" s="116"/>
       <c r="T209" s="116"/>
       <c r="U209" s="173" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V209" s="116"/>
       <c r="W209" s="116"/>
@@ -18750,22 +18733,22 @@
     <row r="211" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G211" s="115"/>
       <c r="H211" s="104" t="s">
+        <v>247</v>
+      </c>
+      <c r="J211" s="173" t="s">
         <v>248</v>
-      </c>
-      <c r="J211" s="173" t="s">
-        <v>249</v>
       </c>
       <c r="K211" s="116"/>
       <c r="L211" s="116"/>
       <c r="M211" s="116"/>
       <c r="N211" s="117"/>
       <c r="R211" s="196" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S211" s="116"/>
       <c r="T211" s="116"/>
       <c r="U211" s="173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V211" s="116"/>
       <c r="W211" s="116"/>
@@ -18855,22 +18838,22 @@
     <row r="213" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G213" s="115"/>
       <c r="H213" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J213" s="173" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K213" s="116"/>
       <c r="L213" s="116"/>
       <c r="M213" s="116"/>
       <c r="N213" s="117"/>
       <c r="R213" s="196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S213" s="116"/>
       <c r="T213" s="116"/>
       <c r="U213" s="173" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V213" s="116"/>
       <c r="W213" s="116"/>
@@ -18959,10 +18942,10 @@
     <row r="215" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G215" s="115"/>
       <c r="H215" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J215" s="173" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K215" s="116"/>
       <c r="L215" s="117"/>
@@ -18971,12 +18954,12 @@
       <c r="O215" s="116"/>
       <c r="P215" s="173"/>
       <c r="R215" s="173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S215" s="173"/>
       <c r="T215" s="116"/>
       <c r="U215" s="173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V215" s="116"/>
       <c r="W215" s="116"/>
@@ -19068,22 +19051,22 @@
     <row r="217" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G217" s="115"/>
       <c r="H217" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J217" s="173" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K217" s="116"/>
       <c r="L217" s="116"/>
       <c r="M217" s="116"/>
       <c r="N217" s="117"/>
       <c r="R217" s="196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S217" s="116"/>
       <c r="T217" s="116"/>
       <c r="U217" s="173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V217" s="116"/>
       <c r="W217" s="116"/>
@@ -19172,10 +19155,10 @@
     <row r="219" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G219" s="115"/>
       <c r="H219" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J219" s="173" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K219" s="116"/>
       <c r="L219" s="117"/>
@@ -19184,12 +19167,12 @@
       <c r="O219" s="116"/>
       <c r="P219" s="173"/>
       <c r="R219" s="173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S219" s="173"/>
       <c r="T219" s="116"/>
       <c r="U219" s="173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V219" s="116"/>
       <c r="W219" s="116"/>
@@ -19281,22 +19264,22 @@
     <row r="221" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G221" s="115"/>
       <c r="H221" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J221" s="173" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K221" s="116"/>
       <c r="L221" s="116"/>
       <c r="M221" s="116"/>
       <c r="N221" s="117"/>
       <c r="R221" s="196" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S221" s="116"/>
       <c r="T221" s="116"/>
       <c r="U221" s="173" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V221" s="116"/>
       <c r="W221" s="116"/>
@@ -19385,10 +19368,10 @@
     <row r="223" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G223" s="115"/>
       <c r="H223" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J223" s="173" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K223" s="116"/>
       <c r="L223" s="117"/>
@@ -19397,12 +19380,12 @@
       <c r="O223" s="116"/>
       <c r="P223" s="173"/>
       <c r="R223" s="173" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S223" s="173"/>
       <c r="T223" s="116"/>
       <c r="U223" s="173" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V223" s="116"/>
       <c r="W223" s="116"/>
@@ -19494,22 +19477,22 @@
     <row r="225" spans="5:60" x14ac:dyDescent="0.15">
       <c r="G225" s="115"/>
       <c r="H225" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J225" s="173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K225" s="116"/>
       <c r="L225" s="116"/>
       <c r="M225" s="116"/>
       <c r="N225" s="117"/>
       <c r="R225" s="196" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S225" s="116"/>
       <c r="T225" s="116"/>
       <c r="U225" s="173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V225" s="116"/>
       <c r="W225" s="116"/>
@@ -19601,7 +19584,7 @@
     </row>
     <row r="227" spans="5:60" x14ac:dyDescent="0.15">
       <c r="G227" s="329" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H227" s="327"/>
       <c r="I227" s="327"/>
@@ -19708,12 +19691,12 @@
     <row r="229" spans="5:60" x14ac:dyDescent="0.15">
       <c r="G229" s="115"/>
       <c r="H229" s="173" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I229" s="116"/>
       <c r="J229" s="116"/>
       <c r="K229" s="173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L229" s="117"/>
       <c r="M229" s="117"/>
@@ -19900,7 +19883,7 @@
     <row r="233" spans="5:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E233" s="130"/>
       <c r="F233" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G233" s="167"/>
       <c r="H233" s="167"/>
@@ -20018,7 +20001,7 @@
     <row r="235" spans="5:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F235" s="130"/>
       <c r="G235" s="71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H235" s="127"/>
       <c r="I235" s="167"/>
@@ -20077,7 +20060,7 @@
     <row r="236" spans="5:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F236" s="130"/>
       <c r="G236" s="71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H236" s="167"/>
       <c r="I236" s="167"/>
@@ -20154,7 +20137,7 @@
     <row r="238" spans="5:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E238" s="130"/>
       <c r="F238" s="71" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G238" s="167"/>
       <c r="H238" s="167"/>
@@ -20230,7 +20213,7 @@
     <row r="240" spans="5:60" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F240" s="130"/>
       <c r="G240" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H240" s="167"/>
       <c r="I240" s="167"/>
@@ -20268,7 +20251,7 @@
     <row r="241" spans="4:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F241" s="130"/>
       <c r="G241" s="127" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H241" s="167"/>
       <c r="I241" s="167"/>
@@ -20376,7 +20359,7 @@
     </row>
     <row r="244" spans="4:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D244" s="155" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E244" s="167"/>
       <c r="F244" s="167"/>
@@ -20455,7 +20438,7 @@
     <row r="246" spans="4:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D246" s="130"/>
       <c r="E246" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F246" s="127"/>
       <c r="G246" s="127"/>
@@ -20496,7 +20479,7 @@
       <c r="D247" s="130"/>
       <c r="E247" s="127"/>
       <c r="F247" s="71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G247" s="127"/>
       <c r="H247" s="167"/>
@@ -20535,7 +20518,7 @@
       <c r="D248" s="130"/>
       <c r="E248" s="127"/>
       <c r="F248" s="71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G248" s="127"/>
       <c r="H248" s="167"/>
@@ -20573,7 +20556,7 @@
       <c r="D249" s="130"/>
       <c r="E249" s="167"/>
       <c r="F249" s="71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G249" s="167"/>
       <c r="H249" s="167"/>
@@ -20611,7 +20594,7 @@
       <c r="D250" s="130"/>
       <c r="E250" s="167"/>
       <c r="F250" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G250" s="167"/>
       <c r="H250" s="167"/>
@@ -20649,7 +20632,7 @@
       <c r="D251" s="130"/>
       <c r="E251" s="167"/>
       <c r="F251" s="71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G251" s="167"/>
       <c r="H251" s="167"/>
@@ -20721,7 +20704,7 @@
     </row>
     <row r="253" spans="4:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="206" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E253" s="167"/>
       <c r="F253" s="71"/>
@@ -20796,7 +20779,7 @@
     <row r="255" spans="4:39" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="130"/>
       <c r="E255" s="71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F255" s="109"/>
       <c r="G255" s="109"/>
@@ -21356,12 +21339,12 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="164" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21395,7 +21378,7 @@
     <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C36" s="165" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D36" s="137"/>
       <c r="E36" s="137"/>
@@ -21509,7 +21492,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="417" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F39" s="417"/>
       <c r="G39" s="417"/>
@@ -21520,12 +21503,12 @@
       <c r="L39" s="417"/>
       <c r="M39" s="417"/>
       <c r="N39" s="417" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O39" s="417"/>
       <c r="P39" s="417"/>
       <c r="Q39" s="459" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R39" s="428"/>
       <c r="S39" s="428"/>
@@ -21535,7 +21518,7 @@
         <v>82</v>
       </c>
       <c r="W39" s="417" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X39" s="417"/>
       <c r="Y39" s="417"/>
@@ -21579,7 +21562,7 @@
     </row>
     <row r="42" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C42" s="104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AK42" s="92"/>
       <c r="AL42" s="92"/>
@@ -21771,7 +21754,7 @@
     </row>
     <row r="47" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D47" s="399" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E47" s="400"/>
       <c r="F47" s="400"/>
@@ -21973,7 +21956,7 @@
       <c r="K50" s="372"/>
       <c r="L50" s="373"/>
       <c r="M50" s="394" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N50" s="395"/>
       <c r="O50" s="395"/>
@@ -22045,7 +22028,7 @@
       <c r="K51" s="372"/>
       <c r="L51" s="373"/>
       <c r="M51" s="347" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N51" s="348"/>
       <c r="O51" s="348"/>
@@ -22117,7 +22100,7 @@
       <c r="K52" s="372"/>
       <c r="L52" s="373"/>
       <c r="M52" s="347" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N52" s="348"/>
       <c r="O52" s="348"/>
@@ -22177,7 +22160,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="232" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F53" s="307"/>
       <c r="G53" s="307"/>
@@ -22189,7 +22172,7 @@
       <c r="K53" s="392"/>
       <c r="L53" s="393"/>
       <c r="M53" s="347" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N53" s="348"/>
       <c r="O53" s="348"/>
@@ -22199,7 +22182,7 @@
       <c r="S53" s="348"/>
       <c r="T53" s="349"/>
       <c r="U53" s="229" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V53" s="369"/>
       <c r="W53" s="369"/>
@@ -22242,7 +22225,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="232" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F54" s="307"/>
       <c r="G54" s="307"/>
@@ -22254,7 +22237,7 @@
       <c r="K54" s="392"/>
       <c r="L54" s="393"/>
       <c r="M54" s="347" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N54" s="348"/>
       <c r="O54" s="348"/>
@@ -22319,7 +22302,7 @@
       <c r="K55" s="389"/>
       <c r="L55" s="390"/>
       <c r="M55" s="347" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N55" s="348"/>
       <c r="O55" s="348"/>
@@ -22376,7 +22359,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="232" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F56" s="307"/>
       <c r="G56" s="307"/>
@@ -22388,7 +22371,7 @@
       <c r="K56" s="389"/>
       <c r="L56" s="390"/>
       <c r="M56" s="347" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N56" s="348"/>
       <c r="O56" s="348"/>
@@ -22457,7 +22440,7 @@
       <c r="K57" s="372"/>
       <c r="L57" s="373"/>
       <c r="M57" s="347" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N57" s="348"/>
       <c r="O57" s="348"/>
@@ -22527,7 +22510,7 @@
       <c r="K58" s="372"/>
       <c r="L58" s="373"/>
       <c r="M58" s="347" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N58" s="348"/>
       <c r="O58" s="348"/>
@@ -22596,7 +22579,7 @@
       <c r="K59" s="389"/>
       <c r="L59" s="390"/>
       <c r="M59" s="347" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N59" s="348"/>
       <c r="O59" s="348"/>
@@ -22694,7 +22677,7 @@
     </row>
     <row r="62" spans="3:51" x14ac:dyDescent="0.15">
       <c r="C62" s="104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D62" s="130"/>
       <c r="E62" s="131"/>
@@ -23094,7 +23077,7 @@
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C70" s="104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AS70" s="106"/>
       <c r="AT70" s="106"/>
@@ -23174,7 +23157,7 @@
       <c r="P73" s="397"/>
       <c r="Q73" s="397"/>
       <c r="R73" s="396" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S73" s="397"/>
       <c r="T73" s="397"/>
@@ -23202,7 +23185,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="448" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F74" s="449"/>
       <c r="G74" s="449"/>
@@ -23210,7 +23193,7 @@
       <c r="I74" s="449"/>
       <c r="J74" s="449"/>
       <c r="K74" s="396" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L74" s="397"/>
       <c r="M74" s="397"/>
@@ -23229,7 +23212,7 @@
       <c r="X74" s="397"/>
       <c r="Y74" s="397"/>
       <c r="Z74" s="448" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AA74" s="449"/>
       <c r="AB74" s="449"/>
@@ -23247,7 +23230,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="446" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F75" s="447"/>
       <c r="G75" s="447"/>
@@ -23255,7 +23238,7 @@
       <c r="I75" s="447"/>
       <c r="J75" s="447"/>
       <c r="K75" s="394" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L75" s="395"/>
       <c r="M75" s="395"/>
@@ -23264,7 +23247,7 @@
       <c r="P75" s="395"/>
       <c r="Q75" s="395"/>
       <c r="R75" s="394" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S75" s="395"/>
       <c r="T75" s="395"/>
@@ -23274,7 +23257,7 @@
       <c r="X75" s="395"/>
       <c r="Y75" s="395"/>
       <c r="Z75" s="394" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA75" s="395"/>
       <c r="AB75" s="395"/>
@@ -23344,7 +23327,7 @@
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.15">
       <c r="C77" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D77" s="107"/>
       <c r="E77" s="107"/>
@@ -23371,7 +23354,7 @@
     <row r="78" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="106"/>
       <c r="D78" s="155" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E78" s="107"/>
       <c r="AP78" s="106"/>
@@ -23423,7 +23406,7 @@
       <c r="D81" s="107"/>
       <c r="E81" s="107"/>
       <c r="F81" s="105" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AP81" s="29"/>
     </row>
@@ -23629,7 +23612,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="105" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G86" s="154"/>
       <c r="H86" s="154"/>
@@ -23669,7 +23652,7 @@
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
       <c r="F87" s="105" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G87" s="154"/>
       <c r="H87" s="154"/>
@@ -23715,7 +23698,7 @@
     </row>
     <row r="90" spans="1:57" x14ac:dyDescent="0.15">
       <c r="F90" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:57" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23756,7 +23739,7 @@
     </row>
     <row r="93" spans="1:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G93" s="169" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H93" s="187"/>
       <c r="I93" s="187"/>
@@ -23765,7 +23748,7 @@
       <c r="L93" s="187"/>
       <c r="M93" s="187"/>
       <c r="N93" s="323" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O93" s="324"/>
       <c r="P93" s="324"/>
@@ -23777,7 +23760,7 @@
       <c r="V93" s="324"/>
       <c r="W93" s="325"/>
       <c r="X93" s="323" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y93" s="324"/>
       <c r="Z93" s="324"/>
@@ -23810,7 +23793,7 @@
       <c r="V94" s="324"/>
       <c r="W94" s="325"/>
       <c r="X94" s="323" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y94" s="324"/>
       <c r="Z94" s="324"/>
@@ -23831,7 +23814,7 @@
       <c r="L95" s="165"/>
       <c r="M95" s="165"/>
       <c r="N95" s="323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O95" s="324"/>
       <c r="P95" s="324"/>
@@ -23843,7 +23826,7 @@
       <c r="V95" s="324"/>
       <c r="W95" s="325"/>
       <c r="X95" s="323" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y95" s="324"/>
       <c r="Z95" s="324"/>
@@ -23864,7 +23847,7 @@
       <c r="L96" s="165"/>
       <c r="M96" s="165"/>
       <c r="N96" s="323" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O96" s="324"/>
       <c r="P96" s="324"/>
@@ -23897,7 +23880,7 @@
       <c r="L97" s="165"/>
       <c r="M97" s="165"/>
       <c r="N97" s="323" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O97" s="324"/>
       <c r="P97" s="324"/>
@@ -23909,7 +23892,7 @@
       <c r="V97" s="324"/>
       <c r="W97" s="325"/>
       <c r="X97" s="323" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y97" s="324"/>
       <c r="Z97" s="324"/>
@@ -23930,7 +23913,7 @@
       <c r="L98" s="165"/>
       <c r="M98" s="165"/>
       <c r="N98" s="323" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O98" s="324"/>
       <c r="P98" s="324"/>
@@ -23942,7 +23925,7 @@
       <c r="V98" s="324"/>
       <c r="W98" s="325"/>
       <c r="X98" s="323" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y98" s="324"/>
       <c r="Z98" s="324"/>
@@ -23963,7 +23946,7 @@
       <c r="L99" s="165"/>
       <c r="M99" s="165"/>
       <c r="N99" s="323" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O99" s="324"/>
       <c r="P99" s="324"/>
@@ -23975,7 +23958,7 @@
       <c r="V99" s="324"/>
       <c r="W99" s="325"/>
       <c r="X99" s="323" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y99" s="324"/>
       <c r="Z99" s="324"/>
@@ -23996,7 +23979,7 @@
       <c r="L100" s="165"/>
       <c r="M100" s="165"/>
       <c r="N100" s="323" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O100" s="324"/>
       <c r="P100" s="324"/>
@@ -24008,7 +23991,7 @@
       <c r="V100" s="324"/>
       <c r="W100" s="325"/>
       <c r="X100" s="323" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y100" s="324"/>
       <c r="Z100" s="324"/>
@@ -24041,7 +24024,7 @@
       <c r="V101" s="324"/>
       <c r="W101" s="325"/>
       <c r="X101" s="323" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y101" s="324"/>
       <c r="Z101" s="324"/>
@@ -24074,7 +24057,7 @@
       <c r="V102" s="324"/>
       <c r="W102" s="325"/>
       <c r="X102" s="323" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Y102" s="324"/>
       <c r="Z102" s="324"/>
@@ -24121,7 +24104,7 @@
     </row>
     <row r="104" spans="7:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G104" s="232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H104" s="233"/>
       <c r="I104" s="233"/>
@@ -24142,7 +24125,7 @@
       <c r="V104" s="324"/>
       <c r="W104" s="325"/>
       <c r="X104" s="323" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Y104" s="324"/>
       <c r="Z104" s="324"/>
@@ -24201,7 +24184,7 @@
     </row>
     <row r="106" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G106" s="329" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H106" s="327"/>
       <c r="I106" s="327"/>
@@ -24308,7 +24291,7 @@
     <row r="108" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G108" s="115"/>
       <c r="H108" s="173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I108" s="116"/>
       <c r="J108" s="116"/>
@@ -24403,13 +24386,13 @@
       <c r="G110" s="115"/>
       <c r="H110" s="173"/>
       <c r="I110" s="196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J110" s="117"/>
       <c r="K110" s="116"/>
       <c r="L110" s="116"/>
       <c r="M110" s="173" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N110" s="116"/>
       <c r="O110" s="116"/>
@@ -24459,20 +24442,20 @@
       <c r="G111" s="115"/>
       <c r="H111" s="173"/>
       <c r="I111" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="J111" s="116" t="s">
         <v>235</v>
-      </c>
-      <c r="J111" s="116" t="s">
-        <v>236</v>
       </c>
       <c r="K111" s="116"/>
       <c r="L111" s="117"/>
       <c r="M111" s="117"/>
       <c r="N111" s="116"/>
       <c r="O111" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="P111" s="173" t="s">
         <v>240</v>
-      </c>
-      <c r="P111" s="173" t="s">
-        <v>241</v>
       </c>
       <c r="Q111" s="116"/>
       <c r="R111" s="116"/>
@@ -24571,13 +24554,13 @@
       <c r="G113" s="115"/>
       <c r="H113" s="173"/>
       <c r="I113" s="196" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J113" s="117"/>
       <c r="K113" s="116"/>
       <c r="L113" s="116"/>
       <c r="M113" s="173" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N113" s="116"/>
       <c r="O113" s="116"/>
@@ -24627,20 +24610,20 @@
       <c r="G114" s="115"/>
       <c r="H114" s="173"/>
       <c r="I114" s="173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J114" s="173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K114" s="116"/>
       <c r="L114" s="117"/>
       <c r="M114" s="117"/>
       <c r="N114" s="116"/>
       <c r="O114" s="173" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P114" s="173" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q114" s="116"/>
       <c r="R114" s="116"/>
@@ -24844,7 +24827,7 @@
     <row r="118" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G118" s="115"/>
       <c r="J118" s="173" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K118" s="116"/>
       <c r="L118" s="116"/>
@@ -24856,7 +24839,7 @@
       <c r="S118" s="116"/>
       <c r="T118" s="116"/>
       <c r="U118" s="173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V118" s="116"/>
       <c r="W118" s="116"/>
@@ -24992,7 +24975,7 @@
     </row>
     <row r="121" spans="6:58" x14ac:dyDescent="0.15">
       <c r="F121" s="104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G121" s="116"/>
       <c r="H121" s="116"/>
@@ -25065,7 +25048,7 @@
     </row>
     <row r="123" spans="6:58" x14ac:dyDescent="0.15">
       <c r="F123" s="104" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G123" s="116"/>
       <c r="H123" s="116"/>
@@ -25194,7 +25177,7 @@
     </row>
     <row r="126" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G126" s="169" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H126" s="187"/>
       <c r="I126" s="187"/>
@@ -25203,7 +25186,7 @@
       <c r="L126" s="187"/>
       <c r="M126" s="187"/>
       <c r="N126" s="323" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O126" s="324"/>
       <c r="P126" s="324"/>
@@ -25215,7 +25198,7 @@
       <c r="V126" s="324"/>
       <c r="W126" s="325"/>
       <c r="X126" s="323" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y126" s="324"/>
       <c r="Z126" s="324"/>
@@ -25229,7 +25212,7 @@
     </row>
     <row r="127" spans="6:58" x14ac:dyDescent="0.15">
       <c r="G127" s="329" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H127" s="327"/>
       <c r="I127" s="327"/>
@@ -25337,17 +25320,17 @@
       <c r="G129" s="115"/>
       <c r="H129" s="173"/>
       <c r="I129" s="173" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J129" s="116"/>
       <c r="K129" s="116"/>
       <c r="R129" s="173" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S129" s="116"/>
       <c r="T129" s="116"/>
       <c r="U129" s="173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V129" s="118"/>
       <c r="W129" s="116"/>
@@ -25434,10 +25417,10 @@
     <row r="131" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G131" s="115"/>
       <c r="H131" s="173" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I131" s="173" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J131" s="117"/>
       <c r="K131" s="116"/>
@@ -25448,12 +25431,12 @@
       <c r="P131" s="173"/>
       <c r="Q131" s="116"/>
       <c r="R131" s="173" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S131" s="116"/>
       <c r="T131" s="116"/>
       <c r="U131" s="173" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V131" s="118"/>
       <c r="W131" s="116"/>
@@ -25597,7 +25580,7 @@
     </row>
     <row r="134" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G134" s="173" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H134" s="116"/>
       <c r="I134" s="116"/>
@@ -25740,7 +25723,7 @@
     <row r="137" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E137" s="130"/>
       <c r="F137" s="71" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G137" s="167"/>
       <c r="H137" s="167"/>
@@ -25810,7 +25793,7 @@
     <row r="139" spans="5:58" x14ac:dyDescent="0.15">
       <c r="F139" s="130"/>
       <c r="G139" s="71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H139" s="127"/>
       <c r="I139" s="167"/>
@@ -25878,7 +25861,7 @@
     <row r="141" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E141" s="130"/>
       <c r="F141" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G141" s="167"/>
       <c r="H141" s="167"/>
@@ -25948,7 +25931,7 @@
     <row r="143" spans="5:58" x14ac:dyDescent="0.15">
       <c r="F143" s="130"/>
       <c r="G143" s="71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H143" s="167"/>
       <c r="I143" s="167"/>
@@ -26009,7 +25992,7 @@
     <row r="145" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E145" s="130"/>
       <c r="F145" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G145" s="167"/>
       <c r="H145" s="167"/>
@@ -26079,7 +26062,7 @@
     <row r="147" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F147" s="130"/>
       <c r="G147" s="71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H147" s="167"/>
       <c r="I147" s="167"/>
@@ -26140,7 +26123,7 @@
     <row r="149" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="106"/>
       <c r="D149" s="155" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E149" s="107"/>
       <c r="AP149" s="106"/>
@@ -26186,7 +26169,7 @@
     </row>
     <row r="151" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E151" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G151" s="108"/>
       <c r="AJ151" s="111"/>
@@ -26215,7 +26198,7 @@
     </row>
     <row r="152" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E152" s="71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F152" s="128"/>
       <c r="G152" s="71"/>
@@ -26245,7 +26228,7 @@
     </row>
     <row r="155" spans="3:58" x14ac:dyDescent="0.15">
       <c r="D155" s="104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="156" spans="3:58" x14ac:dyDescent="0.15">
@@ -26253,12 +26236,12 @@
     </row>
     <row r="157" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E157" s="104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E158" s="104" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -26588,7 +26571,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B5" s="211" t="s">
         <v>115</v>
@@ -26599,7 +26582,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>74</v>
@@ -26607,7 +26590,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>75</v>
@@ -26625,27 +26608,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="79" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
